--- a/Review files/qald9_train_set_review_table.xlsx
+++ b/Review files/qald9_train_set_review_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javi\Desktop\Work\QALD9ES\Repo\QALD9-ES\Review files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CDBA4D-E156-4C1F-8B78-D1D6F7174FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B565CC-14B0-47FF-BDA2-FC2CA68CA151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="2176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="2176">
   <si>
     <t>id</t>
   </si>
@@ -6997,10 +6997,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
+      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8104,6 +8104,9 @@
       <c r="K39" t="s">
         <v>2010</v>
       </c>
+      <c r="N39" t="s">
+        <v>2010</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -8234,6 +8237,9 @@
       <c r="K44" t="s">
         <v>2010</v>
       </c>
+      <c r="N44" t="s">
+        <v>2010</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -8260,6 +8266,9 @@
       <c r="K45" t="s">
         <v>2010</v>
       </c>
+      <c r="N45" t="s">
+        <v>2010</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -11144,9 +11153,10 @@
       <c r="A149" t="s">
         <v>161</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>569</v>
       </c>
+      <c r="C149" s="2"/>
       <c r="D149" t="s">
         <v>2172</v>
       </c>
@@ -15539,6 +15549,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N412">
+    <sortCondition ref="A2:A412"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Review files/qald9_train_set_review_table.xlsx
+++ b/Review files/qald9_train_set_review_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javi\Desktop\Work\QALD9ES\Repo\QALD9-ES\Review files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B565CC-14B0-47FF-BDA2-FC2CA68CA151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6875F85C-2FBC-4EAF-B968-D756B159CB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="2176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="2233">
   <si>
     <t>id</t>
   </si>
@@ -6566,6 +6566,177 @@
   </si>
   <si>
     <t>organizaciones, fundadas, 1930</t>
+  </si>
+  <si>
+    <t>¿Cuál es el nombre de nacimiento de Angela Merkel?</t>
+  </si>
+  <si>
+    <t>nombre de nacimiento, Angela Merkel</t>
+  </si>
+  <si>
+    <t>Heckler &amp; Koch, crearon, armas</t>
+  </si>
+  <si>
+    <t>casados, Tom Cruise</t>
+  </si>
+  <si>
+    <t>¿Cuál es la ciudad más pequeña de Alemania según su área?</t>
+  </si>
+  <si>
+    <t>más pequeña ,  ciudad ,  Alemania, área</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los episodios de la primera temporada de la serie de HBO Los Sopranos?</t>
+  </si>
+  <si>
+    <t>¿Qué significa ICRO?</t>
+  </si>
+  <si>
+    <t>ICRO, significado</t>
+  </si>
+  <si>
+    <t>nueve serie, Battlestar-Galactica, más, episodios, anterior</t>
+  </si>
+  <si>
+    <t>serie televisiva, HBO, Los Sopranos, primera temporada, episodios</t>
+  </si>
+  <si>
+    <t>¿Qué películas fueron producidas por Hal Roach?</t>
+  </si>
+  <si>
+    <t>película, productor, Hal Roach</t>
+  </si>
+  <si>
+    <t>¿Quién interpretó al agente Smith en Matrix?</t>
+  </si>
+  <si>
+    <t>partidos Griegos, a favor, Europa</t>
+  </si>
+  <si>
+    <t>¿Qué líderes de banda tocan la trompeta?</t>
+  </si>
+  <si>
+    <t>líder de banda, tocar, trompeta</t>
+  </si>
+  <si>
+    <t>montaña, segunda más alta</t>
+  </si>
+  <si>
+    <t>¿Es la cuidad más grande de Egipto su capital?</t>
+  </si>
+  <si>
+    <t>¿Qué cohetes fueron lanzados desde Baikonur?</t>
+  </si>
+  <si>
+    <t>¿Qué jugadores de ajedrez murieron en el mismo lugar donde nacieron?</t>
+  </si>
+  <si>
+    <t>¿En qué películas aparece Tom Cruise?</t>
+  </si>
+  <si>
+    <t>¿En qué estado americano se encuentra Fort Knox?</t>
+  </si>
+  <si>
+    <t>¿Qué ciudades de New Jersey tienen más de 100000 habitantes?</t>
+  </si>
+  <si>
+    <t>Dame todos los lados B de los Ramones.</t>
+  </si>
+  <si>
+    <t>Ramones, lado B</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los 7 reyes de Roma?</t>
+  </si>
+  <si>
+    <t>reyes, Roma</t>
+  </si>
+  <si>
+    <t>¿Qué personas nacieron en Viena y murieron en Berlín?</t>
+  </si>
+  <si>
+    <t>personas, nacimiento, Viena, muerte, Berlin</t>
+  </si>
+  <si>
+    <t>¿Qué cervecerías hay en Australia?</t>
+  </si>
+  <si>
+    <t>¿Qué películas producidas por Steven Spielberg tienen un presupuesto de al menos 80 millones de dólares?</t>
+  </si>
+  <si>
+    <t>películas, productor, Steven Spielberg, presupuesto, al menos 80 milliones de dólares</t>
+  </si>
+  <si>
+    <t>¿Qué clubes de fútbol hay en España?</t>
+  </si>
+  <si>
+    <t>¿Quién ha producido películas en las que actúa Natalie Portman?</t>
+  </si>
+  <si>
+    <t>productor, películas, actúa, Natalie Portman</t>
+  </si>
+  <si>
+    <t>Dame todos los tipos de pastor alemán.</t>
+  </si>
+  <si>
+    <t>tipos, pastor alemán</t>
+  </si>
+  <si>
+    <t>¿Quién es el jugador más pesado del los Chicago Bulls?</t>
+  </si>
+  <si>
+    <t>jugador, más, pesado, Chicago Bulls</t>
+  </si>
+  <si>
+    <t>país, más grande, mundo</t>
+  </si>
+  <si>
+    <t>¿Cuál es la ciudad más grande de los Estados Unidos de América?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">más grande ,  ciudad ,  Estados Unidas de América </t>
+  </si>
+  <si>
+    <t>¿Cuál fue el papa que fundó la televisión del Vaticano?</t>
+  </si>
+  <si>
+    <t>papa, fundó, televisión del vaticano</t>
+  </si>
+  <si>
+    <t>descubrió, Ceres</t>
+  </si>
+  <si>
+    <t>¿Cuál es el alma mater del canciller de Alemania Angela Merkel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alma mater, Angela Merkel </t>
+  </si>
+  <si>
+    <t>¿Quién escribió el libro Los Pilares de la Tierra?</t>
+  </si>
+  <si>
+    <t>escritor, libro, Los Pilares de la Tierra</t>
+  </si>
+  <si>
+    <t>¿En qué aeropuertos atiende Yeti Airlines?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el lugar de nacimiento de Goethe?</t>
+  </si>
+  <si>
+    <t>Goethe, lugar, nacimiento</t>
+  </si>
+  <si>
+    <t>¿Ocurrió la crisis de los misiles en Cuba antes que la invasión de Bahía de los Cochinos?</t>
+  </si>
+  <si>
+    <t>crisis de los misiles en cuba, antes,  invasión de bahía de cochinos</t>
+  </si>
+  <si>
+    <t>¿Qué ingredientes se necesitan para hacer una tarta de zanahorias?</t>
+  </si>
+  <si>
+    <t>ingredientes, tarta de zanahorias</t>
   </si>
 </sst>
 </file>
@@ -6636,13 +6807,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6998,9 +7170,9 @@
   <dimension ref="A1:N409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
+      <selection pane="bottomLeft" activeCell="B202" sqref="A202:B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11238,14 +11410,26 @@
       <c r="B152" t="s">
         <v>572</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="2" t="s">
         <v>976</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>2176</v>
       </c>
       <c r="E152" t="s">
         <v>1359</v>
       </c>
       <c r="F152" t="s">
         <v>1756</v>
+      </c>
+      <c r="G152" t="s">
+        <v>2177</v>
+      </c>
+      <c r="K152" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M152" t="s">
+        <v>2010</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -11258,11 +11442,23 @@
       <c r="C153" t="s">
         <v>977</v>
       </c>
+      <c r="D153" t="s">
+        <v>977</v>
+      </c>
       <c r="E153" t="s">
         <v>1360</v>
       </c>
       <c r="F153" t="s">
         <v>1757</v>
+      </c>
+      <c r="G153" t="s">
+        <v>2179</v>
+      </c>
+      <c r="K153" t="s">
+        <v>2010</v>
+      </c>
+      <c r="N153" t="s">
+        <v>2010</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -11275,11 +11471,23 @@
       <c r="C154" t="s">
         <v>978</v>
       </c>
+      <c r="D154" t="s">
+        <v>978</v>
+      </c>
       <c r="E154" t="s">
         <v>1361</v>
       </c>
       <c r="F154" t="s">
         <v>1627</v>
+      </c>
+      <c r="G154" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K154" t="s">
+        <v>2010</v>
+      </c>
+      <c r="N154" t="s">
+        <v>2010</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -11292,11 +11500,23 @@
       <c r="C155" t="s">
         <v>979</v>
       </c>
+      <c r="D155" s="4" t="s">
+        <v>2180</v>
+      </c>
       <c r="E155" t="s">
         <v>1362</v>
       </c>
       <c r="F155" t="s">
         <v>1758</v>
+      </c>
+      <c r="G155" t="s">
+        <v>2181</v>
+      </c>
+      <c r="J155" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K155" t="s">
+        <v>2010</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -11309,11 +11529,20 @@
       <c r="C156" t="s">
         <v>980</v>
       </c>
+      <c r="D156" t="s">
+        <v>980</v>
+      </c>
       <c r="E156" t="s">
         <v>1363</v>
       </c>
       <c r="F156" t="s">
         <v>1759</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1759</v>
+      </c>
+      <c r="N156" t="s">
+        <v>2010</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -11326,11 +11555,20 @@
       <c r="C157" t="s">
         <v>981</v>
       </c>
+      <c r="D157" t="s">
+        <v>981</v>
+      </c>
       <c r="E157" t="s">
         <v>1364</v>
       </c>
       <c r="F157" t="s">
         <v>1760</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1760</v>
+      </c>
+      <c r="N157" t="s">
+        <v>2010</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -11343,11 +11581,20 @@
       <c r="C158" t="s">
         <v>982</v>
       </c>
+      <c r="D158" t="s">
+        <v>982</v>
+      </c>
       <c r="E158" t="s">
         <v>1365</v>
       </c>
       <c r="F158" t="s">
         <v>1761</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1761</v>
+      </c>
+      <c r="N158" t="s">
+        <v>2010</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -11360,11 +11607,23 @@
       <c r="C159" t="s">
         <v>983</v>
       </c>
+      <c r="D159" t="s">
+        <v>2182</v>
+      </c>
       <c r="E159" t="s">
         <v>1366</v>
       </c>
       <c r="F159" t="s">
         <v>1762</v>
+      </c>
+      <c r="G159" t="s">
+        <v>2186</v>
+      </c>
+      <c r="H159" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K159" t="s">
+        <v>2010</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -11377,14 +11636,26 @@
       <c r="C160" t="s">
         <v>984</v>
       </c>
+      <c r="D160" t="s">
+        <v>2183</v>
+      </c>
       <c r="E160" t="s">
         <v>1367</v>
       </c>
       <c r="F160" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
+        <v>2184</v>
+      </c>
+      <c r="K160" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M160" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -11394,14 +11665,26 @@
       <c r="C161" t="s">
         <v>985</v>
       </c>
+      <c r="D161" t="s">
+        <v>985</v>
+      </c>
       <c r="E161" t="s">
         <v>1368</v>
       </c>
       <c r="F161" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" t="s">
+        <v>2185</v>
+      </c>
+      <c r="K161" t="s">
+        <v>2010</v>
+      </c>
+      <c r="N161" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -11411,14 +11694,26 @@
       <c r="C162" t="s">
         <v>986</v>
       </c>
+      <c r="D162" t="s">
+        <v>2187</v>
+      </c>
       <c r="E162" t="s">
         <v>1369</v>
       </c>
       <c r="F162" t="s">
         <v>1765</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" t="s">
+        <v>2188</v>
+      </c>
+      <c r="K162" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M162" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -11428,14 +11723,26 @@
       <c r="C163" t="s">
         <v>987</v>
       </c>
+      <c r="D163" t="s">
+        <v>2189</v>
+      </c>
       <c r="E163" t="s">
         <v>1370</v>
       </c>
       <c r="F163" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" t="s">
+        <v>1766</v>
+      </c>
+      <c r="L163" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M163" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -11445,14 +11752,26 @@
       <c r="C164" t="s">
         <v>988</v>
       </c>
+      <c r="D164" t="s">
+        <v>988</v>
+      </c>
       <c r="E164" t="s">
         <v>1371</v>
       </c>
       <c r="F164" t="s">
         <v>1767</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" t="s">
+        <v>2190</v>
+      </c>
+      <c r="K164" t="s">
+        <v>2010</v>
+      </c>
+      <c r="N164" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -11462,14 +11781,26 @@
       <c r="C165" t="s">
         <v>989</v>
       </c>
+      <c r="D165" t="s">
+        <v>2191</v>
+      </c>
       <c r="E165" t="s">
         <v>1372</v>
       </c>
       <c r="F165" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" t="s">
+        <v>2192</v>
+      </c>
+      <c r="K165" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M165" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -11479,14 +11810,26 @@
       <c r="C166" t="s">
         <v>990</v>
       </c>
+      <c r="D166" t="s">
+        <v>990</v>
+      </c>
       <c r="E166" t="s">
         <v>1373</v>
       </c>
       <c r="F166" t="s">
         <v>1769</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" t="s">
+        <v>2193</v>
+      </c>
+      <c r="K166" t="s">
+        <v>2010</v>
+      </c>
+      <c r="N166" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -11496,14 +11839,26 @@
       <c r="C167" t="s">
         <v>991</v>
       </c>
+      <c r="D167" t="s">
+        <v>2194</v>
+      </c>
       <c r="E167" t="s">
         <v>1374</v>
       </c>
       <c r="F167" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H167" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M167" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -11513,14 +11868,26 @@
       <c r="C168" t="s">
         <v>992</v>
       </c>
+      <c r="D168" t="s">
+        <v>2195</v>
+      </c>
       <c r="E168" t="s">
         <v>1375</v>
       </c>
       <c r="F168" t="s">
         <v>1771</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I168" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M168" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -11530,14 +11897,23 @@
       <c r="C169" t="s">
         <v>993</v>
       </c>
+      <c r="D169" t="s">
+        <v>993</v>
+      </c>
       <c r="E169" t="s">
         <v>1376</v>
       </c>
       <c r="F169" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" t="s">
+        <v>1772</v>
+      </c>
+      <c r="N169" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -11547,14 +11923,23 @@
       <c r="C170" t="s">
         <v>994</v>
       </c>
+      <c r="D170" t="s">
+        <v>2196</v>
+      </c>
       <c r="E170" t="s">
         <v>1377</v>
       </c>
       <c r="F170" t="s">
         <v>1773</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>1773</v>
+      </c>
+      <c r="M170" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -11564,14 +11949,23 @@
       <c r="C171" t="s">
         <v>995</v>
       </c>
+      <c r="D171" t="s">
+        <v>995</v>
+      </c>
       <c r="E171" t="s">
         <v>1378</v>
       </c>
       <c r="F171" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" t="s">
+        <v>1774</v>
+      </c>
+      <c r="N171" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -11581,14 +11975,23 @@
       <c r="C172" t="s">
         <v>996</v>
       </c>
+      <c r="D172" t="s">
+        <v>2197</v>
+      </c>
       <c r="E172" t="s">
         <v>1379</v>
       </c>
       <c r="F172" t="s">
         <v>1775</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" t="s">
+        <v>1775</v>
+      </c>
+      <c r="M172" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -11598,14 +12001,23 @@
       <c r="C173" t="s">
         <v>997</v>
       </c>
+      <c r="D173" t="s">
+        <v>2198</v>
+      </c>
       <c r="E173" t="s">
         <v>1380</v>
       </c>
       <c r="F173" t="s">
         <v>1776</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H173" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -11615,14 +12027,23 @@
       <c r="C174" t="s">
         <v>998</v>
       </c>
+      <c r="D174" t="s">
+        <v>2199</v>
+      </c>
       <c r="E174" t="s">
         <v>1381</v>
       </c>
       <c r="F174" t="s">
         <v>1777</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" t="s">
+        <v>1777</v>
+      </c>
+      <c r="M174" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -11632,14 +12053,23 @@
       <c r="C175" t="s">
         <v>999</v>
       </c>
+      <c r="D175" t="s">
+        <v>999</v>
+      </c>
       <c r="E175" t="s">
         <v>1382</v>
       </c>
       <c r="F175" t="s">
         <v>1778</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" t="s">
+        <v>1778</v>
+      </c>
+      <c r="N175" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -11649,14 +12079,23 @@
       <c r="C176" t="s">
         <v>1000</v>
       </c>
+      <c r="D176" t="s">
+        <v>2200</v>
+      </c>
       <c r="E176" t="s">
         <v>1383</v>
       </c>
       <c r="F176" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" t="s">
+        <v>2201</v>
+      </c>
+      <c r="M176" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -11666,14 +12105,23 @@
       <c r="C177" t="s">
         <v>1001</v>
       </c>
+      <c r="D177" t="s">
+        <v>1001</v>
+      </c>
       <c r="E177" t="s">
         <v>1384</v>
       </c>
       <c r="F177" t="s">
         <v>1780</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" t="s">
+        <v>1780</v>
+      </c>
+      <c r="N177" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>190</v>
       </c>
@@ -11683,14 +12131,23 @@
       <c r="C178" t="s">
         <v>1002</v>
       </c>
+      <c r="D178" t="s">
+        <v>1002</v>
+      </c>
       <c r="E178" t="s">
         <v>1385</v>
       </c>
       <c r="F178" t="s">
         <v>1781</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" t="s">
+        <v>1781</v>
+      </c>
+      <c r="N178" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -11700,14 +12157,26 @@
       <c r="C179" t="s">
         <v>1003</v>
       </c>
+      <c r="D179" t="s">
+        <v>2202</v>
+      </c>
       <c r="E179" t="s">
         <v>1386</v>
       </c>
       <c r="F179" t="s">
         <v>1782</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" t="s">
+        <v>2203</v>
+      </c>
+      <c r="K179" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M179" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>192</v>
       </c>
@@ -11717,14 +12186,29 @@
       <c r="C180" t="s">
         <v>1004</v>
       </c>
+      <c r="D180" t="s">
+        <v>2204</v>
+      </c>
       <c r="E180" t="s">
         <v>1387</v>
       </c>
       <c r="F180" t="s">
         <v>1783</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" t="s">
+        <v>2205</v>
+      </c>
+      <c r="K180" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L180" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M180" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>193</v>
       </c>
@@ -11734,14 +12218,23 @@
       <c r="C181" t="s">
         <v>1005</v>
       </c>
+      <c r="D181" t="s">
+        <v>1005</v>
+      </c>
       <c r="E181" t="s">
         <v>1388</v>
       </c>
       <c r="F181" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
+        <v>1784</v>
+      </c>
+      <c r="N181" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -11751,14 +12244,23 @@
       <c r="C182" t="s">
         <v>1006</v>
       </c>
+      <c r="D182" t="s">
+        <v>2206</v>
+      </c>
       <c r="E182" t="s">
         <v>1389</v>
       </c>
       <c r="F182" t="s">
         <v>1785</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" t="s">
+        <v>1785</v>
+      </c>
+      <c r="N182" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -11768,14 +12270,26 @@
       <c r="C183" t="s">
         <v>1007</v>
       </c>
+      <c r="D183" t="s">
+        <v>2207</v>
+      </c>
       <c r="E183" t="s">
         <v>1390</v>
       </c>
       <c r="F183" t="s">
         <v>1786</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" t="s">
+        <v>2208</v>
+      </c>
+      <c r="K183" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M183" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -11785,14 +12299,26 @@
       <c r="C184" t="s">
         <v>1008</v>
       </c>
+      <c r="D184" t="s">
+        <v>2209</v>
+      </c>
       <c r="E184" t="s">
         <v>1391</v>
       </c>
       <c r="F184" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H184" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M184" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -11802,14 +12328,26 @@
       <c r="C185" t="s">
         <v>1009</v>
       </c>
+      <c r="D185" t="s">
+        <v>2210</v>
+      </c>
       <c r="E185" t="s">
         <v>1392</v>
       </c>
       <c r="F185" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
+        <v>2211</v>
+      </c>
+      <c r="K185" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L185" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -11819,14 +12357,26 @@
       <c r="C186" t="s">
         <v>1010</v>
       </c>
+      <c r="D186" t="s">
+        <v>2212</v>
+      </c>
       <c r="E186" t="s">
         <v>1393</v>
       </c>
       <c r="F186" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" t="s">
+        <v>2213</v>
+      </c>
+      <c r="K186" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M186" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>199</v>
       </c>
@@ -11836,14 +12386,26 @@
       <c r="C187" t="s">
         <v>1011</v>
       </c>
+      <c r="D187" t="s">
+        <v>2214</v>
+      </c>
       <c r="E187" t="s">
         <v>1394</v>
       </c>
       <c r="F187" t="s">
         <v>1790</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" t="s">
+        <v>2215</v>
+      </c>
+      <c r="K187" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L187" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -11853,14 +12415,23 @@
       <c r="C188" t="s">
         <v>1012</v>
       </c>
+      <c r="D188" t="s">
+        <v>1012</v>
+      </c>
       <c r="E188" t="s">
         <v>1395</v>
       </c>
       <c r="F188" t="s">
         <v>1791</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" t="s">
+        <v>1791</v>
+      </c>
+      <c r="N188" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>201</v>
       </c>
@@ -11870,14 +12441,26 @@
       <c r="C189" t="s">
         <v>1013</v>
       </c>
+      <c r="D189" t="s">
+        <v>1013</v>
+      </c>
       <c r="E189" t="s">
         <v>1396</v>
       </c>
       <c r="F189" t="s">
         <v>1792</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" t="s">
+        <v>2216</v>
+      </c>
+      <c r="K189" t="s">
+        <v>2010</v>
+      </c>
+      <c r="N189" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -11887,14 +12470,26 @@
       <c r="C190" t="s">
         <v>1014</v>
       </c>
+      <c r="D190" t="s">
+        <v>2217</v>
+      </c>
       <c r="E190" t="s">
         <v>1397</v>
       </c>
       <c r="F190" t="s">
         <v>1793</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" t="s">
+        <v>2218</v>
+      </c>
+      <c r="J190" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K190" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -11904,14 +12499,29 @@
       <c r="C191" t="s">
         <v>1015</v>
       </c>
+      <c r="D191" t="s">
+        <v>2219</v>
+      </c>
       <c r="E191" t="s">
         <v>1398</v>
       </c>
       <c r="F191" t="s">
         <v>1794</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" t="s">
+        <v>2220</v>
+      </c>
+      <c r="I191" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L191" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M191" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -11921,14 +12531,26 @@
       <c r="C192" t="s">
         <v>1016</v>
       </c>
+      <c r="D192" t="s">
+        <v>1016</v>
+      </c>
       <c r="E192" t="s">
         <v>1399</v>
       </c>
       <c r="F192" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>2221</v>
+      </c>
+      <c r="K192" t="s">
+        <v>2010</v>
+      </c>
+      <c r="N192" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>205</v>
       </c>
@@ -11938,14 +12560,23 @@
       <c r="C193" t="s">
         <v>1017</v>
       </c>
+      <c r="D193" t="s">
+        <v>1017</v>
+      </c>
       <c r="E193" t="s">
         <v>1400</v>
       </c>
       <c r="F193" t="s">
         <v>1796</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" t="s">
+        <v>1796</v>
+      </c>
+      <c r="N193" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -11955,14 +12586,23 @@
       <c r="C194" t="s">
         <v>1018</v>
       </c>
+      <c r="D194" t="s">
+        <v>1018</v>
+      </c>
       <c r="E194" t="s">
         <v>1401</v>
       </c>
       <c r="F194" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N194" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -11972,22 +12612,37 @@
       <c r="C195" t="s">
         <v>1019</v>
       </c>
+      <c r="D195" t="s">
+        <v>2222</v>
+      </c>
       <c r="E195" t="s">
         <v>1402</v>
       </c>
       <c r="F195" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" t="s">
+        <v>2223</v>
+      </c>
+      <c r="K195" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M195" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>208</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="2" t="s">
         <v>1020</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>2224</v>
       </c>
       <c r="E196" t="s">
         <v>1230</v>
@@ -11995,8 +12650,20 @@
       <c r="F196" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H196" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K196" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L196" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -12006,14 +12673,23 @@
       <c r="C197" t="s">
         <v>1021</v>
       </c>
+      <c r="D197" t="s">
+        <v>2226</v>
+      </c>
       <c r="E197" t="s">
         <v>1403</v>
       </c>
       <c r="F197" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M197" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>210</v>
       </c>
@@ -12023,14 +12699,29 @@
       <c r="C198" t="s">
         <v>1022</v>
       </c>
+      <c r="D198" t="s">
+        <v>2227</v>
+      </c>
       <c r="E198" t="s">
         <v>1404</v>
       </c>
       <c r="F198" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" t="s">
+        <v>2228</v>
+      </c>
+      <c r="H198" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K198" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M198" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -12040,14 +12731,29 @@
       <c r="C199" t="s">
         <v>1023</v>
       </c>
+      <c r="D199" t="s">
+        <v>2229</v>
+      </c>
       <c r="E199" t="s">
         <v>1405</v>
       </c>
       <c r="F199" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" t="s">
+        <v>2230</v>
+      </c>
+      <c r="K199" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L199" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M199" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>212</v>
       </c>
@@ -12057,14 +12763,26 @@
       <c r="C200" t="s">
         <v>1024</v>
       </c>
+      <c r="D200" t="s">
+        <v>2231</v>
+      </c>
       <c r="E200" t="s">
         <v>1406</v>
       </c>
       <c r="F200" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200" t="s">
+        <v>2232</v>
+      </c>
+      <c r="K200" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M200" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>213</v>
       </c>
@@ -12074,14 +12792,23 @@
       <c r="C201" t="s">
         <v>1025</v>
       </c>
+      <c r="D201" t="s">
+        <v>1025</v>
+      </c>
       <c r="E201" t="s">
         <v>1407</v>
       </c>
       <c r="F201" t="s">
         <v>1804</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201" t="s">
+        <v>1804</v>
+      </c>
+      <c r="N201" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>214</v>
       </c>
@@ -12098,7 +12825,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>215</v>
       </c>
@@ -12115,7 +12842,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -12132,7 +12859,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -12149,7 +12876,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>218</v>
       </c>
@@ -12166,7 +12893,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>219</v>
       </c>
@@ -12183,7 +12910,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>220</v>
       </c>

--- a/Review files/qald9_train_set_review_table.xlsx
+++ b/Review files/qald9_train_set_review_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javi\Desktop\Work\QALD9ES\Repo\QALD9-ES\Review files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6875F85C-2FBC-4EAF-B968-D756B159CB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0FE703-4E22-4E63-9032-9B15187AEEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="2233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="2365">
   <si>
     <t>id</t>
   </si>
@@ -6064,9 +6064,6 @@
     <t xml:space="preserve">descubierto ,  Plutón </t>
   </si>
   <si>
-    <t xml:space="preserve">Lista todas juegos de mesa hechos por GMT. </t>
-  </si>
-  <si>
     <t>¿Quién desarrolló Skype?</t>
   </si>
   <si>
@@ -6737,6 +6734,405 @@
   </si>
   <si>
     <t>ingredientes, tarta de zanahorias</t>
+  </si>
+  <si>
+    <t>¿Cuál es la montaña más alta en el estado Alemán Sajonia?</t>
+  </si>
+  <si>
+    <t>más alto ,  montaña ,  Sajonia ,  Alemania, estado</t>
+  </si>
+  <si>
+    <t>¿Quién es el actual ministro federal de finanzas en Alemania?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ministro federal de finanzas ,  Alemania </t>
+  </si>
+  <si>
+    <t>país, localización, Meca</t>
+  </si>
+  <si>
+    <t>¿Quién interpretó a Gus Fring en Breaking Bad?</t>
+  </si>
+  <si>
+    <t>Nilo, país, origen</t>
+  </si>
+  <si>
+    <t>¿En qué país se sitúa la Meca?</t>
+  </si>
+  <si>
+    <t>¿En cuál estado se encuentra la universidad Penn State?</t>
+  </si>
+  <si>
+    <t>Universidad Penn State, estado, ubicación</t>
+  </si>
+  <si>
+    <t>estadio, más grande, España</t>
+  </si>
+  <si>
+    <t>entrenador, equipo, hockey sobre hielo, Ankara</t>
+  </si>
+  <si>
+    <t>¿Cuánto es el área del Reino Unido?</t>
+  </si>
+  <si>
+    <t>área, Reino Unido</t>
+  </si>
+  <si>
+    <t>creador, comic, Batman</t>
+  </si>
+  <si>
+    <t>¿Estuvo casado Sigmund Freud?</t>
+  </si>
+  <si>
+    <t>¿Qué películas dirigió Francis Ford Coppola?</t>
+  </si>
+  <si>
+    <t>¿Son las ranas de árbol un tipo de anfibio?</t>
+  </si>
+  <si>
+    <t>rana de árbol, anfibio</t>
+  </si>
+  <si>
+    <t>¿Dónde están situado el Palacio de Westminster?</t>
+  </si>
+  <si>
+    <t>localización, Palacio de Westminster</t>
+  </si>
+  <si>
+    <t>¿A qué altura se encuentra el aeropuerto de Düsseldorf?</t>
+  </si>
+  <si>
+    <t>Aeropuerto de Düsseldorf, altura</t>
+  </si>
+  <si>
+    <t>población, Ciudad de México</t>
+  </si>
+  <si>
+    <t>¿Cuántos habitantes tiene la Ciudad de México?</t>
+  </si>
+  <si>
+    <t>¿Cuándo se fundó la quinta república francesa?</t>
+  </si>
+  <si>
+    <t>fundación, quinta república francesa</t>
+  </si>
+  <si>
+    <t>¿Quién fue el primer rey de Inglaterra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primero, Rey de Inglaterra </t>
+  </si>
+  <si>
+    <t>¿Quién es el jugador más joven de dardos?</t>
+  </si>
+  <si>
+    <t>jugador de dardos,  más joven</t>
+  </si>
+  <si>
+    <t>¿Son las carreras de caballos un deporte?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carreras de caballos ,  deporte </t>
+  </si>
+  <si>
+    <t>habitantes, Polonia</t>
+  </si>
+  <si>
+    <t>¿Cuándo se emitió el último episodio de la serie de televisión Friends?</t>
+  </si>
+  <si>
+    <t>último episodio ,  Friends, serie de televisión</t>
+  </si>
+  <si>
+    <t>¿Es Michelle el nombre de la esposa del presidente Obama?</t>
+  </si>
+  <si>
+    <t>esposa, presidente Obama, nombre, Michelle</t>
+  </si>
+  <si>
+    <t>¿Quién fue el octavo presidente de los Estados Unidos?</t>
+  </si>
+  <si>
+    <t>¿Cuánto es la población total de la Unión Europea?</t>
+  </si>
+  <si>
+    <t>Unión Europea, población</t>
+  </si>
+  <si>
+    <t>¿Qué plataformas de lanzamiento son operadas  por la NASA?</t>
+  </si>
+  <si>
+    <t>¿Quién desarrolló el videojuego World of Warcraft?</t>
+  </si>
+  <si>
+    <t>videojuego, World of Warcraft, desarrollador</t>
+  </si>
+  <si>
+    <t>¿Cuál es el nombre de nacimiento de Adele?</t>
+  </si>
+  <si>
+    <t>Adele, nombre de nacimiento</t>
+  </si>
+  <si>
+    <t>¿Cuál es la población del Cairo?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el último trabajo de Dan Brown?</t>
+  </si>
+  <si>
+    <t>último trabajo , Dan Brown</t>
+  </si>
+  <si>
+    <t>¿Dónde está la universidad Sungkyunkwan?</t>
+  </si>
+  <si>
+    <t>universidad Sungkyunkwan, ubicación</t>
+  </si>
+  <si>
+    <t>autor, La interpretación de los sueños</t>
+  </si>
+  <si>
+    <t>¿Quién es el autor de La interpretación de los sueños?</t>
+  </si>
+  <si>
+    <t>¿Cuándo murió Shakespeare?</t>
+  </si>
+  <si>
+    <t>Shakespeare, muerte</t>
+  </si>
+  <si>
+    <t>¿Quién desarrolló Slack?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina Reaper, origen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Dónde se originó Carolina Reaper? </t>
+  </si>
+  <si>
+    <t>¿En qué año nació Rachel Stevens?</t>
+  </si>
+  <si>
+    <t>¿Era el nombre de la esposa del presidente Lincoln Mary?</t>
+  </si>
+  <si>
+    <t>esposa, presidente Lincoln, nombre, Mary</t>
+  </si>
+  <si>
+    <t>¿Qué río cruza el puente de Brooklyn?</t>
+  </si>
+  <si>
+    <t>río, cruza, puente de Brooklyn</t>
+  </si>
+  <si>
+    <t>cuidad, pasa, río Weser</t>
+  </si>
+  <si>
+    <t>¿En qué lenguaje de programación está programado GIMP?</t>
+  </si>
+  <si>
+    <t>¿A qué universidad asistió Angela Merkel?</t>
+  </si>
+  <si>
+    <t>¿Qué musicales tienen música compuesta por Elton John?</t>
+  </si>
+  <si>
+    <t>cuántas, tiendas Aldi</t>
+  </si>
+  <si>
+    <t>¿Cuál es el r[io mas largo en el mundo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">río, más largo ,  mundo </t>
+  </si>
+  <si>
+    <t>¿Cuándo nació John Adams?</t>
+  </si>
+  <si>
+    <t>¿Quién fue la esposa del presidente americano Lincoln?</t>
+  </si>
+  <si>
+    <t>presidente Americano, Lincoln, esposa</t>
+  </si>
+  <si>
+    <t>¿A qué especie pertenecen los elefantes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">especie ,  elefante </t>
+  </si>
+  <si>
+    <t>¿En qué imperio antiguo se podía pagar con granos de cacao?</t>
+  </si>
+  <si>
+    <t>imperio antiguo, pagar, granos de cacao</t>
+  </si>
+  <si>
+    <t>¿Cuántas teorías se le ocurrieron a Albert Einstein?</t>
+  </si>
+  <si>
+    <t>teorías ,  Albert Einstein</t>
+  </si>
+  <si>
+    <t>compositor, banda sonora, Titanic, Cameron</t>
+  </si>
+  <si>
+    <t>¿Cuánto tiempo dura de Toy Story?</t>
+  </si>
+  <si>
+    <t>Toy Story, duración</t>
+  </si>
+  <si>
+    <t>¿Con cuántos países tiene fronteras Irán?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">países, Irán ,  fronteras </t>
+  </si>
+  <si>
+    <t>¿Quién fue el sucesor de John F. Kennedy?</t>
+  </si>
+  <si>
+    <t>alcalde, París</t>
+  </si>
+  <si>
+    <t>¿James Bond está casado?</t>
+  </si>
+  <si>
+    <t>¿Qué empresa tiene más empleados en la India?</t>
+  </si>
+  <si>
+    <t>empresa India, más empleados</t>
+  </si>
+  <si>
+    <t>¿Quién fue el vicepresidente de John F. Kennedy?</t>
+  </si>
+  <si>
+    <t>¿Cuál es la nacionalidad del creador de Miffy?</t>
+  </si>
+  <si>
+    <t>Miffy, creador, nacionalidad</t>
+  </si>
+  <si>
+    <t>¿En qué ciudad está la fábrica de cerveza Heineken?</t>
+  </si>
+  <si>
+    <t>ciudad, fábrica, cerveza, Heineken</t>
+  </si>
+  <si>
+    <t>¿Quiénes son los hijos de Margaret Thatcher?</t>
+  </si>
+  <si>
+    <t>¿De qué región es el Melón de Borgoña?</t>
+  </si>
+  <si>
+    <t>región, Melón de Borgoña</t>
+  </si>
+  <si>
+    <t>¿Qué tan grande es el área de Renania del Norte-Westfalia?</t>
+  </si>
+  <si>
+    <t>área, Renania del Norte-Westfalia</t>
+  </si>
+  <si>
+    <t>¿Qué ciudad tiene más población?</t>
+  </si>
+  <si>
+    <t>ciudad, más,  población</t>
+  </si>
+  <si>
+    <t>¿Cuál es el negocio principal de Donald Trump?</t>
+  </si>
+  <si>
+    <t>Donald Trump, negocio,principal</t>
+  </si>
+  <si>
+    <t>¿Cuándo comenzará el partido final del mundial de fútbol 2018?</t>
+  </si>
+  <si>
+    <t>mundial de fútbol 2018, final</t>
+  </si>
+  <si>
+    <t>¿Qué películas dirigió Stanley Kubrick?</t>
+  </si>
+  <si>
+    <t>¿Cuánto es la población de Iraq?</t>
+  </si>
+  <si>
+    <t>Iraq,población</t>
+  </si>
+  <si>
+    <t>habitantes, ciudad, más grande, Canadá</t>
+  </si>
+  <si>
+    <t>¿Quién es el alcalde de la capital de la Polinesia Francesa?</t>
+  </si>
+  <si>
+    <t>alcalde, capital, Polinesia Francesa</t>
+  </si>
+  <si>
+    <t>ciudad, murió, Nikos Kazantzakis</t>
+  </si>
+  <si>
+    <t>¿Qué actores participan en películas dirigidas por William Shatner?</t>
+  </si>
+  <si>
+    <t>¿Qué tan alta es Claudia Schiffer?</t>
+  </si>
+  <si>
+    <t>¿En qué posición está Alemania en el ranking de densidad poblacional?</t>
+  </si>
+  <si>
+    <t>Alemania, posición, ranking, densidad poblacional</t>
+  </si>
+  <si>
+    <t>¿Cuál es la montaña más alta de Italia?</t>
+  </si>
+  <si>
+    <t>montaña, más alta, Italia</t>
+  </si>
+  <si>
+    <t>¿Qué juegos de mesa fueron hechos por GMT?</t>
+  </si>
+  <si>
+    <t>¿Qué juegos fueron hechos por GMT?</t>
+  </si>
+  <si>
+    <t>¿En qué ciudad murió Nikos Kazantzakis?</t>
+  </si>
+  <si>
+    <t>¿Qué contiene una galleta de chispas de chocolate?</t>
+  </si>
+  <si>
+    <t>ingredientes, galleta de chispas de chocolate</t>
+  </si>
+  <si>
+    <t>lago, Limerick, país</t>
+  </si>
+  <si>
+    <t>¿Qué videojuegos publicó Mean Hamster Software?</t>
+  </si>
+  <si>
+    <t>¿Quiénes son los miembros de Prodigy?</t>
+  </si>
+  <si>
+    <t>miembros, Prodigy</t>
+  </si>
+  <si>
+    <t>alcalde, Rotterdam</t>
+  </si>
+  <si>
+    <t>¿En qué zona horaria está Roma?</t>
+  </si>
+  <si>
+    <t>¿Qué tan alto es el faro de Colombo?</t>
+  </si>
+  <si>
+    <t>altura, Faro de Colombo</t>
+  </si>
+  <si>
+    <t>¿Quiénes escribieron el álbum de Pink Floyd The Wall?</t>
+  </si>
+  <si>
+    <t>Pink Floyd, The Wall, escritores</t>
   </si>
 </sst>
 </file>
@@ -7170,9 +7566,9 @@
   <dimension ref="A1:N409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B202" sqref="A202:B202"/>
+      <selection pane="bottomLeft" activeCell="B297" sqref="B297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7240,7 +7636,7 @@
         <v>830</v>
       </c>
       <c r="D2" t="s">
-        <v>2008</v>
+        <v>2350</v>
       </c>
       <c r="E2" t="s">
         <v>1210</v>
@@ -7251,8 +7647,11 @@
       <c r="G2" t="s">
         <v>1614</v>
       </c>
+      <c r="H2" t="s">
+        <v>2009</v>
+      </c>
       <c r="M2" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7266,7 +7665,7 @@
         <v>831</v>
       </c>
       <c r="D3" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1211</v>
@@ -7278,10 +7677,10 @@
         <v>1615</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L3" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7295,7 +7694,7 @@
         <v>832</v>
       </c>
       <c r="D4" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E4" t="s">
         <v>1212</v>
@@ -7304,16 +7703,16 @@
         <v>1616</v>
       </c>
       <c r="G4" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -7327,7 +7726,7 @@
         <v>833</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E5" t="s">
         <v>1213</v>
@@ -7336,13 +7735,13 @@
         <v>1617</v>
       </c>
       <c r="H5" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I5" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L5" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -7368,7 +7767,7 @@
         <v>1618</v>
       </c>
       <c r="N6" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -7394,7 +7793,7 @@
         <v>1619</v>
       </c>
       <c r="N7" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -7408,7 +7807,7 @@
         <v>836</v>
       </c>
       <c r="D8" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E8" t="s">
         <v>1216</v>
@@ -7417,16 +7816,16 @@
         <v>1620</v>
       </c>
       <c r="G8" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I8" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="J8" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K8" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -7440,7 +7839,7 @@
         <v>837</v>
       </c>
       <c r="D9" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E9" t="s">
         <v>1217</v>
@@ -7452,7 +7851,7 @@
         <v>1621</v>
       </c>
       <c r="M9" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -7466,7 +7865,7 @@
         <v>838</v>
       </c>
       <c r="D10" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E10" t="s">
         <v>1218</v>
@@ -7475,10 +7874,10 @@
         <v>1622</v>
       </c>
       <c r="G10" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="M10" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -7492,7 +7891,7 @@
         <v>839</v>
       </c>
       <c r="D11" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E11" t="s">
         <v>1219</v>
@@ -7501,10 +7900,10 @@
         <v>1623</v>
       </c>
       <c r="G11" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I11" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -7530,7 +7929,7 @@
         <v>1624</v>
       </c>
       <c r="N12" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -7544,7 +7943,7 @@
         <v>841</v>
       </c>
       <c r="D13" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E13" t="s">
         <v>1221</v>
@@ -7556,7 +7955,7 @@
         <v>1625</v>
       </c>
       <c r="L13" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7570,7 +7969,7 @@
         <v>842</v>
       </c>
       <c r="D14" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E14" t="s">
         <v>1222</v>
@@ -7582,7 +7981,7 @@
         <v>1626</v>
       </c>
       <c r="M14" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7608,7 +8007,7 @@
         <v>1627</v>
       </c>
       <c r="N15" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7622,7 +8021,7 @@
         <v>844</v>
       </c>
       <c r="D16" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E16" t="s">
         <v>1224</v>
@@ -7634,7 +8033,7 @@
         <v>1628</v>
       </c>
       <c r="H16" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -7648,7 +8047,7 @@
         <v>845</v>
       </c>
       <c r="D17" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E17" t="s">
         <v>1225</v>
@@ -7657,19 +8056,19 @@
         <v>1629</v>
       </c>
       <c r="G17" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H17" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K17" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L17" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M17" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -7683,7 +8082,7 @@
         <v>846</v>
       </c>
       <c r="D18" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E18" t="s">
         <v>1226</v>
@@ -7692,13 +8091,13 @@
         <v>1630</v>
       </c>
       <c r="G18" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="K18" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L18" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -7712,7 +8111,7 @@
         <v>847</v>
       </c>
       <c r="D19" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="E19" t="s">
         <v>1227</v>
@@ -7721,13 +8120,13 @@
         <v>1631</v>
       </c>
       <c r="G19" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="H19" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K19" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -7753,7 +8152,7 @@
         <v>1632</v>
       </c>
       <c r="N20" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -7767,7 +8166,7 @@
         <v>849</v>
       </c>
       <c r="D21" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E21" t="s">
         <v>1229</v>
@@ -7779,7 +8178,7 @@
         <v>1633</v>
       </c>
       <c r="M21" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -7793,7 +8192,7 @@
         <v>850</v>
       </c>
       <c r="D22" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="E22" t="s">
         <v>1230</v>
@@ -7802,16 +8201,16 @@
         <v>1634</v>
       </c>
       <c r="G22" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="I22" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K22" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L22" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -7825,25 +8224,25 @@
         <v>851</v>
       </c>
       <c r="D23" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="E23" t="s">
         <v>1231</v>
       </c>
       <c r="F23" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="H23" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I23" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K23" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L23" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -7857,7 +8256,7 @@
         <v>852</v>
       </c>
       <c r="D24" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="E24" t="s">
         <v>1232</v>
@@ -7869,7 +8268,7 @@
         <v>1635</v>
       </c>
       <c r="I24" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -7883,7 +8282,7 @@
         <v>853</v>
       </c>
       <c r="D25" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="E25" t="s">
         <v>1233</v>
@@ -7892,13 +8291,13 @@
         <v>1636</v>
       </c>
       <c r="G25" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="H25" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K25" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -7912,7 +8311,7 @@
         <v>854</v>
       </c>
       <c r="D26" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E26" t="s">
         <v>1234</v>
@@ -7924,7 +8323,7 @@
         <v>1637</v>
       </c>
       <c r="J26" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -7938,7 +8337,7 @@
         <v>855</v>
       </c>
       <c r="D27" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="E27" t="s">
         <v>1235</v>
@@ -7947,13 +8346,13 @@
         <v>1638</v>
       </c>
       <c r="G27" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="K27" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M27" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -7979,7 +8378,7 @@
         <v>1639</v>
       </c>
       <c r="N28" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -7993,7 +8392,7 @@
         <v>857</v>
       </c>
       <c r="D29" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="E29" t="s">
         <v>1237</v>
@@ -8005,7 +8404,7 @@
         <v>1640</v>
       </c>
       <c r="M29" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -8025,13 +8424,13 @@
         <v>1238</v>
       </c>
       <c r="F30" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="G30" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="N30" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -8057,7 +8456,7 @@
         <v>1641</v>
       </c>
       <c r="N31" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -8083,7 +8482,7 @@
         <v>1642</v>
       </c>
       <c r="N32" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -8097,7 +8496,7 @@
         <v>861</v>
       </c>
       <c r="D33" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="E33" t="s">
         <v>1241</v>
@@ -8106,13 +8505,13 @@
         <v>1643</v>
       </c>
       <c r="G33" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="K33" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M33" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -8126,7 +8525,7 @@
         <v>862</v>
       </c>
       <c r="D34" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="E34" t="s">
         <v>1242</v>
@@ -8138,7 +8537,7 @@
         <v>1644</v>
       </c>
       <c r="M34" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -8152,7 +8551,7 @@
         <v>863</v>
       </c>
       <c r="D35" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="E35" t="s">
         <v>1243</v>
@@ -8161,13 +8560,13 @@
         <v>1645</v>
       </c>
       <c r="G35" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="H35" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L35" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -8181,7 +8580,7 @@
         <v>864</v>
       </c>
       <c r="D36" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="E36" t="s">
         <v>1244</v>
@@ -8190,13 +8589,13 @@
         <v>1646</v>
       </c>
       <c r="G36" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="K36" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L36" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -8222,7 +8621,7 @@
         <v>1647</v>
       </c>
       <c r="N37" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -8248,7 +8647,7 @@
         <v>1648</v>
       </c>
       <c r="N38" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -8271,13 +8670,13 @@
         <v>1649</v>
       </c>
       <c r="G39" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="K39" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="N39" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -8303,7 +8702,7 @@
         <v>1650</v>
       </c>
       <c r="N40" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -8329,7 +8728,7 @@
         <v>1651</v>
       </c>
       <c r="N41" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -8343,7 +8742,7 @@
         <v>870</v>
       </c>
       <c r="D42" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E42" t="s">
         <v>1250</v>
@@ -8355,7 +8754,7 @@
         <v>1652</v>
       </c>
       <c r="H42" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -8369,7 +8768,7 @@
         <v>871</v>
       </c>
       <c r="D43" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="E43" t="s">
         <v>1251</v>
@@ -8378,10 +8777,10 @@
         <v>1653</v>
       </c>
       <c r="G43" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="M43" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -8404,13 +8803,13 @@
         <v>1654</v>
       </c>
       <c r="G44" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="K44" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="N44" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -8433,13 +8832,13 @@
         <v>1655</v>
       </c>
       <c r="G45" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="K45" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="N45" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -8453,19 +8852,19 @@
         <v>874</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="E46" t="s">
         <v>1254</v>
       </c>
       <c r="G46" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="I46" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K46" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -8479,7 +8878,7 @@
         <v>875</v>
       </c>
       <c r="D47" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E47" t="s">
         <v>1255</v>
@@ -8488,16 +8887,16 @@
         <v>1656</v>
       </c>
       <c r="G47" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="K47" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L47" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M47" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -8511,7 +8910,7 @@
         <v>876</v>
       </c>
       <c r="D48" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="E48" t="s">
         <v>1256</v>
@@ -8520,16 +8919,16 @@
         <v>1657</v>
       </c>
       <c r="G48" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H48" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K48" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L48" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -8543,7 +8942,7 @@
         <v>877</v>
       </c>
       <c r="D49" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="E49" t="s">
         <v>1257</v>
@@ -8552,19 +8951,19 @@
         <v>1658</v>
       </c>
       <c r="G49" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="I49" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="J49" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K49" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L49" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -8590,7 +8989,7 @@
         <v>1659</v>
       </c>
       <c r="N50" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -8616,7 +9015,7 @@
         <v>1660</v>
       </c>
       <c r="N51" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -8642,7 +9041,7 @@
         <v>1624</v>
       </c>
       <c r="N52" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -8656,7 +9055,7 @@
         <v>880</v>
       </c>
       <c r="D53" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E53" t="s">
         <v>1261</v>
@@ -8665,16 +9064,16 @@
         <v>1661</v>
       </c>
       <c r="G53" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="K53" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L53" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M53" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -8688,7 +9087,7 @@
         <v>881</v>
       </c>
       <c r="D54" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="E54" t="s">
         <v>1262</v>
@@ -8697,13 +9096,13 @@
         <v>1662</v>
       </c>
       <c r="G54" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="K54" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M54" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -8717,7 +9116,7 @@
         <v>882</v>
       </c>
       <c r="D55" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="E55" t="s">
         <v>1263</v>
@@ -8729,7 +9128,7 @@
         <v>1663</v>
       </c>
       <c r="H55" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -8743,7 +9142,7 @@
         <v>883</v>
       </c>
       <c r="D56" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="E56" t="s">
         <v>1264</v>
@@ -8752,13 +9151,13 @@
         <v>1664</v>
       </c>
       <c r="G56" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="K56" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M56" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -8781,10 +9180,10 @@
         <v>1665</v>
       </c>
       <c r="G57" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="K57" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -8810,7 +9209,7 @@
         <v>1666</v>
       </c>
       <c r="N58" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -8824,7 +9223,7 @@
         <v>886</v>
       </c>
       <c r="D59" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="E59" t="s">
         <v>1267</v>
@@ -8833,13 +9232,13 @@
         <v>1667</v>
       </c>
       <c r="G59" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="K59" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L59" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -8853,7 +9252,7 @@
         <v>887</v>
       </c>
       <c r="D60" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="E60" t="s">
         <v>1268</v>
@@ -8862,13 +9261,13 @@
         <v>1668</v>
       </c>
       <c r="G60" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="H60" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K60" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -8894,7 +9293,7 @@
         <v>1669</v>
       </c>
       <c r="N61" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -8908,7 +9307,7 @@
         <v>849</v>
       </c>
       <c r="D62" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E62" t="s">
         <v>1229</v>
@@ -8920,7 +9319,7 @@
         <v>1633</v>
       </c>
       <c r="H62" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -8934,7 +9333,7 @@
         <v>889</v>
       </c>
       <c r="D63" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E63" t="s">
         <v>1270</v>
@@ -8943,13 +9342,13 @@
         <v>1670</v>
       </c>
       <c r="G63" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K63" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L63" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -8975,7 +9374,7 @@
         <v>1671</v>
       </c>
       <c r="N64" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -9001,7 +9400,7 @@
         <v>1672</v>
       </c>
       <c r="N65" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -9015,7 +9414,7 @@
         <v>892</v>
       </c>
       <c r="D66" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E66" t="s">
         <v>1273</v>
@@ -9027,7 +9426,7 @@
         <v>1673</v>
       </c>
       <c r="H66" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -9053,7 +9452,7 @@
         <v>1674</v>
       </c>
       <c r="N67" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -9067,7 +9466,7 @@
         <v>894</v>
       </c>
       <c r="D68" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="E68" t="s">
         <v>1275</v>
@@ -9076,13 +9475,13 @@
         <v>1675</v>
       </c>
       <c r="G68" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="K68" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L68" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -9108,7 +9507,7 @@
         <v>1676</v>
       </c>
       <c r="N69" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -9122,7 +9521,7 @@
         <v>896</v>
       </c>
       <c r="D70" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="E70" t="s">
         <v>1277</v>
@@ -9131,13 +9530,13 @@
         <v>1677</v>
       </c>
       <c r="G70" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="K70" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L70" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -9163,7 +9562,7 @@
         <v>1678</v>
       </c>
       <c r="N71" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -9177,7 +9576,7 @@
         <v>898</v>
       </c>
       <c r="D72" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="E72" t="s">
         <v>1279</v>
@@ -9186,13 +9585,13 @@
         <v>1679</v>
       </c>
       <c r="G72" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K72" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M72" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -9218,7 +9617,7 @@
         <v>1680</v>
       </c>
       <c r="N73" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -9232,7 +9631,7 @@
         <v>900</v>
       </c>
       <c r="D74" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E74" t="s">
         <v>1281</v>
@@ -9241,13 +9640,13 @@
         <v>1681</v>
       </c>
       <c r="G74" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="K74" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M74" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -9273,7 +9672,7 @@
         <v>1682</v>
       </c>
       <c r="N75" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -9299,7 +9698,7 @@
         <v>1683</v>
       </c>
       <c r="N76" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -9313,7 +9712,7 @@
         <v>903</v>
       </c>
       <c r="D77" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="E77" t="s">
         <v>1284</v>
@@ -9322,13 +9721,13 @@
         <v>1684</v>
       </c>
       <c r="G77" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="K77" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L77" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -9342,7 +9741,7 @@
         <v>904</v>
       </c>
       <c r="D78" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E78" t="s">
         <v>1285</v>
@@ -9354,7 +9753,7 @@
         <v>1685</v>
       </c>
       <c r="H78" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -9368,7 +9767,7 @@
         <v>905</v>
       </c>
       <c r="D79" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="E79" t="s">
         <v>1286</v>
@@ -9377,13 +9776,13 @@
         <v>1686</v>
       </c>
       <c r="G79" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="H79" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K79" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -9397,7 +9796,7 @@
         <v>906</v>
       </c>
       <c r="D80" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="E80" t="s">
         <v>1287</v>
@@ -9406,13 +9805,13 @@
         <v>1687</v>
       </c>
       <c r="G80" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="K80" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M80" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -9426,7 +9825,7 @@
         <v>907</v>
       </c>
       <c r="D81" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E81" t="s">
         <v>1288</v>
@@ -9435,13 +9834,13 @@
         <v>1688</v>
       </c>
       <c r="G81" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="K81" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M81" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -9467,7 +9866,7 @@
         <v>1689</v>
       </c>
       <c r="N82" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -9493,7 +9892,7 @@
         <v>1690</v>
       </c>
       <c r="N83" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -9507,7 +9906,7 @@
         <v>910</v>
       </c>
       <c r="D84" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="E84" t="s">
         <v>1291</v>
@@ -9516,16 +9915,16 @@
         <v>1691</v>
       </c>
       <c r="G84" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="J84" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K84" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L84" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -9539,7 +9938,7 @@
         <v>911</v>
       </c>
       <c r="D85" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="E85" t="s">
         <v>1292</v>
@@ -9548,13 +9947,13 @@
         <v>1692</v>
       </c>
       <c r="G85" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="K85" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M85" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -9580,7 +9979,7 @@
         <v>1693</v>
       </c>
       <c r="N86" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -9594,7 +9993,7 @@
         <v>913</v>
       </c>
       <c r="D87" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="E87" t="s">
         <v>1294</v>
@@ -9603,13 +10002,13 @@
         <v>1694</v>
       </c>
       <c r="G87" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="K87" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L87" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -9635,7 +10034,7 @@
         <v>1695</v>
       </c>
       <c r="N88" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -9649,7 +10048,7 @@
         <v>915</v>
       </c>
       <c r="D89" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E89" t="s">
         <v>1296</v>
@@ -9658,16 +10057,16 @@
         <v>1696</v>
       </c>
       <c r="G89" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="H89" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K89" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L89" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -9681,7 +10080,7 @@
         <v>916</v>
       </c>
       <c r="D90" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="E90" t="s">
         <v>1297</v>
@@ -9690,13 +10089,13 @@
         <v>1697</v>
       </c>
       <c r="G90" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="L90" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M90" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -9722,7 +10121,7 @@
         <v>1698</v>
       </c>
       <c r="N91" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -9748,7 +10147,7 @@
         <v>1699</v>
       </c>
       <c r="N92" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -9774,7 +10173,7 @@
         <v>1700</v>
       </c>
       <c r="N93" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -9788,7 +10187,7 @@
         <v>920</v>
       </c>
       <c r="D94" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="E94" t="s">
         <v>1301</v>
@@ -9797,16 +10196,16 @@
         <v>1701</v>
       </c>
       <c r="G94" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="K94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -9820,7 +10219,7 @@
         <v>921</v>
       </c>
       <c r="D95" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E95" t="s">
         <v>1302</v>
@@ -9832,7 +10231,7 @@
         <v>1702</v>
       </c>
       <c r="M95" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -9846,7 +10245,7 @@
         <v>922</v>
       </c>
       <c r="D96" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="E96" t="s">
         <v>1303</v>
@@ -9855,13 +10254,13 @@
         <v>1703</v>
       </c>
       <c r="G96" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="K96" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L96" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -9887,7 +10286,7 @@
         <v>1704</v>
       </c>
       <c r="N97" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -9913,7 +10312,7 @@
         <v>1705</v>
       </c>
       <c r="N98" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -9927,7 +10326,7 @@
         <v>925</v>
       </c>
       <c r="D99" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="E99" t="s">
         <v>1306</v>
@@ -9936,13 +10335,13 @@
         <v>1706</v>
       </c>
       <c r="G99" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="K99" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L99" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -9956,7 +10355,7 @@
         <v>926</v>
       </c>
       <c r="D100" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E100" t="s">
         <v>1307</v>
@@ -9965,13 +10364,13 @@
         <v>1707</v>
       </c>
       <c r="G100" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="K100" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L100" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -9985,7 +10384,7 @@
         <v>927</v>
       </c>
       <c r="D101" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E101" t="s">
         <v>1308</v>
@@ -9997,7 +10396,7 @@
         <v>1708</v>
       </c>
       <c r="L101" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -10011,7 +10410,7 @@
         <v>928</v>
       </c>
       <c r="D102" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E102" t="s">
         <v>1309</v>
@@ -10020,13 +10419,13 @@
         <v>1709</v>
       </c>
       <c r="G102" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="K102" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M102" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -10040,7 +10439,7 @@
         <v>929</v>
       </c>
       <c r="D103" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="E103" t="s">
         <v>1310</v>
@@ -10049,13 +10448,13 @@
         <v>1710</v>
       </c>
       <c r="G103" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="K103" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M103" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -10069,7 +10468,7 @@
         <v>930</v>
       </c>
       <c r="D104" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E104" t="s">
         <v>1311</v>
@@ -10081,13 +10480,13 @@
         <v>1711</v>
       </c>
       <c r="H104" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L104" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M104" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -10101,7 +10500,7 @@
         <v>931</v>
       </c>
       <c r="D105" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E105" t="s">
         <v>1312</v>
@@ -10113,7 +10512,7 @@
         <v>1712</v>
       </c>
       <c r="M105" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -10127,7 +10526,7 @@
         <v>932</v>
       </c>
       <c r="D106" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="E106" t="s">
         <v>1313</v>
@@ -10139,7 +10538,7 @@
         <v>1713</v>
       </c>
       <c r="M106" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -10153,7 +10552,7 @@
         <v>933</v>
       </c>
       <c r="D107" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="E107" t="s">
         <v>1314</v>
@@ -10165,7 +10564,7 @@
         <v>1714</v>
       </c>
       <c r="L107" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -10179,7 +10578,7 @@
         <v>934</v>
       </c>
       <c r="D108" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E108" t="s">
         <v>1315</v>
@@ -10191,7 +10590,7 @@
         <v>1715</v>
       </c>
       <c r="M108" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -10205,7 +10604,7 @@
         <v>854</v>
       </c>
       <c r="D109" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E109" t="s">
         <v>1316</v>
@@ -10214,16 +10613,16 @@
         <v>1637</v>
       </c>
       <c r="G109" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="J109" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K109" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L109" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -10237,7 +10636,7 @@
         <v>935</v>
       </c>
       <c r="D110" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E110" t="s">
         <v>1317</v>
@@ -10249,7 +10648,7 @@
         <v>1716</v>
       </c>
       <c r="M110" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -10275,7 +10674,7 @@
         <v>1717</v>
       </c>
       <c r="N111" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -10301,7 +10700,7 @@
         <v>1718</v>
       </c>
       <c r="N112" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -10315,22 +10714,22 @@
         <v>938</v>
       </c>
       <c r="D113" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E113" t="s">
         <v>1320</v>
       </c>
       <c r="F113" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="G113" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="K113" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M113" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -10344,7 +10743,7 @@
         <v>939</v>
       </c>
       <c r="D114" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E114" t="s">
         <v>1321</v>
@@ -10353,13 +10752,13 @@
         <v>1719</v>
       </c>
       <c r="G114" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="K114" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M114" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -10385,7 +10784,7 @@
         <v>1720</v>
       </c>
       <c r="N115" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -10399,7 +10798,7 @@
         <v>941</v>
       </c>
       <c r="D116" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E116" t="s">
         <v>1323</v>
@@ -10408,13 +10807,13 @@
         <v>1721</v>
       </c>
       <c r="G116" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="H116" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K116" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -10437,13 +10836,13 @@
         <v>1722</v>
       </c>
       <c r="G117" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="K117" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="N117" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -10469,7 +10868,7 @@
         <v>1723</v>
       </c>
       <c r="N118" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -10483,7 +10882,7 @@
         <v>944</v>
       </c>
       <c r="D119" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="E119" t="s">
         <v>1326</v>
@@ -10492,16 +10891,16 @@
         <v>1724</v>
       </c>
       <c r="G119" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="K119" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L119" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M119" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -10515,7 +10914,7 @@
         <v>945</v>
       </c>
       <c r="D120" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="E120" t="s">
         <v>1327</v>
@@ -10524,16 +10923,16 @@
         <v>1725</v>
       </c>
       <c r="G120" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="I120" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="J120" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K120" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -10559,7 +10958,7 @@
         <v>1726</v>
       </c>
       <c r="N121" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -10573,7 +10972,7 @@
         <v>947</v>
       </c>
       <c r="D122" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="E122" t="s">
         <v>1329</v>
@@ -10585,7 +10984,7 @@
         <v>1727</v>
       </c>
       <c r="L122" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -10599,7 +10998,7 @@
         <v>948</v>
       </c>
       <c r="D123" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E123" t="s">
         <v>1330</v>
@@ -10611,10 +11010,10 @@
         <v>1728</v>
       </c>
       <c r="H123" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L123" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -10628,7 +11027,7 @@
         <v>949</v>
       </c>
       <c r="D124" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E124" t="s">
         <v>1331</v>
@@ -10637,13 +11036,13 @@
         <v>1729</v>
       </c>
       <c r="G124" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="K124" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L124" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -10657,7 +11056,7 @@
         <v>950</v>
       </c>
       <c r="D125" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E125" t="s">
         <v>1332</v>
@@ -10666,16 +11065,16 @@
         <v>1730</v>
       </c>
       <c r="G125" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="J125" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K125" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M125" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -10698,13 +11097,13 @@
         <v>1731</v>
       </c>
       <c r="G126" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="K126" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="N126" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -10730,7 +11129,7 @@
         <v>1732</v>
       </c>
       <c r="N127" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -10744,7 +11143,7 @@
         <v>953</v>
       </c>
       <c r="D128" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E128" t="s">
         <v>1335</v>
@@ -10756,7 +11155,7 @@
         <v>1733</v>
       </c>
       <c r="J128" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -10782,7 +11181,7 @@
         <v>1734</v>
       </c>
       <c r="N129" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -10796,7 +11195,7 @@
         <v>955</v>
       </c>
       <c r="D130" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E130" t="s">
         <v>1337</v>
@@ -10808,7 +11207,7 @@
         <v>1735</v>
       </c>
       <c r="L130" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -10822,7 +11221,7 @@
         <v>956</v>
       </c>
       <c r="D131" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E131" t="s">
         <v>1338</v>
@@ -10831,16 +11230,16 @@
         <v>1736</v>
       </c>
       <c r="G131" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="K131" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L131" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M131" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -10866,7 +11265,7 @@
         <v>1737</v>
       </c>
       <c r="N132" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -10880,7 +11279,7 @@
         <v>958</v>
       </c>
       <c r="D133" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="E133" t="s">
         <v>1340</v>
@@ -10892,7 +11291,7 @@
         <v>1738</v>
       </c>
       <c r="H133" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -10906,7 +11305,7 @@
         <v>959</v>
       </c>
       <c r="D134" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="E134" t="s">
         <v>1341</v>
@@ -10915,13 +11314,13 @@
         <v>1739</v>
       </c>
       <c r="G134" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="K134" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M134" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -10947,7 +11346,7 @@
         <v>1740</v>
       </c>
       <c r="N135" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -10973,7 +11372,7 @@
         <v>1741</v>
       </c>
       <c r="N136" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -10987,7 +11386,7 @@
         <v>962</v>
       </c>
       <c r="D137" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="E137" t="s">
         <v>1344</v>
@@ -10996,16 +11395,16 @@
         <v>1742</v>
       </c>
       <c r="G137" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="H137" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K137" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M137" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -11019,7 +11418,7 @@
         <v>963</v>
       </c>
       <c r="D138" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="E138" t="s">
         <v>1345</v>
@@ -11028,13 +11427,13 @@
         <v>1743</v>
       </c>
       <c r="G138" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="K138" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M138" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -11048,7 +11447,7 @@
         <v>964</v>
       </c>
       <c r="D139" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E139" t="s">
         <v>1346</v>
@@ -11057,13 +11456,13 @@
         <v>1744</v>
       </c>
       <c r="G139" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="H139" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K139" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -11077,7 +11476,7 @@
         <v>965</v>
       </c>
       <c r="D140" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="E140" t="s">
         <v>1347</v>
@@ -11086,16 +11485,16 @@
         <v>1745</v>
       </c>
       <c r="G140" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="K140" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L140" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M140" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -11109,7 +11508,7 @@
         <v>966</v>
       </c>
       <c r="D141" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E141" t="s">
         <v>1348</v>
@@ -11121,7 +11520,7 @@
         <v>1746</v>
       </c>
       <c r="M141" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -11135,7 +11534,7 @@
         <v>967</v>
       </c>
       <c r="D142" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="E142" t="s">
         <v>1349</v>
@@ -11147,7 +11546,7 @@
         <v>1747</v>
       </c>
       <c r="M142" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -11173,7 +11572,7 @@
         <v>1748</v>
       </c>
       <c r="N143" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -11187,7 +11586,7 @@
         <v>969</v>
       </c>
       <c r="D144" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="E144" t="s">
         <v>1351</v>
@@ -11196,13 +11595,13 @@
         <v>1749</v>
       </c>
       <c r="G144" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="K144" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M144" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -11228,7 +11627,7 @@
         <v>1750</v>
       </c>
       <c r="N145" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -11242,7 +11641,7 @@
         <v>971</v>
       </c>
       <c r="D146" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E146" t="s">
         <v>1353</v>
@@ -11254,7 +11653,7 @@
         <v>1751</v>
       </c>
       <c r="M146" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -11268,7 +11667,7 @@
         <v>972</v>
       </c>
       <c r="D147" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E147" t="s">
         <v>1354</v>
@@ -11277,16 +11676,16 @@
         <v>1354</v>
       </c>
       <c r="G147" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="K147" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L147" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M147" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -11300,7 +11699,7 @@
         <v>973</v>
       </c>
       <c r="D148" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="E148" t="s">
         <v>1355</v>
@@ -11309,16 +11708,16 @@
         <v>1752</v>
       </c>
       <c r="G148" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="K148" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L148" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M148" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -11330,7 +11729,7 @@
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="E149" t="s">
         <v>1356</v>
@@ -11339,13 +11738,13 @@
         <v>1753</v>
       </c>
       <c r="G149" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="J149" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K149" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -11371,7 +11770,7 @@
         <v>1754</v>
       </c>
       <c r="N150" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -11385,7 +11784,7 @@
         <v>975</v>
       </c>
       <c r="D151" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="E151" t="s">
         <v>1358</v>
@@ -11394,13 +11793,13 @@
         <v>1755</v>
       </c>
       <c r="G151" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="K151" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M151" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -11414,7 +11813,7 @@
         <v>976</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E152" t="s">
         <v>1359</v>
@@ -11423,13 +11822,13 @@
         <v>1756</v>
       </c>
       <c r="G152" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="K152" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M152" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -11452,13 +11851,13 @@
         <v>1757</v>
       </c>
       <c r="G153" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="K153" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="N153" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -11481,13 +11880,13 @@
         <v>1627</v>
       </c>
       <c r="G154" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K154" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="N154" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -11501,7 +11900,7 @@
         <v>979</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="E155" t="s">
         <v>1362</v>
@@ -11510,13 +11909,13 @@
         <v>1758</v>
       </c>
       <c r="G155" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="J155" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K155" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -11542,7 +11941,7 @@
         <v>1759</v>
       </c>
       <c r="N156" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -11568,7 +11967,7 @@
         <v>1760</v>
       </c>
       <c r="N157" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -11594,7 +11993,7 @@
         <v>1761</v>
       </c>
       <c r="N158" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -11608,7 +12007,7 @@
         <v>983</v>
       </c>
       <c r="D159" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="E159" t="s">
         <v>1366</v>
@@ -11617,13 +12016,13 @@
         <v>1762</v>
       </c>
       <c r="G159" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="H159" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K159" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -11637,7 +12036,7 @@
         <v>984</v>
       </c>
       <c r="D160" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E160" t="s">
         <v>1367</v>
@@ -11646,13 +12045,13 @@
         <v>1763</v>
       </c>
       <c r="G160" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="K160" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M160" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -11675,13 +12074,13 @@
         <v>1764</v>
       </c>
       <c r="G161" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="K161" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="N161" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -11695,7 +12094,7 @@
         <v>986</v>
       </c>
       <c r="D162" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E162" t="s">
         <v>1369</v>
@@ -11704,13 +12103,13 @@
         <v>1765</v>
       </c>
       <c r="G162" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="K162" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M162" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -11724,7 +12123,7 @@
         <v>987</v>
       </c>
       <c r="D163" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="E163" t="s">
         <v>1370</v>
@@ -11736,10 +12135,10 @@
         <v>1766</v>
       </c>
       <c r="L163" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M163" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -11762,13 +12161,13 @@
         <v>1767</v>
       </c>
       <c r="G164" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="K164" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="N164" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -11782,7 +12181,7 @@
         <v>989</v>
       </c>
       <c r="D165" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="E165" t="s">
         <v>1372</v>
@@ -11791,13 +12190,13 @@
         <v>1768</v>
       </c>
       <c r="G165" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="K165" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M165" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -11820,13 +12219,13 @@
         <v>1769</v>
       </c>
       <c r="G166" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="K166" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="N166" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -11840,7 +12239,7 @@
         <v>991</v>
       </c>
       <c r="D167" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="E167" t="s">
         <v>1374</v>
@@ -11852,10 +12251,10 @@
         <v>1770</v>
       </c>
       <c r="H167" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M167" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -11869,7 +12268,7 @@
         <v>992</v>
       </c>
       <c r="D168" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="E168" t="s">
         <v>1375</v>
@@ -11881,10 +12280,10 @@
         <v>1771</v>
       </c>
       <c r="I168" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M168" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -11910,7 +12309,7 @@
         <v>1772</v>
       </c>
       <c r="N169" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -11924,7 +12323,7 @@
         <v>994</v>
       </c>
       <c r="D170" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="E170" t="s">
         <v>1377</v>
@@ -11936,7 +12335,7 @@
         <v>1773</v>
       </c>
       <c r="M170" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -11962,7 +12361,7 @@
         <v>1774</v>
       </c>
       <c r="N171" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -11976,7 +12375,7 @@
         <v>996</v>
       </c>
       <c r="D172" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="E172" t="s">
         <v>1379</v>
@@ -11988,7 +12387,7 @@
         <v>1775</v>
       </c>
       <c r="M172" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -12002,7 +12401,7 @@
         <v>997</v>
       </c>
       <c r="D173" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="E173" t="s">
         <v>1380</v>
@@ -12014,7 +12413,7 @@
         <v>1776</v>
       </c>
       <c r="H173" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -12028,7 +12427,7 @@
         <v>998</v>
       </c>
       <c r="D174" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E174" t="s">
         <v>1381</v>
@@ -12040,7 +12439,7 @@
         <v>1777</v>
       </c>
       <c r="M174" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -12066,7 +12465,7 @@
         <v>1778</v>
       </c>
       <c r="N175" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -12080,7 +12479,7 @@
         <v>1000</v>
       </c>
       <c r="D176" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E176" t="s">
         <v>1383</v>
@@ -12089,10 +12488,10 @@
         <v>1779</v>
       </c>
       <c r="G176" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="M176" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -12118,7 +12517,7 @@
         <v>1780</v>
       </c>
       <c r="N177" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -12144,7 +12543,7 @@
         <v>1781</v>
       </c>
       <c r="N178" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -12158,7 +12557,7 @@
         <v>1003</v>
       </c>
       <c r="D179" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="E179" t="s">
         <v>1386</v>
@@ -12167,13 +12566,13 @@
         <v>1782</v>
       </c>
       <c r="G179" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="K179" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M179" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -12187,7 +12586,7 @@
         <v>1004</v>
       </c>
       <c r="D180" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="E180" t="s">
         <v>1387</v>
@@ -12196,16 +12595,16 @@
         <v>1783</v>
       </c>
       <c r="G180" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="K180" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L180" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M180" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -12231,7 +12630,7 @@
         <v>1784</v>
       </c>
       <c r="N181" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -12245,7 +12644,7 @@
         <v>1006</v>
       </c>
       <c r="D182" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="E182" t="s">
         <v>1389</v>
@@ -12257,7 +12656,7 @@
         <v>1785</v>
       </c>
       <c r="N182" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -12271,7 +12670,7 @@
         <v>1007</v>
       </c>
       <c r="D183" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="E183" t="s">
         <v>1390</v>
@@ -12280,13 +12679,13 @@
         <v>1786</v>
       </c>
       <c r="G183" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="K183" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M183" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -12300,7 +12699,7 @@
         <v>1008</v>
       </c>
       <c r="D184" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="E184" t="s">
         <v>1391</v>
@@ -12312,10 +12711,10 @@
         <v>1787</v>
       </c>
       <c r="H184" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M184" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -12329,7 +12728,7 @@
         <v>1009</v>
       </c>
       <c r="D185" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="E185" t="s">
         <v>1392</v>
@@ -12338,13 +12737,13 @@
         <v>1788</v>
       </c>
       <c r="G185" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="K185" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L185" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -12358,7 +12757,7 @@
         <v>1010</v>
       </c>
       <c r="D186" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="E186" t="s">
         <v>1393</v>
@@ -12367,13 +12766,13 @@
         <v>1789</v>
       </c>
       <c r="G186" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="K186" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M186" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -12387,7 +12786,7 @@
         <v>1011</v>
       </c>
       <c r="D187" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="E187" t="s">
         <v>1394</v>
@@ -12396,13 +12795,13 @@
         <v>1790</v>
       </c>
       <c r="G187" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="K187" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L187" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -12428,7 +12827,7 @@
         <v>1791</v>
       </c>
       <c r="N188" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -12451,13 +12850,13 @@
         <v>1792</v>
       </c>
       <c r="G189" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="K189" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="N189" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -12471,7 +12870,7 @@
         <v>1014</v>
       </c>
       <c r="D190" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E190" t="s">
         <v>1397</v>
@@ -12480,13 +12879,13 @@
         <v>1793</v>
       </c>
       <c r="G190" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="J190" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K190" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -12500,7 +12899,7 @@
         <v>1015</v>
       </c>
       <c r="D191" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="E191" t="s">
         <v>1398</v>
@@ -12509,16 +12908,16 @@
         <v>1794</v>
       </c>
       <c r="G191" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="I191" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L191" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M191" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -12541,13 +12940,13 @@
         <v>1795</v>
       </c>
       <c r="G192" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="K192" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="N192" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -12573,7 +12972,7 @@
         <v>1796</v>
       </c>
       <c r="N193" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -12599,7 +12998,7 @@
         <v>1797</v>
       </c>
       <c r="N194" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -12613,7 +13012,7 @@
         <v>1019</v>
       </c>
       <c r="D195" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="E195" t="s">
         <v>1402</v>
@@ -12622,13 +13021,13 @@
         <v>1798</v>
       </c>
       <c r="G195" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="K195" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M195" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -12642,7 +13041,7 @@
         <v>1020</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="E196" t="s">
         <v>1230</v>
@@ -12651,16 +13050,16 @@
         <v>1799</v>
       </c>
       <c r="G196" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="H196" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K196" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L196" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -12674,7 +13073,7 @@
         <v>1021</v>
       </c>
       <c r="D197" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E197" t="s">
         <v>1403</v>
@@ -12686,7 +13085,7 @@
         <v>1800</v>
       </c>
       <c r="M197" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -12700,7 +13099,7 @@
         <v>1022</v>
       </c>
       <c r="D198" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E198" t="s">
         <v>1404</v>
@@ -12709,16 +13108,16 @@
         <v>1801</v>
       </c>
       <c r="G198" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="H198" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K198" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M198" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -12732,7 +13131,7 @@
         <v>1023</v>
       </c>
       <c r="D199" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E199" t="s">
         <v>1405</v>
@@ -12741,16 +13140,16 @@
         <v>1802</v>
       </c>
       <c r="G199" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="K199" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L199" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M199" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -12764,7 +13163,7 @@
         <v>1024</v>
       </c>
       <c r="D200" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="E200" t="s">
         <v>1406</v>
@@ -12773,13 +13172,13 @@
         <v>1803</v>
       </c>
       <c r="G200" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="K200" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M200" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -12805,7 +13204,7 @@
         <v>1804</v>
       </c>
       <c r="N201" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -12818,11 +13217,23 @@
       <c r="C202" t="s">
         <v>1026</v>
       </c>
+      <c r="D202" t="s">
+        <v>2232</v>
+      </c>
       <c r="E202" t="s">
         <v>1408</v>
       </c>
       <c r="F202" t="s">
         <v>1805</v>
+      </c>
+      <c r="G202" t="s">
+        <v>2233</v>
+      </c>
+      <c r="J202" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K202" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -12835,11 +13246,26 @@
       <c r="C203" t="s">
         <v>1027</v>
       </c>
+      <c r="D203" t="s">
+        <v>2234</v>
+      </c>
       <c r="E203" t="s">
         <v>1409</v>
       </c>
       <c r="F203" t="s">
         <v>1806</v>
+      </c>
+      <c r="G203" t="s">
+        <v>2235</v>
+      </c>
+      <c r="J203" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K203" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L203" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -12852,11 +13278,23 @@
       <c r="C204" t="s">
         <v>1028</v>
       </c>
+      <c r="D204" t="s">
+        <v>2239</v>
+      </c>
       <c r="E204" t="s">
         <v>1410</v>
       </c>
       <c r="F204" t="s">
         <v>1807</v>
+      </c>
+      <c r="G204" t="s">
+        <v>2236</v>
+      </c>
+      <c r="K204" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L204" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -12869,11 +13307,20 @@
       <c r="C205" t="s">
         <v>1029</v>
       </c>
+      <c r="D205" t="s">
+        <v>2237</v>
+      </c>
       <c r="E205" t="s">
         <v>1411</v>
       </c>
       <c r="F205" t="s">
         <v>1808</v>
+      </c>
+      <c r="G205" t="s">
+        <v>1808</v>
+      </c>
+      <c r="L205" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -12886,11 +13333,26 @@
       <c r="C206" t="s">
         <v>1030</v>
       </c>
+      <c r="D206" t="s">
+        <v>1030</v>
+      </c>
       <c r="E206" t="s">
         <v>1412</v>
       </c>
       <c r="F206" t="s">
         <v>1809</v>
+      </c>
+      <c r="G206" t="s">
+        <v>2238</v>
+      </c>
+      <c r="K206" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L206" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N206" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -12903,11 +13365,32 @@
       <c r="C207" t="s">
         <v>1031</v>
       </c>
+      <c r="D207" t="s">
+        <v>2240</v>
+      </c>
       <c r="E207" t="s">
         <v>1413</v>
       </c>
       <c r="F207" t="s">
         <v>1810</v>
+      </c>
+      <c r="G207" t="s">
+        <v>2241</v>
+      </c>
+      <c r="I207" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J207" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K207" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L207" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M207" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -12920,14 +13403,26 @@
       <c r="C208" t="s">
         <v>1032</v>
       </c>
+      <c r="D208" t="s">
+        <v>1032</v>
+      </c>
       <c r="E208" t="s">
         <v>1414</v>
       </c>
       <c r="F208" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208" t="s">
+        <v>2242</v>
+      </c>
+      <c r="K208" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N208" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>221</v>
       </c>
@@ -12937,14 +13432,26 @@
       <c r="C209" t="s">
         <v>1033</v>
       </c>
+      <c r="D209" t="s">
+        <v>1033</v>
+      </c>
       <c r="E209" t="s">
         <v>1415</v>
       </c>
       <c r="F209" t="s">
         <v>1812</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209" t="s">
+        <v>2243</v>
+      </c>
+      <c r="K209" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N209" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>222</v>
       </c>
@@ -12954,14 +13461,29 @@
       <c r="C210" t="s">
         <v>1034</v>
       </c>
+      <c r="D210" t="s">
+        <v>2244</v>
+      </c>
       <c r="E210" t="s">
         <v>1416</v>
       </c>
       <c r="F210" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210" t="s">
+        <v>2245</v>
+      </c>
+      <c r="J210" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K210" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L210" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>223</v>
       </c>
@@ -12971,19 +13493,35 @@
       <c r="C211" t="s">
         <v>1035</v>
       </c>
+      <c r="D211" t="s">
+        <v>1035</v>
+      </c>
       <c r="E211" t="s">
         <v>1417</v>
       </c>
       <c r="F211" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" t="s">
+        <v>2246</v>
+      </c>
+      <c r="K211" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N211" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>224</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="2" t="s">
         <v>632</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" t="s">
+        <v>2247</v>
       </c>
       <c r="E212" t="s">
         <v>1418</v>
@@ -12991,8 +13529,14 @@
       <c r="F212" t="s">
         <v>1814</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J212" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>225</v>
       </c>
@@ -13002,14 +13546,23 @@
       <c r="C213" t="s">
         <v>1036</v>
       </c>
+      <c r="D213" t="s">
+        <v>1036</v>
+      </c>
       <c r="E213" t="s">
         <v>1419</v>
       </c>
       <c r="F213" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" t="s">
+        <v>1815</v>
+      </c>
+      <c r="N213" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>226</v>
       </c>
@@ -13019,14 +13572,23 @@
       <c r="C214" t="s">
         <v>1037</v>
       </c>
+      <c r="D214" t="s">
+        <v>2248</v>
+      </c>
       <c r="E214" t="s">
         <v>1420</v>
       </c>
       <c r="F214" t="s">
         <v>1816</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" t="s">
+        <v>1816</v>
+      </c>
+      <c r="M214" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>227</v>
       </c>
@@ -13036,14 +13598,26 @@
       <c r="C215" t="s">
         <v>1038</v>
       </c>
+      <c r="D215" t="s">
+        <v>2249</v>
+      </c>
       <c r="E215" t="s">
         <v>1421</v>
       </c>
       <c r="F215" t="s">
         <v>1817</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215" t="s">
+        <v>2250</v>
+      </c>
+      <c r="I215" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K215" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>228</v>
       </c>
@@ -13053,14 +13627,26 @@
       <c r="C216" t="s">
         <v>1039</v>
       </c>
+      <c r="D216" t="s">
+        <v>2251</v>
+      </c>
       <c r="E216" t="s">
         <v>1422</v>
       </c>
       <c r="F216" t="s">
         <v>1818</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216" t="s">
+        <v>2252</v>
+      </c>
+      <c r="I216" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L216" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>229</v>
       </c>
@@ -13070,14 +13656,29 @@
       <c r="C217" t="s">
         <v>1040</v>
       </c>
+      <c r="D217" t="s">
+        <v>2253</v>
+      </c>
       <c r="E217" t="s">
         <v>1423</v>
       </c>
       <c r="F217" t="s">
         <v>1819</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" t="s">
+        <v>2254</v>
+      </c>
+      <c r="H217" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K217" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M217" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>230</v>
       </c>
@@ -13087,14 +13688,29 @@
       <c r="C218" t="s">
         <v>1041</v>
       </c>
+      <c r="D218" t="s">
+        <v>2256</v>
+      </c>
       <c r="E218" t="s">
         <v>1424</v>
       </c>
       <c r="F218" t="s">
         <v>1820</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" t="s">
+        <v>2255</v>
+      </c>
+      <c r="I218" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K218" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M218" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>231</v>
       </c>
@@ -13104,19 +13720,41 @@
       <c r="C219" t="s">
         <v>1042</v>
       </c>
+      <c r="D219" t="s">
+        <v>2257</v>
+      </c>
       <c r="E219" t="s">
         <v>1425</v>
       </c>
       <c r="F219" t="s">
         <v>1821</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" t="s">
+        <v>2258</v>
+      </c>
+      <c r="I219" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J219" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K219" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L219" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>232</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="2" t="s">
         <v>640</v>
+      </c>
+      <c r="C220" s="2"/>
+      <c r="D220" t="s">
+        <v>2259</v>
       </c>
       <c r="E220" t="s">
         <v>1426</v>
@@ -13124,8 +13762,17 @@
       <c r="F220" t="s">
         <v>1822</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" t="s">
+        <v>2260</v>
+      </c>
+      <c r="J220" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K220" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>233</v>
       </c>
@@ -13135,14 +13782,23 @@
       <c r="C221" t="s">
         <v>1043</v>
       </c>
+      <c r="D221" t="s">
+        <v>1043</v>
+      </c>
       <c r="E221" t="s">
         <v>1427</v>
       </c>
       <c r="F221" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221" t="s">
+        <v>1427</v>
+      </c>
+      <c r="N221" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -13152,14 +13808,23 @@
       <c r="C222" t="s">
         <v>1044</v>
       </c>
+      <c r="D222" t="s">
+        <v>1044</v>
+      </c>
       <c r="E222" t="s">
         <v>1428</v>
       </c>
       <c r="F222" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" t="s">
+        <v>1823</v>
+      </c>
+      <c r="N222" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>235</v>
       </c>
@@ -13169,19 +13834,35 @@
       <c r="C223" t="s">
         <v>1045</v>
       </c>
+      <c r="D223" t="s">
+        <v>2261</v>
+      </c>
       <c r="E223" t="s">
         <v>1429</v>
       </c>
       <c r="F223" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223" t="s">
+        <v>2262</v>
+      </c>
+      <c r="K223" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L223" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>236</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="2" t="s">
         <v>644</v>
+      </c>
+      <c r="C224" s="2"/>
+      <c r="D224" t="s">
+        <v>2263</v>
       </c>
       <c r="E224" t="s">
         <v>1430</v>
@@ -13189,8 +13870,17 @@
       <c r="F224" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
+        <v>2264</v>
+      </c>
+      <c r="J224" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K224" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>237</v>
       </c>
@@ -13200,14 +13890,29 @@
       <c r="C225" t="s">
         <v>1046</v>
       </c>
+      <c r="D225" t="s">
+        <v>2293</v>
+      </c>
       <c r="E225" t="s">
         <v>1431</v>
       </c>
       <c r="F225" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
+        <v>2294</v>
+      </c>
+      <c r="H225" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I225" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K225" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>238</v>
       </c>
@@ -13217,14 +13922,26 @@
       <c r="C226" t="s">
         <v>1047</v>
       </c>
+      <c r="D226" t="s">
+        <v>1047</v>
+      </c>
       <c r="E226" t="s">
         <v>1432</v>
       </c>
       <c r="F226" t="s">
         <v>1827</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" t="s">
+        <v>2265</v>
+      </c>
+      <c r="K226" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N226" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>239</v>
       </c>
@@ -13234,14 +13951,32 @@
       <c r="C227" t="s">
         <v>1048</v>
       </c>
+      <c r="D227" t="s">
+        <v>2266</v>
+      </c>
       <c r="E227" t="s">
         <v>1433</v>
       </c>
       <c r="F227" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" t="s">
+        <v>2267</v>
+      </c>
+      <c r="I227" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J227" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K227" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L227" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>240</v>
       </c>
@@ -13251,14 +13986,26 @@
       <c r="C228" t="s">
         <v>1049</v>
       </c>
+      <c r="D228" t="s">
+        <v>2268</v>
+      </c>
       <c r="E228" t="s">
         <v>1434</v>
       </c>
       <c r="F228" t="s">
         <v>1829</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" t="s">
+        <v>2269</v>
+      </c>
+      <c r="K228" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M228" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>241</v>
       </c>
@@ -13268,14 +14015,26 @@
       <c r="C229" t="s">
         <v>1050</v>
       </c>
+      <c r="D229" t="s">
+        <v>2270</v>
+      </c>
       <c r="E229" t="s">
         <v>1435</v>
       </c>
       <c r="F229" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I229" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L229" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>242</v>
       </c>
@@ -13285,14 +14044,29 @@
       <c r="C230" t="s">
         <v>1051</v>
       </c>
+      <c r="D230" t="s">
+        <v>2271</v>
+      </c>
       <c r="E230" t="s">
         <v>1436</v>
       </c>
       <c r="F230" t="s">
         <v>1831</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230" t="s">
+        <v>2272</v>
+      </c>
+      <c r="H230" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I230" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K230" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>243</v>
       </c>
@@ -13302,14 +14076,23 @@
       <c r="C231" t="s">
         <v>1052</v>
       </c>
+      <c r="D231" t="s">
+        <v>2273</v>
+      </c>
       <c r="E231" t="s">
         <v>1437</v>
       </c>
       <c r="F231" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
+        <v>1832</v>
+      </c>
+      <c r="M231" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>244</v>
       </c>
@@ -13319,14 +14102,26 @@
       <c r="C232" t="s">
         <v>1053</v>
       </c>
+      <c r="D232" t="s">
+        <v>2274</v>
+      </c>
       <c r="E232" t="s">
         <v>1438</v>
       </c>
       <c r="F232" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" t="s">
+        <v>2275</v>
+      </c>
+      <c r="I232" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K232" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -13336,14 +14131,26 @@
       <c r="C233" t="s">
         <v>1054</v>
       </c>
+      <c r="D233" t="s">
+        <v>2276</v>
+      </c>
       <c r="E233" t="s">
         <v>1439</v>
       </c>
       <c r="F233" t="s">
         <v>1834</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" t="s">
+        <v>2277</v>
+      </c>
+      <c r="J233" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K233" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>246</v>
       </c>
@@ -13353,14 +14160,23 @@
       <c r="C234" t="s">
         <v>1055</v>
       </c>
+      <c r="D234" t="s">
+        <v>2278</v>
+      </c>
       <c r="E234" t="s">
         <v>1440</v>
       </c>
       <c r="F234" t="s">
         <v>1835</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" t="s">
+        <v>1835</v>
+      </c>
+      <c r="J234" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>247</v>
       </c>
@@ -13370,14 +14186,23 @@
       <c r="C235" t="s">
         <v>1056</v>
       </c>
+      <c r="D235" t="s">
+        <v>1056</v>
+      </c>
       <c r="E235" t="s">
         <v>1441</v>
       </c>
       <c r="F235" t="s">
         <v>1836</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" t="s">
+        <v>1836</v>
+      </c>
+      <c r="M235" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>248</v>
       </c>
@@ -13387,14 +14212,29 @@
       <c r="C236" t="s">
         <v>1057</v>
       </c>
+      <c r="D236" t="s">
+        <v>2279</v>
+      </c>
       <c r="E236" t="s">
         <v>1442</v>
       </c>
       <c r="F236" t="s">
         <v>1837</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236" t="s">
+        <v>2280</v>
+      </c>
+      <c r="I236" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J236" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K236" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>249</v>
       </c>
@@ -13404,14 +14244,29 @@
       <c r="C237" t="s">
         <v>1058</v>
       </c>
+      <c r="D237" t="s">
+        <v>2281</v>
+      </c>
       <c r="E237" t="s">
         <v>1443</v>
       </c>
       <c r="F237" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" t="s">
+        <v>2282</v>
+      </c>
+      <c r="H237" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I237" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K237" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>250</v>
       </c>
@@ -13421,14 +14276,26 @@
       <c r="C238" t="s">
         <v>1059</v>
       </c>
+      <c r="D238" t="s">
+        <v>2284</v>
+      </c>
       <c r="E238" t="s">
         <v>1444</v>
       </c>
       <c r="F238" t="s">
         <v>1839</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" t="s">
+        <v>2283</v>
+      </c>
+      <c r="I238" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L238" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>251</v>
       </c>
@@ -13438,14 +14305,29 @@
       <c r="C239" t="s">
         <v>1060</v>
       </c>
+      <c r="D239" t="s">
+        <v>2285</v>
+      </c>
       <c r="E239" t="s">
         <v>1445</v>
       </c>
       <c r="F239" t="s">
         <v>1840</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" t="s">
+        <v>2286</v>
+      </c>
+      <c r="J239" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K239" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L239" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>252</v>
       </c>
@@ -13455,14 +14337,23 @@
       <c r="C240" t="s">
         <v>1061</v>
       </c>
+      <c r="D240" t="s">
+        <v>2287</v>
+      </c>
       <c r="E240" t="s">
         <v>1446</v>
       </c>
       <c r="F240" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240" t="s">
+        <v>1841</v>
+      </c>
+      <c r="L240" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>253</v>
       </c>
@@ -13472,14 +14363,26 @@
       <c r="C241" t="s">
         <v>1062</v>
       </c>
+      <c r="D241" t="s">
+        <v>2289</v>
+      </c>
       <c r="E241" t="s">
         <v>1447</v>
       </c>
       <c r="F241" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241" t="s">
+        <v>2288</v>
+      </c>
+      <c r="I241" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K241" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>254</v>
       </c>
@@ -13489,14 +14392,23 @@
       <c r="C242" t="s">
         <v>1063</v>
       </c>
+      <c r="D242" t="s">
+        <v>2290</v>
+      </c>
       <c r="E242" t="s">
         <v>1448</v>
       </c>
       <c r="F242" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L242" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>255</v>
       </c>
@@ -13506,14 +14418,23 @@
       <c r="C243" t="s">
         <v>1064</v>
       </c>
+      <c r="D243" t="s">
+        <v>1064</v>
+      </c>
       <c r="E243" t="s">
         <v>1449</v>
       </c>
       <c r="F243" t="s">
         <v>1844</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243" t="s">
+        <v>1844</v>
+      </c>
+      <c r="N243" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>256</v>
       </c>
@@ -13523,14 +14444,26 @@
       <c r="C244" t="s">
         <v>1065</v>
       </c>
+      <c r="D244" t="s">
+        <v>2291</v>
+      </c>
       <c r="E244" t="s">
         <v>1450</v>
       </c>
       <c r="F244" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244" t="s">
+        <v>2292</v>
+      </c>
+      <c r="K244" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M244" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>257</v>
       </c>
@@ -13540,14 +14473,26 @@
       <c r="C245" t="s">
         <v>1066</v>
       </c>
+      <c r="D245" t="s">
+        <v>1066</v>
+      </c>
       <c r="E245" t="s">
         <v>1451</v>
       </c>
       <c r="F245" t="s">
         <v>1846</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245" t="s">
+        <v>2295</v>
+      </c>
+      <c r="K245" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N245" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>258</v>
       </c>
@@ -13557,19 +14502,32 @@
       <c r="C246" t="s">
         <v>1067</v>
       </c>
+      <c r="D246" t="s">
+        <v>2296</v>
+      </c>
       <c r="E246" t="s">
         <v>1452</v>
       </c>
       <c r="F246" t="s">
         <v>1847</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246" t="s">
+        <v>1847</v>
+      </c>
+      <c r="L246" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>259</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="2" t="s">
         <v>667</v>
+      </c>
+      <c r="C247" s="2"/>
+      <c r="D247" t="s">
+        <v>2297</v>
       </c>
       <c r="E247" t="s">
         <v>1453</v>
@@ -13577,8 +14535,14 @@
       <c r="F247" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J247" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>260</v>
       </c>
@@ -13588,14 +14552,23 @@
       <c r="C248" t="s">
         <v>1068</v>
       </c>
+      <c r="D248" t="s">
+        <v>2298</v>
+      </c>
       <c r="E248" t="s">
         <v>1454</v>
       </c>
       <c r="F248" t="s">
         <v>1849</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248" t="s">
+        <v>1849</v>
+      </c>
+      <c r="M248" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>261</v>
       </c>
@@ -13605,19 +14578,35 @@
       <c r="C249" t="s">
         <v>1069</v>
       </c>
+      <c r="D249" t="s">
+        <v>1069</v>
+      </c>
       <c r="E249" t="s">
         <v>1455</v>
       </c>
       <c r="F249" t="s">
         <v>1850</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249" t="s">
+        <v>2299</v>
+      </c>
+      <c r="K249" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N249" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>262</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="2" t="s">
         <v>670</v>
+      </c>
+      <c r="C250" s="2"/>
+      <c r="D250" t="s">
+        <v>2300</v>
       </c>
       <c r="E250" t="s">
         <v>1456</v>
@@ -13625,13 +14614,26 @@
       <c r="F250" t="s">
         <v>1851</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250" t="s">
+        <v>2301</v>
+      </c>
+      <c r="J250" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K250" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>263</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="2" t="s">
         <v>671</v>
+      </c>
+      <c r="C251" s="2"/>
+      <c r="D251" t="s">
+        <v>2302</v>
       </c>
       <c r="E251" t="s">
         <v>1457</v>
@@ -13639,8 +14641,14 @@
       <c r="F251" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J251" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>264</v>
       </c>
@@ -13650,14 +14658,23 @@
       <c r="C252" t="s">
         <v>1070</v>
       </c>
+      <c r="D252" t="s">
+        <v>1070</v>
+      </c>
       <c r="E252" t="s">
         <v>1458</v>
       </c>
       <c r="F252" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252" t="s">
+        <v>1853</v>
+      </c>
+      <c r="N252" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>265</v>
       </c>
@@ -13667,14 +14684,29 @@
       <c r="C253" t="s">
         <v>1071</v>
       </c>
+      <c r="D253" t="s">
+        <v>2303</v>
+      </c>
       <c r="E253" t="s">
         <v>1459</v>
       </c>
       <c r="F253" t="s">
         <v>1854</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253" t="s">
+        <v>2304</v>
+      </c>
+      <c r="K253" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L253" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M253" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>266</v>
       </c>
@@ -13684,14 +14716,32 @@
       <c r="C254" t="s">
         <v>1072</v>
       </c>
+      <c r="D254" t="s">
+        <v>2305</v>
+      </c>
       <c r="E254" t="s">
         <v>1460</v>
       </c>
       <c r="F254" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254" t="s">
+        <v>2306</v>
+      </c>
+      <c r="J254" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K254" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L254" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M254" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>267</v>
       </c>
@@ -13701,14 +14751,23 @@
       <c r="C255" t="s">
         <v>1073</v>
       </c>
+      <c r="D255" t="s">
+        <v>1073</v>
+      </c>
       <c r="E255" t="s">
         <v>1461</v>
       </c>
       <c r="F255" t="s">
         <v>1856</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255" t="s">
+        <v>1856</v>
+      </c>
+      <c r="N255" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>268</v>
       </c>
@@ -13718,19 +14777,38 @@
       <c r="C256" t="s">
         <v>1074</v>
       </c>
+      <c r="D256" t="s">
+        <v>2307</v>
+      </c>
       <c r="E256" t="s">
         <v>1462</v>
       </c>
       <c r="F256" t="s">
         <v>1857</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256" t="s">
+        <v>2308</v>
+      </c>
+      <c r="H256" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K256" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M256" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>269</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="2" t="s">
         <v>677</v>
+      </c>
+      <c r="C257" s="2"/>
+      <c r="D257" t="s">
+        <v>2309</v>
       </c>
       <c r="E257" t="s">
         <v>1463</v>
@@ -13738,8 +14816,17 @@
       <c r="F257" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257" t="s">
+        <v>2310</v>
+      </c>
+      <c r="J257" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K257" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>270</v>
       </c>
@@ -13749,19 +14836,35 @@
       <c r="C258" t="s">
         <v>1075</v>
       </c>
+      <c r="D258" t="s">
+        <v>1075</v>
+      </c>
       <c r="E258" t="s">
         <v>1464</v>
       </c>
       <c r="F258" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258" t="s">
+        <v>2311</v>
+      </c>
+      <c r="K258" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N258" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>271</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="2" t="s">
         <v>679</v>
+      </c>
+      <c r="C259" s="2"/>
+      <c r="D259" t="s">
+        <v>2312</v>
       </c>
       <c r="E259" t="s">
         <v>1465</v>
@@ -13769,8 +14872,20 @@
       <c r="F259" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259" t="s">
+        <v>2313</v>
+      </c>
+      <c r="I259" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J259" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K259" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>272</v>
       </c>
@@ -13780,14 +14895,32 @@
       <c r="C260" t="s">
         <v>1076</v>
       </c>
+      <c r="D260" t="s">
+        <v>2314</v>
+      </c>
       <c r="E260" t="s">
         <v>1466</v>
       </c>
       <c r="F260" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260" t="s">
+        <v>2315</v>
+      </c>
+      <c r="H260" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I260" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J260" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K260" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>273</v>
       </c>
@@ -13797,14 +14930,23 @@
       <c r="C261" t="s">
         <v>1077</v>
       </c>
+      <c r="D261" t="s">
+        <v>1077</v>
+      </c>
       <c r="E261" t="s">
         <v>1467</v>
       </c>
       <c r="F261" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261" t="s">
+        <v>1862</v>
+      </c>
+      <c r="N261" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>274</v>
       </c>
@@ -13814,14 +14956,23 @@
       <c r="C262" t="s">
         <v>1078</v>
       </c>
+      <c r="D262" t="s">
+        <v>2316</v>
+      </c>
       <c r="E262" t="s">
         <v>1468</v>
       </c>
       <c r="F262" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262" t="s">
+        <v>1863</v>
+      </c>
+      <c r="L262" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>275</v>
       </c>
@@ -13831,14 +14982,26 @@
       <c r="C263" t="s">
         <v>1079</v>
       </c>
+      <c r="D263" t="s">
+        <v>1079</v>
+      </c>
       <c r="E263" t="s">
         <v>1469</v>
       </c>
       <c r="F263" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263" t="s">
+        <v>2317</v>
+      </c>
+      <c r="K263" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N263" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>276</v>
       </c>
@@ -13848,14 +15011,23 @@
       <c r="C264" t="s">
         <v>1080</v>
       </c>
+      <c r="D264" t="s">
+        <v>1080</v>
+      </c>
       <c r="E264" t="s">
         <v>1470</v>
       </c>
       <c r="F264" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G264" t="s">
+        <v>1865</v>
+      </c>
+      <c r="N264" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>277</v>
       </c>
@@ -13865,14 +15037,23 @@
       <c r="C265" t="s">
         <v>1081</v>
       </c>
+      <c r="D265" t="s">
+        <v>2318</v>
+      </c>
       <c r="E265" t="s">
         <v>1471</v>
       </c>
       <c r="F265" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G265" t="s">
+        <v>1866</v>
+      </c>
+      <c r="M265" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>278</v>
       </c>
@@ -13882,14 +15063,23 @@
       <c r="C266" t="s">
         <v>1082</v>
       </c>
+      <c r="D266" t="s">
+        <v>1082</v>
+      </c>
       <c r="E266" t="s">
         <v>1472</v>
       </c>
       <c r="F266" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G266" t="s">
+        <v>1867</v>
+      </c>
+      <c r="N266" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>279</v>
       </c>
@@ -13899,14 +15089,26 @@
       <c r="C267" t="s">
         <v>1083</v>
       </c>
+      <c r="D267" t="s">
+        <v>2319</v>
+      </c>
       <c r="E267" t="s">
         <v>1473</v>
       </c>
       <c r="F267" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G267" t="s">
+        <v>2320</v>
+      </c>
+      <c r="K267" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M267" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>280</v>
       </c>
@@ -13916,14 +15118,23 @@
       <c r="C268" t="s">
         <v>1084</v>
       </c>
+      <c r="D268" t="s">
+        <v>2321</v>
+      </c>
       <c r="E268" t="s">
         <v>1474</v>
       </c>
       <c r="F268" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G268" t="s">
+        <v>1869</v>
+      </c>
+      <c r="L268" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>281</v>
       </c>
@@ -13933,14 +15144,26 @@
       <c r="C269" t="s">
         <v>1085</v>
       </c>
+      <c r="D269" t="s">
+        <v>2322</v>
+      </c>
       <c r="E269" t="s">
         <v>1475</v>
       </c>
       <c r="F269" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G269" t="s">
+        <v>2323</v>
+      </c>
+      <c r="K269" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M269" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>282</v>
       </c>
@@ -13950,14 +15173,26 @@
       <c r="C270" t="s">
         <v>1086</v>
       </c>
+      <c r="D270" t="s">
+        <v>2324</v>
+      </c>
       <c r="E270" t="s">
         <v>1476</v>
       </c>
       <c r="F270" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G270" t="s">
+        <v>2325</v>
+      </c>
+      <c r="K270" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N270" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>283</v>
       </c>
@@ -13967,14 +15202,23 @@
       <c r="C271" t="s">
         <v>1087</v>
       </c>
+      <c r="D271" t="s">
+        <v>1087</v>
+      </c>
       <c r="E271" t="s">
         <v>1477</v>
       </c>
       <c r="F271" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G271" t="s">
+        <v>1872</v>
+      </c>
+      <c r="N271" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>284</v>
       </c>
@@ -13984,14 +15228,23 @@
       <c r="C272" t="s">
         <v>1088</v>
       </c>
+      <c r="D272" t="s">
+        <v>2326</v>
+      </c>
       <c r="E272" t="s">
         <v>1478</v>
       </c>
       <c r="F272" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G272" t="s">
+        <v>1873</v>
+      </c>
+      <c r="M272" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>285</v>
       </c>
@@ -14001,14 +15254,29 @@
       <c r="C273" t="s">
         <v>1089</v>
       </c>
+      <c r="D273" t="s">
+        <v>2327</v>
+      </c>
       <c r="E273" t="s">
         <v>1479</v>
       </c>
       <c r="F273" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G273" t="s">
+        <v>2328</v>
+      </c>
+      <c r="I273" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K273" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L273" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>286</v>
       </c>
@@ -14018,14 +15286,29 @@
       <c r="C274" t="s">
         <v>1090</v>
       </c>
+      <c r="D274" t="s">
+        <v>2329</v>
+      </c>
       <c r="E274" t="s">
         <v>1480</v>
       </c>
       <c r="F274" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G274" t="s">
+        <v>2330</v>
+      </c>
+      <c r="I274" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J274" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K274" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>287</v>
       </c>
@@ -14035,14 +15318,29 @@
       <c r="C275" t="s">
         <v>1091</v>
       </c>
+      <c r="D275" t="s">
+        <v>2331</v>
+      </c>
       <c r="E275" t="s">
         <v>1481</v>
       </c>
       <c r="F275" t="s">
         <v>1876</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G275" t="s">
+        <v>2332</v>
+      </c>
+      <c r="K275" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L275" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M275" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>288</v>
       </c>
@@ -14052,14 +15350,26 @@
       <c r="C276" t="s">
         <v>1092</v>
       </c>
+      <c r="D276" t="s">
+        <v>2333</v>
+      </c>
       <c r="E276" t="s">
         <v>1482</v>
       </c>
       <c r="F276" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G276" t="s">
+        <v>2334</v>
+      </c>
+      <c r="J276" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K276" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>289</v>
       </c>
@@ -14069,14 +15379,32 @@
       <c r="C277" t="s">
         <v>1093</v>
       </c>
+      <c r="D277" t="s">
+        <v>2335</v>
+      </c>
       <c r="E277" t="s">
         <v>1483</v>
       </c>
       <c r="F277" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G277" t="s">
+        <v>2336</v>
+      </c>
+      <c r="I277" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J277" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K277" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L277" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>290</v>
       </c>
@@ -14086,14 +15414,23 @@
       <c r="C278" t="s">
         <v>1094</v>
       </c>
+      <c r="D278" t="s">
+        <v>2337</v>
+      </c>
       <c r="E278" t="s">
         <v>1484</v>
       </c>
       <c r="F278" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G278" t="s">
+        <v>1879</v>
+      </c>
+      <c r="L278" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>291</v>
       </c>
@@ -14103,14 +15440,26 @@
       <c r="C279" t="s">
         <v>1095</v>
       </c>
+      <c r="D279" t="s">
+        <v>2338</v>
+      </c>
       <c r="E279" t="s">
         <v>1485</v>
       </c>
       <c r="F279" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G279" t="s">
+        <v>2339</v>
+      </c>
+      <c r="J279" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K279" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>292</v>
       </c>
@@ -14120,14 +15469,26 @@
       <c r="C280" t="s">
         <v>1096</v>
       </c>
+      <c r="D280" t="s">
+        <v>1096</v>
+      </c>
       <c r="E280" t="s">
         <v>1486</v>
       </c>
       <c r="F280" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G280" t="s">
+        <v>2340</v>
+      </c>
+      <c r="K280" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N280" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>293</v>
       </c>
@@ -14137,14 +15498,26 @@
       <c r="C281" t="s">
         <v>1097</v>
       </c>
+      <c r="D281" t="s">
+        <v>2341</v>
+      </c>
       <c r="E281" t="s">
         <v>1487</v>
       </c>
       <c r="F281" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G281" t="s">
+        <v>2342</v>
+      </c>
+      <c r="K281" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L281" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>294</v>
       </c>
@@ -14154,14 +15527,23 @@
       <c r="C282" t="s">
         <v>1098</v>
       </c>
+      <c r="D282" t="s">
+        <v>2344</v>
+      </c>
       <c r="E282" t="s">
         <v>1488</v>
       </c>
       <c r="F282" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G282" t="s">
+        <v>1883</v>
+      </c>
+      <c r="M282" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>295</v>
       </c>
@@ -14171,14 +15553,23 @@
       <c r="C283" t="s">
         <v>1099</v>
       </c>
+      <c r="D283" t="s">
+        <v>2345</v>
+      </c>
       <c r="E283" t="s">
         <v>1489</v>
       </c>
       <c r="F283" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G283" t="s">
+        <v>1884</v>
+      </c>
+      <c r="M283" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>296</v>
       </c>
@@ -14188,14 +15579,26 @@
       <c r="C284" t="s">
         <v>1100</v>
       </c>
+      <c r="D284" t="s">
+        <v>2346</v>
+      </c>
       <c r="E284" t="s">
         <v>1490</v>
       </c>
       <c r="F284" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G284" t="s">
+        <v>2347</v>
+      </c>
+      <c r="J284" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K284" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>297</v>
       </c>
@@ -14205,14 +15608,29 @@
       <c r="C285" t="s">
         <v>1101</v>
       </c>
+      <c r="D285" t="s">
+        <v>2348</v>
+      </c>
       <c r="E285" t="s">
         <v>1491</v>
       </c>
       <c r="F285" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G285" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H285" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K285" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L285" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>298</v>
       </c>
@@ -14222,14 +15640,20 @@
       <c r="C286" t="s">
         <v>1102</v>
       </c>
+      <c r="D286" t="s">
+        <v>2351</v>
+      </c>
       <c r="E286" t="s">
         <v>1492</v>
       </c>
-      <c r="F286" t="s">
+      <c r="G286" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M286" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>299</v>
       </c>
@@ -14239,14 +15663,23 @@
       <c r="C287" t="s">
         <v>1103</v>
       </c>
+      <c r="D287" t="s">
+        <v>1103</v>
+      </c>
       <c r="E287" t="s">
         <v>1493</v>
       </c>
       <c r="F287" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G287" t="s">
+        <v>1888</v>
+      </c>
+      <c r="N287" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>300</v>
       </c>
@@ -14256,14 +15689,26 @@
       <c r="C288" t="s">
         <v>1104</v>
       </c>
+      <c r="D288" t="s">
+        <v>2352</v>
+      </c>
       <c r="E288" t="s">
         <v>1494</v>
       </c>
       <c r="F288" t="s">
         <v>1889</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G288" t="s">
+        <v>2343</v>
+      </c>
+      <c r="K288" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L288" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>301</v>
       </c>
@@ -14273,14 +15718,26 @@
       <c r="C289" t="s">
         <v>1105</v>
       </c>
+      <c r="D289" t="s">
+        <v>2353</v>
+      </c>
       <c r="E289" t="s">
         <v>1495</v>
       </c>
       <c r="F289" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G289" t="s">
+        <v>2354</v>
+      </c>
+      <c r="I289" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K289" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>302</v>
       </c>
@@ -14290,14 +15747,26 @@
       <c r="C290" t="s">
         <v>1106</v>
       </c>
+      <c r="D290" t="s">
+        <v>1106</v>
+      </c>
       <c r="E290" t="s">
         <v>1496</v>
       </c>
       <c r="F290" t="s">
         <v>1891</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G290" t="s">
+        <v>2355</v>
+      </c>
+      <c r="K290" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N290" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>303</v>
       </c>
@@ -14307,14 +15776,23 @@
       <c r="C291" t="s">
         <v>1107</v>
       </c>
+      <c r="D291" t="s">
+        <v>2356</v>
+      </c>
       <c r="E291" t="s">
         <v>1497</v>
       </c>
       <c r="F291" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G291" t="s">
+        <v>1892</v>
+      </c>
+      <c r="M291" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>304</v>
       </c>
@@ -14324,14 +15802,26 @@
       <c r="C292" t="s">
         <v>1108</v>
       </c>
+      <c r="D292" t="s">
+        <v>2357</v>
+      </c>
       <c r="E292" t="s">
         <v>1498</v>
       </c>
       <c r="F292" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G292" t="s">
+        <v>2358</v>
+      </c>
+      <c r="K292" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M292" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>305</v>
       </c>
@@ -14341,14 +15831,23 @@
       <c r="C293" t="s">
         <v>1109</v>
       </c>
+      <c r="D293" t="s">
+        <v>2360</v>
+      </c>
       <c r="E293" t="s">
         <v>1499</v>
       </c>
       <c r="F293" t="s">
         <v>1894</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G293" t="s">
+        <v>1894</v>
+      </c>
+      <c r="L293" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>306</v>
       </c>
@@ -14358,14 +15857,29 @@
       <c r="C294" t="s">
         <v>1110</v>
       </c>
+      <c r="D294" t="s">
+        <v>2361</v>
+      </c>
       <c r="E294" t="s">
         <v>1500</v>
       </c>
       <c r="F294" t="s">
         <v>1895</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G294" t="s">
+        <v>2362</v>
+      </c>
+      <c r="H294" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K294" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M294" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>307</v>
       </c>
@@ -14375,14 +15889,29 @@
       <c r="C295" t="s">
         <v>1111</v>
       </c>
+      <c r="D295" t="s">
+        <v>2363</v>
+      </c>
       <c r="E295" t="s">
         <v>1501</v>
       </c>
       <c r="F295" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G295" t="s">
+        <v>2364</v>
+      </c>
+      <c r="I295" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J295" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K295" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>308</v>
       </c>
@@ -14392,14 +15921,26 @@
       <c r="C296" t="s">
         <v>1112</v>
       </c>
+      <c r="D296" t="s">
+        <v>1112</v>
+      </c>
       <c r="E296" t="s">
         <v>1502</v>
       </c>
       <c r="F296" t="s">
         <v>1897</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G296" t="s">
+        <v>2359</v>
+      </c>
+      <c r="K296" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N296" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>309</v>
       </c>
@@ -14416,7 +15957,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>310</v>
       </c>
@@ -14433,7 +15974,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>311</v>
       </c>
@@ -14447,7 +15988,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>312</v>
       </c>
@@ -14464,7 +16005,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>313</v>
       </c>
@@ -14475,7 +16016,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>314</v>
       </c>
@@ -14492,7 +16033,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>315</v>
       </c>
@@ -14509,7 +16050,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>316</v>
       </c>

--- a/Review files/qald9_train_set_review_table.xlsx
+++ b/Review files/qald9_train_set_review_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javi\Desktop\Work\QALD9ES\Repo\QALD9-ES\Review files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0FE703-4E22-4E63-9032-9B15187AEEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF9940E-E80B-4E4B-A253-D7040A9A196C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="2365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="2435">
   <si>
     <t>id</t>
   </si>
@@ -7133,6 +7133,216 @@
   </si>
   <si>
     <t>Pink Floyd, The Wall, escritores</t>
+  </si>
+  <si>
+    <t>Australia, ciudad, más grande</t>
+  </si>
+  <si>
+    <t>casado, presidente, Chirac</t>
+  </si>
+  <si>
+    <t>¿Cuál es el sistema de gobierno en Sudáfrica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de gobierno , Sudáfrica </t>
+  </si>
+  <si>
+    <t>¿Cuál es la altura de la torre marina de Yokohama?</t>
+  </si>
+  <si>
+    <t>altura, torre marina Yokohama</t>
+  </si>
+  <si>
+    <t>¿Qué días festivos son festejados en todo el mundo?</t>
+  </si>
+  <si>
+    <t>días festivos, todo el mundo</t>
+  </si>
+  <si>
+    <t>¿Quién es el jugador de baloncesto más alto?</t>
+  </si>
+  <si>
+    <t>jugador de baloncesto, más alto</t>
+  </si>
+  <si>
+    <t>idiomas, Turkmenistán, cuántos</t>
+  </si>
+  <si>
+    <t>¿Alguna vez ganó Kaurismäki el Gran Prix de Cannes?</t>
+  </si>
+  <si>
+    <t>¿A qué partido político pertenece el alcalde de París?</t>
+  </si>
+  <si>
+    <t>partido político, alcalde, París</t>
+  </si>
+  <si>
+    <t>¿Quién es el conductor de Fórmula 1 con más carreras?</t>
+  </si>
+  <si>
+    <t>conductor, Fórmula 1, carreras, más</t>
+  </si>
+  <si>
+    <t>país, origen, Sitecore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lugar de nacimiento,  Frank Sinatra </t>
+  </si>
+  <si>
+    <t>¿Dónde nació Frank Sinatra?</t>
+  </si>
+  <si>
+    <t>hijo, Sonny, Cher</t>
+  </si>
+  <si>
+    <t>¿Cuántos grupos étnicos hay en Eslovenia?</t>
+  </si>
+  <si>
+    <t>grupos étnicos, Eslovenia</t>
+  </si>
+  <si>
+    <t>¿Nació Natalie Portman en los Estados Unidos de América?</t>
+  </si>
+  <si>
+    <t>Natalie Portman,nacimiento, Estados Unidos de América</t>
+  </si>
+  <si>
+    <t>¿Quién es el hijo mayor de Meryl Streep?</t>
+  </si>
+  <si>
+    <t>hijo, mayor, Meryl Streep</t>
+  </si>
+  <si>
+    <t>¿Qué series de televisión creó Walt Disney?</t>
+  </si>
+  <si>
+    <t>series de televisión, creó, Walt Disney</t>
+  </si>
+  <si>
+    <t>¿Qué tipo de uvas crecen en Oregón?</t>
+  </si>
+  <si>
+    <t>tipo uva, crece, Oregón</t>
+  </si>
+  <si>
+    <t>¿Estuvo el presidente americano Jackson involucrado en una guerra?</t>
+  </si>
+  <si>
+    <t>presidente americano, Jackson, guerra</t>
+  </si>
+  <si>
+    <t>¿Cuándo se completó el Titanic?</t>
+  </si>
+  <si>
+    <t>¿Ganó Tesla el premio nobel de física?</t>
+  </si>
+  <si>
+    <t>¿Cuántos estados tiene México?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estados ,  México </t>
+  </si>
+  <si>
+    <t>¿Qué científico es conocido por haber participado en el proyecto Manhattan y ganar el premio Nobel de la Paz?</t>
+  </si>
+  <si>
+    <t>científico,  proyecto Manhattan, premio Nobel de la Paz</t>
+  </si>
+  <si>
+    <t>¿Cuánto costó la película de Lego?</t>
+  </si>
+  <si>
+    <t>precio, película, Lego</t>
+  </si>
+  <si>
+    <t>serie de televisión, HBO, Los Sopranos, primera temporada, episodios</t>
+  </si>
+  <si>
+    <t>¿Qué ciudad tiene la menor población?</t>
+  </si>
+  <si>
+    <t>ciudad, menor, población</t>
+  </si>
+  <si>
+    <t>ubicación, enterrado, Syngman Rhee</t>
+  </si>
+  <si>
+    <t>¿Neymar juega en el Real Madrid?</t>
+  </si>
+  <si>
+    <t>príncipe Harry, príncipe William, mismos padres</t>
+  </si>
+  <si>
+    <t>¿Tienen el príncipe Harry y el príncipe William los mismos padres?</t>
+  </si>
+  <si>
+    <t>¿Quién fue el supervisor doctoral de Albert Einstein?</t>
+  </si>
+  <si>
+    <t>¿Quién inspiró a Vincent van Gogh?</t>
+  </si>
+  <si>
+    <t>persona, inpiración, Vincent van Gogh</t>
+  </si>
+  <si>
+    <t>¿Qué edificio tiene más pisos luego del Burj Khalifa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edificio ,  después ,  Burj Khalifa,  más pisos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resultado ,  Guerra de las Rosas </t>
+  </si>
+  <si>
+    <t>¿Cuál fue el resultado final de la Guerra de las Rosas?</t>
+  </si>
+  <si>
+    <t>¿Cuanto costó Pulp Fiction?</t>
+  </si>
+  <si>
+    <t>costó, Pulp Fiction</t>
+  </si>
+  <si>
+    <t>¿Es la proinsulina una proteína?</t>
+  </si>
+  <si>
+    <t>proinsulina, proteína</t>
+  </si>
+  <si>
+    <t>¿Tienen el Urdu y el Persa una raíz en común?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urdu ,  persa , raíz en común </t>
+  </si>
+  <si>
+    <t>¿Quién actúa en películas españolas producidas por Benicio del Toro?</t>
+  </si>
+  <si>
+    <t>actores, películas, españolas, productor, Benicio del Toro</t>
+  </si>
+  <si>
+    <t>¿Es el lago Baikal más grande que el Gran Lago del Oso?</t>
+  </si>
+  <si>
+    <t>lago Baikal, más grande, Gran lago del Oso</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los libros de la serie de Fundación de Asimov?</t>
+  </si>
+  <si>
+    <t>libros, serie Fundación, Asimov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciudad ,  más antiguo, funcional, metro </t>
+  </si>
+  <si>
+    <t>¿Qué ciudad tiene el metro en funcionamiento más antiguo?</t>
+  </si>
+  <si>
+    <t>¿Quién diseñó el puente de Brooklyn?</t>
+  </si>
+  <si>
+    <t>diseñador, puente de Brooklyn</t>
   </si>
 </sst>
 </file>
@@ -7566,9 +7776,9 @@
   <dimension ref="A1:N409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B297" sqref="B297"/>
+      <selection pane="bottomLeft" activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15950,11 +16160,23 @@
       <c r="C297" t="s">
         <v>1113</v>
       </c>
+      <c r="D297" t="s">
+        <v>1113</v>
+      </c>
       <c r="E297" t="s">
         <v>1503</v>
       </c>
       <c r="F297" t="s">
         <v>1898</v>
+      </c>
+      <c r="G297" t="s">
+        <v>2365</v>
+      </c>
+      <c r="K297" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N297" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
@@ -15967,25 +16189,50 @@
       <c r="C298" t="s">
         <v>1114</v>
       </c>
+      <c r="D298" t="s">
+        <v>1114</v>
+      </c>
       <c r="E298" t="s">
         <v>1504</v>
       </c>
       <c r="F298" t="s">
         <v>1899</v>
+      </c>
+      <c r="G298" t="s">
+        <v>2366</v>
+      </c>
+      <c r="K298" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M298" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>311</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="2" t="s">
         <v>719</v>
+      </c>
+      <c r="C299" s="2"/>
+      <c r="D299" t="s">
+        <v>2367</v>
       </c>
       <c r="E299" t="s">
         <v>1505</v>
       </c>
       <c r="F299" t="s">
         <v>1900</v>
+      </c>
+      <c r="G299" t="s">
+        <v>2368</v>
+      </c>
+      <c r="J299" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K299" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
@@ -15998,22 +16245,50 @@
       <c r="C300" t="s">
         <v>1115</v>
       </c>
+      <c r="D300" t="s">
+        <v>2369</v>
+      </c>
       <c r="E300" t="s">
         <v>1506</v>
       </c>
       <c r="F300" t="s">
         <v>1901</v>
+      </c>
+      <c r="G300" t="s">
+        <v>2370</v>
+      </c>
+      <c r="I300" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K300" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M300" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>313</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="2" t="s">
         <v>721</v>
+      </c>
+      <c r="C301" s="2"/>
+      <c r="D301" t="s">
+        <v>2371</v>
       </c>
       <c r="E301" t="s">
         <v>1356</v>
+      </c>
+      <c r="G301" t="s">
+        <v>2372</v>
+      </c>
+      <c r="J301" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K301" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
@@ -16026,11 +16301,26 @@
       <c r="C302" t="s">
         <v>1116</v>
       </c>
+      <c r="D302" t="s">
+        <v>2373</v>
+      </c>
       <c r="E302" t="s">
         <v>1507</v>
       </c>
       <c r="F302" t="s">
         <v>1902</v>
+      </c>
+      <c r="G302" t="s">
+        <v>2374</v>
+      </c>
+      <c r="H302" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K302" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L302" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
@@ -16043,11 +16333,23 @@
       <c r="C303" t="s">
         <v>1117</v>
       </c>
+      <c r="D303" t="s">
+        <v>1117</v>
+      </c>
       <c r="E303" t="s">
         <v>1508</v>
       </c>
       <c r="F303" t="s">
         <v>1903</v>
+      </c>
+      <c r="G303" t="s">
+        <v>2375</v>
+      </c>
+      <c r="K303" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N303" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
@@ -16060,14 +16362,23 @@
       <c r="C304" t="s">
         <v>1118</v>
       </c>
+      <c r="D304" t="s">
+        <v>1118</v>
+      </c>
       <c r="E304" t="s">
         <v>1509</v>
       </c>
       <c r="F304" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G304" t="s">
+        <v>1904</v>
+      </c>
+      <c r="N304" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>317</v>
       </c>
@@ -16077,14 +16388,29 @@
       <c r="C305" t="s">
         <v>1119</v>
       </c>
+      <c r="D305" t="s">
+        <v>2376</v>
+      </c>
       <c r="E305" t="s">
         <v>1510</v>
       </c>
       <c r="F305" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G305" t="s">
+        <v>1905</v>
+      </c>
+      <c r="I305" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L305" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M305" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>318</v>
       </c>
@@ -16094,14 +16420,26 @@
       <c r="C306" t="s">
         <v>1120</v>
       </c>
+      <c r="D306" t="s">
+        <v>2377</v>
+      </c>
       <c r="E306" t="s">
         <v>1511</v>
       </c>
       <c r="F306" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G306" t="s">
+        <v>2378</v>
+      </c>
+      <c r="K306" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L306" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>319</v>
       </c>
@@ -16111,14 +16449,26 @@
       <c r="C307" t="s">
         <v>1121</v>
       </c>
+      <c r="D307" t="s">
+        <v>2379</v>
+      </c>
       <c r="E307" t="s">
         <v>1512</v>
       </c>
       <c r="F307" t="s">
         <v>1907</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G307" t="s">
+        <v>2380</v>
+      </c>
+      <c r="K307" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L307" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>320</v>
       </c>
@@ -16128,19 +16478,35 @@
       <c r="C308" t="s">
         <v>1122</v>
       </c>
+      <c r="D308" t="s">
+        <v>1122</v>
+      </c>
       <c r="E308" t="s">
         <v>1513</v>
       </c>
       <c r="F308" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G308" t="s">
+        <v>2381</v>
+      </c>
+      <c r="K308" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N308" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>321</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="2" t="s">
         <v>729</v>
+      </c>
+      <c r="C309" s="2"/>
+      <c r="D309" t="s">
+        <v>2383</v>
       </c>
       <c r="E309" t="s">
         <v>1514</v>
@@ -16148,8 +16514,20 @@
       <c r="F309" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G309" t="s">
+        <v>2382</v>
+      </c>
+      <c r="I309" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J309" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K309" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>322</v>
       </c>
@@ -16159,14 +16537,23 @@
       <c r="C310" t="s">
         <v>1123</v>
       </c>
+      <c r="D310" t="s">
+        <v>1123</v>
+      </c>
       <c r="E310" t="s">
         <v>1515</v>
       </c>
       <c r="F310" t="s">
         <v>1910</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G310" t="s">
+        <v>1910</v>
+      </c>
+      <c r="N310" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>323</v>
       </c>
@@ -16176,14 +16563,26 @@
       <c r="C311" t="s">
         <v>1124</v>
       </c>
+      <c r="D311" t="s">
+        <v>1124</v>
+      </c>
       <c r="E311" t="s">
         <v>1516</v>
       </c>
       <c r="F311" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G311" t="s">
+        <v>2384</v>
+      </c>
+      <c r="K311" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N311" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>324</v>
       </c>
@@ -16193,14 +16592,26 @@
       <c r="C312" t="s">
         <v>1125</v>
       </c>
+      <c r="D312" t="s">
+        <v>2385</v>
+      </c>
       <c r="E312" t="s">
         <v>1517</v>
       </c>
       <c r="F312" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G312" t="s">
+        <v>2386</v>
+      </c>
+      <c r="K312" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M312" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>325</v>
       </c>
@@ -16210,14 +16621,23 @@
       <c r="C313" t="s">
         <v>1126</v>
       </c>
+      <c r="D313" t="s">
+        <v>1126</v>
+      </c>
       <c r="E313" t="s">
         <v>1518</v>
       </c>
       <c r="F313" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G313" t="s">
+        <v>1913</v>
+      </c>
+      <c r="N313" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>326</v>
       </c>
@@ -16227,14 +16647,26 @@
       <c r="C314" t="s">
         <v>1127</v>
       </c>
+      <c r="D314" t="s">
+        <v>2387</v>
+      </c>
       <c r="E314" t="s">
         <v>1519</v>
       </c>
       <c r="F314" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G314" t="s">
+        <v>2388</v>
+      </c>
+      <c r="H314" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K314" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>327</v>
       </c>
@@ -16244,14 +16676,23 @@
       <c r="C315" t="s">
         <v>1128</v>
       </c>
+      <c r="D315" t="s">
+        <v>1128</v>
+      </c>
       <c r="E315" t="s">
         <v>1520</v>
       </c>
       <c r="F315" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G315" t="s">
+        <v>1915</v>
+      </c>
+      <c r="N315" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>328</v>
       </c>
@@ -16261,14 +16702,32 @@
       <c r="C316" t="s">
         <v>1129</v>
       </c>
+      <c r="D316" t="s">
+        <v>2389</v>
+      </c>
       <c r="E316" t="s">
         <v>1521</v>
       </c>
       <c r="F316" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G316" t="s">
+        <v>2390</v>
+      </c>
+      <c r="H316" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K316" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L316" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M316" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>329</v>
       </c>
@@ -16278,14 +16737,26 @@
       <c r="C317" t="s">
         <v>1130</v>
       </c>
+      <c r="D317" t="s">
+        <v>2391</v>
+      </c>
       <c r="E317" t="s">
         <v>1522</v>
       </c>
       <c r="F317" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G317" t="s">
+        <v>2392</v>
+      </c>
+      <c r="K317" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M317" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>330</v>
       </c>
@@ -16295,14 +16766,23 @@
       <c r="C318" t="s">
         <v>1131</v>
       </c>
+      <c r="D318" t="s">
+        <v>1131</v>
+      </c>
       <c r="E318" t="s">
         <v>1523</v>
       </c>
       <c r="F318" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G318" t="s">
+        <v>1918</v>
+      </c>
+      <c r="N318" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>331</v>
       </c>
@@ -16312,14 +16792,29 @@
       <c r="C319" t="s">
         <v>1132</v>
       </c>
+      <c r="D319" t="s">
+        <v>2393</v>
+      </c>
       <c r="E319" t="s">
         <v>1524</v>
       </c>
       <c r="F319" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G319" t="s">
+        <v>2394</v>
+      </c>
+      <c r="H319" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K319" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L319" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>332</v>
       </c>
@@ -16329,14 +16824,26 @@
       <c r="C320" t="s">
         <v>1133</v>
       </c>
+      <c r="D320" t="s">
+        <v>2395</v>
+      </c>
       <c r="E320" t="s">
         <v>1525</v>
       </c>
       <c r="F320" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G320" t="s">
+        <v>2396</v>
+      </c>
+      <c r="K320" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M320" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>333</v>
       </c>
@@ -16346,14 +16853,23 @@
       <c r="C321" t="s">
         <v>1134</v>
       </c>
+      <c r="D321" t="s">
+        <v>2397</v>
+      </c>
       <c r="E321" t="s">
         <v>1526</v>
       </c>
       <c r="F321" t="s">
         <v>1921</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G321" t="s">
+        <v>1921</v>
+      </c>
+      <c r="L321" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>334</v>
       </c>
@@ -16363,19 +16879,32 @@
       <c r="C322" t="s">
         <v>1135</v>
       </c>
+      <c r="D322" t="s">
+        <v>2398</v>
+      </c>
       <c r="E322" t="s">
         <v>1527</v>
       </c>
       <c r="F322" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G322" t="s">
+        <v>1922</v>
+      </c>
+      <c r="M322" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>335</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="2" t="s">
         <v>743</v>
+      </c>
+      <c r="C323" s="2"/>
+      <c r="D323" t="s">
+        <v>2399</v>
       </c>
       <c r="E323" t="s">
         <v>1528</v>
@@ -16383,8 +16912,20 @@
       <c r="F323" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G323" t="s">
+        <v>2400</v>
+      </c>
+      <c r="I323" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J323" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K323" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>336</v>
       </c>
@@ -16394,14 +16935,26 @@
       <c r="C324" t="s">
         <v>1136</v>
       </c>
+      <c r="D324" t="s">
+        <v>2401</v>
+      </c>
       <c r="E324" t="s">
         <v>1529</v>
       </c>
       <c r="F324" t="s">
         <v>1924</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G324" t="s">
+        <v>2402</v>
+      </c>
+      <c r="J324" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M324" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>337</v>
       </c>
@@ -16411,14 +16964,26 @@
       <c r="C325" t="s">
         <v>1137</v>
       </c>
+      <c r="D325" t="s">
+        <v>2403</v>
+      </c>
       <c r="E325" t="s">
         <v>1530</v>
       </c>
       <c r="F325" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G325" t="s">
+        <v>2404</v>
+      </c>
+      <c r="K325" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M325" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>338</v>
       </c>
@@ -16428,14 +16993,23 @@
       <c r="C326" t="s">
         <v>1138</v>
       </c>
+      <c r="D326" t="s">
+        <v>1138</v>
+      </c>
       <c r="E326" t="s">
         <v>1531</v>
       </c>
       <c r="F326" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G326" t="s">
+        <v>1926</v>
+      </c>
+      <c r="N326" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>339</v>
       </c>
@@ -16445,14 +17019,29 @@
       <c r="C327" t="s">
         <v>983</v>
       </c>
+      <c r="D327" t="s">
+        <v>2181</v>
+      </c>
       <c r="E327" t="s">
         <v>1532</v>
       </c>
       <c r="F327" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G327" t="s">
+        <v>2405</v>
+      </c>
+      <c r="J327" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K327" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M327" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>340</v>
       </c>
@@ -16462,14 +17051,26 @@
       <c r="C328" t="s">
         <v>1139</v>
       </c>
+      <c r="D328" t="s">
+        <v>2406</v>
+      </c>
       <c r="E328" t="s">
         <v>1533</v>
       </c>
       <c r="F328" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G328" t="s">
+        <v>2407</v>
+      </c>
+      <c r="K328" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L328" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>341</v>
       </c>
@@ -16479,14 +17080,26 @@
       <c r="C329" t="s">
         <v>1140</v>
       </c>
+      <c r="D329" t="s">
+        <v>1140</v>
+      </c>
       <c r="E329" t="s">
         <v>1534</v>
       </c>
       <c r="F329" t="s">
         <v>1928</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G329" t="s">
+        <v>2408</v>
+      </c>
+      <c r="K329" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N329" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>342</v>
       </c>
@@ -16496,14 +17109,23 @@
       <c r="C330" t="s">
         <v>1141</v>
       </c>
+      <c r="D330" t="s">
+        <v>2409</v>
+      </c>
       <c r="E330" t="s">
         <v>1535</v>
       </c>
       <c r="F330" t="s">
         <v>1929</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G330" t="s">
+        <v>1929</v>
+      </c>
+      <c r="M330" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>343</v>
       </c>
@@ -16513,14 +17135,29 @@
       <c r="C331" t="s">
         <v>1020</v>
       </c>
+      <c r="D331" t="s">
+        <v>2030</v>
+      </c>
       <c r="E331" t="s">
         <v>1230</v>
       </c>
       <c r="F331" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G331" t="s">
+        <v>2224</v>
+      </c>
+      <c r="H331" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K331" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L331" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>344</v>
       </c>
@@ -16530,14 +17167,23 @@
       <c r="C332" t="s">
         <v>1142</v>
       </c>
+      <c r="D332" t="s">
+        <v>2411</v>
+      </c>
       <c r="E332" t="s">
         <v>1536</v>
       </c>
       <c r="F332" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G332" t="s">
+        <v>2410</v>
+      </c>
+      <c r="H332" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>345</v>
       </c>
@@ -16547,14 +17193,26 @@
       <c r="C333" t="s">
         <v>1143</v>
       </c>
+      <c r="D333" t="s">
+        <v>2412</v>
+      </c>
       <c r="E333" t="s">
         <v>1537</v>
       </c>
       <c r="F333" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G333" t="s">
+        <v>1931</v>
+      </c>
+      <c r="H333" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L333" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>346</v>
       </c>
@@ -16564,14 +17222,23 @@
       <c r="C334" t="s">
         <v>1144</v>
       </c>
+      <c r="D334" t="s">
+        <v>1144</v>
+      </c>
       <c r="E334" t="s">
         <v>1538</v>
       </c>
       <c r="F334" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G334" t="s">
+        <v>1932</v>
+      </c>
+      <c r="N334" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>347</v>
       </c>
@@ -16581,19 +17248,35 @@
       <c r="C335" t="s">
         <v>1145</v>
       </c>
+      <c r="D335" t="s">
+        <v>2413</v>
+      </c>
       <c r="E335" t="s">
         <v>1539</v>
       </c>
       <c r="F335" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G335" t="s">
+        <v>2414</v>
+      </c>
+      <c r="K335" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L335" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>348</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="2" t="s">
         <v>756</v>
+      </c>
+      <c r="C336" s="2"/>
+      <c r="D336" t="s">
+        <v>2415</v>
       </c>
       <c r="E336" t="s">
         <v>1540</v>
@@ -16601,13 +17284,29 @@
       <c r="F336" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G336" t="s">
+        <v>2416</v>
+      </c>
+      <c r="I336" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J336" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K336" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>349</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="2" t="s">
         <v>757</v>
+      </c>
+      <c r="C337" s="2"/>
+      <c r="D337" t="s">
+        <v>2418</v>
       </c>
       <c r="E337" t="s">
         <v>1541</v>
@@ -16615,8 +17314,17 @@
       <c r="F337" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G337" t="s">
+        <v>2417</v>
+      </c>
+      <c r="J337" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K337" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>350</v>
       </c>
@@ -16626,14 +17334,26 @@
       <c r="C338" t="s">
         <v>1146</v>
       </c>
+      <c r="D338" t="s">
+        <v>2419</v>
+      </c>
       <c r="E338" t="s">
         <v>1542</v>
       </c>
       <c r="F338" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G338" t="s">
+        <v>2420</v>
+      </c>
+      <c r="K338" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L338" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>351</v>
       </c>
@@ -16643,19 +17363,38 @@
       <c r="C339" t="s">
         <v>1147</v>
       </c>
+      <c r="D339" t="s">
+        <v>2421</v>
+      </c>
       <c r="E339" t="s">
         <v>1543</v>
       </c>
       <c r="F339" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G339" t="s">
+        <v>2422</v>
+      </c>
+      <c r="K339" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L339" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M339" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>352</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="2" t="s">
         <v>760</v>
+      </c>
+      <c r="C340" s="2"/>
+      <c r="D340" t="s">
+        <v>2423</v>
       </c>
       <c r="E340" t="s">
         <v>1544</v>
@@ -16663,8 +17402,17 @@
       <c r="F340" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G340" t="s">
+        <v>2424</v>
+      </c>
+      <c r="J340" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K340" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>353</v>
       </c>
@@ -16674,14 +17422,29 @@
       <c r="C341" t="s">
         <v>1148</v>
       </c>
+      <c r="D341" t="s">
+        <v>2425</v>
+      </c>
       <c r="E341" t="s">
         <v>1545</v>
       </c>
       <c r="F341" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G341" t="s">
+        <v>2426</v>
+      </c>
+      <c r="K341" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L341" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M341" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>354</v>
       </c>
@@ -16691,14 +17454,29 @@
       <c r="C342" t="s">
         <v>1149</v>
       </c>
+      <c r="D342" t="s">
+        <v>2427</v>
+      </c>
       <c r="E342" t="s">
         <v>1546</v>
       </c>
       <c r="F342" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G342" t="s">
+        <v>2428</v>
+      </c>
+      <c r="I342" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J342" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K342" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>355</v>
       </c>
@@ -16708,14 +17486,26 @@
       <c r="C343" t="s">
         <v>1150</v>
       </c>
+      <c r="D343" t="s">
+        <v>2429</v>
+      </c>
       <c r="E343" t="s">
         <v>1547</v>
       </c>
       <c r="F343" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G343" t="s">
+        <v>2430</v>
+      </c>
+      <c r="K343" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M343" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>356</v>
       </c>
@@ -16725,19 +17515,32 @@
       <c r="C344" t="s">
         <v>1151</v>
       </c>
+      <c r="D344" t="s">
+        <v>1151</v>
+      </c>
       <c r="E344" t="s">
         <v>1548</v>
       </c>
       <c r="F344" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G344" t="s">
+        <v>1942</v>
+      </c>
+      <c r="N344" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>357</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="2" t="s">
         <v>765</v>
+      </c>
+      <c r="C345" s="2"/>
+      <c r="D345" t="s">
+        <v>2432</v>
       </c>
       <c r="E345" t="s">
         <v>1549</v>
@@ -16745,8 +17548,17 @@
       <c r="F345" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G345" t="s">
+        <v>2431</v>
+      </c>
+      <c r="J345" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K345" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>358</v>
       </c>
@@ -16756,14 +17568,29 @@
       <c r="C346" t="s">
         <v>1152</v>
       </c>
+      <c r="D346" t="s">
+        <v>2433</v>
+      </c>
       <c r="E346" t="s">
         <v>1550</v>
       </c>
       <c r="F346" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G346" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H346" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I346" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K346" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>359</v>
       </c>
@@ -16777,7 +17604,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>360</v>
       </c>
@@ -16794,7 +17621,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>361</v>
       </c>
@@ -16811,7 +17638,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>362</v>
       </c>
@@ -16828,7 +17655,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>363</v>
       </c>
@@ -16845,7 +17672,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>364</v>
       </c>

--- a/Review files/qald9_train_set_review_table.xlsx
+++ b/Review files/qald9_train_set_review_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javi\Desktop\Work\QALD9ES\Repo\QALD9-ES\Review files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF9940E-E80B-4E4B-A253-D7040A9A196C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9728A7-B407-4EED-B394-D46B6C5146FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="2435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="2511">
   <si>
     <t>id</t>
   </si>
@@ -6076,9 +6076,6 @@
     <t>¿En cuál estado de Estados Unidos esta situada el Area 51?</t>
   </si>
   <si>
-    <t xml:space="preserve">personas ,  nacer ,  heraklion </t>
-  </si>
-  <si>
     <t>¿Dónde murió Abraham Lincoln?</t>
   </si>
   <si>
@@ -6220,9 +6217,6 @@
     <t>¿Qué volcanes han erupcionado en Japón desde el 2000?</t>
   </si>
   <si>
-    <t>volcanes, han erupcionado, Japon, desde 2000</t>
-  </si>
-  <si>
     <t>¿Qué puentes cruzan el Sena?</t>
   </si>
   <si>
@@ -6241,9 +6235,6 @@
     <t>cuatro, jugadores de baloncesto, más jóvenes, categoría MVP</t>
   </si>
   <si>
-    <t>Dame todas las empresas de Munich</t>
-  </si>
-  <si>
     <t>¿Cuáles son las capitales de los países por los que atraviesa el Himalaya?</t>
   </si>
   <si>
@@ -6412,9 +6403,6 @@
     <t>¿Cuál ha sido la posición más baja de Brasil en el ranking mundial de la FIFA?</t>
   </si>
   <si>
-    <t>¿En cuántas películas ha actúado Leonardo DiCaprio?</t>
-  </si>
-  <si>
     <t>¿Era Margaret Thatcher química?</t>
   </si>
   <si>
@@ -6463,9 +6451,6 @@
     <t>¿Qué poeta ha escrito el mayor número de libros?</t>
   </si>
   <si>
-    <t>¿Qué lenguajes de programación influenciaron Javascript?</t>
-  </si>
-  <si>
     <t>¿Qué músico ha escrito el mayor número de libros?</t>
   </si>
   <si>
@@ -6652,18 +6637,12 @@
     <t>¿Qué personas nacieron en Viena y murieron en Berlín?</t>
   </si>
   <si>
-    <t>personas, nacimiento, Viena, muerte, Berlin</t>
-  </si>
-  <si>
     <t>¿Qué cervecerías hay en Australia?</t>
   </si>
   <si>
     <t>¿Qué películas producidas por Steven Spielberg tienen un presupuesto de al menos 80 millones de dólares?</t>
   </si>
   <si>
-    <t>películas, productor, Steven Spielberg, presupuesto, al menos 80 milliones de dólares</t>
-  </si>
-  <si>
     <t>¿Qué clubes de fútbol hay en España?</t>
   </si>
   <si>
@@ -6940,9 +6919,6 @@
     <t>cuántas, tiendas Aldi</t>
   </si>
   <si>
-    <t>¿Cuál es el r[io mas largo en el mundo?</t>
-  </si>
-  <si>
     <t xml:space="preserve">río, más largo ,  mundo </t>
   </si>
   <si>
@@ -7042,9 +7018,6 @@
     <t>¿Cuál es el negocio principal de Donald Trump?</t>
   </si>
   <si>
-    <t>Donald Trump, negocio,principal</t>
-  </si>
-  <si>
     <t>¿Cuándo comenzará el partido final del mundial de fútbol 2018?</t>
   </si>
   <si>
@@ -7057,9 +7030,6 @@
     <t>¿Cuánto es la población de Iraq?</t>
   </si>
   <si>
-    <t>Iraq,población</t>
-  </si>
-  <si>
     <t>habitantes, ciudad, más grande, Canadá</t>
   </si>
   <si>
@@ -7204,9 +7174,6 @@
     <t>¿Nació Natalie Portman en los Estados Unidos de América?</t>
   </si>
   <si>
-    <t>Natalie Portman,nacimiento, Estados Unidos de América</t>
-  </si>
-  <si>
     <t>¿Quién es el hijo mayor de Meryl Streep?</t>
   </si>
   <si>
@@ -7282,9 +7249,6 @@
     <t>¿Quién inspiró a Vincent van Gogh?</t>
   </si>
   <si>
-    <t>persona, inpiración, Vincent van Gogh</t>
-  </si>
-  <si>
     <t>¿Qué edificio tiene más pisos luego del Burj Khalifa?</t>
   </si>
   <si>
@@ -7343,6 +7307,270 @@
   </si>
   <si>
     <t>diseñador, puente de Brooklyn</t>
+  </si>
+  <si>
+    <t>¿Cuántas personas viven en Eurasia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">población ,  Eurasia </t>
+  </si>
+  <si>
+    <t>¿Quién es el anfitrión de los especiales de vida salvaje de la BBC?</t>
+  </si>
+  <si>
+    <t>anfitrión, BBC, especiales de vida salvaje</t>
+  </si>
+  <si>
+    <t>¿En qué país esta el monte Everest?</t>
+  </si>
+  <si>
+    <t>¿A qué estilo artístico pertenece él pintor de Los Tres Bailarines?</t>
+  </si>
+  <si>
+    <t>¿Qué puente colgante tiene el tramo más largo?</t>
+  </si>
+  <si>
+    <t>puente colgante, más largo, tramo</t>
+  </si>
+  <si>
+    <t>¿Existe algún videojuego que se llame Battle Chess?</t>
+  </si>
+  <si>
+    <t>¿Quién fue enterrado en la gran pirámide de Guiza?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enterrado ,  Gran Pirámide de Guiza </t>
+  </si>
+  <si>
+    <t>¿Tiene la compañía de motores Ford una fábrica en Malasia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ford ,  fábrica ,  Malasia </t>
+  </si>
+  <si>
+    <t>¿Cuál es la altura de Michael Jordan?</t>
+  </si>
+  <si>
+    <t>¿En qué ciudad del Reino Unido se encuentra el cuartel general del MI6?</t>
+  </si>
+  <si>
+    <t>MI6, cuartel general, ciudad, Reino Unido</t>
+  </si>
+  <si>
+    <t>¿Quién creó Padre de Familia?</t>
+  </si>
+  <si>
+    <t>creador, Padre de Familia</t>
+  </si>
+  <si>
+    <t>¿En qué ciudad termina la ruta 68 de Chile?</t>
+  </si>
+  <si>
+    <t>ciudad, termina, ruta 68, Chile</t>
+  </si>
+  <si>
+    <t>¿Quiénes son los nietos de Elvis Presley?</t>
+  </si>
+  <si>
+    <t>¿Cuándo se disolvió la dinastía Ming?</t>
+  </si>
+  <si>
+    <t>disolvió, dinastía Ming</t>
+  </si>
+  <si>
+    <t>¿En qué zona horaria está San Pedro de Atacama?</t>
+  </si>
+  <si>
+    <t>¿Qué libros escritos por William Goldman tienen más de 300 páginas?</t>
+  </si>
+  <si>
+    <t>¿Existe una página web relacionada con el lugar de muerte de Abraham Lincoln?</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln, lugar de muerte, página web</t>
+  </si>
+  <si>
+    <t>¿Tenía hijos Elvis Presley?</t>
+  </si>
+  <si>
+    <t>autor, canción, Hotel California</t>
+  </si>
+  <si>
+    <t>¿Qué libro escribió Muhammad Ali?</t>
+  </si>
+  <si>
+    <t>¿Quién fue el primero en escalar el Monte Everest?</t>
+  </si>
+  <si>
+    <t>primero, escalar, Monte Everest</t>
+  </si>
+  <si>
+    <t>idiomas, Colombia, Cuántos</t>
+  </si>
+  <si>
+    <t>¿Cuál es la moneda de la República Checa?</t>
+  </si>
+  <si>
+    <t>moneda, República Checa</t>
+  </si>
+  <si>
+    <t>¿En qué lugar de Francia se produce el vino espumoso?</t>
+  </si>
+  <si>
+    <t>¿Cuándo terminó Boris Becker su carrera?</t>
+  </si>
+  <si>
+    <t>fin, carrera, Boris Becker</t>
+  </si>
+  <si>
+    <t>¿Qué películas protagonizadas por Mickey Rourke han sido dirigidas por Guy Ritchie?</t>
+  </si>
+  <si>
+    <t>películas, protagonizadas, Mickey Rourke, dirigidas, Guy Ritchie</t>
+  </si>
+  <si>
+    <t>¿Cuánto mide Amazon Eve?</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los cinco distritos de Nueva York?</t>
+  </si>
+  <si>
+    <t>distritos, Nueva York</t>
+  </si>
+  <si>
+    <t>productoras, canadiense, Grunge</t>
+  </si>
+  <si>
+    <t>¿Qué productoras de Grunge son canadienses?</t>
+  </si>
+  <si>
+    <t>¿Quién es el fundador de Penguin Books?</t>
+  </si>
+  <si>
+    <t>¿Quién escribió el tema de Game of Thrones?</t>
+  </si>
+  <si>
+    <t>escritor, tema, Game of Thrones</t>
+  </si>
+  <si>
+    <t>presidente, Eritrea</t>
+  </si>
+  <si>
+    <t>Australia, montaña, más alta</t>
+  </si>
+  <si>
+    <t>¿Quién es el escritor de Farmers' Almanac?</t>
+  </si>
+  <si>
+    <t>escritor, Farmers' Almanac</t>
+  </si>
+  <si>
+    <t>¿Cuál es la moneda de China?</t>
+  </si>
+  <si>
+    <t>¿Qué oceanógrafos son suecos?</t>
+  </si>
+  <si>
+    <t>oceanógrafos, suecos</t>
+  </si>
+  <si>
+    <t>ciudad, sede, Naciones Unidas</t>
+  </si>
+  <si>
+    <t>¿Es la esposa de Tom Hanks Rita Wilson?</t>
+  </si>
+  <si>
+    <t>países, idioma, japonés</t>
+  </si>
+  <si>
+    <t>película, Tim Burton, mayor presupuesto</t>
+  </si>
+  <si>
+    <t>¿Qué museo tiene el mayor número de visitantes en Nueva York?</t>
+  </si>
+  <si>
+    <t>museo, Nueva York, visitantes, mayor número</t>
+  </si>
+  <si>
+    <t>¿Cuál fue el primer nombre de la banda Queens of the Stone Age?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primer nombre ,  banda, Queens of the Stone Age </t>
+  </si>
+  <si>
+    <t>¿Cuál fue la última película de Alec Guinness?</t>
+  </si>
+  <si>
+    <t>¿Quiénes actúan en Last Action Hero?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descubrió ,  Plutón </t>
+  </si>
+  <si>
+    <t>¿Quién descubrió Plutón?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personas ,  nacer ,  Heraklion </t>
+  </si>
+  <si>
+    <t>películas, protagonizadas, Brad Pitt, dirigidas, Guy Ritchie</t>
+  </si>
+  <si>
+    <t>volcanes, han erupcionado, Japón, desde 2000</t>
+  </si>
+  <si>
+    <t>Dame todas las empresas de Múnich</t>
+  </si>
+  <si>
+    <t>empresas, Múnich</t>
+  </si>
+  <si>
+    <t>¿Cuándo se fundaron los Hells Angels?</t>
+  </si>
+  <si>
+    <t>libros, escritos, Danielle Steel</t>
+  </si>
+  <si>
+    <t>¿Cuántos hombres y mujeres trabajan para los bomberos de Nueva York?</t>
+  </si>
+  <si>
+    <t>¿Qué lenguajes de programación influenciaron JavaScript?</t>
+  </si>
+  <si>
+    <t>lenguajes de programación, influenciaron, JavaScript</t>
+  </si>
+  <si>
+    <t>personas, nacimiento, Viena, muerte, Berlín</t>
+  </si>
+  <si>
+    <t>películas, productor, Steven Spielberg, presupuesto, al menos 80 millones de dólares</t>
+  </si>
+  <si>
+    <t>¿Cuál es el río mas largo en el mundo?</t>
+  </si>
+  <si>
+    <t>Donald Trump, negocio, principal</t>
+  </si>
+  <si>
+    <t>Iraq, población</t>
+  </si>
+  <si>
+    <t>Natalie Portman, nacimiento, Estados Unidos de América</t>
+  </si>
+  <si>
+    <t>persona, inspiración, Vincent van Gogh</t>
+  </si>
+  <si>
+    <t>¿Qué subsidiario de Lufthansa opera en Dortmund y en Berlín?</t>
+  </si>
+  <si>
+    <t>subsidiario, Lufthansa, opera, Dortmund y Berlín</t>
+  </si>
+  <si>
+    <t>libro, escribió, Muhammad Ali</t>
+  </si>
+  <si>
+    <t>Ganges, país, origen</t>
   </si>
 </sst>
 </file>
@@ -7366,7 +7594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7376,12 +7604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7413,13 +7635,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -7775,10 +7996,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B347" sqref="B347"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7846,20 +8067,21 @@
         <v>830</v>
       </c>
       <c r="D2" t="s">
-        <v>2350</v>
-      </c>
-      <c r="E2" t="s">
+        <v>2340</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>1614</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>1614</v>
       </c>
-      <c r="H2" t="s">
-        <v>2009</v>
-      </c>
+      <c r="H2" s="3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I2" s="3"/>
       <c r="M2" t="s">
         <v>2009</v>
       </c>
@@ -7889,6 +8111,7 @@
       <c r="H3" s="3" t="s">
         <v>2009</v>
       </c>
+      <c r="I3" s="3"/>
       <c r="L3" t="s">
         <v>2009</v>
       </c>
@@ -7906,14 +8129,14 @@
       <c r="D4" t="s">
         <v>2010</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>1616</v>
       </c>
-      <c r="G4" t="s">
-        <v>2012</v>
+      <c r="G4" s="3" t="s">
+        <v>2490</v>
       </c>
       <c r="H4" t="s">
         <v>2009</v>
@@ -7938,12 +8161,13 @@
       <c r="D5" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>1617</v>
       </c>
+      <c r="G5" s="3"/>
       <c r="H5" t="s">
         <v>2009</v>
       </c>
@@ -7967,13 +8191,13 @@
       <c r="D6" t="s">
         <v>834</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>1618</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>1618</v>
       </c>
       <c r="N6" t="s">
@@ -7993,13 +8217,13 @@
       <c r="D7" t="s">
         <v>835</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>1619</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>1619</v>
       </c>
       <c r="N7" t="s">
@@ -8017,16 +8241,16 @@
         <v>836</v>
       </c>
       <c r="D8" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>2013</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1620</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2014</v>
       </c>
       <c r="I8" t="s">
         <v>2009</v>
@@ -8049,15 +8273,15 @@
         <v>837</v>
       </c>
       <c r="D9" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E9" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>1621</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>1621</v>
       </c>
       <c r="M9" t="s">
@@ -8075,7 +8299,7 @@
         <v>838</v>
       </c>
       <c r="D10" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E10" t="s">
         <v>1218</v>
@@ -8084,7 +8308,7 @@
         <v>1622</v>
       </c>
       <c r="G10" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="M10" t="s">
         <v>2009</v>
@@ -8101,7 +8325,7 @@
         <v>839</v>
       </c>
       <c r="D11" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E11" t="s">
         <v>1219</v>
@@ -8110,7 +8334,7 @@
         <v>1623</v>
       </c>
       <c r="G11" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I11" t="s">
         <v>2009</v>
@@ -8153,7 +8377,7 @@
         <v>841</v>
       </c>
       <c r="D13" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E13" t="s">
         <v>1221</v>
@@ -8162,7 +8386,7 @@
         <v>1625</v>
       </c>
       <c r="G13" t="s">
-        <v>1625</v>
+        <v>2491</v>
       </c>
       <c r="L13" t="s">
         <v>2009</v>
@@ -8179,7 +8403,7 @@
         <v>842</v>
       </c>
       <c r="D14" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E14" t="s">
         <v>1222</v>
@@ -8231,7 +8455,7 @@
         <v>844</v>
       </c>
       <c r="D16" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E16" t="s">
         <v>1224</v>
@@ -8257,7 +8481,7 @@
         <v>845</v>
       </c>
       <c r="D17" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E17" t="s">
         <v>1225</v>
@@ -8266,7 +8490,7 @@
         <v>1629</v>
       </c>
       <c r="G17" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H17" t="s">
         <v>2009</v>
@@ -8292,7 +8516,7 @@
         <v>846</v>
       </c>
       <c r="D18" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E18" t="s">
         <v>1226</v>
@@ -8301,7 +8525,7 @@
         <v>1630</v>
       </c>
       <c r="G18" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="K18" t="s">
         <v>2009</v>
@@ -8321,7 +8545,7 @@
         <v>847</v>
       </c>
       <c r="D19" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E19" t="s">
         <v>1227</v>
@@ -8330,7 +8554,7 @@
         <v>1631</v>
       </c>
       <c r="G19" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="H19" t="s">
         <v>2009</v>
@@ -8376,7 +8600,7 @@
         <v>849</v>
       </c>
       <c r="D21" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E21" t="s">
         <v>1229</v>
@@ -8402,7 +8626,7 @@
         <v>850</v>
       </c>
       <c r="D22" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E22" t="s">
         <v>1230</v>
@@ -8411,7 +8635,7 @@
         <v>1634</v>
       </c>
       <c r="G22" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="I22" t="s">
         <v>2009</v>
@@ -8434,13 +8658,13 @@
         <v>851</v>
       </c>
       <c r="D23" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E23" t="s">
         <v>1231</v>
       </c>
       <c r="F23" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="H23" t="s">
         <v>2009</v>
@@ -8466,7 +8690,7 @@
         <v>852</v>
       </c>
       <c r="D24" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E24" t="s">
         <v>1232</v>
@@ -8492,7 +8716,7 @@
         <v>853</v>
       </c>
       <c r="D25" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="E25" t="s">
         <v>1233</v>
@@ -8501,7 +8725,7 @@
         <v>1636</v>
       </c>
       <c r="G25" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="H25" t="s">
         <v>2009</v>
@@ -8521,7 +8745,7 @@
         <v>854</v>
       </c>
       <c r="D26" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="E26" t="s">
         <v>1234</v>
@@ -8547,7 +8771,7 @@
         <v>855</v>
       </c>
       <c r="D27" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E27" t="s">
         <v>1235</v>
@@ -8556,7 +8780,7 @@
         <v>1638</v>
       </c>
       <c r="G27" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="K27" t="s">
         <v>2009</v>
@@ -8602,7 +8826,7 @@
         <v>857</v>
       </c>
       <c r="D29" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="E29" t="s">
         <v>1237</v>
@@ -8634,10 +8858,10 @@
         <v>1238</v>
       </c>
       <c r="F30" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="G30" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="N30" t="s">
         <v>2009</v>
@@ -8706,7 +8930,7 @@
         <v>861</v>
       </c>
       <c r="D33" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E33" t="s">
         <v>1241</v>
@@ -8715,7 +8939,7 @@
         <v>1643</v>
       </c>
       <c r="G33" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="K33" t="s">
         <v>2009</v>
@@ -8735,7 +8959,7 @@
         <v>862</v>
       </c>
       <c r="D34" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="E34" t="s">
         <v>1242</v>
@@ -8761,7 +8985,7 @@
         <v>863</v>
       </c>
       <c r="D35" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="E35" t="s">
         <v>1243</v>
@@ -8770,7 +8994,7 @@
         <v>1645</v>
       </c>
       <c r="G35" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="H35" t="s">
         <v>2009</v>
@@ -8790,7 +9014,7 @@
         <v>864</v>
       </c>
       <c r="D36" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="E36" t="s">
         <v>1244</v>
@@ -8799,7 +9023,7 @@
         <v>1646</v>
       </c>
       <c r="G36" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="K36" t="s">
         <v>2009</v>
@@ -8880,7 +9104,7 @@
         <v>1649</v>
       </c>
       <c r="G39" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="K39" t="s">
         <v>2009</v>
@@ -8952,7 +9176,7 @@
         <v>870</v>
       </c>
       <c r="D42" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E42" t="s">
         <v>1250</v>
@@ -8978,7 +9202,7 @@
         <v>871</v>
       </c>
       <c r="D43" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E43" t="s">
         <v>1251</v>
@@ -8987,7 +9211,7 @@
         <v>1653</v>
       </c>
       <c r="G43" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="M43" t="s">
         <v>2009</v>
@@ -9013,7 +9237,7 @@
         <v>1654</v>
       </c>
       <c r="G44" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="K44" t="s">
         <v>2009</v>
@@ -9042,7 +9266,7 @@
         <v>1655</v>
       </c>
       <c r="G45" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="K45" t="s">
         <v>2009</v>
@@ -9062,13 +9286,13 @@
         <v>874</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="E46" t="s">
         <v>1254</v>
       </c>
       <c r="G46" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="I46" t="s">
         <v>2009</v>
@@ -9088,7 +9312,7 @@
         <v>875</v>
       </c>
       <c r="D47" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="E47" t="s">
         <v>1255</v>
@@ -9097,7 +9321,7 @@
         <v>1656</v>
       </c>
       <c r="G47" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="K47" t="s">
         <v>2009</v>
@@ -9120,7 +9344,7 @@
         <v>876</v>
       </c>
       <c r="D48" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E48" t="s">
         <v>1256</v>
@@ -9129,7 +9353,7 @@
         <v>1657</v>
       </c>
       <c r="G48" t="s">
-        <v>2060</v>
+        <v>2492</v>
       </c>
       <c r="H48" t="s">
         <v>2009</v>
@@ -9152,7 +9376,7 @@
         <v>877</v>
       </c>
       <c r="D49" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="E49" t="s">
         <v>1257</v>
@@ -9161,7 +9385,7 @@
         <v>1658</v>
       </c>
       <c r="G49" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="I49" t="s">
         <v>2009</v>
@@ -9265,7 +9489,7 @@
         <v>880</v>
       </c>
       <c r="D53" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="E53" t="s">
         <v>1261</v>
@@ -9274,7 +9498,7 @@
         <v>1661</v>
       </c>
       <c r="G53" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="K53" t="s">
         <v>2009</v>
@@ -9297,7 +9521,7 @@
         <v>881</v>
       </c>
       <c r="D54" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="E54" t="s">
         <v>1262</v>
@@ -9306,7 +9530,7 @@
         <v>1662</v>
       </c>
       <c r="G54" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="K54" t="s">
         <v>2009</v>
@@ -9326,7 +9550,7 @@
         <v>882</v>
       </c>
       <c r="D55" t="s">
-        <v>2067</v>
+        <v>2493</v>
       </c>
       <c r="E55" t="s">
         <v>1263</v>
@@ -9335,9 +9559,15 @@
         <v>1663</v>
       </c>
       <c r="G55" t="s">
-        <v>1663</v>
+        <v>2494</v>
       </c>
       <c r="H55" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K55" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L55" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -9352,7 +9582,7 @@
         <v>883</v>
       </c>
       <c r="D56" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="E56" t="s">
         <v>1264</v>
@@ -9361,7 +9591,7 @@
         <v>1664</v>
       </c>
       <c r="G56" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="K56" t="s">
         <v>2009</v>
@@ -9390,7 +9620,7 @@
         <v>1665</v>
       </c>
       <c r="G57" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="K57" t="s">
         <v>2009</v>
@@ -9433,7 +9663,7 @@
         <v>886</v>
       </c>
       <c r="D59" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="E59" t="s">
         <v>1267</v>
@@ -9442,7 +9672,7 @@
         <v>1667</v>
       </c>
       <c r="G59" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="K59" t="s">
         <v>2009</v>
@@ -9462,7 +9692,7 @@
         <v>887</v>
       </c>
       <c r="D60" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="E60" t="s">
         <v>1268</v>
@@ -9471,7 +9701,7 @@
         <v>1668</v>
       </c>
       <c r="G60" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="H60" t="s">
         <v>2009</v>
@@ -9517,7 +9747,7 @@
         <v>849</v>
       </c>
       <c r="D62" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="E62" t="s">
         <v>1229</v>
@@ -9543,7 +9773,7 @@
         <v>889</v>
       </c>
       <c r="D63" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="E63" t="s">
         <v>1270</v>
@@ -9552,7 +9782,7 @@
         <v>1670</v>
       </c>
       <c r="G63" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="K63" t="s">
         <v>2009</v>
@@ -9624,7 +9854,7 @@
         <v>892</v>
       </c>
       <c r="D66" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="E66" t="s">
         <v>1273</v>
@@ -9676,7 +9906,7 @@
         <v>894</v>
       </c>
       <c r="D68" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="E68" t="s">
         <v>1275</v>
@@ -9685,7 +9915,7 @@
         <v>1675</v>
       </c>
       <c r="G68" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="K68" t="s">
         <v>2009</v>
@@ -9731,7 +9961,7 @@
         <v>896</v>
       </c>
       <c r="D70" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="E70" t="s">
         <v>1277</v>
@@ -9740,7 +9970,7 @@
         <v>1677</v>
       </c>
       <c r="G70" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="K70" t="s">
         <v>2009</v>
@@ -9786,7 +10016,7 @@
         <v>898</v>
       </c>
       <c r="D72" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="E72" t="s">
         <v>1279</v>
@@ -9795,7 +10025,7 @@
         <v>1679</v>
       </c>
       <c r="G72" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="K72" t="s">
         <v>2009</v>
@@ -9841,7 +10071,7 @@
         <v>900</v>
       </c>
       <c r="D74" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="E74" t="s">
         <v>1281</v>
@@ -9850,7 +10080,7 @@
         <v>1681</v>
       </c>
       <c r="G74" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="K74" t="s">
         <v>2009</v>
@@ -9922,7 +10152,7 @@
         <v>903</v>
       </c>
       <c r="D77" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="E77" t="s">
         <v>1284</v>
@@ -9931,7 +10161,7 @@
         <v>1684</v>
       </c>
       <c r="G77" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="K77" t="s">
         <v>2009</v>
@@ -9951,7 +10181,7 @@
         <v>904</v>
       </c>
       <c r="D78" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="E78" t="s">
         <v>1285</v>
@@ -9977,7 +10207,7 @@
         <v>905</v>
       </c>
       <c r="D79" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="E79" t="s">
         <v>1286</v>
@@ -9986,7 +10216,7 @@
         <v>1686</v>
       </c>
       <c r="G79" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="H79" t="s">
         <v>2009</v>
@@ -10006,7 +10236,7 @@
         <v>906</v>
       </c>
       <c r="D80" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="E80" t="s">
         <v>1287</v>
@@ -10015,7 +10245,7 @@
         <v>1687</v>
       </c>
       <c r="G80" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="K80" t="s">
         <v>2009</v>
@@ -10035,7 +10265,7 @@
         <v>907</v>
       </c>
       <c r="D81" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="E81" t="s">
         <v>1288</v>
@@ -10044,7 +10274,7 @@
         <v>1688</v>
       </c>
       <c r="G81" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="K81" t="s">
         <v>2009</v>
@@ -10116,7 +10346,7 @@
         <v>910</v>
       </c>
       <c r="D84" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="E84" t="s">
         <v>1291</v>
@@ -10125,7 +10355,7 @@
         <v>1691</v>
       </c>
       <c r="G84" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="J84" t="s">
         <v>2009</v>
@@ -10148,7 +10378,7 @@
         <v>911</v>
       </c>
       <c r="D85" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="E85" t="s">
         <v>1292</v>
@@ -10157,7 +10387,7 @@
         <v>1692</v>
       </c>
       <c r="G85" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="K85" t="s">
         <v>2009</v>
@@ -10203,7 +10433,7 @@
         <v>913</v>
       </c>
       <c r="D87" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="E87" t="s">
         <v>1294</v>
@@ -10212,7 +10442,7 @@
         <v>1694</v>
       </c>
       <c r="G87" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="K87" t="s">
         <v>2009</v>
@@ -10258,7 +10488,7 @@
         <v>915</v>
       </c>
       <c r="D89" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="E89" t="s">
         <v>1296</v>
@@ -10267,7 +10497,7 @@
         <v>1696</v>
       </c>
       <c r="G89" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="H89" t="s">
         <v>2009</v>
@@ -10290,7 +10520,7 @@
         <v>916</v>
       </c>
       <c r="D90" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="E90" t="s">
         <v>1297</v>
@@ -10299,7 +10529,7 @@
         <v>1697</v>
       </c>
       <c r="G90" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="L90" t="s">
         <v>2009</v>
@@ -10371,7 +10601,7 @@
         <v>919</v>
       </c>
       <c r="D93" t="s">
-        <v>919</v>
+        <v>2495</v>
       </c>
       <c r="E93" t="s">
         <v>1300</v>
@@ -10382,7 +10612,7 @@
       <c r="G93" t="s">
         <v>1700</v>
       </c>
-      <c r="N93" t="s">
+      <c r="L93" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -10397,7 +10627,7 @@
         <v>920</v>
       </c>
       <c r="D94" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="E94" t="s">
         <v>1301</v>
@@ -10406,7 +10636,7 @@
         <v>1701</v>
       </c>
       <c r="G94" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="K94" t="s">
         <v>2009</v>
@@ -10429,7 +10659,7 @@
         <v>921</v>
       </c>
       <c r="D95" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="E95" t="s">
         <v>1302</v>
@@ -10455,7 +10685,7 @@
         <v>922</v>
       </c>
       <c r="D96" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="E96" t="s">
         <v>1303</v>
@@ -10464,7 +10694,7 @@
         <v>1703</v>
       </c>
       <c r="G96" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="K96" t="s">
         <v>2009</v>
@@ -10496,7 +10726,7 @@
         <v>1704</v>
       </c>
       <c r="N97" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -10536,7 +10766,7 @@
         <v>925</v>
       </c>
       <c r="D99" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="E99" t="s">
         <v>1306</v>
@@ -10545,7 +10775,7 @@
         <v>1706</v>
       </c>
       <c r="G99" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="K99" t="s">
         <v>2009</v>
@@ -10565,7 +10795,7 @@
         <v>926</v>
       </c>
       <c r="D100" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="E100" t="s">
         <v>1307</v>
@@ -10574,7 +10804,7 @@
         <v>1707</v>
       </c>
       <c r="G100" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="K100" t="s">
         <v>2009</v>
@@ -10594,7 +10824,7 @@
         <v>927</v>
       </c>
       <c r="D101" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="E101" t="s">
         <v>1308</v>
@@ -10620,7 +10850,7 @@
         <v>928</v>
       </c>
       <c r="D102" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="E102" t="s">
         <v>1309</v>
@@ -10629,7 +10859,7 @@
         <v>1709</v>
       </c>
       <c r="G102" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="K102" t="s">
         <v>2009</v>
@@ -10649,7 +10879,7 @@
         <v>929</v>
       </c>
       <c r="D103" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="E103" t="s">
         <v>1310</v>
@@ -10658,7 +10888,7 @@
         <v>1710</v>
       </c>
       <c r="G103" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="K103" t="s">
         <v>2009</v>
@@ -10678,7 +10908,7 @@
         <v>930</v>
       </c>
       <c r="D104" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="E104" t="s">
         <v>1311</v>
@@ -10710,7 +10940,7 @@
         <v>931</v>
       </c>
       <c r="D105" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="E105" t="s">
         <v>1312</v>
@@ -10736,7 +10966,7 @@
         <v>932</v>
       </c>
       <c r="D106" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="E106" t="s">
         <v>1313</v>
@@ -10762,7 +10992,7 @@
         <v>933</v>
       </c>
       <c r="D107" t="s">
-        <v>2124</v>
+        <v>933</v>
       </c>
       <c r="E107" t="s">
         <v>1314</v>
@@ -10788,7 +11018,7 @@
         <v>934</v>
       </c>
       <c r="D108" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="E108" t="s">
         <v>1315</v>
@@ -10814,7 +11044,7 @@
         <v>854</v>
       </c>
       <c r="D109" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="E109" t="s">
         <v>1316</v>
@@ -10823,7 +11053,7 @@
         <v>1637</v>
       </c>
       <c r="G109" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="J109" t="s">
         <v>2009</v>
@@ -10846,7 +11076,7 @@
         <v>935</v>
       </c>
       <c r="D110" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
       <c r="E110" t="s">
         <v>1317</v>
@@ -10855,7 +11085,13 @@
         <v>1716</v>
       </c>
       <c r="G110" t="s">
-        <v>1716</v>
+        <v>2496</v>
+      </c>
+      <c r="H110" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K110" t="s">
+        <v>2009</v>
       </c>
       <c r="M110" t="s">
         <v>2009</v>
@@ -10898,7 +11134,7 @@
         <v>937</v>
       </c>
       <c r="D112" t="s">
-        <v>937</v>
+        <v>2497</v>
       </c>
       <c r="E112" t="s">
         <v>1319</v>
@@ -10909,7 +11145,7 @@
       <c r="G112" t="s">
         <v>1718</v>
       </c>
-      <c r="N112" t="s">
+      <c r="L112" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -10924,16 +11160,16 @@
         <v>938</v>
       </c>
       <c r="D113" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="E113" t="s">
         <v>1320</v>
       </c>
       <c r="F113" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="G113" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="K113" t="s">
         <v>2009</v>
@@ -10953,7 +11189,7 @@
         <v>939</v>
       </c>
       <c r="D114" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
       <c r="E114" t="s">
         <v>1321</v>
@@ -10962,7 +11198,7 @@
         <v>1719</v>
       </c>
       <c r="G114" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="K114" t="s">
         <v>2009</v>
@@ -11008,7 +11244,7 @@
         <v>941</v>
       </c>
       <c r="D116" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
       <c r="E116" t="s">
         <v>1323</v>
@@ -11017,7 +11253,7 @@
         <v>1721</v>
       </c>
       <c r="G116" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="H116" t="s">
         <v>2009</v>
@@ -11046,7 +11282,7 @@
         <v>1722</v>
       </c>
       <c r="G117" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="K117" t="s">
         <v>2009</v>
@@ -11092,7 +11328,7 @@
         <v>944</v>
       </c>
       <c r="D119" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="E119" t="s">
         <v>1326</v>
@@ -11101,7 +11337,7 @@
         <v>1724</v>
       </c>
       <c r="G119" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="K119" t="s">
         <v>2009</v>
@@ -11124,7 +11360,7 @@
         <v>945</v>
       </c>
       <c r="D120" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
       <c r="E120" t="s">
         <v>1327</v>
@@ -11133,7 +11369,7 @@
         <v>1725</v>
       </c>
       <c r="G120" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="I120" t="s">
         <v>2009</v>
@@ -11182,7 +11418,7 @@
         <v>947</v>
       </c>
       <c r="D122" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="E122" t="s">
         <v>1329</v>
@@ -11208,7 +11444,7 @@
         <v>948</v>
       </c>
       <c r="D123" t="s">
-        <v>2141</v>
+        <v>2498</v>
       </c>
       <c r="E123" t="s">
         <v>1330</v>
@@ -11217,9 +11453,12 @@
         <v>1728</v>
       </c>
       <c r="G123" t="s">
-        <v>1728</v>
+        <v>2499</v>
       </c>
       <c r="H123" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K123" t="s">
         <v>2009</v>
       </c>
       <c r="L123" t="s">
@@ -11237,7 +11476,7 @@
         <v>949</v>
       </c>
       <c r="D124" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="E124" t="s">
         <v>1331</v>
@@ -11246,7 +11485,7 @@
         <v>1729</v>
       </c>
       <c r="G124" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="K124" t="s">
         <v>2009</v>
@@ -11266,7 +11505,7 @@
         <v>950</v>
       </c>
       <c r="D125" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
       <c r="E125" t="s">
         <v>1332</v>
@@ -11275,7 +11514,7 @@
         <v>1730</v>
       </c>
       <c r="G125" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="J125" t="s">
         <v>2009</v>
@@ -11307,7 +11546,7 @@
         <v>1731</v>
       </c>
       <c r="G126" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
       <c r="K126" t="s">
         <v>2009</v>
@@ -11353,7 +11592,7 @@
         <v>953</v>
       </c>
       <c r="D128" t="s">
-        <v>2147</v>
+        <v>2142</v>
       </c>
       <c r="E128" t="s">
         <v>1335</v>
@@ -11405,7 +11644,7 @@
         <v>955</v>
       </c>
       <c r="D130" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="E130" t="s">
         <v>1337</v>
@@ -11431,7 +11670,7 @@
         <v>956</v>
       </c>
       <c r="D131" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
       <c r="E131" t="s">
         <v>1338</v>
@@ -11440,7 +11679,7 @@
         <v>1736</v>
       </c>
       <c r="G131" t="s">
-        <v>2150</v>
+        <v>2145</v>
       </c>
       <c r="K131" t="s">
         <v>2009</v>
@@ -11489,7 +11728,7 @@
         <v>958</v>
       </c>
       <c r="D133" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
       <c r="E133" t="s">
         <v>1340</v>
@@ -11515,7 +11754,7 @@
         <v>959</v>
       </c>
       <c r="D134" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="E134" t="s">
         <v>1341</v>
@@ -11524,7 +11763,7 @@
         <v>1739</v>
       </c>
       <c r="G134" t="s">
-        <v>2153</v>
+        <v>2148</v>
       </c>
       <c r="K134" t="s">
         <v>2009</v>
@@ -11596,7 +11835,7 @@
         <v>962</v>
       </c>
       <c r="D137" t="s">
-        <v>2154</v>
+        <v>2149</v>
       </c>
       <c r="E137" t="s">
         <v>1344</v>
@@ -11605,7 +11844,7 @@
         <v>1742</v>
       </c>
       <c r="G137" t="s">
-        <v>2155</v>
+        <v>2150</v>
       </c>
       <c r="H137" t="s">
         <v>2009</v>
@@ -11628,7 +11867,7 @@
         <v>963</v>
       </c>
       <c r="D138" t="s">
-        <v>2156</v>
+        <v>2151</v>
       </c>
       <c r="E138" t="s">
         <v>1345</v>
@@ -11637,7 +11876,7 @@
         <v>1743</v>
       </c>
       <c r="G138" t="s">
-        <v>2157</v>
+        <v>2152</v>
       </c>
       <c r="K138" t="s">
         <v>2009</v>
@@ -11657,7 +11896,7 @@
         <v>964</v>
       </c>
       <c r="D139" t="s">
-        <v>2158</v>
+        <v>2153</v>
       </c>
       <c r="E139" t="s">
         <v>1346</v>
@@ -11666,7 +11905,7 @@
         <v>1744</v>
       </c>
       <c r="G139" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
       <c r="H139" t="s">
         <v>2009</v>
@@ -11686,7 +11925,7 @@
         <v>965</v>
       </c>
       <c r="D140" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="E140" t="s">
         <v>1347</v>
@@ -11695,7 +11934,7 @@
         <v>1745</v>
       </c>
       <c r="G140" t="s">
-        <v>2161</v>
+        <v>2156</v>
       </c>
       <c r="K140" t="s">
         <v>2009</v>
@@ -11718,7 +11957,7 @@
         <v>966</v>
       </c>
       <c r="D141" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="E141" t="s">
         <v>1348</v>
@@ -11744,7 +11983,7 @@
         <v>967</v>
       </c>
       <c r="D142" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="E142" t="s">
         <v>1349</v>
@@ -11796,7 +12035,7 @@
         <v>969</v>
       </c>
       <c r="D144" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
       <c r="E144" t="s">
         <v>1351</v>
@@ -11805,7 +12044,7 @@
         <v>1749</v>
       </c>
       <c r="G144" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="K144" t="s">
         <v>2009</v>
@@ -11851,7 +12090,7 @@
         <v>971</v>
       </c>
       <c r="D146" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="E146" t="s">
         <v>1353</v>
@@ -11877,7 +12116,7 @@
         <v>972</v>
       </c>
       <c r="D147" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="E147" t="s">
         <v>1354</v>
@@ -11886,7 +12125,7 @@
         <v>1354</v>
       </c>
       <c r="G147" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="K147" t="s">
         <v>2009</v>
@@ -11909,7 +12148,7 @@
         <v>973</v>
       </c>
       <c r="D148" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="E148" t="s">
         <v>1355</v>
@@ -11918,7 +12157,7 @@
         <v>1752</v>
       </c>
       <c r="G148" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="K148" t="s">
         <v>2009</v>
@@ -11939,7 +12178,7 @@
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="E149" t="s">
         <v>1356</v>
@@ -11948,7 +12187,7 @@
         <v>1753</v>
       </c>
       <c r="G149" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="J149" t="s">
         <v>2009</v>
@@ -11994,7 +12233,7 @@
         <v>975</v>
       </c>
       <c r="D151" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="E151" t="s">
         <v>1358</v>
@@ -12003,7 +12242,7 @@
         <v>1755</v>
       </c>
       <c r="G151" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="K151" t="s">
         <v>2009</v>
@@ -12023,7 +12262,7 @@
         <v>976</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="E152" t="s">
         <v>1359</v>
@@ -12032,7 +12271,7 @@
         <v>1756</v>
       </c>
       <c r="G152" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="K152" t="s">
         <v>2009</v>
@@ -12061,7 +12300,7 @@
         <v>1757</v>
       </c>
       <c r="G153" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="K153" t="s">
         <v>2009</v>
@@ -12090,7 +12329,7 @@
         <v>1627</v>
       </c>
       <c r="G154" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="K154" t="s">
         <v>2009</v>
@@ -12109,8 +12348,8 @@
       <c r="C155" t="s">
         <v>979</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>2179</v>
+      <c r="D155" s="3" t="s">
+        <v>2174</v>
       </c>
       <c r="E155" t="s">
         <v>1362</v>
@@ -12119,7 +12358,7 @@
         <v>1758</v>
       </c>
       <c r="G155" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="J155" t="s">
         <v>2009</v>
@@ -12217,7 +12456,7 @@
         <v>983</v>
       </c>
       <c r="D159" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E159" t="s">
         <v>1366</v>
@@ -12226,7 +12465,7 @@
         <v>1762</v>
       </c>
       <c r="G159" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="H159" t="s">
         <v>2009</v>
@@ -12246,7 +12485,7 @@
         <v>984</v>
       </c>
       <c r="D160" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="E160" t="s">
         <v>1367</v>
@@ -12255,7 +12494,7 @@
         <v>1763</v>
       </c>
       <c r="G160" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="K160" t="s">
         <v>2009</v>
@@ -12284,7 +12523,7 @@
         <v>1764</v>
       </c>
       <c r="G161" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="K161" t="s">
         <v>2009</v>
@@ -12304,7 +12543,7 @@
         <v>986</v>
       </c>
       <c r="D162" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="E162" t="s">
         <v>1369</v>
@@ -12313,7 +12552,7 @@
         <v>1765</v>
       </c>
       <c r="G162" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="K162" t="s">
         <v>2009</v>
@@ -12333,7 +12572,7 @@
         <v>987</v>
       </c>
       <c r="D163" t="s">
-        <v>2188</v>
+        <v>2183</v>
       </c>
       <c r="E163" t="s">
         <v>1370</v>
@@ -12371,7 +12610,7 @@
         <v>1767</v>
       </c>
       <c r="G164" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
       <c r="K164" t="s">
         <v>2009</v>
@@ -12391,7 +12630,7 @@
         <v>989</v>
       </c>
       <c r="D165" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="E165" t="s">
         <v>1372</v>
@@ -12400,7 +12639,7 @@
         <v>1768</v>
       </c>
       <c r="G165" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="K165" t="s">
         <v>2009</v>
@@ -12429,7 +12668,7 @@
         <v>1769</v>
       </c>
       <c r="G166" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="K166" t="s">
         <v>2009</v>
@@ -12449,7 +12688,7 @@
         <v>991</v>
       </c>
       <c r="D167" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="E167" t="s">
         <v>1374</v>
@@ -12478,7 +12717,7 @@
         <v>992</v>
       </c>
       <c r="D168" t="s">
-        <v>2194</v>
+        <v>2189</v>
       </c>
       <c r="E168" t="s">
         <v>1375</v>
@@ -12533,7 +12772,7 @@
         <v>994</v>
       </c>
       <c r="D170" t="s">
-        <v>2195</v>
+        <v>2190</v>
       </c>
       <c r="E170" t="s">
         <v>1377</v>
@@ -12585,7 +12824,7 @@
         <v>996</v>
       </c>
       <c r="D172" t="s">
-        <v>2196</v>
+        <v>2191</v>
       </c>
       <c r="E172" t="s">
         <v>1379</v>
@@ -12611,7 +12850,7 @@
         <v>997</v>
       </c>
       <c r="D173" t="s">
-        <v>2197</v>
+        <v>2192</v>
       </c>
       <c r="E173" t="s">
         <v>1380</v>
@@ -12637,7 +12876,7 @@
         <v>998</v>
       </c>
       <c r="D174" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
       <c r="E174" t="s">
         <v>1381</v>
@@ -12689,7 +12928,7 @@
         <v>1000</v>
       </c>
       <c r="D176" t="s">
-        <v>2199</v>
+        <v>2194</v>
       </c>
       <c r="E176" t="s">
         <v>1383</v>
@@ -12698,7 +12937,7 @@
         <v>1779</v>
       </c>
       <c r="G176" t="s">
-        <v>2200</v>
+        <v>2195</v>
       </c>
       <c r="M176" t="s">
         <v>2009</v>
@@ -12767,7 +13006,7 @@
         <v>1003</v>
       </c>
       <c r="D179" t="s">
-        <v>2201</v>
+        <v>2196</v>
       </c>
       <c r="E179" t="s">
         <v>1386</v>
@@ -12776,7 +13015,7 @@
         <v>1782</v>
       </c>
       <c r="G179" t="s">
-        <v>2202</v>
+        <v>2197</v>
       </c>
       <c r="K179" t="s">
         <v>2009</v>
@@ -12796,7 +13035,7 @@
         <v>1004</v>
       </c>
       <c r="D180" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
       <c r="E180" t="s">
         <v>1387</v>
@@ -12805,7 +13044,7 @@
         <v>1783</v>
       </c>
       <c r="G180" t="s">
-        <v>2204</v>
+        <v>2500</v>
       </c>
       <c r="K180" t="s">
         <v>2009</v>
@@ -12854,7 +13093,7 @@
         <v>1006</v>
       </c>
       <c r="D182" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="E182" t="s">
         <v>1389</v>
@@ -12880,7 +13119,7 @@
         <v>1007</v>
       </c>
       <c r="D183" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="E183" t="s">
         <v>1390</v>
@@ -12889,7 +13128,10 @@
         <v>1786</v>
       </c>
       <c r="G183" t="s">
-        <v>2207</v>
+        <v>2501</v>
+      </c>
+      <c r="H183" t="s">
+        <v>2009</v>
       </c>
       <c r="K183" t="s">
         <v>2009</v>
@@ -12909,7 +13151,7 @@
         <v>1008</v>
       </c>
       <c r="D184" t="s">
-        <v>2208</v>
+        <v>2201</v>
       </c>
       <c r="E184" t="s">
         <v>1391</v>
@@ -12938,7 +13180,7 @@
         <v>1009</v>
       </c>
       <c r="D185" t="s">
-        <v>2209</v>
+        <v>2202</v>
       </c>
       <c r="E185" t="s">
         <v>1392</v>
@@ -12947,7 +13189,7 @@
         <v>1788</v>
       </c>
       <c r="G185" t="s">
-        <v>2210</v>
+        <v>2203</v>
       </c>
       <c r="K185" t="s">
         <v>2009</v>
@@ -12967,7 +13209,7 @@
         <v>1010</v>
       </c>
       <c r="D186" t="s">
-        <v>2211</v>
+        <v>2204</v>
       </c>
       <c r="E186" t="s">
         <v>1393</v>
@@ -12976,7 +13218,7 @@
         <v>1789</v>
       </c>
       <c r="G186" t="s">
-        <v>2212</v>
+        <v>2205</v>
       </c>
       <c r="K186" t="s">
         <v>2009</v>
@@ -12996,7 +13238,7 @@
         <v>1011</v>
       </c>
       <c r="D187" t="s">
-        <v>2213</v>
+        <v>2206</v>
       </c>
       <c r="E187" t="s">
         <v>1394</v>
@@ -13005,7 +13247,7 @@
         <v>1790</v>
       </c>
       <c r="G187" t="s">
-        <v>2214</v>
+        <v>2207</v>
       </c>
       <c r="K187" t="s">
         <v>2009</v>
@@ -13060,7 +13302,7 @@
         <v>1792</v>
       </c>
       <c r="G189" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
       <c r="K189" t="s">
         <v>2009</v>
@@ -13080,7 +13322,7 @@
         <v>1014</v>
       </c>
       <c r="D190" t="s">
-        <v>2216</v>
+        <v>2209</v>
       </c>
       <c r="E190" t="s">
         <v>1397</v>
@@ -13089,7 +13331,7 @@
         <v>1793</v>
       </c>
       <c r="G190" t="s">
-        <v>2217</v>
+        <v>2210</v>
       </c>
       <c r="J190" t="s">
         <v>2009</v>
@@ -13109,7 +13351,7 @@
         <v>1015</v>
       </c>
       <c r="D191" t="s">
-        <v>2218</v>
+        <v>2211</v>
       </c>
       <c r="E191" t="s">
         <v>1398</v>
@@ -13118,7 +13360,7 @@
         <v>1794</v>
       </c>
       <c r="G191" t="s">
-        <v>2219</v>
+        <v>2212</v>
       </c>
       <c r="I191" t="s">
         <v>2009</v>
@@ -13150,7 +13392,7 @@
         <v>1795</v>
       </c>
       <c r="G192" t="s">
-        <v>2220</v>
+        <v>2213</v>
       </c>
       <c r="K192" t="s">
         <v>2009</v>
@@ -13222,7 +13464,7 @@
         <v>1019</v>
       </c>
       <c r="D195" t="s">
-        <v>2221</v>
+        <v>2214</v>
       </c>
       <c r="E195" t="s">
         <v>1402</v>
@@ -13231,7 +13473,7 @@
         <v>1798</v>
       </c>
       <c r="G195" t="s">
-        <v>2222</v>
+        <v>2215</v>
       </c>
       <c r="K195" t="s">
         <v>2009</v>
@@ -13251,7 +13493,7 @@
         <v>1020</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>2223</v>
+        <v>2216</v>
       </c>
       <c r="E196" t="s">
         <v>1230</v>
@@ -13260,7 +13502,7 @@
         <v>1799</v>
       </c>
       <c r="G196" t="s">
-        <v>2224</v>
+        <v>2217</v>
       </c>
       <c r="H196" t="s">
         <v>2009</v>
@@ -13283,7 +13525,7 @@
         <v>1021</v>
       </c>
       <c r="D197" t="s">
-        <v>2225</v>
+        <v>2218</v>
       </c>
       <c r="E197" t="s">
         <v>1403</v>
@@ -13309,7 +13551,7 @@
         <v>1022</v>
       </c>
       <c r="D198" t="s">
-        <v>2226</v>
+        <v>2219</v>
       </c>
       <c r="E198" t="s">
         <v>1404</v>
@@ -13318,7 +13560,7 @@
         <v>1801</v>
       </c>
       <c r="G198" t="s">
-        <v>2227</v>
+        <v>2220</v>
       </c>
       <c r="H198" t="s">
         <v>2009</v>
@@ -13341,7 +13583,7 @@
         <v>1023</v>
       </c>
       <c r="D199" t="s">
-        <v>2228</v>
+        <v>2221</v>
       </c>
       <c r="E199" t="s">
         <v>1405</v>
@@ -13350,7 +13592,7 @@
         <v>1802</v>
       </c>
       <c r="G199" t="s">
-        <v>2229</v>
+        <v>2222</v>
       </c>
       <c r="K199" t="s">
         <v>2009</v>
@@ -13373,7 +13615,7 @@
         <v>1024</v>
       </c>
       <c r="D200" t="s">
-        <v>2230</v>
+        <v>2223</v>
       </c>
       <c r="E200" t="s">
         <v>1406</v>
@@ -13382,7 +13624,7 @@
         <v>1803</v>
       </c>
       <c r="G200" t="s">
-        <v>2231</v>
+        <v>2224</v>
       </c>
       <c r="K200" t="s">
         <v>2009</v>
@@ -13428,7 +13670,7 @@
         <v>1026</v>
       </c>
       <c r="D202" t="s">
-        <v>2232</v>
+        <v>2225</v>
       </c>
       <c r="E202" t="s">
         <v>1408</v>
@@ -13437,7 +13679,7 @@
         <v>1805</v>
       </c>
       <c r="G202" t="s">
-        <v>2233</v>
+        <v>2226</v>
       </c>
       <c r="J202" t="s">
         <v>2009</v>
@@ -13457,7 +13699,7 @@
         <v>1027</v>
       </c>
       <c r="D203" t="s">
-        <v>2234</v>
+        <v>2227</v>
       </c>
       <c r="E203" t="s">
         <v>1409</v>
@@ -13466,7 +13708,7 @@
         <v>1806</v>
       </c>
       <c r="G203" t="s">
-        <v>2235</v>
+        <v>2228</v>
       </c>
       <c r="J203" t="s">
         <v>2009</v>
@@ -13489,7 +13731,7 @@
         <v>1028</v>
       </c>
       <c r="D204" t="s">
-        <v>2239</v>
+        <v>2232</v>
       </c>
       <c r="E204" t="s">
         <v>1410</v>
@@ -13498,7 +13740,7 @@
         <v>1807</v>
       </c>
       <c r="G204" t="s">
-        <v>2236</v>
+        <v>2229</v>
       </c>
       <c r="K204" t="s">
         <v>2009</v>
@@ -13518,7 +13760,7 @@
         <v>1029</v>
       </c>
       <c r="D205" t="s">
-        <v>2237</v>
+        <v>2230</v>
       </c>
       <c r="E205" t="s">
         <v>1411</v>
@@ -13553,7 +13795,7 @@
         <v>1809</v>
       </c>
       <c r="G206" t="s">
-        <v>2238</v>
+        <v>2231</v>
       </c>
       <c r="K206" t="s">
         <v>2009</v>
@@ -13576,7 +13818,7 @@
         <v>1031</v>
       </c>
       <c r="D207" t="s">
-        <v>2240</v>
+        <v>2233</v>
       </c>
       <c r="E207" t="s">
         <v>1413</v>
@@ -13585,7 +13827,7 @@
         <v>1810</v>
       </c>
       <c r="G207" t="s">
-        <v>2241</v>
+        <v>2234</v>
       </c>
       <c r="I207" t="s">
         <v>2009</v>
@@ -13623,7 +13865,7 @@
         <v>1811</v>
       </c>
       <c r="G208" t="s">
-        <v>2242</v>
+        <v>2235</v>
       </c>
       <c r="K208" t="s">
         <v>2009</v>
@@ -13652,7 +13894,7 @@
         <v>1812</v>
       </c>
       <c r="G209" t="s">
-        <v>2243</v>
+        <v>2236</v>
       </c>
       <c r="K209" t="s">
         <v>2009</v>
@@ -13672,7 +13914,7 @@
         <v>1034</v>
       </c>
       <c r="D210" t="s">
-        <v>2244</v>
+        <v>2237</v>
       </c>
       <c r="E210" t="s">
         <v>1416</v>
@@ -13681,7 +13923,7 @@
         <v>1813</v>
       </c>
       <c r="G210" t="s">
-        <v>2245</v>
+        <v>2238</v>
       </c>
       <c r="J210" t="s">
         <v>2009</v>
@@ -13713,7 +13955,7 @@
         <v>1632</v>
       </c>
       <c r="G211" t="s">
-        <v>2246</v>
+        <v>2239</v>
       </c>
       <c r="K211" t="s">
         <v>2009</v>
@@ -13731,7 +13973,7 @@
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s">
-        <v>2247</v>
+        <v>2240</v>
       </c>
       <c r="E212" t="s">
         <v>1418</v>
@@ -13783,7 +14025,7 @@
         <v>1037</v>
       </c>
       <c r="D214" t="s">
-        <v>2248</v>
+        <v>2241</v>
       </c>
       <c r="E214" t="s">
         <v>1420</v>
@@ -13809,7 +14051,7 @@
         <v>1038</v>
       </c>
       <c r="D215" t="s">
-        <v>2249</v>
+        <v>2242</v>
       </c>
       <c r="E215" t="s">
         <v>1421</v>
@@ -13818,7 +14060,7 @@
         <v>1817</v>
       </c>
       <c r="G215" t="s">
-        <v>2250</v>
+        <v>2243</v>
       </c>
       <c r="I215" t="s">
         <v>2009</v>
@@ -13838,7 +14080,7 @@
         <v>1039</v>
       </c>
       <c r="D216" t="s">
-        <v>2251</v>
+        <v>2244</v>
       </c>
       <c r="E216" t="s">
         <v>1422</v>
@@ -13847,7 +14089,7 @@
         <v>1818</v>
       </c>
       <c r="G216" t="s">
-        <v>2252</v>
+        <v>2245</v>
       </c>
       <c r="I216" t="s">
         <v>2009</v>
@@ -13867,7 +14109,7 @@
         <v>1040</v>
       </c>
       <c r="D217" t="s">
-        <v>2253</v>
+        <v>2246</v>
       </c>
       <c r="E217" t="s">
         <v>1423</v>
@@ -13876,7 +14118,7 @@
         <v>1819</v>
       </c>
       <c r="G217" t="s">
-        <v>2254</v>
+        <v>2247</v>
       </c>
       <c r="H217" t="s">
         <v>2009</v>
@@ -13899,7 +14141,7 @@
         <v>1041</v>
       </c>
       <c r="D218" t="s">
-        <v>2256</v>
+        <v>2249</v>
       </c>
       <c r="E218" t="s">
         <v>1424</v>
@@ -13908,7 +14150,7 @@
         <v>1820</v>
       </c>
       <c r="G218" t="s">
-        <v>2255</v>
+        <v>2248</v>
       </c>
       <c r="I218" t="s">
         <v>2009</v>
@@ -13931,7 +14173,7 @@
         <v>1042</v>
       </c>
       <c r="D219" t="s">
-        <v>2257</v>
+        <v>2250</v>
       </c>
       <c r="E219" t="s">
         <v>1425</v>
@@ -13940,7 +14182,7 @@
         <v>1821</v>
       </c>
       <c r="G219" t="s">
-        <v>2258</v>
+        <v>2251</v>
       </c>
       <c r="I219" t="s">
         <v>2009</v>
@@ -13964,7 +14206,7 @@
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s">
-        <v>2259</v>
+        <v>2252</v>
       </c>
       <c r="E220" t="s">
         <v>1426</v>
@@ -13973,7 +14215,7 @@
         <v>1822</v>
       </c>
       <c r="G220" t="s">
-        <v>2260</v>
+        <v>2253</v>
       </c>
       <c r="J220" t="s">
         <v>2009</v>
@@ -14045,7 +14287,7 @@
         <v>1045</v>
       </c>
       <c r="D223" t="s">
-        <v>2261</v>
+        <v>2254</v>
       </c>
       <c r="E223" t="s">
         <v>1429</v>
@@ -14054,7 +14296,7 @@
         <v>1824</v>
       </c>
       <c r="G223" t="s">
-        <v>2262</v>
+        <v>2255</v>
       </c>
       <c r="K223" t="s">
         <v>2009</v>
@@ -14072,7 +14314,7 @@
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s">
-        <v>2263</v>
+        <v>2256</v>
       </c>
       <c r="E224" t="s">
         <v>1430</v>
@@ -14081,7 +14323,7 @@
         <v>1825</v>
       </c>
       <c r="G224" t="s">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="J224" t="s">
         <v>2009</v>
@@ -14101,7 +14343,7 @@
         <v>1046</v>
       </c>
       <c r="D225" t="s">
-        <v>2293</v>
+        <v>2286</v>
       </c>
       <c r="E225" t="s">
         <v>1431</v>
@@ -14110,7 +14352,7 @@
         <v>1826</v>
       </c>
       <c r="G225" t="s">
-        <v>2294</v>
+        <v>2287</v>
       </c>
       <c r="H225" t="s">
         <v>2009</v>
@@ -14142,7 +14384,7 @@
         <v>1827</v>
       </c>
       <c r="G226" t="s">
-        <v>2265</v>
+        <v>2258</v>
       </c>
       <c r="K226" t="s">
         <v>2009</v>
@@ -14162,7 +14404,7 @@
         <v>1048</v>
       </c>
       <c r="D227" t="s">
-        <v>2266</v>
+        <v>2259</v>
       </c>
       <c r="E227" t="s">
         <v>1433</v>
@@ -14171,7 +14413,7 @@
         <v>1828</v>
       </c>
       <c r="G227" t="s">
-        <v>2267</v>
+        <v>2260</v>
       </c>
       <c r="I227" t="s">
         <v>2009</v>
@@ -14197,7 +14439,7 @@
         <v>1049</v>
       </c>
       <c r="D228" t="s">
-        <v>2268</v>
+        <v>2261</v>
       </c>
       <c r="E228" t="s">
         <v>1434</v>
@@ -14206,7 +14448,7 @@
         <v>1829</v>
       </c>
       <c r="G228" t="s">
-        <v>2269</v>
+        <v>2262</v>
       </c>
       <c r="K228" t="s">
         <v>2009</v>
@@ -14226,7 +14468,7 @@
         <v>1050</v>
       </c>
       <c r="D229" t="s">
-        <v>2270</v>
+        <v>2263</v>
       </c>
       <c r="E229" t="s">
         <v>1435</v>
@@ -14255,7 +14497,7 @@
         <v>1051</v>
       </c>
       <c r="D230" t="s">
-        <v>2271</v>
+        <v>2264</v>
       </c>
       <c r="E230" t="s">
         <v>1436</v>
@@ -14264,7 +14506,7 @@
         <v>1831</v>
       </c>
       <c r="G230" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
       <c r="H230" t="s">
         <v>2009</v>
@@ -14287,7 +14529,7 @@
         <v>1052</v>
       </c>
       <c r="D231" t="s">
-        <v>2273</v>
+        <v>2266</v>
       </c>
       <c r="E231" t="s">
         <v>1437</v>
@@ -14313,7 +14555,7 @@
         <v>1053</v>
       </c>
       <c r="D232" t="s">
-        <v>2274</v>
+        <v>2267</v>
       </c>
       <c r="E232" t="s">
         <v>1438</v>
@@ -14322,7 +14564,7 @@
         <v>1833</v>
       </c>
       <c r="G232" t="s">
-        <v>2275</v>
+        <v>2268</v>
       </c>
       <c r="I232" t="s">
         <v>2009</v>
@@ -14342,7 +14584,7 @@
         <v>1054</v>
       </c>
       <c r="D233" t="s">
-        <v>2276</v>
+        <v>2269</v>
       </c>
       <c r="E233" t="s">
         <v>1439</v>
@@ -14351,7 +14593,7 @@
         <v>1834</v>
       </c>
       <c r="G233" t="s">
-        <v>2277</v>
+        <v>2270</v>
       </c>
       <c r="J233" t="s">
         <v>2009</v>
@@ -14371,7 +14613,7 @@
         <v>1055</v>
       </c>
       <c r="D234" t="s">
-        <v>2278</v>
+        <v>2271</v>
       </c>
       <c r="E234" t="s">
         <v>1440</v>
@@ -14423,7 +14665,7 @@
         <v>1057</v>
       </c>
       <c r="D236" t="s">
-        <v>2279</v>
+        <v>2272</v>
       </c>
       <c r="E236" t="s">
         <v>1442</v>
@@ -14432,7 +14674,7 @@
         <v>1837</v>
       </c>
       <c r="G236" t="s">
-        <v>2280</v>
+        <v>2273</v>
       </c>
       <c r="I236" t="s">
         <v>2009</v>
@@ -14455,7 +14697,7 @@
         <v>1058</v>
       </c>
       <c r="D237" t="s">
-        <v>2281</v>
+        <v>2274</v>
       </c>
       <c r="E237" t="s">
         <v>1443</v>
@@ -14464,7 +14706,7 @@
         <v>1838</v>
       </c>
       <c r="G237" t="s">
-        <v>2282</v>
+        <v>2275</v>
       </c>
       <c r="H237" t="s">
         <v>2009</v>
@@ -14487,7 +14729,7 @@
         <v>1059</v>
       </c>
       <c r="D238" t="s">
-        <v>2284</v>
+        <v>2277</v>
       </c>
       <c r="E238" t="s">
         <v>1444</v>
@@ -14496,7 +14738,7 @@
         <v>1839</v>
       </c>
       <c r="G238" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
       <c r="I238" t="s">
         <v>2009</v>
@@ -14516,7 +14758,7 @@
         <v>1060</v>
       </c>
       <c r="D239" t="s">
-        <v>2285</v>
+        <v>2278</v>
       </c>
       <c r="E239" t="s">
         <v>1445</v>
@@ -14525,7 +14767,7 @@
         <v>1840</v>
       </c>
       <c r="G239" t="s">
-        <v>2286</v>
+        <v>2279</v>
       </c>
       <c r="J239" t="s">
         <v>2009</v>
@@ -14548,7 +14790,7 @@
         <v>1061</v>
       </c>
       <c r="D240" t="s">
-        <v>2287</v>
+        <v>2280</v>
       </c>
       <c r="E240" t="s">
         <v>1446</v>
@@ -14574,7 +14816,7 @@
         <v>1062</v>
       </c>
       <c r="D241" t="s">
-        <v>2289</v>
+        <v>2282</v>
       </c>
       <c r="E241" t="s">
         <v>1447</v>
@@ -14583,7 +14825,7 @@
         <v>1842</v>
       </c>
       <c r="G241" t="s">
-        <v>2288</v>
+        <v>2281</v>
       </c>
       <c r="I241" t="s">
         <v>2009</v>
@@ -14603,7 +14845,7 @@
         <v>1063</v>
       </c>
       <c r="D242" t="s">
-        <v>2290</v>
+        <v>2283</v>
       </c>
       <c r="E242" t="s">
         <v>1448</v>
@@ -14655,7 +14897,7 @@
         <v>1065</v>
       </c>
       <c r="D244" t="s">
-        <v>2291</v>
+        <v>2284</v>
       </c>
       <c r="E244" t="s">
         <v>1450</v>
@@ -14664,7 +14906,7 @@
         <v>1845</v>
       </c>
       <c r="G244" t="s">
-        <v>2292</v>
+        <v>2285</v>
       </c>
       <c r="K244" t="s">
         <v>2009</v>
@@ -14693,7 +14935,7 @@
         <v>1846</v>
       </c>
       <c r="G245" t="s">
-        <v>2295</v>
+        <v>2288</v>
       </c>
       <c r="K245" t="s">
         <v>2009</v>
@@ -14713,7 +14955,7 @@
         <v>1067</v>
       </c>
       <c r="D246" t="s">
-        <v>2296</v>
+        <v>2289</v>
       </c>
       <c r="E246" t="s">
         <v>1452</v>
@@ -14737,7 +14979,7 @@
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s">
-        <v>2297</v>
+        <v>2290</v>
       </c>
       <c r="E247" t="s">
         <v>1453</v>
@@ -14763,7 +15005,7 @@
         <v>1068</v>
       </c>
       <c r="D248" t="s">
-        <v>2298</v>
+        <v>2291</v>
       </c>
       <c r="E248" t="s">
         <v>1454</v>
@@ -14798,7 +15040,7 @@
         <v>1850</v>
       </c>
       <c r="G249" t="s">
-        <v>2299</v>
+        <v>2292</v>
       </c>
       <c r="K249" t="s">
         <v>2009</v>
@@ -14816,7 +15058,7 @@
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s">
-        <v>2300</v>
+        <v>2502</v>
       </c>
       <c r="E250" t="s">
         <v>1456</v>
@@ -14825,7 +15067,7 @@
         <v>1851</v>
       </c>
       <c r="G250" t="s">
-        <v>2301</v>
+        <v>2293</v>
       </c>
       <c r="J250" t="s">
         <v>2009</v>
@@ -14843,7 +15085,7 @@
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s">
-        <v>2302</v>
+        <v>2294</v>
       </c>
       <c r="E251" t="s">
         <v>1457</v>
@@ -14895,7 +15137,7 @@
         <v>1071</v>
       </c>
       <c r="D253" t="s">
-        <v>2303</v>
+        <v>2295</v>
       </c>
       <c r="E253" t="s">
         <v>1459</v>
@@ -14904,7 +15146,7 @@
         <v>1854</v>
       </c>
       <c r="G253" t="s">
-        <v>2304</v>
+        <v>2296</v>
       </c>
       <c r="K253" t="s">
         <v>2009</v>
@@ -14927,7 +15169,7 @@
         <v>1072</v>
       </c>
       <c r="D254" t="s">
-        <v>2305</v>
+        <v>2297</v>
       </c>
       <c r="E254" t="s">
         <v>1460</v>
@@ -14936,7 +15178,7 @@
         <v>1855</v>
       </c>
       <c r="G254" t="s">
-        <v>2306</v>
+        <v>2298</v>
       </c>
       <c r="J254" t="s">
         <v>2009</v>
@@ -14988,7 +15230,7 @@
         <v>1074</v>
       </c>
       <c r="D256" t="s">
-        <v>2307</v>
+        <v>2299</v>
       </c>
       <c r="E256" t="s">
         <v>1462</v>
@@ -14997,7 +15239,7 @@
         <v>1857</v>
       </c>
       <c r="G256" t="s">
-        <v>2308</v>
+        <v>2300</v>
       </c>
       <c r="H256" t="s">
         <v>2009</v>
@@ -15018,7 +15260,7 @@
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s">
-        <v>2309</v>
+        <v>2301</v>
       </c>
       <c r="E257" t="s">
         <v>1463</v>
@@ -15027,7 +15269,7 @@
         <v>1858</v>
       </c>
       <c r="G257" t="s">
-        <v>2310</v>
+        <v>2302</v>
       </c>
       <c r="J257" t="s">
         <v>2009</v>
@@ -15056,7 +15298,7 @@
         <v>1859</v>
       </c>
       <c r="G258" t="s">
-        <v>2311</v>
+        <v>2303</v>
       </c>
       <c r="K258" t="s">
         <v>2009</v>
@@ -15074,7 +15316,7 @@
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s">
-        <v>2312</v>
+        <v>2304</v>
       </c>
       <c r="E259" t="s">
         <v>1465</v>
@@ -15083,7 +15325,7 @@
         <v>1860</v>
       </c>
       <c r="G259" t="s">
-        <v>2313</v>
+        <v>2305</v>
       </c>
       <c r="I259" t="s">
         <v>2009</v>
@@ -15106,7 +15348,7 @@
         <v>1076</v>
       </c>
       <c r="D260" t="s">
-        <v>2314</v>
+        <v>2306</v>
       </c>
       <c r="E260" t="s">
         <v>1466</v>
@@ -15115,7 +15357,7 @@
         <v>1861</v>
       </c>
       <c r="G260" t="s">
-        <v>2315</v>
+        <v>2307</v>
       </c>
       <c r="H260" t="s">
         <v>2009</v>
@@ -15167,7 +15409,7 @@
         <v>1078</v>
       </c>
       <c r="D262" t="s">
-        <v>2316</v>
+        <v>2308</v>
       </c>
       <c r="E262" t="s">
         <v>1468</v>
@@ -15202,7 +15444,7 @@
         <v>1864</v>
       </c>
       <c r="G263" t="s">
-        <v>2317</v>
+        <v>2309</v>
       </c>
       <c r="K263" t="s">
         <v>2009</v>
@@ -15248,7 +15490,7 @@
         <v>1081</v>
       </c>
       <c r="D265" t="s">
-        <v>2318</v>
+        <v>2310</v>
       </c>
       <c r="E265" t="s">
         <v>1471</v>
@@ -15300,7 +15542,7 @@
         <v>1083</v>
       </c>
       <c r="D267" t="s">
-        <v>2319</v>
+        <v>2311</v>
       </c>
       <c r="E267" t="s">
         <v>1473</v>
@@ -15309,7 +15551,7 @@
         <v>1868</v>
       </c>
       <c r="G267" t="s">
-        <v>2320</v>
+        <v>2312</v>
       </c>
       <c r="K267" t="s">
         <v>2009</v>
@@ -15329,7 +15571,7 @@
         <v>1084</v>
       </c>
       <c r="D268" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
       <c r="E268" t="s">
         <v>1474</v>
@@ -15355,7 +15597,7 @@
         <v>1085</v>
       </c>
       <c r="D269" t="s">
-        <v>2322</v>
+        <v>2314</v>
       </c>
       <c r="E269" t="s">
         <v>1475</v>
@@ -15364,7 +15606,7 @@
         <v>1870</v>
       </c>
       <c r="G269" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="K269" t="s">
         <v>2009</v>
@@ -15384,7 +15626,7 @@
         <v>1086</v>
       </c>
       <c r="D270" t="s">
-        <v>2324</v>
+        <v>2316</v>
       </c>
       <c r="E270" t="s">
         <v>1476</v>
@@ -15393,7 +15635,7 @@
         <v>1871</v>
       </c>
       <c r="G270" t="s">
-        <v>2325</v>
+        <v>2317</v>
       </c>
       <c r="K270" t="s">
         <v>2009</v>
@@ -15439,7 +15681,7 @@
         <v>1088</v>
       </c>
       <c r="D272" t="s">
-        <v>2326</v>
+        <v>2318</v>
       </c>
       <c r="E272" t="s">
         <v>1478</v>
@@ -15465,7 +15707,7 @@
         <v>1089</v>
       </c>
       <c r="D273" t="s">
-        <v>2327</v>
+        <v>2319</v>
       </c>
       <c r="E273" t="s">
         <v>1479</v>
@@ -15474,7 +15716,7 @@
         <v>1874</v>
       </c>
       <c r="G273" t="s">
-        <v>2328</v>
+        <v>2320</v>
       </c>
       <c r="I273" t="s">
         <v>2009</v>
@@ -15497,7 +15739,7 @@
         <v>1090</v>
       </c>
       <c r="D274" t="s">
-        <v>2329</v>
+        <v>2321</v>
       </c>
       <c r="E274" t="s">
         <v>1480</v>
@@ -15506,7 +15748,7 @@
         <v>1875</v>
       </c>
       <c r="G274" t="s">
-        <v>2330</v>
+        <v>2322</v>
       </c>
       <c r="I274" t="s">
         <v>2009</v>
@@ -15529,7 +15771,7 @@
         <v>1091</v>
       </c>
       <c r="D275" t="s">
-        <v>2331</v>
+        <v>2323</v>
       </c>
       <c r="E275" t="s">
         <v>1481</v>
@@ -15538,7 +15780,7 @@
         <v>1876</v>
       </c>
       <c r="G275" t="s">
-        <v>2332</v>
+        <v>2324</v>
       </c>
       <c r="K275" t="s">
         <v>2009</v>
@@ -15561,7 +15803,7 @@
         <v>1092</v>
       </c>
       <c r="D276" t="s">
-        <v>2333</v>
+        <v>2325</v>
       </c>
       <c r="E276" t="s">
         <v>1482</v>
@@ -15570,7 +15812,7 @@
         <v>1877</v>
       </c>
       <c r="G276" t="s">
-        <v>2334</v>
+        <v>2503</v>
       </c>
       <c r="J276" t="s">
         <v>2009</v>
@@ -15590,7 +15832,7 @@
         <v>1093</v>
       </c>
       <c r="D277" t="s">
-        <v>2335</v>
+        <v>2326</v>
       </c>
       <c r="E277" t="s">
         <v>1483</v>
@@ -15599,7 +15841,7 @@
         <v>1878</v>
       </c>
       <c r="G277" t="s">
-        <v>2336</v>
+        <v>2327</v>
       </c>
       <c r="I277" t="s">
         <v>2009</v>
@@ -15625,7 +15867,7 @@
         <v>1094</v>
       </c>
       <c r="D278" t="s">
-        <v>2337</v>
+        <v>2328</v>
       </c>
       <c r="E278" t="s">
         <v>1484</v>
@@ -15651,7 +15893,7 @@
         <v>1095</v>
       </c>
       <c r="D279" t="s">
-        <v>2338</v>
+        <v>2329</v>
       </c>
       <c r="E279" t="s">
         <v>1485</v>
@@ -15660,7 +15902,7 @@
         <v>1880</v>
       </c>
       <c r="G279" t="s">
-        <v>2339</v>
+        <v>2504</v>
       </c>
       <c r="J279" t="s">
         <v>2009</v>
@@ -15689,7 +15931,7 @@
         <v>1881</v>
       </c>
       <c r="G280" t="s">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="K280" t="s">
         <v>2009</v>
@@ -15709,7 +15951,7 @@
         <v>1097</v>
       </c>
       <c r="D281" t="s">
-        <v>2341</v>
+        <v>2331</v>
       </c>
       <c r="E281" t="s">
         <v>1487</v>
@@ -15718,7 +15960,7 @@
         <v>1882</v>
       </c>
       <c r="G281" t="s">
-        <v>2342</v>
+        <v>2332</v>
       </c>
       <c r="K281" t="s">
         <v>2009</v>
@@ -15738,7 +15980,7 @@
         <v>1098</v>
       </c>
       <c r="D282" t="s">
-        <v>2344</v>
+        <v>2334</v>
       </c>
       <c r="E282" t="s">
         <v>1488</v>
@@ -15764,7 +16006,7 @@
         <v>1099</v>
       </c>
       <c r="D283" t="s">
-        <v>2345</v>
+        <v>2335</v>
       </c>
       <c r="E283" t="s">
         <v>1489</v>
@@ -15790,7 +16032,7 @@
         <v>1100</v>
       </c>
       <c r="D284" t="s">
-        <v>2346</v>
+        <v>2336</v>
       </c>
       <c r="E284" t="s">
         <v>1490</v>
@@ -15799,7 +16041,7 @@
         <v>1885</v>
       </c>
       <c r="G284" t="s">
-        <v>2347</v>
+        <v>2337</v>
       </c>
       <c r="J284" t="s">
         <v>2009</v>
@@ -15819,7 +16061,7 @@
         <v>1101</v>
       </c>
       <c r="D285" t="s">
-        <v>2348</v>
+        <v>2338</v>
       </c>
       <c r="E285" t="s">
         <v>1491</v>
@@ -15828,7 +16070,7 @@
         <v>1886</v>
       </c>
       <c r="G285" t="s">
-        <v>2349</v>
+        <v>2339</v>
       </c>
       <c r="H285" t="s">
         <v>2009</v>
@@ -15851,7 +16093,7 @@
         <v>1102</v>
       </c>
       <c r="D286" t="s">
-        <v>2351</v>
+        <v>2341</v>
       </c>
       <c r="E286" t="s">
         <v>1492</v>
@@ -15900,7 +16142,7 @@
         <v>1104</v>
       </c>
       <c r="D288" t="s">
-        <v>2352</v>
+        <v>2342</v>
       </c>
       <c r="E288" t="s">
         <v>1494</v>
@@ -15909,7 +16151,7 @@
         <v>1889</v>
       </c>
       <c r="G288" t="s">
-        <v>2343</v>
+        <v>2333</v>
       </c>
       <c r="K288" t="s">
         <v>2009</v>
@@ -15929,7 +16171,7 @@
         <v>1105</v>
       </c>
       <c r="D289" t="s">
-        <v>2353</v>
+        <v>2343</v>
       </c>
       <c r="E289" t="s">
         <v>1495</v>
@@ -15938,7 +16180,7 @@
         <v>1890</v>
       </c>
       <c r="G289" t="s">
-        <v>2354</v>
+        <v>2344</v>
       </c>
       <c r="I289" t="s">
         <v>2009</v>
@@ -15967,7 +16209,7 @@
         <v>1891</v>
       </c>
       <c r="G290" t="s">
-        <v>2355</v>
+        <v>2345</v>
       </c>
       <c r="K290" t="s">
         <v>2009</v>
@@ -15987,7 +16229,7 @@
         <v>1107</v>
       </c>
       <c r="D291" t="s">
-        <v>2356</v>
+        <v>2346</v>
       </c>
       <c r="E291" t="s">
         <v>1497</v>
@@ -16013,7 +16255,7 @@
         <v>1108</v>
       </c>
       <c r="D292" t="s">
-        <v>2357</v>
+        <v>2347</v>
       </c>
       <c r="E292" t="s">
         <v>1498</v>
@@ -16022,7 +16264,7 @@
         <v>1893</v>
       </c>
       <c r="G292" t="s">
-        <v>2358</v>
+        <v>2348</v>
       </c>
       <c r="K292" t="s">
         <v>2009</v>
@@ -16042,7 +16284,7 @@
         <v>1109</v>
       </c>
       <c r="D293" t="s">
-        <v>2360</v>
+        <v>2350</v>
       </c>
       <c r="E293" t="s">
         <v>1499</v>
@@ -16068,7 +16310,7 @@
         <v>1110</v>
       </c>
       <c r="D294" t="s">
-        <v>2361</v>
+        <v>2351</v>
       </c>
       <c r="E294" t="s">
         <v>1500</v>
@@ -16077,7 +16319,7 @@
         <v>1895</v>
       </c>
       <c r="G294" t="s">
-        <v>2362</v>
+        <v>2352</v>
       </c>
       <c r="H294" t="s">
         <v>2009</v>
@@ -16100,7 +16342,7 @@
         <v>1111</v>
       </c>
       <c r="D295" t="s">
-        <v>2363</v>
+        <v>2353</v>
       </c>
       <c r="E295" t="s">
         <v>1501</v>
@@ -16109,7 +16351,7 @@
         <v>1896</v>
       </c>
       <c r="G295" t="s">
-        <v>2364</v>
+        <v>2354</v>
       </c>
       <c r="I295" t="s">
         <v>2009</v>
@@ -16141,7 +16383,7 @@
         <v>1897</v>
       </c>
       <c r="G296" t="s">
-        <v>2359</v>
+        <v>2349</v>
       </c>
       <c r="K296" t="s">
         <v>2009</v>
@@ -16170,7 +16412,7 @@
         <v>1898</v>
       </c>
       <c r="G297" t="s">
-        <v>2365</v>
+        <v>2355</v>
       </c>
       <c r="K297" t="s">
         <v>2009</v>
@@ -16199,7 +16441,7 @@
         <v>1899</v>
       </c>
       <c r="G298" t="s">
-        <v>2366</v>
+        <v>2356</v>
       </c>
       <c r="K298" t="s">
         <v>2009</v>
@@ -16217,7 +16459,7 @@
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s">
-        <v>2367</v>
+        <v>2357</v>
       </c>
       <c r="E299" t="s">
         <v>1505</v>
@@ -16226,7 +16468,7 @@
         <v>1900</v>
       </c>
       <c r="G299" t="s">
-        <v>2368</v>
+        <v>2358</v>
       </c>
       <c r="J299" t="s">
         <v>2009</v>
@@ -16246,7 +16488,7 @@
         <v>1115</v>
       </c>
       <c r="D300" t="s">
-        <v>2369</v>
+        <v>2359</v>
       </c>
       <c r="E300" t="s">
         <v>1506</v>
@@ -16255,7 +16497,7 @@
         <v>1901</v>
       </c>
       <c r="G300" t="s">
-        <v>2370</v>
+        <v>2360</v>
       </c>
       <c r="I300" t="s">
         <v>2009</v>
@@ -16276,13 +16518,13 @@
       </c>
       <c r="C301" s="2"/>
       <c r="D301" t="s">
-        <v>2371</v>
+        <v>2361</v>
       </c>
       <c r="E301" t="s">
         <v>1356</v>
       </c>
       <c r="G301" t="s">
-        <v>2372</v>
+        <v>2362</v>
       </c>
       <c r="J301" t="s">
         <v>2009</v>
@@ -16302,7 +16544,7 @@
         <v>1116</v>
       </c>
       <c r="D302" t="s">
-        <v>2373</v>
+        <v>2363</v>
       </c>
       <c r="E302" t="s">
         <v>1507</v>
@@ -16311,7 +16553,7 @@
         <v>1902</v>
       </c>
       <c r="G302" t="s">
-        <v>2374</v>
+        <v>2364</v>
       </c>
       <c r="H302" t="s">
         <v>2009</v>
@@ -16343,7 +16585,7 @@
         <v>1903</v>
       </c>
       <c r="G303" t="s">
-        <v>2375</v>
+        <v>2365</v>
       </c>
       <c r="K303" t="s">
         <v>2009</v>
@@ -16389,7 +16631,7 @@
         <v>1119</v>
       </c>
       <c r="D305" t="s">
-        <v>2376</v>
+        <v>2366</v>
       </c>
       <c r="E305" t="s">
         <v>1510</v>
@@ -16421,7 +16663,7 @@
         <v>1120</v>
       </c>
       <c r="D306" t="s">
-        <v>2377</v>
+        <v>2367</v>
       </c>
       <c r="E306" t="s">
         <v>1511</v>
@@ -16430,7 +16672,7 @@
         <v>1906</v>
       </c>
       <c r="G306" t="s">
-        <v>2378</v>
+        <v>2368</v>
       </c>
       <c r="K306" t="s">
         <v>2009</v>
@@ -16450,7 +16692,7 @@
         <v>1121</v>
       </c>
       <c r="D307" t="s">
-        <v>2379</v>
+        <v>2369</v>
       </c>
       <c r="E307" t="s">
         <v>1512</v>
@@ -16459,7 +16701,7 @@
         <v>1907</v>
       </c>
       <c r="G307" t="s">
-        <v>2380</v>
+        <v>2370</v>
       </c>
       <c r="K307" t="s">
         <v>2009</v>
@@ -16488,7 +16730,7 @@
         <v>1908</v>
       </c>
       <c r="G308" t="s">
-        <v>2381</v>
+        <v>2371</v>
       </c>
       <c r="K308" t="s">
         <v>2009</v>
@@ -16506,7 +16748,7 @@
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s">
-        <v>2383</v>
+        <v>2373</v>
       </c>
       <c r="E309" t="s">
         <v>1514</v>
@@ -16515,7 +16757,7 @@
         <v>1909</v>
       </c>
       <c r="G309" t="s">
-        <v>2382</v>
+        <v>2372</v>
       </c>
       <c r="I309" t="s">
         <v>2009</v>
@@ -16573,7 +16815,7 @@
         <v>1911</v>
       </c>
       <c r="G311" t="s">
-        <v>2384</v>
+        <v>2374</v>
       </c>
       <c r="K311" t="s">
         <v>2009</v>
@@ -16593,7 +16835,7 @@
         <v>1125</v>
       </c>
       <c r="D312" t="s">
-        <v>2385</v>
+        <v>2375</v>
       </c>
       <c r="E312" t="s">
         <v>1517</v>
@@ -16602,7 +16844,7 @@
         <v>1912</v>
       </c>
       <c r="G312" t="s">
-        <v>2386</v>
+        <v>2376</v>
       </c>
       <c r="K312" t="s">
         <v>2009</v>
@@ -16648,7 +16890,7 @@
         <v>1127</v>
       </c>
       <c r="D314" t="s">
-        <v>2387</v>
+        <v>2377</v>
       </c>
       <c r="E314" t="s">
         <v>1519</v>
@@ -16657,7 +16899,7 @@
         <v>1914</v>
       </c>
       <c r="G314" t="s">
-        <v>2388</v>
+        <v>2505</v>
       </c>
       <c r="H314" t="s">
         <v>2009</v>
@@ -16703,7 +16945,7 @@
         <v>1129</v>
       </c>
       <c r="D316" t="s">
-        <v>2389</v>
+        <v>2378</v>
       </c>
       <c r="E316" t="s">
         <v>1521</v>
@@ -16712,7 +16954,7 @@
         <v>1916</v>
       </c>
       <c r="G316" t="s">
-        <v>2390</v>
+        <v>2379</v>
       </c>
       <c r="H316" t="s">
         <v>2009</v>
@@ -16738,7 +16980,7 @@
         <v>1130</v>
       </c>
       <c r="D317" t="s">
-        <v>2391</v>
+        <v>2380</v>
       </c>
       <c r="E317" t="s">
         <v>1522</v>
@@ -16747,7 +16989,7 @@
         <v>1917</v>
       </c>
       <c r="G317" t="s">
-        <v>2392</v>
+        <v>2381</v>
       </c>
       <c r="K317" t="s">
         <v>2009</v>
@@ -16793,7 +17035,7 @@
         <v>1132</v>
       </c>
       <c r="D319" t="s">
-        <v>2393</v>
+        <v>2382</v>
       </c>
       <c r="E319" t="s">
         <v>1524</v>
@@ -16802,7 +17044,7 @@
         <v>1919</v>
       </c>
       <c r="G319" t="s">
-        <v>2394</v>
+        <v>2383</v>
       </c>
       <c r="H319" t="s">
         <v>2009</v>
@@ -16825,7 +17067,7 @@
         <v>1133</v>
       </c>
       <c r="D320" t="s">
-        <v>2395</v>
+        <v>2384</v>
       </c>
       <c r="E320" t="s">
         <v>1525</v>
@@ -16834,7 +17076,7 @@
         <v>1920</v>
       </c>
       <c r="G320" t="s">
-        <v>2396</v>
+        <v>2385</v>
       </c>
       <c r="K320" t="s">
         <v>2009</v>
@@ -16854,7 +17096,7 @@
         <v>1134</v>
       </c>
       <c r="D321" t="s">
-        <v>2397</v>
+        <v>2386</v>
       </c>
       <c r="E321" t="s">
         <v>1526</v>
@@ -16880,7 +17122,7 @@
         <v>1135</v>
       </c>
       <c r="D322" t="s">
-        <v>2398</v>
+        <v>2387</v>
       </c>
       <c r="E322" t="s">
         <v>1527</v>
@@ -16904,7 +17146,7 @@
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s">
-        <v>2399</v>
+        <v>2388</v>
       </c>
       <c r="E323" t="s">
         <v>1528</v>
@@ -16913,7 +17155,7 @@
         <v>1923</v>
       </c>
       <c r="G323" t="s">
-        <v>2400</v>
+        <v>2389</v>
       </c>
       <c r="I323" t="s">
         <v>2009</v>
@@ -16936,7 +17178,7 @@
         <v>1136</v>
       </c>
       <c r="D324" t="s">
-        <v>2401</v>
+        <v>2390</v>
       </c>
       <c r="E324" t="s">
         <v>1529</v>
@@ -16945,7 +17187,7 @@
         <v>1924</v>
       </c>
       <c r="G324" t="s">
-        <v>2402</v>
+        <v>2391</v>
       </c>
       <c r="J324" t="s">
         <v>2009</v>
@@ -16965,7 +17207,7 @@
         <v>1137</v>
       </c>
       <c r="D325" t="s">
-        <v>2403</v>
+        <v>2392</v>
       </c>
       <c r="E325" t="s">
         <v>1530</v>
@@ -16974,7 +17216,7 @@
         <v>1925</v>
       </c>
       <c r="G325" t="s">
-        <v>2404</v>
+        <v>2393</v>
       </c>
       <c r="K325" t="s">
         <v>2009</v>
@@ -17020,7 +17262,7 @@
         <v>983</v>
       </c>
       <c r="D327" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E327" t="s">
         <v>1532</v>
@@ -17029,7 +17271,7 @@
         <v>1762</v>
       </c>
       <c r="G327" t="s">
-        <v>2405</v>
+        <v>2394</v>
       </c>
       <c r="J327" t="s">
         <v>2009</v>
@@ -17052,7 +17294,7 @@
         <v>1139</v>
       </c>
       <c r="D328" t="s">
-        <v>2406</v>
+        <v>2395</v>
       </c>
       <c r="E328" t="s">
         <v>1533</v>
@@ -17061,7 +17303,7 @@
         <v>1927</v>
       </c>
       <c r="G328" t="s">
-        <v>2407</v>
+        <v>2396</v>
       </c>
       <c r="K328" t="s">
         <v>2009</v>
@@ -17090,7 +17332,7 @@
         <v>1928</v>
       </c>
       <c r="G329" t="s">
-        <v>2408</v>
+        <v>2397</v>
       </c>
       <c r="K329" t="s">
         <v>2009</v>
@@ -17110,7 +17352,7 @@
         <v>1141</v>
       </c>
       <c r="D330" t="s">
-        <v>2409</v>
+        <v>2398</v>
       </c>
       <c r="E330" t="s">
         <v>1535</v>
@@ -17136,7 +17378,7 @@
         <v>1020</v>
       </c>
       <c r="D331" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E331" t="s">
         <v>1230</v>
@@ -17145,7 +17387,7 @@
         <v>1799</v>
       </c>
       <c r="G331" t="s">
-        <v>2224</v>
+        <v>2217</v>
       </c>
       <c r="H331" t="s">
         <v>2009</v>
@@ -17168,7 +17410,7 @@
         <v>1142</v>
       </c>
       <c r="D332" t="s">
-        <v>2411</v>
+        <v>2400</v>
       </c>
       <c r="E332" t="s">
         <v>1536</v>
@@ -17177,7 +17419,7 @@
         <v>1930</v>
       </c>
       <c r="G332" t="s">
-        <v>2410</v>
+        <v>2399</v>
       </c>
       <c r="H332" t="s">
         <v>2009</v>
@@ -17194,7 +17436,7 @@
         <v>1143</v>
       </c>
       <c r="D333" t="s">
-        <v>2412</v>
+        <v>2401</v>
       </c>
       <c r="E333" t="s">
         <v>1537</v>
@@ -17249,7 +17491,7 @@
         <v>1145</v>
       </c>
       <c r="D335" t="s">
-        <v>2413</v>
+        <v>2402</v>
       </c>
       <c r="E335" t="s">
         <v>1539</v>
@@ -17258,7 +17500,10 @@
         <v>1933</v>
       </c>
       <c r="G335" t="s">
-        <v>2414</v>
+        <v>2506</v>
+      </c>
+      <c r="H335" t="s">
+        <v>2009</v>
       </c>
       <c r="K335" t="s">
         <v>2009</v>
@@ -17276,7 +17521,7 @@
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s">
-        <v>2415</v>
+        <v>2403</v>
       </c>
       <c r="E336" t="s">
         <v>1540</v>
@@ -17285,7 +17530,7 @@
         <v>1934</v>
       </c>
       <c r="G336" t="s">
-        <v>2416</v>
+        <v>2404</v>
       </c>
       <c r="I336" t="s">
         <v>2009</v>
@@ -17306,7 +17551,7 @@
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s">
-        <v>2418</v>
+        <v>2406</v>
       </c>
       <c r="E337" t="s">
         <v>1541</v>
@@ -17315,7 +17560,7 @@
         <v>1935</v>
       </c>
       <c r="G337" t="s">
-        <v>2417</v>
+        <v>2405</v>
       </c>
       <c r="J337" t="s">
         <v>2009</v>
@@ -17335,7 +17580,7 @@
         <v>1146</v>
       </c>
       <c r="D338" t="s">
-        <v>2419</v>
+        <v>2407</v>
       </c>
       <c r="E338" t="s">
         <v>1542</v>
@@ -17344,7 +17589,7 @@
         <v>1936</v>
       </c>
       <c r="G338" t="s">
-        <v>2420</v>
+        <v>2408</v>
       </c>
       <c r="K338" t="s">
         <v>2009</v>
@@ -17364,7 +17609,7 @@
         <v>1147</v>
       </c>
       <c r="D339" t="s">
-        <v>2421</v>
+        <v>2409</v>
       </c>
       <c r="E339" t="s">
         <v>1543</v>
@@ -17373,7 +17618,7 @@
         <v>1937</v>
       </c>
       <c r="G339" t="s">
-        <v>2422</v>
+        <v>2410</v>
       </c>
       <c r="K339" t="s">
         <v>2009</v>
@@ -17394,7 +17639,7 @@
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s">
-        <v>2423</v>
+        <v>2411</v>
       </c>
       <c r="E340" t="s">
         <v>1544</v>
@@ -17403,7 +17648,7 @@
         <v>1938</v>
       </c>
       <c r="G340" t="s">
-        <v>2424</v>
+        <v>2412</v>
       </c>
       <c r="J340" t="s">
         <v>2009</v>
@@ -17423,7 +17668,7 @@
         <v>1148</v>
       </c>
       <c r="D341" t="s">
-        <v>2425</v>
+        <v>2413</v>
       </c>
       <c r="E341" t="s">
         <v>1545</v>
@@ -17432,7 +17677,7 @@
         <v>1939</v>
       </c>
       <c r="G341" t="s">
-        <v>2426</v>
+        <v>2414</v>
       </c>
       <c r="K341" t="s">
         <v>2009</v>
@@ -17455,7 +17700,7 @@
         <v>1149</v>
       </c>
       <c r="D342" t="s">
-        <v>2427</v>
+        <v>2415</v>
       </c>
       <c r="E342" t="s">
         <v>1546</v>
@@ -17464,7 +17709,7 @@
         <v>1940</v>
       </c>
       <c r="G342" t="s">
-        <v>2428</v>
+        <v>2416</v>
       </c>
       <c r="I342" t="s">
         <v>2009</v>
@@ -17487,7 +17732,7 @@
         <v>1150</v>
       </c>
       <c r="D343" t="s">
-        <v>2429</v>
+        <v>2417</v>
       </c>
       <c r="E343" t="s">
         <v>1547</v>
@@ -17496,7 +17741,7 @@
         <v>1941</v>
       </c>
       <c r="G343" t="s">
-        <v>2430</v>
+        <v>2418</v>
       </c>
       <c r="K343" t="s">
         <v>2009</v>
@@ -17540,7 +17785,7 @@
       </c>
       <c r="C345" s="2"/>
       <c r="D345" t="s">
-        <v>2432</v>
+        <v>2420</v>
       </c>
       <c r="E345" t="s">
         <v>1549</v>
@@ -17549,7 +17794,7 @@
         <v>1943</v>
       </c>
       <c r="G345" t="s">
-        <v>2431</v>
+        <v>2419</v>
       </c>
       <c r="J345" t="s">
         <v>2009</v>
@@ -17569,7 +17814,7 @@
         <v>1152</v>
       </c>
       <c r="D346" t="s">
-        <v>2433</v>
+        <v>2421</v>
       </c>
       <c r="E346" t="s">
         <v>1550</v>
@@ -17578,7 +17823,7 @@
         <v>1944</v>
       </c>
       <c r="G346" t="s">
-        <v>2434</v>
+        <v>2422</v>
       </c>
       <c r="H346" t="s">
         <v>2009</v>
@@ -17594,14 +17839,27 @@
       <c r="A347" t="s">
         <v>359</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="2" t="s">
         <v>767</v>
+      </c>
+      <c r="C347" s="2"/>
+      <c r="D347" t="s">
+        <v>2423</v>
       </c>
       <c r="E347" t="s">
         <v>1551</v>
       </c>
       <c r="F347" t="s">
         <v>1945</v>
+      </c>
+      <c r="G347" t="s">
+        <v>2424</v>
+      </c>
+      <c r="J347" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K347" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.25">
@@ -17614,11 +17872,23 @@
       <c r="C348" t="s">
         <v>1153</v>
       </c>
+      <c r="D348" t="s">
+        <v>2425</v>
+      </c>
       <c r="E348" t="s">
         <v>1552</v>
       </c>
       <c r="F348" t="s">
         <v>1946</v>
+      </c>
+      <c r="G348" t="s">
+        <v>2426</v>
+      </c>
+      <c r="I348" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K348" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.25">
@@ -17631,11 +17901,20 @@
       <c r="C349" t="s">
         <v>1154</v>
       </c>
+      <c r="D349" t="s">
+        <v>1154</v>
+      </c>
       <c r="E349" t="s">
         <v>1553</v>
       </c>
       <c r="F349" t="s">
         <v>1947</v>
+      </c>
+      <c r="G349" t="s">
+        <v>1947</v>
+      </c>
+      <c r="N349" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.25">
@@ -17648,11 +17927,20 @@
       <c r="C350" t="s">
         <v>1155</v>
       </c>
+      <c r="D350" t="s">
+        <v>2427</v>
+      </c>
       <c r="E350" t="s">
         <v>1554</v>
       </c>
       <c r="F350" t="s">
         <v>1948</v>
+      </c>
+      <c r="G350" t="s">
+        <v>1948</v>
+      </c>
+      <c r="L350" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.25">
@@ -17665,11 +17953,23 @@
       <c r="C351" t="s">
         <v>1156</v>
       </c>
+      <c r="D351" t="s">
+        <v>2428</v>
+      </c>
       <c r="E351" t="s">
         <v>1555</v>
       </c>
       <c r="F351" t="s">
         <v>1949</v>
+      </c>
+      <c r="G351" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H351" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L351" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
@@ -17682,14 +17982,23 @@
       <c r="C352" t="s">
         <v>1157</v>
       </c>
+      <c r="D352" t="s">
+        <v>1157</v>
+      </c>
       <c r="E352" t="s">
         <v>1556</v>
       </c>
       <c r="F352" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G352" t="s">
+        <v>1950</v>
+      </c>
+      <c r="N352" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>365</v>
       </c>
@@ -17699,14 +18008,26 @@
       <c r="C353" t="s">
         <v>1158</v>
       </c>
+      <c r="D353" t="s">
+        <v>2429</v>
+      </c>
       <c r="E353" t="s">
         <v>1557</v>
       </c>
       <c r="F353" t="s">
         <v>1951</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G353" t="s">
+        <v>2430</v>
+      </c>
+      <c r="J353" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K353" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>366</v>
       </c>
@@ -17716,19 +18037,32 @@
       <c r="C354" t="s">
         <v>1159</v>
       </c>
+      <c r="D354" t="s">
+        <v>2431</v>
+      </c>
       <c r="E354" t="s">
         <v>1558</v>
       </c>
       <c r="F354" t="s">
         <v>1952</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G354" t="s">
+        <v>1952</v>
+      </c>
+      <c r="M354" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>367</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="2" t="s">
         <v>775</v>
+      </c>
+      <c r="C355" s="2"/>
+      <c r="D355" t="s">
+        <v>2432</v>
       </c>
       <c r="E355" t="s">
         <v>1559</v>
@@ -17736,13 +18070,29 @@
       <c r="F355" t="s">
         <v>1953</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G355" t="s">
+        <v>2433</v>
+      </c>
+      <c r="I355" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J355" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K355" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>368</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="2" t="s">
         <v>776</v>
+      </c>
+      <c r="C356" s="2"/>
+      <c r="D356" t="s">
+        <v>2434</v>
       </c>
       <c r="E356" t="s">
         <v>1560</v>
@@ -17750,8 +18100,17 @@
       <c r="F356" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G356" t="s">
+        <v>2435</v>
+      </c>
+      <c r="J356" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K356" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>369</v>
       </c>
@@ -17761,14 +18120,23 @@
       <c r="C357" t="s">
         <v>1160</v>
       </c>
+      <c r="D357" t="s">
+        <v>1160</v>
+      </c>
       <c r="E357" t="s">
         <v>1561</v>
       </c>
       <c r="F357" t="s">
         <v>1955</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G357" t="s">
+        <v>1955</v>
+      </c>
+      <c r="N357" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>370</v>
       </c>
@@ -17778,14 +18146,23 @@
       <c r="C358" t="s">
         <v>1161</v>
       </c>
+      <c r="D358" t="s">
+        <v>1161</v>
+      </c>
       <c r="E358" t="s">
         <v>1562</v>
       </c>
       <c r="F358" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G358" t="s">
+        <v>1956</v>
+      </c>
+      <c r="N358" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>371</v>
       </c>
@@ -17795,14 +18172,23 @@
       <c r="C359" t="s">
         <v>1162</v>
       </c>
+      <c r="D359" t="s">
+        <v>2436</v>
+      </c>
       <c r="E359" t="s">
         <v>1563</v>
       </c>
       <c r="F359" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G359" t="s">
+        <v>1957</v>
+      </c>
+      <c r="M359" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>372</v>
       </c>
@@ -17812,14 +18198,26 @@
       <c r="C360" t="s">
         <v>1163</v>
       </c>
+      <c r="D360" t="s">
+        <v>2437</v>
+      </c>
       <c r="E360" t="s">
         <v>1564</v>
       </c>
       <c r="F360" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G360" t="s">
+        <v>2438</v>
+      </c>
+      <c r="H360" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K360" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>373</v>
       </c>
@@ -17829,14 +18227,26 @@
       <c r="C361" t="s">
         <v>1164</v>
       </c>
+      <c r="D361" t="s">
+        <v>2439</v>
+      </c>
       <c r="E361" t="s">
         <v>1565</v>
       </c>
       <c r="F361" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G361" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I361" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K361" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>374</v>
       </c>
@@ -17846,14 +18256,29 @@
       <c r="C362" t="s">
         <v>1165</v>
       </c>
+      <c r="D362" t="s">
+        <v>2441</v>
+      </c>
       <c r="E362" t="s">
         <v>1566</v>
       </c>
       <c r="F362" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G362" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K362" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L362" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M362" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>375</v>
       </c>
@@ -17863,14 +18288,23 @@
       <c r="C363" t="s">
         <v>1166</v>
       </c>
+      <c r="D363" t="s">
+        <v>2443</v>
+      </c>
       <c r="E363" t="s">
         <v>1567</v>
       </c>
       <c r="F363" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G363" t="s">
+        <v>1961</v>
+      </c>
+      <c r="N363" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>376</v>
       </c>
@@ -17880,14 +18314,26 @@
       <c r="C364" t="s">
         <v>1167</v>
       </c>
+      <c r="D364" t="s">
+        <v>2444</v>
+      </c>
       <c r="E364" t="s">
         <v>1568</v>
       </c>
       <c r="F364" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G364" t="s">
+        <v>2445</v>
+      </c>
+      <c r="H364" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K364" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>377</v>
       </c>
@@ -17897,14 +18343,23 @@
       <c r="C365" t="s">
         <v>1168</v>
       </c>
+      <c r="D365" t="s">
+        <v>1168</v>
+      </c>
       <c r="E365" t="s">
         <v>1569</v>
       </c>
       <c r="F365" t="s">
         <v>1963</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G365" t="s">
+        <v>1963</v>
+      </c>
+      <c r="N365" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>378</v>
       </c>
@@ -17914,14 +18369,23 @@
       <c r="C366" t="s">
         <v>1169</v>
       </c>
+      <c r="D366" t="s">
+        <v>2446</v>
+      </c>
       <c r="E366" t="s">
         <v>1570</v>
       </c>
       <c r="F366" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G366" t="s">
+        <v>1964</v>
+      </c>
+      <c r="M366" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>379</v>
       </c>
@@ -17931,14 +18395,23 @@
       <c r="C367" t="s">
         <v>1170</v>
       </c>
+      <c r="D367" t="s">
+        <v>2447</v>
+      </c>
       <c r="E367" t="s">
         <v>1571</v>
       </c>
       <c r="F367" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G367" t="s">
+        <v>1965</v>
+      </c>
+      <c r="M367" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>380</v>
       </c>
@@ -17948,14 +18421,23 @@
       <c r="C368" t="s">
         <v>1171</v>
       </c>
+      <c r="D368" t="s">
+        <v>1171</v>
+      </c>
       <c r="E368" t="s">
         <v>1572</v>
       </c>
       <c r="F368" t="s">
         <v>1966</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G368" t="s">
+        <v>1966</v>
+      </c>
+      <c r="N368" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>381</v>
       </c>
@@ -17965,14 +18447,29 @@
       <c r="C369" t="s">
         <v>1172</v>
       </c>
+      <c r="D369" t="s">
+        <v>2507</v>
+      </c>
       <c r="E369" t="s">
         <v>1573</v>
       </c>
       <c r="F369" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G369" t="s">
+        <v>2508</v>
+      </c>
+      <c r="K369" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L369" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M369" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>382</v>
       </c>
@@ -17982,14 +18479,29 @@
       <c r="C370" t="s">
         <v>1173</v>
       </c>
+      <c r="D370" t="s">
+        <v>2448</v>
+      </c>
       <c r="E370" t="s">
         <v>1574</v>
       </c>
       <c r="F370" t="s">
         <v>1968</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G370" t="s">
+        <v>2449</v>
+      </c>
+      <c r="I370" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J370" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M370" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>383</v>
       </c>
@@ -17999,14 +18511,23 @@
       <c r="C371" t="s">
         <v>1174</v>
       </c>
+      <c r="D371" t="s">
+        <v>2450</v>
+      </c>
       <c r="E371" t="s">
         <v>1575</v>
       </c>
       <c r="F371" t="s">
         <v>1969</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G371" t="s">
+        <v>1969</v>
+      </c>
+      <c r="M371" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>384</v>
       </c>
@@ -18016,14 +18537,23 @@
       <c r="C372" t="s">
         <v>1175</v>
       </c>
+      <c r="D372" t="s">
+        <v>1175</v>
+      </c>
       <c r="E372" t="s">
         <v>1576</v>
       </c>
       <c r="F372" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G372" t="s">
+        <v>1970</v>
+      </c>
+      <c r="N372" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>385</v>
       </c>
@@ -18033,14 +18563,23 @@
       <c r="C373" t="s">
         <v>1176</v>
       </c>
+      <c r="D373" t="s">
+        <v>1176</v>
+      </c>
       <c r="E373" t="s">
         <v>1577</v>
       </c>
       <c r="F373" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G373" t="s">
+        <v>1971</v>
+      </c>
+      <c r="N373" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>386</v>
       </c>
@@ -18050,14 +18589,23 @@
       <c r="C374" t="s">
         <v>1177</v>
       </c>
+      <c r="D374" t="s">
+        <v>1177</v>
+      </c>
       <c r="E374" t="s">
         <v>1578</v>
       </c>
       <c r="F374" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G374" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N374" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>387</v>
       </c>
@@ -18067,14 +18615,26 @@
       <c r="C375" t="s">
         <v>1178</v>
       </c>
+      <c r="D375" t="s">
+        <v>1178</v>
+      </c>
       <c r="E375" t="s">
         <v>1579</v>
       </c>
       <c r="F375" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G375" t="s">
+        <v>2451</v>
+      </c>
+      <c r="K375" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N375" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>388</v>
       </c>
@@ -18084,14 +18644,23 @@
       <c r="C376" t="s">
         <v>1179</v>
       </c>
+      <c r="D376" t="s">
+        <v>1179</v>
+      </c>
       <c r="E376" t="s">
         <v>1580</v>
       </c>
       <c r="F376" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G376" t="s">
+        <v>1974</v>
+      </c>
+      <c r="N376" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>389</v>
       </c>
@@ -18101,14 +18670,23 @@
       <c r="C377" t="s">
         <v>1180</v>
       </c>
+      <c r="D377" t="s">
+        <v>1180</v>
+      </c>
       <c r="E377" t="s">
         <v>1581</v>
       </c>
       <c r="F377" t="s">
         <v>1975</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G377" t="s">
+        <v>1975</v>
+      </c>
+      <c r="N377" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>390</v>
       </c>
@@ -18118,14 +18696,23 @@
       <c r="C378" t="s">
         <v>1181</v>
       </c>
+      <c r="D378" t="s">
+        <v>1181</v>
+      </c>
       <c r="E378" t="s">
         <v>1582</v>
       </c>
       <c r="F378" t="s">
         <v>1976</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G378" t="s">
+        <v>1976</v>
+      </c>
+      <c r="N378" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>391</v>
       </c>
@@ -18135,14 +18722,26 @@
       <c r="C379" t="s">
         <v>1182</v>
       </c>
+      <c r="D379" t="s">
+        <v>2452</v>
+      </c>
       <c r="E379" t="s">
         <v>1583</v>
       </c>
       <c r="F379" t="s">
         <v>1977</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G379" t="s">
+        <v>2509</v>
+      </c>
+      <c r="K379" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M379" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>392</v>
       </c>
@@ -18152,14 +18751,26 @@
       <c r="C380" t="s">
         <v>1183</v>
       </c>
+      <c r="D380" t="s">
+        <v>2453</v>
+      </c>
       <c r="E380" t="s">
         <v>1584</v>
       </c>
       <c r="F380" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G380" t="s">
+        <v>2454</v>
+      </c>
+      <c r="K380" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M380" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>393</v>
       </c>
@@ -18169,14 +18780,26 @@
       <c r="C381" t="s">
         <v>1184</v>
       </c>
+      <c r="D381" t="s">
+        <v>1184</v>
+      </c>
       <c r="E381" t="s">
         <v>1585</v>
       </c>
       <c r="F381" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G381" t="s">
+        <v>2455</v>
+      </c>
+      <c r="K381" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N381" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>394</v>
       </c>
@@ -18186,14 +18809,26 @@
       <c r="C382" t="s">
         <v>1185</v>
       </c>
+      <c r="D382" t="s">
+        <v>2456</v>
+      </c>
       <c r="E382" t="s">
         <v>1586</v>
       </c>
       <c r="F382" t="s">
         <v>1980</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G382" t="s">
+        <v>2457</v>
+      </c>
+      <c r="H382" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K382" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>395</v>
       </c>
@@ -18203,14 +18838,23 @@
       <c r="C383" t="s">
         <v>1186</v>
       </c>
+      <c r="D383" t="s">
+        <v>2458</v>
+      </c>
       <c r="E383" t="s">
         <v>1587</v>
       </c>
       <c r="F383" t="s">
         <v>1981</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G383" t="s">
+        <v>1981</v>
+      </c>
+      <c r="M383" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>396</v>
       </c>
@@ -18220,14 +18864,32 @@
       <c r="C384" t="s">
         <v>1187</v>
       </c>
+      <c r="D384" t="s">
+        <v>2459</v>
+      </c>
       <c r="E384" t="s">
         <v>1588</v>
       </c>
       <c r="F384" t="s">
         <v>1982</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G384" t="s">
+        <v>2460</v>
+      </c>
+      <c r="J384" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K384" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L384" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M384" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>397</v>
       </c>
@@ -18237,14 +18899,26 @@
       <c r="C385" t="s">
         <v>1188</v>
       </c>
+      <c r="D385" t="s">
+        <v>2461</v>
+      </c>
       <c r="E385" t="s">
         <v>1589</v>
       </c>
       <c r="F385" t="s">
         <v>1983</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G385" t="s">
+        <v>2462</v>
+      </c>
+      <c r="K385" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L385" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>398</v>
       </c>
@@ -18254,14 +18928,23 @@
       <c r="C386" t="s">
         <v>1189</v>
       </c>
+      <c r="D386" t="s">
+        <v>1189</v>
+      </c>
       <c r="E386" t="s">
         <v>1590</v>
       </c>
       <c r="F386" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G386" t="s">
+        <v>1984</v>
+      </c>
+      <c r="N386" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>399</v>
       </c>
@@ -18271,14 +18954,23 @@
       <c r="C387" t="s">
         <v>1190</v>
       </c>
+      <c r="D387" t="s">
+        <v>1190</v>
+      </c>
       <c r="E387" t="s">
         <v>1591</v>
       </c>
       <c r="F387" t="s">
         <v>1985</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G387" t="s">
+        <v>1985</v>
+      </c>
+      <c r="N387" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>400</v>
       </c>
@@ -18288,14 +18980,23 @@
       <c r="C388" t="s">
         <v>1191</v>
       </c>
+      <c r="D388" t="s">
+        <v>2463</v>
+      </c>
       <c r="E388" t="s">
         <v>1592</v>
       </c>
       <c r="F388" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G388" t="s">
+        <v>1986</v>
+      </c>
+      <c r="M388" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>401</v>
       </c>
@@ -18305,14 +19006,26 @@
       <c r="C389" t="s">
         <v>1192</v>
       </c>
+      <c r="D389" t="s">
+        <v>2464</v>
+      </c>
       <c r="E389" t="s">
         <v>1593</v>
       </c>
       <c r="F389" t="s">
         <v>1987</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G389" t="s">
+        <v>2465</v>
+      </c>
+      <c r="K389" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M389" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>402</v>
       </c>
@@ -18322,14 +19035,26 @@
       <c r="C390" t="s">
         <v>1193</v>
       </c>
+      <c r="D390" t="s">
+        <v>2467</v>
+      </c>
       <c r="E390" t="s">
         <v>1594</v>
       </c>
       <c r="F390" t="s">
         <v>1988</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G390" t="s">
+        <v>2466</v>
+      </c>
+      <c r="K390" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M390" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>403</v>
       </c>
@@ -18339,14 +19064,23 @@
       <c r="C391" t="s">
         <v>1194</v>
       </c>
+      <c r="D391" t="s">
+        <v>1194</v>
+      </c>
       <c r="E391" t="s">
         <v>1595</v>
       </c>
       <c r="F391" t="s">
         <v>1989</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G391" t="s">
+        <v>2510</v>
+      </c>
+      <c r="L391" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>404</v>
       </c>
@@ -18356,14 +19090,23 @@
       <c r="C392" t="s">
         <v>1195</v>
       </c>
+      <c r="D392" t="s">
+        <v>2468</v>
+      </c>
       <c r="E392" t="s">
         <v>1596</v>
       </c>
       <c r="F392" t="s">
         <v>1990</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G392" t="s">
+        <v>1990</v>
+      </c>
+      <c r="L392" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>405</v>
       </c>
@@ -18373,14 +19116,26 @@
       <c r="C393" t="s">
         <v>1196</v>
       </c>
+      <c r="D393" t="s">
+        <v>2469</v>
+      </c>
       <c r="E393" t="s">
         <v>1597</v>
       </c>
       <c r="F393" t="s">
         <v>1991</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G393" t="s">
+        <v>2470</v>
+      </c>
+      <c r="I393" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K393" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>406</v>
       </c>
@@ -18390,14 +19145,26 @@
       <c r="C394" t="s">
         <v>1197</v>
       </c>
+      <c r="D394" t="s">
+        <v>1197</v>
+      </c>
       <c r="E394" t="s">
         <v>1598</v>
       </c>
       <c r="F394" t="s">
         <v>1992</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G394" t="s">
+        <v>2471</v>
+      </c>
+      <c r="K394" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N394" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>407</v>
       </c>
@@ -18407,14 +19174,23 @@
       <c r="C395" t="s">
         <v>1198</v>
       </c>
+      <c r="D395" t="s">
+        <v>1198</v>
+      </c>
       <c r="E395" t="s">
         <v>1599</v>
       </c>
       <c r="F395" t="s">
         <v>1993</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G395" t="s">
+        <v>1993</v>
+      </c>
+      <c r="N395" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>408</v>
       </c>
@@ -18424,19 +19200,35 @@
       <c r="C396" t="s">
         <v>1199</v>
       </c>
+      <c r="D396" t="s">
+        <v>1199</v>
+      </c>
       <c r="E396" t="s">
         <v>1600</v>
       </c>
       <c r="F396" t="s">
         <v>1994</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G396" t="s">
+        <v>2472</v>
+      </c>
+      <c r="K396" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N396" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>409</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="2" t="s">
         <v>817</v>
+      </c>
+      <c r="C397" s="2"/>
+      <c r="D397" t="s">
+        <v>2473</v>
       </c>
       <c r="E397" t="s">
         <v>1601</v>
@@ -18444,8 +19236,17 @@
       <c r="F397" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G397" t="s">
+        <v>2474</v>
+      </c>
+      <c r="J397" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K397" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>410</v>
       </c>
@@ -18455,14 +19256,23 @@
       <c r="C398" t="s">
         <v>1200</v>
       </c>
+      <c r="D398" t="s">
+        <v>2475</v>
+      </c>
       <c r="E398" t="s">
         <v>1602</v>
       </c>
       <c r="F398" t="s">
         <v>1996</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G398" t="s">
+        <v>1996</v>
+      </c>
+      <c r="L398" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>411</v>
       </c>
@@ -18472,14 +19282,26 @@
       <c r="C399" t="s">
         <v>1201</v>
       </c>
+      <c r="D399" t="s">
+        <v>2476</v>
+      </c>
       <c r="E399" t="s">
         <v>1603</v>
       </c>
       <c r="F399" t="s">
         <v>1997</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G399" t="s">
+        <v>2477</v>
+      </c>
+      <c r="K399" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M399" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>412</v>
       </c>
@@ -18489,14 +19311,26 @@
       <c r="C400" t="s">
         <v>1202</v>
       </c>
+      <c r="D400" t="s">
+        <v>1202</v>
+      </c>
       <c r="E400" t="s">
         <v>1604</v>
       </c>
       <c r="F400" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G400" t="s">
+        <v>2478</v>
+      </c>
+      <c r="K400" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N400" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>413</v>
       </c>
@@ -18506,14 +19340,23 @@
       <c r="C401" t="s">
         <v>1203</v>
       </c>
+      <c r="D401" t="s">
+        <v>2479</v>
+      </c>
       <c r="E401" t="s">
         <v>1605</v>
       </c>
       <c r="F401" t="s">
         <v>1999</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G401" t="s">
+        <v>1999</v>
+      </c>
+      <c r="M401" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>414</v>
       </c>
@@ -18523,14 +19366,26 @@
       <c r="C402" t="s">
         <v>1204</v>
       </c>
+      <c r="D402" t="s">
+        <v>1204</v>
+      </c>
       <c r="E402" t="s">
         <v>1606</v>
       </c>
       <c r="F402" t="s">
         <v>2000</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G402" t="s">
+        <v>2480</v>
+      </c>
+      <c r="K402" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N402" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>415</v>
       </c>
@@ -18540,14 +19395,26 @@
       <c r="C403" t="s">
         <v>1205</v>
       </c>
+      <c r="D403" t="s">
+        <v>1205</v>
+      </c>
       <c r="E403" t="s">
         <v>1607</v>
       </c>
       <c r="F403" t="s">
         <v>2001</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G403" t="s">
+        <v>2481</v>
+      </c>
+      <c r="K403" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N403" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>416</v>
       </c>
@@ -18557,14 +19424,26 @@
       <c r="C404" t="s">
         <v>1206</v>
       </c>
+      <c r="D404" t="s">
+        <v>2482</v>
+      </c>
       <c r="E404" t="s">
         <v>1608</v>
       </c>
       <c r="F404" t="s">
         <v>2002</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G404" t="s">
+        <v>2483</v>
+      </c>
+      <c r="K404" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M404" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>417</v>
       </c>
@@ -18574,19 +19453,32 @@
       <c r="C405" t="s">
         <v>1207</v>
       </c>
+      <c r="D405" t="s">
+        <v>1207</v>
+      </c>
       <c r="E405" t="s">
         <v>1609</v>
       </c>
       <c r="F405" t="s">
         <v>2003</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G405" t="s">
+        <v>2003</v>
+      </c>
+      <c r="N405" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>418</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="2" t="s">
         <v>826</v>
+      </c>
+      <c r="C406" s="2"/>
+      <c r="D406" t="s">
+        <v>2484</v>
       </c>
       <c r="E406" t="s">
         <v>1610</v>
@@ -18594,8 +19486,20 @@
       <c r="F406" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G406" t="s">
+        <v>2485</v>
+      </c>
+      <c r="I406" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J406" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K406" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>419</v>
       </c>
@@ -18605,14 +19509,23 @@
       <c r="C407" t="s">
         <v>1208</v>
       </c>
+      <c r="D407" t="s">
+        <v>2486</v>
+      </c>
       <c r="E407" t="s">
         <v>1611</v>
       </c>
       <c r="F407" t="s">
         <v>2005</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G407" t="s">
+        <v>2005</v>
+      </c>
+      <c r="H407" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>420</v>
       </c>
@@ -18622,25 +19535,47 @@
       <c r="C408" t="s">
         <v>1209</v>
       </c>
+      <c r="D408" t="s">
+        <v>2487</v>
+      </c>
       <c r="E408" t="s">
         <v>1612</v>
       </c>
       <c r="F408" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G408" t="s">
+        <v>2006</v>
+      </c>
+      <c r="M408" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>421</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="2" t="s">
         <v>829</v>
+      </c>
+      <c r="C409" s="2"/>
+      <c r="D409" t="s">
+        <v>2489</v>
       </c>
       <c r="E409" t="s">
         <v>1613</v>
       </c>
       <c r="F409" t="s">
         <v>2007</v>
+      </c>
+      <c r="G409" t="s">
+        <v>2488</v>
+      </c>
+      <c r="J409" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K409" t="s">
+        <v>2009</v>
       </c>
     </row>
   </sheetData>

--- a/Review files/qald9_train_set_review_table.xlsx
+++ b/Review files/qald9_train_set_review_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javi\Desktop\Work\QALD9ES\Repo\QALD9-ES\Review files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9728A7-B407-4EED-B394-D46B6C5146FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F02073-4CE7-4771-A28D-9CE1D115FBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7996,10 +7996,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Review files/qald9_train_set_review_table.xlsx
+++ b/Review files/qald9_train_set_review_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javi\Desktop\Work\QALD9ES\Repo\QALD9-ES\Review files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F02073-4CE7-4771-A28D-9CE1D115FBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0693A8-5E9A-4403-AC72-BB902CEDA4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="1980" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="2511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="2535">
   <si>
     <t>id</t>
   </si>
@@ -6103,9 +6103,6 @@
     <t>¿Quiénes son los nietos de Bruce Lee?</t>
   </si>
   <si>
-    <t>¿A quién le pertenece Universal Studios?</t>
-  </si>
-  <si>
     <t>¿Cuál estado de Estados Unidos tiene la mayor densidad poblacional?</t>
   </si>
   <si>
@@ -6133,9 +6130,6 @@
     <t xml:space="preserve">escribió ,  libro ,  los pilares de la Tierra </t>
   </si>
   <si>
-    <t>¿Cuál estado de los Estados Unidos de América tiene la densidad más alta?</t>
-  </si>
-  <si>
     <t xml:space="preserve">estado , Estados Unidos de América,  densidad más alta </t>
   </si>
   <si>
@@ -6214,9 +6208,6 @@
     <t>equipos de fútbol, Bundesliga</t>
   </si>
   <si>
-    <t>¿Qué volcanes han erupcionado en Japón desde el 2000?</t>
-  </si>
-  <si>
     <t>¿Qué puentes cruzan el Sena?</t>
   </si>
   <si>
@@ -6229,15 +6220,6 @@
     <t>causa de muerte, más común</t>
   </si>
   <si>
-    <t>¿Cuáles son los cuatro jugadores de baloncesto más jóvenes de categoría MVP?</t>
-  </si>
-  <si>
-    <t>cuatro, jugadores de baloncesto, más jóvenes, categoría MVP</t>
-  </si>
-  <si>
-    <t>¿Cuáles son las capitales de los países por los que atraviesa el Himalaya?</t>
-  </si>
-  <si>
     <t>capitales, países, atraviesa, el Himalaya</t>
   </si>
   <si>
@@ -6268,9 +6250,6 @@
     <t>empresas, más de un millón, empleados</t>
   </si>
   <si>
-    <t>¿Cuál es el punto más alto de los montes Urales?</t>
-  </si>
-  <si>
     <t>¿Dónde estudió el arquitecto de la torre Eiffel?</t>
   </si>
   <si>
@@ -6304,12 +6283,6 @@
     <t>¿Dónde fue asesinado JFK?</t>
   </si>
   <si>
-    <t>Dame todos los cancilleres alemanes.</t>
-  </si>
-  <si>
-    <t>cancilleres, alemanes</t>
-  </si>
-  <si>
     <t>¿Qué personas nacieron en Halloween?</t>
   </si>
   <si>
@@ -6334,9 +6307,6 @@
     <t>películas, producido, mayor cantidad</t>
   </si>
   <si>
-    <t>Dame todos los actores nacidos en Berlín.</t>
-  </si>
-  <si>
     <t>actores, nacidos, Berlín</t>
   </si>
   <si>
@@ -6361,18 +6331,6 @@
     <t>¿Cuáles son los días festivos de Suecia?</t>
   </si>
   <si>
-    <t>¿En qué ciudad fue enterrada la antigua reina de los países bajos Juliana?</t>
-  </si>
-  <si>
-    <t>reina, países bajos, Juliana, enterrada, ciudad</t>
-  </si>
-  <si>
-    <t>¿Cuál es el área metropolitana más larga en el estado de Washington?</t>
-  </si>
-  <si>
-    <t>área metropolitana, más larga, estado, Washington</t>
-  </si>
-  <si>
     <t>¿Quién asesinó a John Lennon?</t>
   </si>
   <si>
@@ -6394,18 +6352,9 @@
     <t>países, utilizan, Euro</t>
   </si>
   <si>
-    <t>¿Cuáles son los tipos de trastornos de la alimentación?</t>
-  </si>
-  <si>
-    <t>¿Era Marc Chagall judío?</t>
-  </si>
-  <si>
     <t>¿Cuál ha sido la posición más baja de Brasil en el ranking mundial de la FIFA?</t>
   </si>
   <si>
-    <t>¿Era Margaret Thatcher química?</t>
-  </si>
-  <si>
     <t>estado americano, misma, zona horaria, Utah</t>
   </si>
   <si>
@@ -6448,9 +6397,6 @@
     <t>libros ,  autor ,  The Fault in Our Stars</t>
   </si>
   <si>
-    <t>¿Qué poeta ha escrito el mayor número de libros?</t>
-  </si>
-  <si>
     <t>¿Qué músico ha escrito el mayor número de libros?</t>
   </si>
   <si>
@@ -6478,9 +6424,6 @@
     <t>discográfica, primer álbum, Elvis</t>
   </si>
   <si>
-    <t>¿Dónde vive el primer ministro de España?</t>
-  </si>
-  <si>
     <t>¿Qué actor ha actuado en más películas?</t>
   </si>
   <si>
@@ -6493,12 +6436,6 @@
     <t>canción, Bruce Springsteen, publicación, entre 1980 y 1990</t>
   </si>
   <si>
-    <t>¿Qué series de televisión creó John Cleese?</t>
-  </si>
-  <si>
-    <t>serie de televisión, creó, John Cleese</t>
-  </si>
-  <si>
     <t>¿Cuándo ingresó Letonia a la Unión Europea?</t>
   </si>
   <si>
@@ -6616,9 +6553,6 @@
     <t>¿En qué películas aparece Tom Cruise?</t>
   </si>
   <si>
-    <t>¿En qué estado americano se encuentra Fort Knox?</t>
-  </si>
-  <si>
     <t>¿Qué ciudades de New Jersey tienen más de 100000 habitantes?</t>
   </si>
   <si>
@@ -6694,9 +6628,6 @@
     <t>escritor, libro, Los Pilares de la Tierra</t>
   </si>
   <si>
-    <t>¿En qué aeropuertos atiende Yeti Airlines?</t>
-  </si>
-  <si>
     <t>¿Cuál es el lugar de nacimiento de Goethe?</t>
   </si>
   <si>
@@ -6709,18 +6640,6 @@
     <t>crisis de los misiles en cuba, antes,  invasión de bahía de cochinos</t>
   </si>
   <si>
-    <t>¿Qué ingredientes se necesitan para hacer una tarta de zanahorias?</t>
-  </si>
-  <si>
-    <t>ingredientes, tarta de zanahorias</t>
-  </si>
-  <si>
-    <t>¿Cuál es la montaña más alta en el estado Alemán Sajonia?</t>
-  </si>
-  <si>
-    <t>más alto ,  montaña ,  Sajonia ,  Alemania, estado</t>
-  </si>
-  <si>
     <t>¿Quién es el actual ministro federal de finanzas en Alemania?</t>
   </si>
   <si>
@@ -6739,21 +6658,12 @@
     <t>¿En qué país se sitúa la Meca?</t>
   </si>
   <si>
-    <t>¿En cuál estado se encuentra la universidad Penn State?</t>
-  </si>
-  <si>
-    <t>Universidad Penn State, estado, ubicación</t>
-  </si>
-  <si>
     <t>estadio, más grande, España</t>
   </si>
   <si>
     <t>entrenador, equipo, hockey sobre hielo, Ankara</t>
   </si>
   <si>
-    <t>¿Cuánto es el área del Reino Unido?</t>
-  </si>
-  <si>
     <t>área, Reino Unido</t>
   </si>
   <si>
@@ -6892,9 +6802,6 @@
     <t>¿En qué año nació Rachel Stevens?</t>
   </si>
   <si>
-    <t>¿Era el nombre de la esposa del presidente Lincoln Mary?</t>
-  </si>
-  <si>
     <t>esposa, presidente Lincoln, nombre, Mary</t>
   </si>
   <si>
@@ -6925,12 +6832,6 @@
     <t>¿Cuándo nació John Adams?</t>
   </si>
   <si>
-    <t>¿Quién fue la esposa del presidente americano Lincoln?</t>
-  </si>
-  <si>
-    <t>presidente Americano, Lincoln, esposa</t>
-  </si>
-  <si>
     <t>¿A qué especie pertenecen los elefantes?</t>
   </si>
   <si>
@@ -7009,27 +6910,12 @@
     <t>área, Renania del Norte-Westfalia</t>
   </si>
   <si>
-    <t>¿Qué ciudad tiene más población?</t>
-  </si>
-  <si>
-    <t>ciudad, más,  población</t>
-  </si>
-  <si>
     <t>¿Cuál es el negocio principal de Donald Trump?</t>
   </si>
   <si>
-    <t>¿Cuándo comenzará el partido final del mundial de fútbol 2018?</t>
-  </si>
-  <si>
-    <t>mundial de fútbol 2018, final</t>
-  </si>
-  <si>
     <t>¿Qué películas dirigió Stanley Kubrick?</t>
   </si>
   <si>
-    <t>¿Cuánto es la población de Iraq?</t>
-  </si>
-  <si>
     <t>habitantes, ciudad, más grande, Canadá</t>
   </si>
   <si>
@@ -7138,9 +7024,6 @@
     <t>idiomas, Turkmenistán, cuántos</t>
   </si>
   <si>
-    <t>¿Alguna vez ganó Kaurismäki el Gran Prix de Cannes?</t>
-  </si>
-  <si>
     <t>¿A qué partido político pertenece el alcalde de París?</t>
   </si>
   <si>
@@ -7192,12 +7075,6 @@
     <t>tipo uva, crece, Oregón</t>
   </si>
   <si>
-    <t>¿Estuvo el presidente americano Jackson involucrado en una guerra?</t>
-  </si>
-  <si>
-    <t>presidente americano, Jackson, guerra</t>
-  </si>
-  <si>
     <t>¿Cuándo se completó el Titanic?</t>
   </si>
   <si>
@@ -7210,9 +7087,6 @@
     <t xml:space="preserve">estados ,  México </t>
   </si>
   <si>
-    <t>¿Qué científico es conocido por haber participado en el proyecto Manhattan y ganar el premio Nobel de la Paz?</t>
-  </si>
-  <si>
     <t>científico,  proyecto Manhattan, premio Nobel de la Paz</t>
   </si>
   <si>
@@ -7240,15 +7114,9 @@
     <t>príncipe Harry, príncipe William, mismos padres</t>
   </si>
   <si>
-    <t>¿Tienen el príncipe Harry y el príncipe William los mismos padres?</t>
-  </si>
-  <si>
     <t>¿Quién fue el supervisor doctoral de Albert Einstein?</t>
   </si>
   <si>
-    <t>¿Quién inspiró a Vincent van Gogh?</t>
-  </si>
-  <si>
     <t>¿Qué edificio tiene más pisos luego del Burj Khalifa?</t>
   </si>
   <si>
@@ -7273,9 +7141,6 @@
     <t>proinsulina, proteína</t>
   </si>
   <si>
-    <t>¿Tienen el Urdu y el Persa una raíz en común?</t>
-  </si>
-  <si>
     <t xml:space="preserve">urdu ,  persa , raíz en común </t>
   </si>
   <si>
@@ -7390,9 +7255,6 @@
     <t>Abraham Lincoln, lugar de muerte, página web</t>
   </si>
   <si>
-    <t>¿Tenía hijos Elvis Presley?</t>
-  </si>
-  <si>
     <t>autor, canción, Hotel California</t>
   </si>
   <si>
@@ -7516,9 +7378,6 @@
     <t>películas, protagonizadas, Brad Pitt, dirigidas, Guy Ritchie</t>
   </si>
   <si>
-    <t>volcanes, han erupcionado, Japón, desde 2000</t>
-  </si>
-  <si>
     <t>Dame todas las empresas de Múnich</t>
   </si>
   <si>
@@ -7552,9 +7411,6 @@
     <t>Donald Trump, negocio, principal</t>
   </si>
   <si>
-    <t>Iraq, población</t>
-  </si>
-  <si>
     <t>Natalie Portman, nacimiento, Estados Unidos de América</t>
   </si>
   <si>
@@ -7571,6 +7427,222 @@
   </si>
   <si>
     <t>Ganges, país, origen</t>
+  </si>
+  <si>
+    <t>¿Qué otras armas desarrolló el diseñador de la Uzi?</t>
+  </si>
+  <si>
+    <t>Uzi, diseñador, otras armas</t>
+  </si>
+  <si>
+    <t>¿Quién es el dueño de Universal Studios?</t>
+  </si>
+  <si>
+    <t>¿Qué estado de los Estados Unidos de América tiene la mayor densidad poblacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estado , Estados Unidos de América,  densidad poblacional, más alta </t>
+  </si>
+  <si>
+    <t>¿Qué estados de EE.UU. se encuentran en la misma zona horaria que Utah?</t>
+  </si>
+  <si>
+    <t>estado, EE.UU., misma zona horaria, Utah</t>
+  </si>
+  <si>
+    <t>¿En qué películas actúa Jesse Eisenberg?</t>
+  </si>
+  <si>
+    <t>¿Qué volcanes en Japón entraron en erupción desde el 2000?</t>
+  </si>
+  <si>
+    <t>volcanes, erupción, Japón, desde 2000</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los cuatro jugadores de baloncesto más jóvenes en ganar el MVP?</t>
+  </si>
+  <si>
+    <t>cuatro, jugadores de baloncesto, más jóvenes, ganadores, MVP</t>
+  </si>
+  <si>
+    <t>¿Cuáles son las capitales de todos los países por los que atraviesa el Himalaya?</t>
+  </si>
+  <si>
+    <t>Dame todos los clubs de fútbol de la Premier League.</t>
+  </si>
+  <si>
+    <t>Premier League, club, fútbol</t>
+  </si>
+  <si>
+    <t>¿Cuál es el lugar más alto de los montes Urales?</t>
+  </si>
+  <si>
+    <t>los montes Urales, lugar más alto</t>
+  </si>
+  <si>
+    <t>¿Qué películas protagonizan Liz Taylor y Richard Burton?</t>
+  </si>
+  <si>
+    <t>películas, protagonizan, Liz Taylor, Richard Burton</t>
+  </si>
+  <si>
+    <t>Dame todos los cancilleres de Alemania.</t>
+  </si>
+  <si>
+    <t>cancilleres, Alemania</t>
+  </si>
+  <si>
+    <t>Dame todos los actores que nacieron en Berlín.</t>
+  </si>
+  <si>
+    <t>¿En qué ciudad fue enterrada la antigua reina de los Países Bajos Juliana?</t>
+  </si>
+  <si>
+    <t>reina, Países Bajos, Juliana, enterrada, ciudad</t>
+  </si>
+  <si>
+    <t>¿Cuál es el área metropolitana más grande en el estado de Washington?</t>
+  </si>
+  <si>
+    <t>área metropolitana, más grande, estado, Washington</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los tipos de trastornos alimenticios?</t>
+  </si>
+  <si>
+    <t>tipos, trastornos alimenticios</t>
+  </si>
+  <si>
+    <t>¿Marc Chagall era judío?</t>
+  </si>
+  <si>
+    <t>¿Margaret Thatcher era química?</t>
+  </si>
+  <si>
+    <t>¿Qué barcos fueron nombrados en honor a Benjamin Franklin?</t>
+  </si>
+  <si>
+    <t>barco, nombre, honor, Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>¿Qué poeta escribió más libros?</t>
+  </si>
+  <si>
+    <t>poeta, escribió, más, libros</t>
+  </si>
+  <si>
+    <t>¿Dónde vive el presidente de España?</t>
+  </si>
+  <si>
+    <t>presidente, España, vive</t>
+  </si>
+  <si>
+    <t>¿Qué programas de televisión fueron creados por John Cleese?</t>
+  </si>
+  <si>
+    <t>programas de televisión, creó, John Cleese</t>
+  </si>
+  <si>
+    <t>¿La nueve serie de Battlestar-Galactica tiene más episodios que la anterior?</t>
+  </si>
+  <si>
+    <t>¿En qué estado de EE.UU. se encuentra Fort Knox?</t>
+  </si>
+  <si>
+    <t>Fort Knox, se encuentra, estado, EE.UU</t>
+  </si>
+  <si>
+    <t>¿En qué aeropuertos opera Yeti Airlines?</t>
+  </si>
+  <si>
+    <t>¿Qué ingredientes se necesitan para hacer un pastel de zanahoria?</t>
+  </si>
+  <si>
+    <t>ingredientes, pastel de zanahoria</t>
+  </si>
+  <si>
+    <t>¿Cuál es la montaña más alta de Sajonia Alemania?</t>
+  </si>
+  <si>
+    <t>más alto ,  montaña ,  Sajonia ,  Alemania</t>
+  </si>
+  <si>
+    <t>¿En qué estado se encuentra la universidad estatal de Pensilvania?</t>
+  </si>
+  <si>
+    <t>Universidad estatal de Pensilvania, estado, ubicación</t>
+  </si>
+  <si>
+    <t>¿Qué tan grande es el área del Reino Unido?</t>
+  </si>
+  <si>
+    <t>¿La esposa del presidente Lincoln se llamaba Mary?</t>
+  </si>
+  <si>
+    <t>¿Quién fue la esposa del presidente de los Estados Unidos, Lincoln?</t>
+  </si>
+  <si>
+    <t>presidente, Estados Unidos, Lincoln, esposa</t>
+  </si>
+  <si>
+    <t>¿Cuántas personas viven en la capital de Australia?</t>
+  </si>
+  <si>
+    <t>¿Qué empresas de electrónica fueron fundadas en Pekín?</t>
+  </si>
+  <si>
+    <t>empresas de electrónica, fundadas, Pekín</t>
+  </si>
+  <si>
+    <t>¿Arnold Schwarzenegger asistió a la universidad?</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger, universidad, asistió</t>
+  </si>
+  <si>
+    <t>¿Qué ciudad tiene más habitantes?</t>
+  </si>
+  <si>
+    <t>ciudad, más,  habitantes</t>
+  </si>
+  <si>
+    <t>¿Cuándo comenzará el partido final de la copa mundial de fútbol 2018?</t>
+  </si>
+  <si>
+    <t>copa mundial de fútbol 2018, final</t>
+  </si>
+  <si>
+    <t>¿Cuánto es la población de Irak?</t>
+  </si>
+  <si>
+    <t>Irak, población</t>
+  </si>
+  <si>
+    <t>¿Alguna vez ganó Kaurismäki el premio Grand Prix de Cannes?</t>
+  </si>
+  <si>
+    <t>El presidente de los Estados Unidos, Jackson, ¿estuvo involucrado en una guerra?</t>
+  </si>
+  <si>
+    <t>presidente, Estdos Unidos, Jackson, guerra</t>
+  </si>
+  <si>
+    <t>¿Qué científico es conocido por el Proyecto Manhattan y el Premio Nobel de la Paz?</t>
+  </si>
+  <si>
+    <t>¿El príncipe Harry y el príncipe William tienen los mismos padres?</t>
+  </si>
+  <si>
+    <t>¿En quién se inspiró Vincent van Gogh?</t>
+  </si>
+  <si>
+    <t>¿El Urdu y el persa tienen una raíz común?</t>
+  </si>
+  <si>
+    <t>¿Elvis Presley tuvo hijos?</t>
+  </si>
+  <si>
+    <t>¿Cuál de las películas de Tim Burton tuvo el mayor presupuesto?</t>
   </si>
 </sst>
 </file>
@@ -7996,10 +8068,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <selection pane="bottomLeft" activeCell="N403" sqref="N403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8067,7 +8139,7 @@
         <v>830</v>
       </c>
       <c r="D2" t="s">
-        <v>2340</v>
+        <v>2302</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1210</v>
@@ -8136,7 +8208,7 @@
         <v>1616</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>2490</v>
+        <v>2444</v>
       </c>
       <c r="H4" t="s">
         <v>2009</v>
@@ -8386,7 +8458,7 @@
         <v>1625</v>
       </c>
       <c r="G13" t="s">
-        <v>2491</v>
+        <v>2445</v>
       </c>
       <c r="L13" t="s">
         <v>2009</v>
@@ -8429,7 +8501,7 @@
         <v>843</v>
       </c>
       <c r="D15" t="s">
-        <v>843</v>
+        <v>2463</v>
       </c>
       <c r="E15" t="s">
         <v>1223</v>
@@ -8438,9 +8510,12 @@
         <v>1627</v>
       </c>
       <c r="G15" t="s">
-        <v>1627</v>
-      </c>
-      <c r="N15" t="s">
+        <v>2464</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M15" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -8455,7 +8530,7 @@
         <v>844</v>
       </c>
       <c r="D16" t="s">
-        <v>2021</v>
+        <v>2465</v>
       </c>
       <c r="E16" t="s">
         <v>1224</v>
@@ -8467,6 +8542,9 @@
         <v>1628</v>
       </c>
       <c r="H16" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M16" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -8481,7 +8559,7 @@
         <v>845</v>
       </c>
       <c r="D17" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E17" t="s">
         <v>1225</v>
@@ -8490,7 +8568,7 @@
         <v>1629</v>
       </c>
       <c r="G17" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="H17" t="s">
         <v>2009</v>
@@ -8516,7 +8594,7 @@
         <v>846</v>
       </c>
       <c r="D18" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E18" t="s">
         <v>1226</v>
@@ -8525,7 +8603,7 @@
         <v>1630</v>
       </c>
       <c r="G18" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="K18" t="s">
         <v>2009</v>
@@ -8545,7 +8623,7 @@
         <v>847</v>
       </c>
       <c r="D19" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E19" t="s">
         <v>1227</v>
@@ -8554,7 +8632,7 @@
         <v>1631</v>
       </c>
       <c r="G19" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="H19" t="s">
         <v>2009</v>
@@ -8600,7 +8678,7 @@
         <v>849</v>
       </c>
       <c r="D21" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="E21" t="s">
         <v>1229</v>
@@ -8626,7 +8704,7 @@
         <v>850</v>
       </c>
       <c r="D22" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E22" t="s">
         <v>1230</v>
@@ -8635,7 +8713,7 @@
         <v>1634</v>
       </c>
       <c r="G22" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="I22" t="s">
         <v>2009</v>
@@ -8658,13 +8736,16 @@
         <v>851</v>
       </c>
       <c r="D23" t="s">
-        <v>2031</v>
+        <v>2466</v>
       </c>
       <c r="E23" t="s">
         <v>1231</v>
       </c>
       <c r="F23" t="s">
-        <v>2032</v>
+        <v>2030</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2467</v>
       </c>
       <c r="H23" t="s">
         <v>2009</v>
@@ -8676,6 +8757,9 @@
         <v>2009</v>
       </c>
       <c r="L23" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M23" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -8690,7 +8774,7 @@
         <v>852</v>
       </c>
       <c r="D24" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="E24" t="s">
         <v>1232</v>
@@ -8716,7 +8800,7 @@
         <v>853</v>
       </c>
       <c r="D25" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="E25" t="s">
         <v>1233</v>
@@ -8725,7 +8809,7 @@
         <v>1636</v>
       </c>
       <c r="G25" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="H25" t="s">
         <v>2009</v>
@@ -8745,7 +8829,7 @@
         <v>854</v>
       </c>
       <c r="D26" t="s">
-        <v>2036</v>
+        <v>2468</v>
       </c>
       <c r="E26" t="s">
         <v>1234</v>
@@ -8754,9 +8838,15 @@
         <v>1637</v>
       </c>
       <c r="G26" t="s">
-        <v>1637</v>
+        <v>2469</v>
       </c>
       <c r="J26" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M26" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -8771,7 +8861,7 @@
         <v>855</v>
       </c>
       <c r="D27" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="E27" t="s">
         <v>1235</v>
@@ -8780,7 +8870,7 @@
         <v>1638</v>
       </c>
       <c r="G27" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="K27" t="s">
         <v>2009</v>
@@ -8826,7 +8916,7 @@
         <v>857</v>
       </c>
       <c r="D29" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="E29" t="s">
         <v>1237</v>
@@ -8858,10 +8948,10 @@
         <v>1238</v>
       </c>
       <c r="F30" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="G30" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="N30" t="s">
         <v>2009</v>
@@ -8930,7 +9020,7 @@
         <v>861</v>
       </c>
       <c r="D33" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="E33" t="s">
         <v>1241</v>
@@ -8939,7 +9029,7 @@
         <v>1643</v>
       </c>
       <c r="G33" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="K33" t="s">
         <v>2009</v>
@@ -8959,7 +9049,7 @@
         <v>862</v>
       </c>
       <c r="D34" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="E34" t="s">
         <v>1242</v>
@@ -8985,7 +9075,7 @@
         <v>863</v>
       </c>
       <c r="D35" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="E35" t="s">
         <v>1243</v>
@@ -8994,7 +9084,7 @@
         <v>1645</v>
       </c>
       <c r="G35" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="H35" t="s">
         <v>2009</v>
@@ -9014,7 +9104,7 @@
         <v>864</v>
       </c>
       <c r="D36" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="E36" t="s">
         <v>1244</v>
@@ -9023,7 +9113,7 @@
         <v>1646</v>
       </c>
       <c r="G36" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="K36" t="s">
         <v>2009</v>
@@ -9104,7 +9194,7 @@
         <v>1649</v>
       </c>
       <c r="G39" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="K39" t="s">
         <v>2009</v>
@@ -9124,7 +9214,7 @@
         <v>868</v>
       </c>
       <c r="D40" t="s">
-        <v>868</v>
+        <v>2470</v>
       </c>
       <c r="E40" t="s">
         <v>1248</v>
@@ -9135,7 +9225,7 @@
       <c r="G40" t="s">
         <v>1650</v>
       </c>
-      <c r="N40" t="s">
+      <c r="M40" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -9176,7 +9266,7 @@
         <v>870</v>
       </c>
       <c r="D42" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="E42" t="s">
         <v>1250</v>
@@ -9202,7 +9292,7 @@
         <v>871</v>
       </c>
       <c r="D43" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="E43" t="s">
         <v>1251</v>
@@ -9211,7 +9301,7 @@
         <v>1653</v>
       </c>
       <c r="G43" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="M43" t="s">
         <v>2009</v>
@@ -9237,7 +9327,7 @@
         <v>1654</v>
       </c>
       <c r="G44" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="K44" t="s">
         <v>2009</v>
@@ -9266,7 +9356,7 @@
         <v>1655</v>
       </c>
       <c r="G45" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="K45" t="s">
         <v>2009</v>
@@ -9286,13 +9376,13 @@
         <v>874</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="E46" t="s">
         <v>1254</v>
       </c>
       <c r="G46" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="I46" t="s">
         <v>2009</v>
@@ -9312,7 +9402,7 @@
         <v>875</v>
       </c>
       <c r="D47" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="E47" t="s">
         <v>1255</v>
@@ -9321,7 +9411,7 @@
         <v>1656</v>
       </c>
       <c r="G47" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="K47" t="s">
         <v>2009</v>
@@ -9344,7 +9434,7 @@
         <v>876</v>
       </c>
       <c r="D48" t="s">
-        <v>2058</v>
+        <v>2471</v>
       </c>
       <c r="E48" t="s">
         <v>1256</v>
@@ -9353,7 +9443,7 @@
         <v>1657</v>
       </c>
       <c r="G48" t="s">
-        <v>2492</v>
+        <v>2472</v>
       </c>
       <c r="H48" t="s">
         <v>2009</v>
@@ -9362,6 +9452,9 @@
         <v>2009</v>
       </c>
       <c r="L48" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M48" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -9376,7 +9469,7 @@
         <v>877</v>
       </c>
       <c r="D49" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="E49" t="s">
         <v>1257</v>
@@ -9385,7 +9478,7 @@
         <v>1658</v>
       </c>
       <c r="G49" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="I49" t="s">
         <v>2009</v>
@@ -9489,7 +9582,7 @@
         <v>880</v>
       </c>
       <c r="D53" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="E53" t="s">
         <v>1261</v>
@@ -9498,7 +9591,7 @@
         <v>1661</v>
       </c>
       <c r="G53" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="K53" t="s">
         <v>2009</v>
@@ -9521,7 +9614,7 @@
         <v>881</v>
       </c>
       <c r="D54" t="s">
-        <v>2063</v>
+        <v>2473</v>
       </c>
       <c r="E54" t="s">
         <v>1262</v>
@@ -9530,7 +9623,7 @@
         <v>1662</v>
       </c>
       <c r="G54" t="s">
-        <v>2064</v>
+        <v>2474</v>
       </c>
       <c r="K54" t="s">
         <v>2009</v>
@@ -9550,7 +9643,7 @@
         <v>882</v>
       </c>
       <c r="D55" t="s">
-        <v>2493</v>
+        <v>2446</v>
       </c>
       <c r="E55" t="s">
         <v>1263</v>
@@ -9559,7 +9652,7 @@
         <v>1663</v>
       </c>
       <c r="G55" t="s">
-        <v>2494</v>
+        <v>2447</v>
       </c>
       <c r="H55" t="s">
         <v>2009</v>
@@ -9582,7 +9675,7 @@
         <v>883</v>
       </c>
       <c r="D56" t="s">
-        <v>2065</v>
+        <v>2475</v>
       </c>
       <c r="E56" t="s">
         <v>1264</v>
@@ -9591,7 +9684,7 @@
         <v>1664</v>
       </c>
       <c r="G56" t="s">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="K56" t="s">
         <v>2009</v>
@@ -9620,7 +9713,7 @@
         <v>1665</v>
       </c>
       <c r="G57" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
       <c r="K57" t="s">
         <v>2009</v>
@@ -9663,7 +9756,7 @@
         <v>886</v>
       </c>
       <c r="D59" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="E59" t="s">
         <v>1267</v>
@@ -9672,7 +9765,7 @@
         <v>1667</v>
       </c>
       <c r="G59" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
       <c r="K59" t="s">
         <v>2009</v>
@@ -9692,7 +9785,7 @@
         <v>887</v>
       </c>
       <c r="D60" t="s">
-        <v>2070</v>
+        <v>2064</v>
       </c>
       <c r="E60" t="s">
         <v>1268</v>
@@ -9701,7 +9794,7 @@
         <v>1668</v>
       </c>
       <c r="G60" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="H60" t="s">
         <v>2009</v>
@@ -9747,7 +9840,7 @@
         <v>849</v>
       </c>
       <c r="D62" t="s">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="E62" t="s">
         <v>1229</v>
@@ -9773,7 +9866,7 @@
         <v>889</v>
       </c>
       <c r="D63" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="E63" t="s">
         <v>1270</v>
@@ -9782,7 +9875,7 @@
         <v>1670</v>
       </c>
       <c r="G63" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
       <c r="K63" t="s">
         <v>2009</v>
@@ -9828,7 +9921,7 @@
         <v>891</v>
       </c>
       <c r="D65" t="s">
-        <v>891</v>
+        <v>2476</v>
       </c>
       <c r="E65" t="s">
         <v>1272</v>
@@ -9837,9 +9930,12 @@
         <v>1672</v>
       </c>
       <c r="G65" t="s">
-        <v>1672</v>
-      </c>
-      <c r="N65" t="s">
+        <v>2477</v>
+      </c>
+      <c r="K65" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M65" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -9854,7 +9950,7 @@
         <v>892</v>
       </c>
       <c r="D66" t="s">
-        <v>2076</v>
+        <v>2478</v>
       </c>
       <c r="E66" t="s">
         <v>1273</v>
@@ -9863,9 +9959,15 @@
         <v>1673</v>
       </c>
       <c r="G66" t="s">
-        <v>1673</v>
+        <v>2479</v>
       </c>
       <c r="H66" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K66" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M66" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -9906,7 +10008,7 @@
         <v>894</v>
       </c>
       <c r="D68" t="s">
-        <v>2077</v>
+        <v>2070</v>
       </c>
       <c r="E68" t="s">
         <v>1275</v>
@@ -9915,7 +10017,7 @@
         <v>1675</v>
       </c>
       <c r="G68" t="s">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="K68" t="s">
         <v>2009</v>
@@ -9961,7 +10063,7 @@
         <v>896</v>
       </c>
       <c r="D70" t="s">
-        <v>2079</v>
+        <v>2072</v>
       </c>
       <c r="E70" t="s">
         <v>1277</v>
@@ -9970,7 +10072,7 @@
         <v>1677</v>
       </c>
       <c r="G70" t="s">
-        <v>2080</v>
+        <v>2073</v>
       </c>
       <c r="K70" t="s">
         <v>2009</v>
@@ -9990,7 +10092,7 @@
         <v>897</v>
       </c>
       <c r="D71" t="s">
-        <v>897</v>
+        <v>2480</v>
       </c>
       <c r="E71" t="s">
         <v>1278</v>
@@ -9999,9 +10101,12 @@
         <v>1678</v>
       </c>
       <c r="G71" t="s">
-        <v>1678</v>
-      </c>
-      <c r="N71" t="s">
+        <v>2481</v>
+      </c>
+      <c r="K71" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M71" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -10016,7 +10121,7 @@
         <v>898</v>
       </c>
       <c r="D72" t="s">
-        <v>2081</v>
+        <v>2074</v>
       </c>
       <c r="E72" t="s">
         <v>1279</v>
@@ -10025,7 +10130,7 @@
         <v>1679</v>
       </c>
       <c r="G72" t="s">
-        <v>2082</v>
+        <v>2075</v>
       </c>
       <c r="K72" t="s">
         <v>2009</v>
@@ -10071,7 +10176,7 @@
         <v>900</v>
       </c>
       <c r="D74" t="s">
-        <v>2083</v>
+        <v>2076</v>
       </c>
       <c r="E74" t="s">
         <v>1281</v>
@@ -10080,7 +10185,7 @@
         <v>1681</v>
       </c>
       <c r="G74" t="s">
-        <v>2084</v>
+        <v>2077</v>
       </c>
       <c r="K74" t="s">
         <v>2009</v>
@@ -10152,7 +10257,7 @@
         <v>903</v>
       </c>
       <c r="D77" t="s">
-        <v>2085</v>
+        <v>2078</v>
       </c>
       <c r="E77" t="s">
         <v>1284</v>
@@ -10161,7 +10266,7 @@
         <v>1684</v>
       </c>
       <c r="G77" t="s">
-        <v>2086</v>
+        <v>2079</v>
       </c>
       <c r="K77" t="s">
         <v>2009</v>
@@ -10181,7 +10286,7 @@
         <v>904</v>
       </c>
       <c r="D78" t="s">
-        <v>2087</v>
+        <v>2080</v>
       </c>
       <c r="E78" t="s">
         <v>1285</v>
@@ -10207,7 +10312,7 @@
         <v>905</v>
       </c>
       <c r="D79" t="s">
-        <v>2088</v>
+        <v>2482</v>
       </c>
       <c r="E79" t="s">
         <v>1286</v>
@@ -10216,12 +10321,15 @@
         <v>1686</v>
       </c>
       <c r="G79" t="s">
-        <v>2089</v>
+        <v>2483</v>
       </c>
       <c r="H79" t="s">
         <v>2009</v>
       </c>
       <c r="K79" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M79" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -10236,7 +10344,7 @@
         <v>906</v>
       </c>
       <c r="D80" t="s">
-        <v>2090</v>
+        <v>2081</v>
       </c>
       <c r="E80" t="s">
         <v>1287</v>
@@ -10245,7 +10353,7 @@
         <v>1687</v>
       </c>
       <c r="G80" t="s">
-        <v>2091</v>
+        <v>2082</v>
       </c>
       <c r="K80" t="s">
         <v>2009</v>
@@ -10265,7 +10373,7 @@
         <v>907</v>
       </c>
       <c r="D81" t="s">
-        <v>2092</v>
+        <v>2083</v>
       </c>
       <c r="E81" t="s">
         <v>1288</v>
@@ -10274,7 +10382,7 @@
         <v>1688</v>
       </c>
       <c r="G81" t="s">
-        <v>2093</v>
+        <v>2084</v>
       </c>
       <c r="K81" t="s">
         <v>2009</v>
@@ -10346,7 +10454,7 @@
         <v>910</v>
       </c>
       <c r="D84" t="s">
-        <v>2094</v>
+        <v>2085</v>
       </c>
       <c r="E84" t="s">
         <v>1291</v>
@@ -10355,7 +10463,7 @@
         <v>1691</v>
       </c>
       <c r="G84" t="s">
-        <v>2095</v>
+        <v>2086</v>
       </c>
       <c r="J84" t="s">
         <v>2009</v>
@@ -10378,7 +10486,7 @@
         <v>911</v>
       </c>
       <c r="D85" t="s">
-        <v>2096</v>
+        <v>2087</v>
       </c>
       <c r="E85" t="s">
         <v>1292</v>
@@ -10387,7 +10495,7 @@
         <v>1692</v>
       </c>
       <c r="G85" t="s">
-        <v>2097</v>
+        <v>2088</v>
       </c>
       <c r="K85" t="s">
         <v>2009</v>
@@ -10433,7 +10541,7 @@
         <v>913</v>
       </c>
       <c r="D87" t="s">
-        <v>2098</v>
+        <v>2484</v>
       </c>
       <c r="E87" t="s">
         <v>1294</v>
@@ -10442,12 +10550,15 @@
         <v>1694</v>
       </c>
       <c r="G87" t="s">
-        <v>2099</v>
+        <v>2089</v>
       </c>
       <c r="K87" t="s">
         <v>2009</v>
       </c>
       <c r="L87" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M87" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -10488,7 +10599,7 @@
         <v>915</v>
       </c>
       <c r="D89" t="s">
-        <v>2100</v>
+        <v>2090</v>
       </c>
       <c r="E89" t="s">
         <v>1296</v>
@@ -10497,7 +10608,7 @@
         <v>1696</v>
       </c>
       <c r="G89" t="s">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="H89" t="s">
         <v>2009</v>
@@ -10520,7 +10631,7 @@
         <v>916</v>
       </c>
       <c r="D90" t="s">
-        <v>2102</v>
+        <v>2092</v>
       </c>
       <c r="E90" t="s">
         <v>1297</v>
@@ -10529,7 +10640,7 @@
         <v>1697</v>
       </c>
       <c r="G90" t="s">
-        <v>2103</v>
+        <v>2093</v>
       </c>
       <c r="L90" t="s">
         <v>2009</v>
@@ -10601,7 +10712,7 @@
         <v>919</v>
       </c>
       <c r="D93" t="s">
-        <v>2495</v>
+        <v>2448</v>
       </c>
       <c r="E93" t="s">
         <v>1300</v>
@@ -10627,7 +10738,7 @@
         <v>920</v>
       </c>
       <c r="D94" t="s">
-        <v>2104</v>
+        <v>2094</v>
       </c>
       <c r="E94" t="s">
         <v>1301</v>
@@ -10636,7 +10747,7 @@
         <v>1701</v>
       </c>
       <c r="G94" t="s">
-        <v>2105</v>
+        <v>2095</v>
       </c>
       <c r="K94" t="s">
         <v>2009</v>
@@ -10659,7 +10770,7 @@
         <v>921</v>
       </c>
       <c r="D95" t="s">
-        <v>2106</v>
+        <v>2096</v>
       </c>
       <c r="E95" t="s">
         <v>1302</v>
@@ -10685,7 +10796,7 @@
         <v>922</v>
       </c>
       <c r="D96" t="s">
-        <v>2107</v>
+        <v>2485</v>
       </c>
       <c r="E96" t="s">
         <v>1303</v>
@@ -10694,7 +10805,10 @@
         <v>1703</v>
       </c>
       <c r="G96" t="s">
-        <v>2108</v>
+        <v>2486</v>
+      </c>
+      <c r="H96" t="s">
+        <v>2009</v>
       </c>
       <c r="K96" t="s">
         <v>2009</v>
@@ -10726,7 +10840,7 @@
         <v>1704</v>
       </c>
       <c r="N97" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -10766,7 +10880,7 @@
         <v>925</v>
       </c>
       <c r="D99" t="s">
-        <v>2109</v>
+        <v>2487</v>
       </c>
       <c r="E99" t="s">
         <v>1306</v>
@@ -10775,12 +10889,15 @@
         <v>1706</v>
       </c>
       <c r="G99" t="s">
-        <v>2110</v>
+        <v>2488</v>
       </c>
       <c r="K99" t="s">
         <v>2009</v>
       </c>
       <c r="L99" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M99" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -10795,7 +10912,7 @@
         <v>926</v>
       </c>
       <c r="D100" t="s">
-        <v>2111</v>
+        <v>2097</v>
       </c>
       <c r="E100" t="s">
         <v>1307</v>
@@ -10804,7 +10921,7 @@
         <v>1707</v>
       </c>
       <c r="G100" t="s">
-        <v>2112</v>
+        <v>2098</v>
       </c>
       <c r="K100" t="s">
         <v>2009</v>
@@ -10824,7 +10941,7 @@
         <v>927</v>
       </c>
       <c r="D101" t="s">
-        <v>2113</v>
+        <v>2099</v>
       </c>
       <c r="E101" t="s">
         <v>1308</v>
@@ -10850,7 +10967,7 @@
         <v>928</v>
       </c>
       <c r="D102" t="s">
-        <v>2114</v>
+        <v>2100</v>
       </c>
       <c r="E102" t="s">
         <v>1309</v>
@@ -10859,7 +10976,7 @@
         <v>1709</v>
       </c>
       <c r="G102" t="s">
-        <v>2115</v>
+        <v>2101</v>
       </c>
       <c r="K102" t="s">
         <v>2009</v>
@@ -10879,7 +10996,7 @@
         <v>929</v>
       </c>
       <c r="D103" t="s">
-        <v>2116</v>
+        <v>2102</v>
       </c>
       <c r="E103" t="s">
         <v>1310</v>
@@ -10888,7 +11005,7 @@
         <v>1710</v>
       </c>
       <c r="G103" t="s">
-        <v>2117</v>
+        <v>2103</v>
       </c>
       <c r="K103" t="s">
         <v>2009</v>
@@ -10908,7 +11025,7 @@
         <v>930</v>
       </c>
       <c r="D104" t="s">
-        <v>2118</v>
+        <v>2489</v>
       </c>
       <c r="E104" t="s">
         <v>1311</v>
@@ -10917,9 +11034,12 @@
         <v>1711</v>
       </c>
       <c r="G104" t="s">
-        <v>1711</v>
+        <v>2490</v>
       </c>
       <c r="H104" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K104" t="s">
         <v>2009</v>
       </c>
       <c r="L104" t="s">
@@ -10940,7 +11060,7 @@
         <v>931</v>
       </c>
       <c r="D105" t="s">
-        <v>2119</v>
+        <v>2491</v>
       </c>
       <c r="E105" t="s">
         <v>1312</v>
@@ -10966,7 +11086,7 @@
         <v>932</v>
       </c>
       <c r="D106" t="s">
-        <v>2120</v>
+        <v>2104</v>
       </c>
       <c r="E106" t="s">
         <v>1313</v>
@@ -11018,7 +11138,7 @@
         <v>934</v>
       </c>
       <c r="D108" t="s">
-        <v>2121</v>
+        <v>2492</v>
       </c>
       <c r="E108" t="s">
         <v>1315</v>
@@ -11044,7 +11164,7 @@
         <v>854</v>
       </c>
       <c r="D109" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="E109" t="s">
         <v>1316</v>
@@ -11053,7 +11173,7 @@
         <v>1637</v>
       </c>
       <c r="G109" t="s">
-        <v>2122</v>
+        <v>2105</v>
       </c>
       <c r="J109" t="s">
         <v>2009</v>
@@ -11076,7 +11196,7 @@
         <v>935</v>
       </c>
       <c r="D110" t="s">
-        <v>2123</v>
+        <v>2106</v>
       </c>
       <c r="E110" t="s">
         <v>1317</v>
@@ -11085,7 +11205,7 @@
         <v>1716</v>
       </c>
       <c r="G110" t="s">
-        <v>2496</v>
+        <v>2449</v>
       </c>
       <c r="H110" t="s">
         <v>2009</v>
@@ -11134,7 +11254,7 @@
         <v>937</v>
       </c>
       <c r="D112" t="s">
-        <v>2497</v>
+        <v>2450</v>
       </c>
       <c r="E112" t="s">
         <v>1319</v>
@@ -11160,16 +11280,16 @@
         <v>938</v>
       </c>
       <c r="D113" t="s">
-        <v>2125</v>
+        <v>2108</v>
       </c>
       <c r="E113" t="s">
         <v>1320</v>
       </c>
       <c r="F113" t="s">
-        <v>2124</v>
+        <v>2107</v>
       </c>
       <c r="G113" t="s">
-        <v>2126</v>
+        <v>2109</v>
       </c>
       <c r="K113" t="s">
         <v>2009</v>
@@ -11189,7 +11309,7 @@
         <v>939</v>
       </c>
       <c r="D114" t="s">
-        <v>2127</v>
+        <v>2110</v>
       </c>
       <c r="E114" t="s">
         <v>1321</v>
@@ -11198,7 +11318,7 @@
         <v>1719</v>
       </c>
       <c r="G114" t="s">
-        <v>2128</v>
+        <v>2111</v>
       </c>
       <c r="K114" t="s">
         <v>2009</v>
@@ -11244,7 +11364,7 @@
         <v>941</v>
       </c>
       <c r="D116" t="s">
-        <v>2129</v>
+        <v>2112</v>
       </c>
       <c r="E116" t="s">
         <v>1323</v>
@@ -11253,7 +11373,7 @@
         <v>1721</v>
       </c>
       <c r="G116" t="s">
-        <v>2130</v>
+        <v>2113</v>
       </c>
       <c r="H116" t="s">
         <v>2009</v>
@@ -11282,7 +11402,7 @@
         <v>1722</v>
       </c>
       <c r="G117" t="s">
-        <v>2131</v>
+        <v>2114</v>
       </c>
       <c r="K117" t="s">
         <v>2009</v>
@@ -11302,7 +11422,7 @@
         <v>943</v>
       </c>
       <c r="D118" t="s">
-        <v>943</v>
+        <v>2493</v>
       </c>
       <c r="E118" t="s">
         <v>1325</v>
@@ -11311,9 +11431,9 @@
         <v>1723</v>
       </c>
       <c r="G118" t="s">
-        <v>1723</v>
-      </c>
-      <c r="N118" t="s">
+        <v>2494</v>
+      </c>
+      <c r="M118" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -11328,7 +11448,7 @@
         <v>944</v>
       </c>
       <c r="D119" t="s">
-        <v>2132</v>
+        <v>2115</v>
       </c>
       <c r="E119" t="s">
         <v>1326</v>
@@ -11337,7 +11457,7 @@
         <v>1724</v>
       </c>
       <c r="G119" t="s">
-        <v>2133</v>
+        <v>2116</v>
       </c>
       <c r="K119" t="s">
         <v>2009</v>
@@ -11360,7 +11480,7 @@
         <v>945</v>
       </c>
       <c r="D120" t="s">
-        <v>2134</v>
+        <v>2117</v>
       </c>
       <c r="E120" t="s">
         <v>1327</v>
@@ -11369,7 +11489,7 @@
         <v>1725</v>
       </c>
       <c r="G120" t="s">
-        <v>2135</v>
+        <v>2118</v>
       </c>
       <c r="I120" t="s">
         <v>2009</v>
@@ -11418,7 +11538,7 @@
         <v>947</v>
       </c>
       <c r="D122" t="s">
-        <v>2136</v>
+        <v>2495</v>
       </c>
       <c r="E122" t="s">
         <v>1329</v>
@@ -11427,9 +11547,15 @@
         <v>1727</v>
       </c>
       <c r="G122" t="s">
-        <v>1727</v>
+        <v>2496</v>
+      </c>
+      <c r="K122" t="s">
+        <v>2009</v>
       </c>
       <c r="L122" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M122" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -11444,7 +11570,7 @@
         <v>948</v>
       </c>
       <c r="D123" t="s">
-        <v>2498</v>
+        <v>2451</v>
       </c>
       <c r="E123" t="s">
         <v>1330</v>
@@ -11453,7 +11579,7 @@
         <v>1728</v>
       </c>
       <c r="G123" t="s">
-        <v>2499</v>
+        <v>2452</v>
       </c>
       <c r="H123" t="s">
         <v>2009</v>
@@ -11476,7 +11602,7 @@
         <v>949</v>
       </c>
       <c r="D124" t="s">
-        <v>2137</v>
+        <v>2119</v>
       </c>
       <c r="E124" t="s">
         <v>1331</v>
@@ -11485,7 +11611,7 @@
         <v>1729</v>
       </c>
       <c r="G124" t="s">
-        <v>2138</v>
+        <v>2120</v>
       </c>
       <c r="K124" t="s">
         <v>2009</v>
@@ -11505,7 +11631,7 @@
         <v>950</v>
       </c>
       <c r="D125" t="s">
-        <v>2139</v>
+        <v>2121</v>
       </c>
       <c r="E125" t="s">
         <v>1332</v>
@@ -11514,7 +11640,7 @@
         <v>1730</v>
       </c>
       <c r="G125" t="s">
-        <v>2140</v>
+        <v>2122</v>
       </c>
       <c r="J125" t="s">
         <v>2009</v>
@@ -11546,7 +11672,7 @@
         <v>1731</v>
       </c>
       <c r="G126" t="s">
-        <v>2141</v>
+        <v>2123</v>
       </c>
       <c r="K126" t="s">
         <v>2009</v>
@@ -11592,7 +11718,7 @@
         <v>953</v>
       </c>
       <c r="D128" t="s">
-        <v>2142</v>
+        <v>2124</v>
       </c>
       <c r="E128" t="s">
         <v>1335</v>
@@ -11644,7 +11770,7 @@
         <v>955</v>
       </c>
       <c r="D130" t="s">
-        <v>2143</v>
+        <v>2125</v>
       </c>
       <c r="E130" t="s">
         <v>1337</v>
@@ -11670,7 +11796,7 @@
         <v>956</v>
       </c>
       <c r="D131" t="s">
-        <v>2144</v>
+        <v>2126</v>
       </c>
       <c r="E131" t="s">
         <v>1338</v>
@@ -11679,7 +11805,7 @@
         <v>1736</v>
       </c>
       <c r="G131" t="s">
-        <v>2145</v>
+        <v>2127</v>
       </c>
       <c r="K131" t="s">
         <v>2009</v>
@@ -11728,7 +11854,7 @@
         <v>958</v>
       </c>
       <c r="D133" t="s">
-        <v>2146</v>
+        <v>2497</v>
       </c>
       <c r="E133" t="s">
         <v>1340</v>
@@ -11737,9 +11863,15 @@
         <v>1738</v>
       </c>
       <c r="G133" t="s">
-        <v>1738</v>
+        <v>2498</v>
       </c>
       <c r="H133" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K133" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M133" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -11754,7 +11886,7 @@
         <v>959</v>
       </c>
       <c r="D134" t="s">
-        <v>2147</v>
+        <v>2128</v>
       </c>
       <c r="E134" t="s">
         <v>1341</v>
@@ -11763,7 +11895,7 @@
         <v>1739</v>
       </c>
       <c r="G134" t="s">
-        <v>2148</v>
+        <v>2129</v>
       </c>
       <c r="K134" t="s">
         <v>2009</v>
@@ -11835,7 +11967,7 @@
         <v>962</v>
       </c>
       <c r="D137" t="s">
-        <v>2149</v>
+        <v>2130</v>
       </c>
       <c r="E137" t="s">
         <v>1344</v>
@@ -11844,7 +11976,7 @@
         <v>1742</v>
       </c>
       <c r="G137" t="s">
-        <v>2150</v>
+        <v>2131</v>
       </c>
       <c r="H137" t="s">
         <v>2009</v>
@@ -11867,7 +11999,7 @@
         <v>963</v>
       </c>
       <c r="D138" t="s">
-        <v>2151</v>
+        <v>2499</v>
       </c>
       <c r="E138" t="s">
         <v>1345</v>
@@ -11876,7 +12008,7 @@
         <v>1743</v>
       </c>
       <c r="G138" t="s">
-        <v>2152</v>
+        <v>2500</v>
       </c>
       <c r="K138" t="s">
         <v>2009</v>
@@ -11896,7 +12028,7 @@
         <v>964</v>
       </c>
       <c r="D139" t="s">
-        <v>2153</v>
+        <v>2132</v>
       </c>
       <c r="E139" t="s">
         <v>1346</v>
@@ -11905,7 +12037,7 @@
         <v>1744</v>
       </c>
       <c r="G139" t="s">
-        <v>2154</v>
+        <v>2133</v>
       </c>
       <c r="H139" t="s">
         <v>2009</v>
@@ -11925,7 +12057,7 @@
         <v>965</v>
       </c>
       <c r="D140" t="s">
-        <v>2155</v>
+        <v>2134</v>
       </c>
       <c r="E140" t="s">
         <v>1347</v>
@@ -11934,7 +12066,7 @@
         <v>1745</v>
       </c>
       <c r="G140" t="s">
-        <v>2156</v>
+        <v>2135</v>
       </c>
       <c r="K140" t="s">
         <v>2009</v>
@@ -11957,7 +12089,7 @@
         <v>966</v>
       </c>
       <c r="D141" t="s">
-        <v>2157</v>
+        <v>2136</v>
       </c>
       <c r="E141" t="s">
         <v>1348</v>
@@ -11983,7 +12115,7 @@
         <v>967</v>
       </c>
       <c r="D142" t="s">
-        <v>2158</v>
+        <v>2137</v>
       </c>
       <c r="E142" t="s">
         <v>1349</v>
@@ -12035,7 +12167,7 @@
         <v>969</v>
       </c>
       <c r="D144" t="s">
-        <v>2159</v>
+        <v>2138</v>
       </c>
       <c r="E144" t="s">
         <v>1351</v>
@@ -12044,7 +12176,7 @@
         <v>1749</v>
       </c>
       <c r="G144" t="s">
-        <v>2160</v>
+        <v>2139</v>
       </c>
       <c r="K144" t="s">
         <v>2009</v>
@@ -12090,7 +12222,7 @@
         <v>971</v>
       </c>
       <c r="D146" t="s">
-        <v>2161</v>
+        <v>2140</v>
       </c>
       <c r="E146" t="s">
         <v>1353</v>
@@ -12116,7 +12248,7 @@
         <v>972</v>
       </c>
       <c r="D147" t="s">
-        <v>2162</v>
+        <v>2141</v>
       </c>
       <c r="E147" t="s">
         <v>1354</v>
@@ -12125,7 +12257,7 @@
         <v>1354</v>
       </c>
       <c r="G147" t="s">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="K147" t="s">
         <v>2009</v>
@@ -12148,7 +12280,7 @@
         <v>973</v>
       </c>
       <c r="D148" t="s">
-        <v>2164</v>
+        <v>2143</v>
       </c>
       <c r="E148" t="s">
         <v>1355</v>
@@ -12157,7 +12289,7 @@
         <v>1752</v>
       </c>
       <c r="G148" t="s">
-        <v>2165</v>
+        <v>2144</v>
       </c>
       <c r="K148" t="s">
         <v>2009</v>
@@ -12178,7 +12310,7 @@
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s">
-        <v>2166</v>
+        <v>2145</v>
       </c>
       <c r="E149" t="s">
         <v>1356</v>
@@ -12187,7 +12319,7 @@
         <v>1753</v>
       </c>
       <c r="G149" t="s">
-        <v>2167</v>
+        <v>2146</v>
       </c>
       <c r="J149" t="s">
         <v>2009</v>
@@ -12233,7 +12365,7 @@
         <v>975</v>
       </c>
       <c r="D151" t="s">
-        <v>2168</v>
+        <v>2147</v>
       </c>
       <c r="E151" t="s">
         <v>1358</v>
@@ -12242,7 +12374,7 @@
         <v>1755</v>
       </c>
       <c r="G151" t="s">
-        <v>2169</v>
+        <v>2148</v>
       </c>
       <c r="K151" t="s">
         <v>2009</v>
@@ -12262,7 +12394,7 @@
         <v>976</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>2170</v>
+        <v>2149</v>
       </c>
       <c r="E152" t="s">
         <v>1359</v>
@@ -12271,7 +12403,7 @@
         <v>1756</v>
       </c>
       <c r="G152" t="s">
-        <v>2171</v>
+        <v>2150</v>
       </c>
       <c r="K152" t="s">
         <v>2009</v>
@@ -12300,7 +12432,7 @@
         <v>1757</v>
       </c>
       <c r="G153" t="s">
-        <v>2173</v>
+        <v>2152</v>
       </c>
       <c r="K153" t="s">
         <v>2009</v>
@@ -12329,7 +12461,7 @@
         <v>1627</v>
       </c>
       <c r="G154" t="s">
-        <v>2172</v>
+        <v>2151</v>
       </c>
       <c r="K154" t="s">
         <v>2009</v>
@@ -12349,7 +12481,7 @@
         <v>979</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>2174</v>
+        <v>2153</v>
       </c>
       <c r="E155" t="s">
         <v>1362</v>
@@ -12358,7 +12490,7 @@
         <v>1758</v>
       </c>
       <c r="G155" t="s">
-        <v>2175</v>
+        <v>2154</v>
       </c>
       <c r="J155" t="s">
         <v>2009</v>
@@ -12456,7 +12588,7 @@
         <v>983</v>
       </c>
       <c r="D159" t="s">
-        <v>2176</v>
+        <v>2155</v>
       </c>
       <c r="E159" t="s">
         <v>1366</v>
@@ -12465,7 +12597,7 @@
         <v>1762</v>
       </c>
       <c r="G159" t="s">
-        <v>2180</v>
+        <v>2159</v>
       </c>
       <c r="H159" t="s">
         <v>2009</v>
@@ -12485,7 +12617,7 @@
         <v>984</v>
       </c>
       <c r="D160" t="s">
-        <v>2177</v>
+        <v>2156</v>
       </c>
       <c r="E160" t="s">
         <v>1367</v>
@@ -12494,7 +12626,7 @@
         <v>1763</v>
       </c>
       <c r="G160" t="s">
-        <v>2178</v>
+        <v>2157</v>
       </c>
       <c r="K160" t="s">
         <v>2009</v>
@@ -12514,7 +12646,7 @@
         <v>985</v>
       </c>
       <c r="D161" t="s">
-        <v>985</v>
+        <v>2501</v>
       </c>
       <c r="E161" t="s">
         <v>1368</v>
@@ -12523,12 +12655,12 @@
         <v>1764</v>
       </c>
       <c r="G161" t="s">
-        <v>2179</v>
+        <v>2158</v>
       </c>
       <c r="K161" t="s">
         <v>2009</v>
       </c>
-      <c r="N161" t="s">
+      <c r="M161" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -12543,7 +12675,7 @@
         <v>986</v>
       </c>
       <c r="D162" t="s">
-        <v>2181</v>
+        <v>2160</v>
       </c>
       <c r="E162" t="s">
         <v>1369</v>
@@ -12552,7 +12684,7 @@
         <v>1765</v>
       </c>
       <c r="G162" t="s">
-        <v>2182</v>
+        <v>2161</v>
       </c>
       <c r="K162" t="s">
         <v>2009</v>
@@ -12572,7 +12704,7 @@
         <v>987</v>
       </c>
       <c r="D163" t="s">
-        <v>2183</v>
+        <v>2162</v>
       </c>
       <c r="E163" t="s">
         <v>1370</v>
@@ -12610,7 +12742,7 @@
         <v>1767</v>
       </c>
       <c r="G164" t="s">
-        <v>2184</v>
+        <v>2163</v>
       </c>
       <c r="K164" t="s">
         <v>2009</v>
@@ -12630,7 +12762,7 @@
         <v>989</v>
       </c>
       <c r="D165" t="s">
-        <v>2185</v>
+        <v>2164</v>
       </c>
       <c r="E165" t="s">
         <v>1372</v>
@@ -12639,7 +12771,7 @@
         <v>1768</v>
       </c>
       <c r="G165" t="s">
-        <v>2186</v>
+        <v>2165</v>
       </c>
       <c r="K165" t="s">
         <v>2009</v>
@@ -12668,7 +12800,7 @@
         <v>1769</v>
       </c>
       <c r="G166" t="s">
-        <v>2187</v>
+        <v>2166</v>
       </c>
       <c r="K166" t="s">
         <v>2009</v>
@@ -12688,7 +12820,7 @@
         <v>991</v>
       </c>
       <c r="D167" t="s">
-        <v>2188</v>
+        <v>2167</v>
       </c>
       <c r="E167" t="s">
         <v>1374</v>
@@ -12717,7 +12849,7 @@
         <v>992</v>
       </c>
       <c r="D168" t="s">
-        <v>2189</v>
+        <v>2168</v>
       </c>
       <c r="E168" t="s">
         <v>1375</v>
@@ -12772,7 +12904,7 @@
         <v>994</v>
       </c>
       <c r="D170" t="s">
-        <v>2190</v>
+        <v>2169</v>
       </c>
       <c r="E170" t="s">
         <v>1377</v>
@@ -12824,7 +12956,7 @@
         <v>996</v>
       </c>
       <c r="D172" t="s">
-        <v>2191</v>
+        <v>2170</v>
       </c>
       <c r="E172" t="s">
         <v>1379</v>
@@ -12850,7 +12982,7 @@
         <v>997</v>
       </c>
       <c r="D173" t="s">
-        <v>2192</v>
+        <v>2502</v>
       </c>
       <c r="E173" t="s">
         <v>1380</v>
@@ -12859,9 +12991,15 @@
         <v>1776</v>
       </c>
       <c r="G173" t="s">
-        <v>1776</v>
+        <v>2503</v>
       </c>
       <c r="H173" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K173" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M173" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -12876,7 +13014,7 @@
         <v>998</v>
       </c>
       <c r="D174" t="s">
-        <v>2193</v>
+        <v>2171</v>
       </c>
       <c r="E174" t="s">
         <v>1381</v>
@@ -12928,7 +13066,7 @@
         <v>1000</v>
       </c>
       <c r="D176" t="s">
-        <v>2194</v>
+        <v>2172</v>
       </c>
       <c r="E176" t="s">
         <v>1383</v>
@@ -12937,7 +13075,7 @@
         <v>1779</v>
       </c>
       <c r="G176" t="s">
-        <v>2195</v>
+        <v>2173</v>
       </c>
       <c r="M176" t="s">
         <v>2009</v>
@@ -13006,7 +13144,7 @@
         <v>1003</v>
       </c>
       <c r="D179" t="s">
-        <v>2196</v>
+        <v>2174</v>
       </c>
       <c r="E179" t="s">
         <v>1386</v>
@@ -13015,7 +13153,7 @@
         <v>1782</v>
       </c>
       <c r="G179" t="s">
-        <v>2197</v>
+        <v>2175</v>
       </c>
       <c r="K179" t="s">
         <v>2009</v>
@@ -13035,7 +13173,7 @@
         <v>1004</v>
       </c>
       <c r="D180" t="s">
-        <v>2198</v>
+        <v>2176</v>
       </c>
       <c r="E180" t="s">
         <v>1387</v>
@@ -13044,7 +13182,7 @@
         <v>1783</v>
       </c>
       <c r="G180" t="s">
-        <v>2500</v>
+        <v>2453</v>
       </c>
       <c r="K180" t="s">
         <v>2009</v>
@@ -13093,7 +13231,7 @@
         <v>1006</v>
       </c>
       <c r="D182" t="s">
-        <v>2199</v>
+        <v>2177</v>
       </c>
       <c r="E182" t="s">
         <v>1389</v>
@@ -13119,7 +13257,7 @@
         <v>1007</v>
       </c>
       <c r="D183" t="s">
-        <v>2200</v>
+        <v>2178</v>
       </c>
       <c r="E183" t="s">
         <v>1390</v>
@@ -13128,7 +13266,7 @@
         <v>1786</v>
       </c>
       <c r="G183" t="s">
-        <v>2501</v>
+        <v>2454</v>
       </c>
       <c r="H183" t="s">
         <v>2009</v>
@@ -13151,7 +13289,7 @@
         <v>1008</v>
       </c>
       <c r="D184" t="s">
-        <v>2201</v>
+        <v>2179</v>
       </c>
       <c r="E184" t="s">
         <v>1391</v>
@@ -13180,7 +13318,7 @@
         <v>1009</v>
       </c>
       <c r="D185" t="s">
-        <v>2202</v>
+        <v>2180</v>
       </c>
       <c r="E185" t="s">
         <v>1392</v>
@@ -13189,7 +13327,7 @@
         <v>1788</v>
       </c>
       <c r="G185" t="s">
-        <v>2203</v>
+        <v>2181</v>
       </c>
       <c r="K185" t="s">
         <v>2009</v>
@@ -13209,7 +13347,7 @@
         <v>1010</v>
       </c>
       <c r="D186" t="s">
-        <v>2204</v>
+        <v>2182</v>
       </c>
       <c r="E186" t="s">
         <v>1393</v>
@@ -13218,7 +13356,7 @@
         <v>1789</v>
       </c>
       <c r="G186" t="s">
-        <v>2205</v>
+        <v>2183</v>
       </c>
       <c r="K186" t="s">
         <v>2009</v>
@@ -13238,7 +13376,7 @@
         <v>1011</v>
       </c>
       <c r="D187" t="s">
-        <v>2206</v>
+        <v>2184</v>
       </c>
       <c r="E187" t="s">
         <v>1394</v>
@@ -13247,7 +13385,7 @@
         <v>1790</v>
       </c>
       <c r="G187" t="s">
-        <v>2207</v>
+        <v>2185</v>
       </c>
       <c r="K187" t="s">
         <v>2009</v>
@@ -13302,7 +13440,7 @@
         <v>1792</v>
       </c>
       <c r="G189" t="s">
-        <v>2208</v>
+        <v>2186</v>
       </c>
       <c r="K189" t="s">
         <v>2009</v>
@@ -13322,7 +13460,7 @@
         <v>1014</v>
       </c>
       <c r="D190" t="s">
-        <v>2209</v>
+        <v>2187</v>
       </c>
       <c r="E190" t="s">
         <v>1397</v>
@@ -13331,7 +13469,7 @@
         <v>1793</v>
       </c>
       <c r="G190" t="s">
-        <v>2210</v>
+        <v>2188</v>
       </c>
       <c r="J190" t="s">
         <v>2009</v>
@@ -13351,7 +13489,7 @@
         <v>1015</v>
       </c>
       <c r="D191" t="s">
-        <v>2211</v>
+        <v>2189</v>
       </c>
       <c r="E191" t="s">
         <v>1398</v>
@@ -13360,7 +13498,7 @@
         <v>1794</v>
       </c>
       <c r="G191" t="s">
-        <v>2212</v>
+        <v>2190</v>
       </c>
       <c r="I191" t="s">
         <v>2009</v>
@@ -13392,7 +13530,7 @@
         <v>1795</v>
       </c>
       <c r="G192" t="s">
-        <v>2213</v>
+        <v>2191</v>
       </c>
       <c r="K192" t="s">
         <v>2009</v>
@@ -13464,7 +13602,7 @@
         <v>1019</v>
       </c>
       <c r="D195" t="s">
-        <v>2214</v>
+        <v>2192</v>
       </c>
       <c r="E195" t="s">
         <v>1402</v>
@@ -13473,7 +13611,7 @@
         <v>1798</v>
       </c>
       <c r="G195" t="s">
-        <v>2215</v>
+        <v>2193</v>
       </c>
       <c r="K195" t="s">
         <v>2009</v>
@@ -13493,7 +13631,7 @@
         <v>1020</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>2216</v>
+        <v>2194</v>
       </c>
       <c r="E196" t="s">
         <v>1230</v>
@@ -13502,7 +13640,7 @@
         <v>1799</v>
       </c>
       <c r="G196" t="s">
-        <v>2217</v>
+        <v>2195</v>
       </c>
       <c r="H196" t="s">
         <v>2009</v>
@@ -13525,7 +13663,7 @@
         <v>1021</v>
       </c>
       <c r="D197" t="s">
-        <v>2218</v>
+        <v>2504</v>
       </c>
       <c r="E197" t="s">
         <v>1403</v>
@@ -13551,7 +13689,7 @@
         <v>1022</v>
       </c>
       <c r="D198" t="s">
-        <v>2219</v>
+        <v>2196</v>
       </c>
       <c r="E198" t="s">
         <v>1404</v>
@@ -13560,7 +13698,7 @@
         <v>1801</v>
       </c>
       <c r="G198" t="s">
-        <v>2220</v>
+        <v>2197</v>
       </c>
       <c r="H198" t="s">
         <v>2009</v>
@@ -13583,7 +13721,7 @@
         <v>1023</v>
       </c>
       <c r="D199" t="s">
-        <v>2221</v>
+        <v>2198</v>
       </c>
       <c r="E199" t="s">
         <v>1405</v>
@@ -13592,7 +13730,7 @@
         <v>1802</v>
       </c>
       <c r="G199" t="s">
-        <v>2222</v>
+        <v>2199</v>
       </c>
       <c r="K199" t="s">
         <v>2009</v>
@@ -13615,7 +13753,7 @@
         <v>1024</v>
       </c>
       <c r="D200" t="s">
-        <v>2223</v>
+        <v>2505</v>
       </c>
       <c r="E200" t="s">
         <v>1406</v>
@@ -13624,7 +13762,10 @@
         <v>1803</v>
       </c>
       <c r="G200" t="s">
-        <v>2224</v>
+        <v>2506</v>
+      </c>
+      <c r="H200" t="s">
+        <v>2009</v>
       </c>
       <c r="K200" t="s">
         <v>2009</v>
@@ -13670,7 +13811,7 @@
         <v>1026</v>
       </c>
       <c r="D202" t="s">
-        <v>2225</v>
+        <v>2507</v>
       </c>
       <c r="E202" t="s">
         <v>1408</v>
@@ -13679,12 +13820,12 @@
         <v>1805</v>
       </c>
       <c r="G202" t="s">
-        <v>2226</v>
+        <v>2508</v>
       </c>
       <c r="J202" t="s">
         <v>2009</v>
       </c>
-      <c r="K202" t="s">
+      <c r="M202" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -13699,7 +13840,7 @@
         <v>1027</v>
       </c>
       <c r="D203" t="s">
-        <v>2227</v>
+        <v>2200</v>
       </c>
       <c r="E203" t="s">
         <v>1409</v>
@@ -13708,7 +13849,7 @@
         <v>1806</v>
       </c>
       <c r="G203" t="s">
-        <v>2228</v>
+        <v>2201</v>
       </c>
       <c r="J203" t="s">
         <v>2009</v>
@@ -13731,7 +13872,7 @@
         <v>1028</v>
       </c>
       <c r="D204" t="s">
-        <v>2232</v>
+        <v>2205</v>
       </c>
       <c r="E204" t="s">
         <v>1410</v>
@@ -13740,7 +13881,7 @@
         <v>1807</v>
       </c>
       <c r="G204" t="s">
-        <v>2229</v>
+        <v>2202</v>
       </c>
       <c r="K204" t="s">
         <v>2009</v>
@@ -13760,7 +13901,7 @@
         <v>1029</v>
       </c>
       <c r="D205" t="s">
-        <v>2230</v>
+        <v>2203</v>
       </c>
       <c r="E205" t="s">
         <v>1411</v>
@@ -13795,7 +13936,7 @@
         <v>1809</v>
       </c>
       <c r="G206" t="s">
-        <v>2231</v>
+        <v>2204</v>
       </c>
       <c r="K206" t="s">
         <v>2009</v>
@@ -13818,7 +13959,7 @@
         <v>1031</v>
       </c>
       <c r="D207" t="s">
-        <v>2233</v>
+        <v>2509</v>
       </c>
       <c r="E207" t="s">
         <v>1413</v>
@@ -13827,7 +13968,7 @@
         <v>1810</v>
       </c>
       <c r="G207" t="s">
-        <v>2234</v>
+        <v>2510</v>
       </c>
       <c r="I207" t="s">
         <v>2009</v>
@@ -13865,7 +14006,7 @@
         <v>1811</v>
       </c>
       <c r="G208" t="s">
-        <v>2235</v>
+        <v>2206</v>
       </c>
       <c r="K208" t="s">
         <v>2009</v>
@@ -13894,7 +14035,7 @@
         <v>1812</v>
       </c>
       <c r="G209" t="s">
-        <v>2236</v>
+        <v>2207</v>
       </c>
       <c r="K209" t="s">
         <v>2009</v>
@@ -13914,7 +14055,7 @@
         <v>1034</v>
       </c>
       <c r="D210" t="s">
-        <v>2237</v>
+        <v>2511</v>
       </c>
       <c r="E210" t="s">
         <v>1416</v>
@@ -13923,7 +14064,7 @@
         <v>1813</v>
       </c>
       <c r="G210" t="s">
-        <v>2238</v>
+        <v>2208</v>
       </c>
       <c r="J210" t="s">
         <v>2009</v>
@@ -13955,7 +14096,7 @@
         <v>1632</v>
       </c>
       <c r="G211" t="s">
-        <v>2239</v>
+        <v>2209</v>
       </c>
       <c r="K211" t="s">
         <v>2009</v>
@@ -13973,7 +14114,7 @@
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s">
-        <v>2240</v>
+        <v>2210</v>
       </c>
       <c r="E212" t="s">
         <v>1418</v>
@@ -14025,7 +14166,7 @@
         <v>1037</v>
       </c>
       <c r="D214" t="s">
-        <v>2241</v>
+        <v>2211</v>
       </c>
       <c r="E214" t="s">
         <v>1420</v>
@@ -14051,7 +14192,7 @@
         <v>1038</v>
       </c>
       <c r="D215" t="s">
-        <v>2242</v>
+        <v>2212</v>
       </c>
       <c r="E215" t="s">
         <v>1421</v>
@@ -14060,7 +14201,7 @@
         <v>1817</v>
       </c>
       <c r="G215" t="s">
-        <v>2243</v>
+        <v>2213</v>
       </c>
       <c r="I215" t="s">
         <v>2009</v>
@@ -14080,7 +14221,7 @@
         <v>1039</v>
       </c>
       <c r="D216" t="s">
-        <v>2244</v>
+        <v>2214</v>
       </c>
       <c r="E216" t="s">
         <v>1422</v>
@@ -14089,7 +14230,7 @@
         <v>1818</v>
       </c>
       <c r="G216" t="s">
-        <v>2245</v>
+        <v>2215</v>
       </c>
       <c r="I216" t="s">
         <v>2009</v>
@@ -14109,7 +14250,7 @@
         <v>1040</v>
       </c>
       <c r="D217" t="s">
-        <v>2246</v>
+        <v>2216</v>
       </c>
       <c r="E217" t="s">
         <v>1423</v>
@@ -14118,7 +14259,7 @@
         <v>1819</v>
       </c>
       <c r="G217" t="s">
-        <v>2247</v>
+        <v>2217</v>
       </c>
       <c r="H217" t="s">
         <v>2009</v>
@@ -14141,7 +14282,7 @@
         <v>1041</v>
       </c>
       <c r="D218" t="s">
-        <v>2249</v>
+        <v>2219</v>
       </c>
       <c r="E218" t="s">
         <v>1424</v>
@@ -14150,7 +14291,7 @@
         <v>1820</v>
       </c>
       <c r="G218" t="s">
-        <v>2248</v>
+        <v>2218</v>
       </c>
       <c r="I218" t="s">
         <v>2009</v>
@@ -14173,7 +14314,7 @@
         <v>1042</v>
       </c>
       <c r="D219" t="s">
-        <v>2250</v>
+        <v>2220</v>
       </c>
       <c r="E219" t="s">
         <v>1425</v>
@@ -14182,7 +14323,7 @@
         <v>1821</v>
       </c>
       <c r="G219" t="s">
-        <v>2251</v>
+        <v>2221</v>
       </c>
       <c r="I219" t="s">
         <v>2009</v>
@@ -14206,7 +14347,7 @@
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s">
-        <v>2252</v>
+        <v>2222</v>
       </c>
       <c r="E220" t="s">
         <v>1426</v>
@@ -14215,7 +14356,7 @@
         <v>1822</v>
       </c>
       <c r="G220" t="s">
-        <v>2253</v>
+        <v>2223</v>
       </c>
       <c r="J220" t="s">
         <v>2009</v>
@@ -14287,7 +14428,7 @@
         <v>1045</v>
       </c>
       <c r="D223" t="s">
-        <v>2254</v>
+        <v>2224</v>
       </c>
       <c r="E223" t="s">
         <v>1429</v>
@@ -14296,7 +14437,7 @@
         <v>1824</v>
       </c>
       <c r="G223" t="s">
-        <v>2255</v>
+        <v>2225</v>
       </c>
       <c r="K223" t="s">
         <v>2009</v>
@@ -14314,7 +14455,7 @@
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s">
-        <v>2256</v>
+        <v>2226</v>
       </c>
       <c r="E224" t="s">
         <v>1430</v>
@@ -14323,7 +14464,7 @@
         <v>1825</v>
       </c>
       <c r="G224" t="s">
-        <v>2257</v>
+        <v>2227</v>
       </c>
       <c r="J224" t="s">
         <v>2009</v>
@@ -14343,7 +14484,7 @@
         <v>1046</v>
       </c>
       <c r="D225" t="s">
-        <v>2286</v>
+        <v>2255</v>
       </c>
       <c r="E225" t="s">
         <v>1431</v>
@@ -14352,7 +14493,7 @@
         <v>1826</v>
       </c>
       <c r="G225" t="s">
-        <v>2287</v>
+        <v>2256</v>
       </c>
       <c r="H225" t="s">
         <v>2009</v>
@@ -14384,7 +14525,7 @@
         <v>1827</v>
       </c>
       <c r="G226" t="s">
-        <v>2258</v>
+        <v>2228</v>
       </c>
       <c r="K226" t="s">
         <v>2009</v>
@@ -14404,7 +14545,7 @@
         <v>1048</v>
       </c>
       <c r="D227" t="s">
-        <v>2259</v>
+        <v>2229</v>
       </c>
       <c r="E227" t="s">
         <v>1433</v>
@@ -14413,7 +14554,7 @@
         <v>1828</v>
       </c>
       <c r="G227" t="s">
-        <v>2260</v>
+        <v>2230</v>
       </c>
       <c r="I227" t="s">
         <v>2009</v>
@@ -14439,7 +14580,7 @@
         <v>1049</v>
       </c>
       <c r="D228" t="s">
-        <v>2261</v>
+        <v>2231</v>
       </c>
       <c r="E228" t="s">
         <v>1434</v>
@@ -14448,7 +14589,7 @@
         <v>1829</v>
       </c>
       <c r="G228" t="s">
-        <v>2262</v>
+        <v>2232</v>
       </c>
       <c r="K228" t="s">
         <v>2009</v>
@@ -14468,7 +14609,7 @@
         <v>1050</v>
       </c>
       <c r="D229" t="s">
-        <v>2263</v>
+        <v>2233</v>
       </c>
       <c r="E229" t="s">
         <v>1435</v>
@@ -14497,7 +14638,7 @@
         <v>1051</v>
       </c>
       <c r="D230" t="s">
-        <v>2264</v>
+        <v>2234</v>
       </c>
       <c r="E230" t="s">
         <v>1436</v>
@@ -14506,7 +14647,7 @@
         <v>1831</v>
       </c>
       <c r="G230" t="s">
-        <v>2265</v>
+        <v>2235</v>
       </c>
       <c r="H230" t="s">
         <v>2009</v>
@@ -14529,7 +14670,7 @@
         <v>1052</v>
       </c>
       <c r="D231" t="s">
-        <v>2266</v>
+        <v>2236</v>
       </c>
       <c r="E231" t="s">
         <v>1437</v>
@@ -14555,7 +14696,7 @@
         <v>1053</v>
       </c>
       <c r="D232" t="s">
-        <v>2267</v>
+        <v>2237</v>
       </c>
       <c r="E232" t="s">
         <v>1438</v>
@@ -14564,7 +14705,7 @@
         <v>1833</v>
       </c>
       <c r="G232" t="s">
-        <v>2268</v>
+        <v>2238</v>
       </c>
       <c r="I232" t="s">
         <v>2009</v>
@@ -14584,7 +14725,7 @@
         <v>1054</v>
       </c>
       <c r="D233" t="s">
-        <v>2269</v>
+        <v>2239</v>
       </c>
       <c r="E233" t="s">
         <v>1439</v>
@@ -14593,7 +14734,7 @@
         <v>1834</v>
       </c>
       <c r="G233" t="s">
-        <v>2270</v>
+        <v>2240</v>
       </c>
       <c r="J233" t="s">
         <v>2009</v>
@@ -14613,7 +14754,7 @@
         <v>1055</v>
       </c>
       <c r="D234" t="s">
-        <v>2271</v>
+        <v>2241</v>
       </c>
       <c r="E234" t="s">
         <v>1440</v>
@@ -14665,7 +14806,7 @@
         <v>1057</v>
       </c>
       <c r="D236" t="s">
-        <v>2272</v>
+        <v>2242</v>
       </c>
       <c r="E236" t="s">
         <v>1442</v>
@@ -14674,7 +14815,7 @@
         <v>1837</v>
       </c>
       <c r="G236" t="s">
-        <v>2273</v>
+        <v>2243</v>
       </c>
       <c r="I236" t="s">
         <v>2009</v>
@@ -14697,7 +14838,7 @@
         <v>1058</v>
       </c>
       <c r="D237" t="s">
-        <v>2274</v>
+        <v>2244</v>
       </c>
       <c r="E237" t="s">
         <v>1443</v>
@@ -14706,7 +14847,7 @@
         <v>1838</v>
       </c>
       <c r="G237" t="s">
-        <v>2275</v>
+        <v>2245</v>
       </c>
       <c r="H237" t="s">
         <v>2009</v>
@@ -14729,7 +14870,7 @@
         <v>1059</v>
       </c>
       <c r="D238" t="s">
-        <v>2277</v>
+        <v>2247</v>
       </c>
       <c r="E238" t="s">
         <v>1444</v>
@@ -14738,7 +14879,7 @@
         <v>1839</v>
       </c>
       <c r="G238" t="s">
-        <v>2276</v>
+        <v>2246</v>
       </c>
       <c r="I238" t="s">
         <v>2009</v>
@@ -14758,7 +14899,7 @@
         <v>1060</v>
       </c>
       <c r="D239" t="s">
-        <v>2278</v>
+        <v>2248</v>
       </c>
       <c r="E239" t="s">
         <v>1445</v>
@@ -14767,7 +14908,7 @@
         <v>1840</v>
       </c>
       <c r="G239" t="s">
-        <v>2279</v>
+        <v>2249</v>
       </c>
       <c r="J239" t="s">
         <v>2009</v>
@@ -14790,7 +14931,7 @@
         <v>1061</v>
       </c>
       <c r="D240" t="s">
-        <v>2280</v>
+        <v>2250</v>
       </c>
       <c r="E240" t="s">
         <v>1446</v>
@@ -14816,7 +14957,7 @@
         <v>1062</v>
       </c>
       <c r="D241" t="s">
-        <v>2282</v>
+        <v>2252</v>
       </c>
       <c r="E241" t="s">
         <v>1447</v>
@@ -14825,7 +14966,7 @@
         <v>1842</v>
       </c>
       <c r="G241" t="s">
-        <v>2281</v>
+        <v>2251</v>
       </c>
       <c r="I241" t="s">
         <v>2009</v>
@@ -14845,7 +14986,7 @@
         <v>1063</v>
       </c>
       <c r="D242" t="s">
-        <v>2283</v>
+        <v>2253</v>
       </c>
       <c r="E242" t="s">
         <v>1448</v>
@@ -14897,7 +15038,7 @@
         <v>1065</v>
       </c>
       <c r="D244" t="s">
-        <v>2284</v>
+        <v>2512</v>
       </c>
       <c r="E244" t="s">
         <v>1450</v>
@@ -14906,7 +15047,7 @@
         <v>1845</v>
       </c>
       <c r="G244" t="s">
-        <v>2285</v>
+        <v>2254</v>
       </c>
       <c r="K244" t="s">
         <v>2009</v>
@@ -14935,7 +15076,7 @@
         <v>1846</v>
       </c>
       <c r="G245" t="s">
-        <v>2288</v>
+        <v>2257</v>
       </c>
       <c r="K245" t="s">
         <v>2009</v>
@@ -14955,7 +15096,7 @@
         <v>1067</v>
       </c>
       <c r="D246" t="s">
-        <v>2289</v>
+        <v>2258</v>
       </c>
       <c r="E246" t="s">
         <v>1452</v>
@@ -14979,7 +15120,7 @@
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s">
-        <v>2290</v>
+        <v>2259</v>
       </c>
       <c r="E247" t="s">
         <v>1453</v>
@@ -15005,7 +15146,7 @@
         <v>1068</v>
       </c>
       <c r="D248" t="s">
-        <v>2291</v>
+        <v>2260</v>
       </c>
       <c r="E248" t="s">
         <v>1454</v>
@@ -15040,7 +15181,7 @@
         <v>1850</v>
       </c>
       <c r="G249" t="s">
-        <v>2292</v>
+        <v>2261</v>
       </c>
       <c r="K249" t="s">
         <v>2009</v>
@@ -15058,7 +15199,7 @@
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s">
-        <v>2502</v>
+        <v>2455</v>
       </c>
       <c r="E250" t="s">
         <v>1456</v>
@@ -15067,7 +15208,7 @@
         <v>1851</v>
       </c>
       <c r="G250" t="s">
-        <v>2293</v>
+        <v>2262</v>
       </c>
       <c r="J250" t="s">
         <v>2009</v>
@@ -15085,7 +15226,7 @@
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s">
-        <v>2294</v>
+        <v>2263</v>
       </c>
       <c r="E251" t="s">
         <v>1457</v>
@@ -15137,7 +15278,7 @@
         <v>1071</v>
       </c>
       <c r="D253" t="s">
-        <v>2295</v>
+        <v>2513</v>
       </c>
       <c r="E253" t="s">
         <v>1459</v>
@@ -15146,7 +15287,7 @@
         <v>1854</v>
       </c>
       <c r="G253" t="s">
-        <v>2296</v>
+        <v>2514</v>
       </c>
       <c r="K253" t="s">
         <v>2009</v>
@@ -15169,7 +15310,7 @@
         <v>1072</v>
       </c>
       <c r="D254" t="s">
-        <v>2297</v>
+        <v>2264</v>
       </c>
       <c r="E254" t="s">
         <v>1460</v>
@@ -15178,7 +15319,7 @@
         <v>1855</v>
       </c>
       <c r="G254" t="s">
-        <v>2298</v>
+        <v>2265</v>
       </c>
       <c r="J254" t="s">
         <v>2009</v>
@@ -15204,7 +15345,7 @@
         <v>1073</v>
       </c>
       <c r="D255" t="s">
-        <v>1073</v>
+        <v>2515</v>
       </c>
       <c r="E255" t="s">
         <v>1461</v>
@@ -15215,7 +15356,7 @@
       <c r="G255" t="s">
         <v>1856</v>
       </c>
-      <c r="N255" t="s">
+      <c r="M255" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -15230,7 +15371,7 @@
         <v>1074</v>
       </c>
       <c r="D256" t="s">
-        <v>2299</v>
+        <v>2266</v>
       </c>
       <c r="E256" t="s">
         <v>1462</v>
@@ -15239,7 +15380,7 @@
         <v>1857</v>
       </c>
       <c r="G256" t="s">
-        <v>2300</v>
+        <v>2267</v>
       </c>
       <c r="H256" t="s">
         <v>2009</v>
@@ -15260,7 +15401,7 @@
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s">
-        <v>2301</v>
+        <v>2268</v>
       </c>
       <c r="E257" t="s">
         <v>1463</v>
@@ -15269,7 +15410,7 @@
         <v>1858</v>
       </c>
       <c r="G257" t="s">
-        <v>2302</v>
+        <v>2269</v>
       </c>
       <c r="J257" t="s">
         <v>2009</v>
@@ -15298,7 +15439,7 @@
         <v>1859</v>
       </c>
       <c r="G258" t="s">
-        <v>2303</v>
+        <v>2270</v>
       </c>
       <c r="K258" t="s">
         <v>2009</v>
@@ -15316,7 +15457,7 @@
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s">
-        <v>2304</v>
+        <v>2271</v>
       </c>
       <c r="E259" t="s">
         <v>1465</v>
@@ -15325,7 +15466,7 @@
         <v>1860</v>
       </c>
       <c r="G259" t="s">
-        <v>2305</v>
+        <v>2272</v>
       </c>
       <c r="I259" t="s">
         <v>2009</v>
@@ -15348,7 +15489,7 @@
         <v>1076</v>
       </c>
       <c r="D260" t="s">
-        <v>2306</v>
+        <v>2273</v>
       </c>
       <c r="E260" t="s">
         <v>1466</v>
@@ -15357,7 +15498,7 @@
         <v>1861</v>
       </c>
       <c r="G260" t="s">
-        <v>2307</v>
+        <v>2274</v>
       </c>
       <c r="H260" t="s">
         <v>2009</v>
@@ -15383,7 +15524,7 @@
         <v>1077</v>
       </c>
       <c r="D261" t="s">
-        <v>1077</v>
+        <v>2516</v>
       </c>
       <c r="E261" t="s">
         <v>1467</v>
@@ -15392,9 +15533,12 @@
         <v>1862</v>
       </c>
       <c r="G261" t="s">
-        <v>1862</v>
-      </c>
-      <c r="N261" t="s">
+        <v>2517</v>
+      </c>
+      <c r="K261" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M261" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -15409,7 +15553,7 @@
         <v>1078</v>
       </c>
       <c r="D262" t="s">
-        <v>2308</v>
+        <v>2275</v>
       </c>
       <c r="E262" t="s">
         <v>1468</v>
@@ -15444,7 +15588,7 @@
         <v>1864</v>
       </c>
       <c r="G263" t="s">
-        <v>2309</v>
+        <v>2276</v>
       </c>
       <c r="K263" t="s">
         <v>2009</v>
@@ -15464,7 +15608,7 @@
         <v>1080</v>
       </c>
       <c r="D264" t="s">
-        <v>1080</v>
+        <v>2518</v>
       </c>
       <c r="E264" t="s">
         <v>1470</v>
@@ -15473,9 +15617,12 @@
         <v>1865</v>
       </c>
       <c r="G264" t="s">
-        <v>1865</v>
-      </c>
-      <c r="N264" t="s">
+        <v>2519</v>
+      </c>
+      <c r="K264" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M264" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -15490,7 +15637,7 @@
         <v>1081</v>
       </c>
       <c r="D265" t="s">
-        <v>2310</v>
+        <v>2277</v>
       </c>
       <c r="E265" t="s">
         <v>1471</v>
@@ -15542,7 +15689,7 @@
         <v>1083</v>
       </c>
       <c r="D267" t="s">
-        <v>2311</v>
+        <v>2278</v>
       </c>
       <c r="E267" t="s">
         <v>1473</v>
@@ -15551,7 +15698,7 @@
         <v>1868</v>
       </c>
       <c r="G267" t="s">
-        <v>2312</v>
+        <v>2279</v>
       </c>
       <c r="K267" t="s">
         <v>2009</v>
@@ -15571,7 +15718,7 @@
         <v>1084</v>
       </c>
       <c r="D268" t="s">
-        <v>2313</v>
+        <v>2280</v>
       </c>
       <c r="E268" t="s">
         <v>1474</v>
@@ -15597,7 +15744,7 @@
         <v>1085</v>
       </c>
       <c r="D269" t="s">
-        <v>2314</v>
+        <v>2281</v>
       </c>
       <c r="E269" t="s">
         <v>1475</v>
@@ -15606,7 +15753,7 @@
         <v>1870</v>
       </c>
       <c r="G269" t="s">
-        <v>2315</v>
+        <v>2282</v>
       </c>
       <c r="K269" t="s">
         <v>2009</v>
@@ -15626,7 +15773,7 @@
         <v>1086</v>
       </c>
       <c r="D270" t="s">
-        <v>2316</v>
+        <v>2283</v>
       </c>
       <c r="E270" t="s">
         <v>1476</v>
@@ -15635,7 +15782,7 @@
         <v>1871</v>
       </c>
       <c r="G270" t="s">
-        <v>2317</v>
+        <v>2284</v>
       </c>
       <c r="K270" t="s">
         <v>2009</v>
@@ -15681,7 +15828,7 @@
         <v>1088</v>
       </c>
       <c r="D272" t="s">
-        <v>2318</v>
+        <v>2285</v>
       </c>
       <c r="E272" t="s">
         <v>1478</v>
@@ -15707,7 +15854,7 @@
         <v>1089</v>
       </c>
       <c r="D273" t="s">
-        <v>2319</v>
+        <v>2286</v>
       </c>
       <c r="E273" t="s">
         <v>1479</v>
@@ -15716,7 +15863,7 @@
         <v>1874</v>
       </c>
       <c r="G273" t="s">
-        <v>2320</v>
+        <v>2287</v>
       </c>
       <c r="I273" t="s">
         <v>2009</v>
@@ -15739,7 +15886,7 @@
         <v>1090</v>
       </c>
       <c r="D274" t="s">
-        <v>2321</v>
+        <v>2288</v>
       </c>
       <c r="E274" t="s">
         <v>1480</v>
@@ -15748,7 +15895,7 @@
         <v>1875</v>
       </c>
       <c r="G274" t="s">
-        <v>2322</v>
+        <v>2289</v>
       </c>
       <c r="I274" t="s">
         <v>2009</v>
@@ -15771,7 +15918,7 @@
         <v>1091</v>
       </c>
       <c r="D275" t="s">
-        <v>2323</v>
+        <v>2520</v>
       </c>
       <c r="E275" t="s">
         <v>1481</v>
@@ -15780,7 +15927,7 @@
         <v>1876</v>
       </c>
       <c r="G275" t="s">
-        <v>2324</v>
+        <v>2521</v>
       </c>
       <c r="K275" t="s">
         <v>2009</v>
@@ -15803,7 +15950,7 @@
         <v>1092</v>
       </c>
       <c r="D276" t="s">
-        <v>2325</v>
+        <v>2290</v>
       </c>
       <c r="E276" t="s">
         <v>1482</v>
@@ -15812,7 +15959,7 @@
         <v>1877</v>
       </c>
       <c r="G276" t="s">
-        <v>2503</v>
+        <v>2456</v>
       </c>
       <c r="J276" t="s">
         <v>2009</v>
@@ -15832,7 +15979,7 @@
         <v>1093</v>
       </c>
       <c r="D277" t="s">
-        <v>2326</v>
+        <v>2522</v>
       </c>
       <c r="E277" t="s">
         <v>1483</v>
@@ -15841,7 +15988,7 @@
         <v>1878</v>
       </c>
       <c r="G277" t="s">
-        <v>2327</v>
+        <v>2523</v>
       </c>
       <c r="I277" t="s">
         <v>2009</v>
@@ -15853,6 +16000,9 @@
         <v>2009</v>
       </c>
       <c r="L277" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M277" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -15867,7 +16017,7 @@
         <v>1094</v>
       </c>
       <c r="D278" t="s">
-        <v>2328</v>
+        <v>2291</v>
       </c>
       <c r="E278" t="s">
         <v>1484</v>
@@ -15893,7 +16043,7 @@
         <v>1095</v>
       </c>
       <c r="D279" t="s">
-        <v>2329</v>
+        <v>2524</v>
       </c>
       <c r="E279" t="s">
         <v>1485</v>
@@ -15902,7 +16052,7 @@
         <v>1880</v>
       </c>
       <c r="G279" t="s">
-        <v>2504</v>
+        <v>2525</v>
       </c>
       <c r="J279" t="s">
         <v>2009</v>
@@ -15931,7 +16081,7 @@
         <v>1881</v>
       </c>
       <c r="G280" t="s">
-        <v>2330</v>
+        <v>2292</v>
       </c>
       <c r="K280" t="s">
         <v>2009</v>
@@ -15951,7 +16101,7 @@
         <v>1097</v>
       </c>
       <c r="D281" t="s">
-        <v>2331</v>
+        <v>2293</v>
       </c>
       <c r="E281" t="s">
         <v>1487</v>
@@ -15960,7 +16110,7 @@
         <v>1882</v>
       </c>
       <c r="G281" t="s">
-        <v>2332</v>
+        <v>2294</v>
       </c>
       <c r="K281" t="s">
         <v>2009</v>
@@ -15980,7 +16130,7 @@
         <v>1098</v>
       </c>
       <c r="D282" t="s">
-        <v>2334</v>
+        <v>2296</v>
       </c>
       <c r="E282" t="s">
         <v>1488</v>
@@ -16006,7 +16156,7 @@
         <v>1099</v>
       </c>
       <c r="D283" t="s">
-        <v>2335</v>
+        <v>2297</v>
       </c>
       <c r="E283" t="s">
         <v>1489</v>
@@ -16032,7 +16182,7 @@
         <v>1100</v>
       </c>
       <c r="D284" t="s">
-        <v>2336</v>
+        <v>2298</v>
       </c>
       <c r="E284" t="s">
         <v>1490</v>
@@ -16041,7 +16191,7 @@
         <v>1885</v>
       </c>
       <c r="G284" t="s">
-        <v>2337</v>
+        <v>2299</v>
       </c>
       <c r="J284" t="s">
         <v>2009</v>
@@ -16061,7 +16211,7 @@
         <v>1101</v>
       </c>
       <c r="D285" t="s">
-        <v>2338</v>
+        <v>2300</v>
       </c>
       <c r="E285" t="s">
         <v>1491</v>
@@ -16070,7 +16220,7 @@
         <v>1886</v>
       </c>
       <c r="G285" t="s">
-        <v>2339</v>
+        <v>2301</v>
       </c>
       <c r="H285" t="s">
         <v>2009</v>
@@ -16093,7 +16243,7 @@
         <v>1102</v>
       </c>
       <c r="D286" t="s">
-        <v>2341</v>
+        <v>2303</v>
       </c>
       <c r="E286" t="s">
         <v>1492</v>
@@ -16142,7 +16292,7 @@
         <v>1104</v>
       </c>
       <c r="D288" t="s">
-        <v>2342</v>
+        <v>2304</v>
       </c>
       <c r="E288" t="s">
         <v>1494</v>
@@ -16151,7 +16301,7 @@
         <v>1889</v>
       </c>
       <c r="G288" t="s">
-        <v>2333</v>
+        <v>2295</v>
       </c>
       <c r="K288" t="s">
         <v>2009</v>
@@ -16171,7 +16321,7 @@
         <v>1105</v>
       </c>
       <c r="D289" t="s">
-        <v>2343</v>
+        <v>2305</v>
       </c>
       <c r="E289" t="s">
         <v>1495</v>
@@ -16180,7 +16330,7 @@
         <v>1890</v>
       </c>
       <c r="G289" t="s">
-        <v>2344</v>
+        <v>2306</v>
       </c>
       <c r="I289" t="s">
         <v>2009</v>
@@ -16209,7 +16359,7 @@
         <v>1891</v>
       </c>
       <c r="G290" t="s">
-        <v>2345</v>
+        <v>2307</v>
       </c>
       <c r="K290" t="s">
         <v>2009</v>
@@ -16229,7 +16379,7 @@
         <v>1107</v>
       </c>
       <c r="D291" t="s">
-        <v>2346</v>
+        <v>2308</v>
       </c>
       <c r="E291" t="s">
         <v>1497</v>
@@ -16255,7 +16405,7 @@
         <v>1108</v>
       </c>
       <c r="D292" t="s">
-        <v>2347</v>
+        <v>2309</v>
       </c>
       <c r="E292" t="s">
         <v>1498</v>
@@ -16264,7 +16414,7 @@
         <v>1893</v>
       </c>
       <c r="G292" t="s">
-        <v>2348</v>
+        <v>2310</v>
       </c>
       <c r="K292" t="s">
         <v>2009</v>
@@ -16284,7 +16434,7 @@
         <v>1109</v>
       </c>
       <c r="D293" t="s">
-        <v>2350</v>
+        <v>2312</v>
       </c>
       <c r="E293" t="s">
         <v>1499</v>
@@ -16310,7 +16460,7 @@
         <v>1110</v>
       </c>
       <c r="D294" t="s">
-        <v>2351</v>
+        <v>2313</v>
       </c>
       <c r="E294" t="s">
         <v>1500</v>
@@ -16319,7 +16469,7 @@
         <v>1895</v>
       </c>
       <c r="G294" t="s">
-        <v>2352</v>
+        <v>2314</v>
       </c>
       <c r="H294" t="s">
         <v>2009</v>
@@ -16342,7 +16492,7 @@
         <v>1111</v>
       </c>
       <c r="D295" t="s">
-        <v>2353</v>
+        <v>2315</v>
       </c>
       <c r="E295" t="s">
         <v>1501</v>
@@ -16351,7 +16501,7 @@
         <v>1896</v>
       </c>
       <c r="G295" t="s">
-        <v>2354</v>
+        <v>2316</v>
       </c>
       <c r="I295" t="s">
         <v>2009</v>
@@ -16383,7 +16533,7 @@
         <v>1897</v>
       </c>
       <c r="G296" t="s">
-        <v>2349</v>
+        <v>2311</v>
       </c>
       <c r="K296" t="s">
         <v>2009</v>
@@ -16412,7 +16562,7 @@
         <v>1898</v>
       </c>
       <c r="G297" t="s">
-        <v>2355</v>
+        <v>2317</v>
       </c>
       <c r="K297" t="s">
         <v>2009</v>
@@ -16441,7 +16591,7 @@
         <v>1899</v>
       </c>
       <c r="G298" t="s">
-        <v>2356</v>
+        <v>2318</v>
       </c>
       <c r="K298" t="s">
         <v>2009</v>
@@ -16459,7 +16609,7 @@
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s">
-        <v>2357</v>
+        <v>2319</v>
       </c>
       <c r="E299" t="s">
         <v>1505</v>
@@ -16468,7 +16618,7 @@
         <v>1900</v>
       </c>
       <c r="G299" t="s">
-        <v>2358</v>
+        <v>2320</v>
       </c>
       <c r="J299" t="s">
         <v>2009</v>
@@ -16488,7 +16638,7 @@
         <v>1115</v>
       </c>
       <c r="D300" t="s">
-        <v>2359</v>
+        <v>2321</v>
       </c>
       <c r="E300" t="s">
         <v>1506</v>
@@ -16497,7 +16647,7 @@
         <v>1901</v>
       </c>
       <c r="G300" t="s">
-        <v>2360</v>
+        <v>2322</v>
       </c>
       <c r="I300" t="s">
         <v>2009</v>
@@ -16518,13 +16668,13 @@
       </c>
       <c r="C301" s="2"/>
       <c r="D301" t="s">
-        <v>2361</v>
+        <v>2323</v>
       </c>
       <c r="E301" t="s">
         <v>1356</v>
       </c>
       <c r="G301" t="s">
-        <v>2362</v>
+        <v>2324</v>
       </c>
       <c r="J301" t="s">
         <v>2009</v>
@@ -16544,7 +16694,7 @@
         <v>1116</v>
       </c>
       <c r="D302" t="s">
-        <v>2363</v>
+        <v>2325</v>
       </c>
       <c r="E302" t="s">
         <v>1507</v>
@@ -16553,7 +16703,7 @@
         <v>1902</v>
       </c>
       <c r="G302" t="s">
-        <v>2364</v>
+        <v>2326</v>
       </c>
       <c r="H302" t="s">
         <v>2009</v>
@@ -16585,7 +16735,7 @@
         <v>1903</v>
       </c>
       <c r="G303" t="s">
-        <v>2365</v>
+        <v>2327</v>
       </c>
       <c r="K303" t="s">
         <v>2009</v>
@@ -16631,7 +16781,7 @@
         <v>1119</v>
       </c>
       <c r="D305" t="s">
-        <v>2366</v>
+        <v>2526</v>
       </c>
       <c r="E305" t="s">
         <v>1510</v>
@@ -16663,7 +16813,7 @@
         <v>1120</v>
       </c>
       <c r="D306" t="s">
-        <v>2367</v>
+        <v>2328</v>
       </c>
       <c r="E306" t="s">
         <v>1511</v>
@@ -16672,7 +16822,7 @@
         <v>1906</v>
       </c>
       <c r="G306" t="s">
-        <v>2368</v>
+        <v>2329</v>
       </c>
       <c r="K306" t="s">
         <v>2009</v>
@@ -16692,7 +16842,7 @@
         <v>1121</v>
       </c>
       <c r="D307" t="s">
-        <v>2369</v>
+        <v>2330</v>
       </c>
       <c r="E307" t="s">
         <v>1512</v>
@@ -16701,7 +16851,7 @@
         <v>1907</v>
       </c>
       <c r="G307" t="s">
-        <v>2370</v>
+        <v>2331</v>
       </c>
       <c r="K307" t="s">
         <v>2009</v>
@@ -16730,7 +16880,7 @@
         <v>1908</v>
       </c>
       <c r="G308" t="s">
-        <v>2371</v>
+        <v>2332</v>
       </c>
       <c r="K308" t="s">
         <v>2009</v>
@@ -16748,7 +16898,7 @@
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s">
-        <v>2373</v>
+        <v>2334</v>
       </c>
       <c r="E309" t="s">
         <v>1514</v>
@@ -16757,7 +16907,7 @@
         <v>1909</v>
       </c>
       <c r="G309" t="s">
-        <v>2372</v>
+        <v>2333</v>
       </c>
       <c r="I309" t="s">
         <v>2009</v>
@@ -16815,7 +16965,7 @@
         <v>1911</v>
       </c>
       <c r="G311" t="s">
-        <v>2374</v>
+        <v>2335</v>
       </c>
       <c r="K311" t="s">
         <v>2009</v>
@@ -16835,7 +16985,7 @@
         <v>1125</v>
       </c>
       <c r="D312" t="s">
-        <v>2375</v>
+        <v>2336</v>
       </c>
       <c r="E312" t="s">
         <v>1517</v>
@@ -16844,7 +16994,7 @@
         <v>1912</v>
       </c>
       <c r="G312" t="s">
-        <v>2376</v>
+        <v>2337</v>
       </c>
       <c r="K312" t="s">
         <v>2009</v>
@@ -16890,7 +17040,7 @@
         <v>1127</v>
       </c>
       <c r="D314" t="s">
-        <v>2377</v>
+        <v>2338</v>
       </c>
       <c r="E314" t="s">
         <v>1519</v>
@@ -16899,7 +17049,7 @@
         <v>1914</v>
       </c>
       <c r="G314" t="s">
-        <v>2505</v>
+        <v>2457</v>
       </c>
       <c r="H314" t="s">
         <v>2009</v>
@@ -16945,7 +17095,7 @@
         <v>1129</v>
       </c>
       <c r="D316" t="s">
-        <v>2378</v>
+        <v>2339</v>
       </c>
       <c r="E316" t="s">
         <v>1521</v>
@@ -16954,7 +17104,7 @@
         <v>1916</v>
       </c>
       <c r="G316" t="s">
-        <v>2379</v>
+        <v>2340</v>
       </c>
       <c r="H316" t="s">
         <v>2009</v>
@@ -16980,7 +17130,7 @@
         <v>1130</v>
       </c>
       <c r="D317" t="s">
-        <v>2380</v>
+        <v>2341</v>
       </c>
       <c r="E317" t="s">
         <v>1522</v>
@@ -16989,7 +17139,7 @@
         <v>1917</v>
       </c>
       <c r="G317" t="s">
-        <v>2381</v>
+        <v>2342</v>
       </c>
       <c r="K317" t="s">
         <v>2009</v>
@@ -17035,7 +17185,7 @@
         <v>1132</v>
       </c>
       <c r="D319" t="s">
-        <v>2382</v>
+        <v>2343</v>
       </c>
       <c r="E319" t="s">
         <v>1524</v>
@@ -17044,7 +17194,7 @@
         <v>1919</v>
       </c>
       <c r="G319" t="s">
-        <v>2383</v>
+        <v>2344</v>
       </c>
       <c r="H319" t="s">
         <v>2009</v>
@@ -17067,7 +17217,7 @@
         <v>1133</v>
       </c>
       <c r="D320" t="s">
-        <v>2384</v>
+        <v>2527</v>
       </c>
       <c r="E320" t="s">
         <v>1525</v>
@@ -17076,7 +17226,7 @@
         <v>1920</v>
       </c>
       <c r="G320" t="s">
-        <v>2385</v>
+        <v>2528</v>
       </c>
       <c r="K320" t="s">
         <v>2009</v>
@@ -17096,7 +17246,7 @@
         <v>1134</v>
       </c>
       <c r="D321" t="s">
-        <v>2386</v>
+        <v>2345</v>
       </c>
       <c r="E321" t="s">
         <v>1526</v>
@@ -17122,7 +17272,7 @@
         <v>1135</v>
       </c>
       <c r="D322" t="s">
-        <v>2387</v>
+        <v>2346</v>
       </c>
       <c r="E322" t="s">
         <v>1527</v>
@@ -17146,7 +17296,7 @@
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s">
-        <v>2388</v>
+        <v>2347</v>
       </c>
       <c r="E323" t="s">
         <v>1528</v>
@@ -17155,7 +17305,7 @@
         <v>1923</v>
       </c>
       <c r="G323" t="s">
-        <v>2389</v>
+        <v>2348</v>
       </c>
       <c r="I323" t="s">
         <v>2009</v>
@@ -17178,7 +17328,7 @@
         <v>1136</v>
       </c>
       <c r="D324" t="s">
-        <v>2390</v>
+        <v>2529</v>
       </c>
       <c r="E324" t="s">
         <v>1529</v>
@@ -17187,9 +17337,9 @@
         <v>1924</v>
       </c>
       <c r="G324" t="s">
-        <v>2391</v>
-      </c>
-      <c r="J324" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H324" t="s">
         <v>2009</v>
       </c>
       <c r="M324" t="s">
@@ -17207,7 +17357,7 @@
         <v>1137</v>
       </c>
       <c r="D325" t="s">
-        <v>2392</v>
+        <v>2350</v>
       </c>
       <c r="E325" t="s">
         <v>1530</v>
@@ -17216,7 +17366,7 @@
         <v>1925</v>
       </c>
       <c r="G325" t="s">
-        <v>2393</v>
+        <v>2351</v>
       </c>
       <c r="K325" t="s">
         <v>2009</v>
@@ -17262,7 +17412,7 @@
         <v>983</v>
       </c>
       <c r="D327" t="s">
-        <v>2176</v>
+        <v>2155</v>
       </c>
       <c r="E327" t="s">
         <v>1532</v>
@@ -17271,7 +17421,7 @@
         <v>1762</v>
       </c>
       <c r="G327" t="s">
-        <v>2394</v>
+        <v>2352</v>
       </c>
       <c r="J327" t="s">
         <v>2009</v>
@@ -17294,7 +17444,7 @@
         <v>1139</v>
       </c>
       <c r="D328" t="s">
-        <v>2395</v>
+        <v>2353</v>
       </c>
       <c r="E328" t="s">
         <v>1533</v>
@@ -17303,7 +17453,7 @@
         <v>1927</v>
       </c>
       <c r="G328" t="s">
-        <v>2396</v>
+        <v>2354</v>
       </c>
       <c r="K328" t="s">
         <v>2009</v>
@@ -17332,7 +17482,7 @@
         <v>1928</v>
       </c>
       <c r="G329" t="s">
-        <v>2397</v>
+        <v>2355</v>
       </c>
       <c r="K329" t="s">
         <v>2009</v>
@@ -17352,7 +17502,7 @@
         <v>1141</v>
       </c>
       <c r="D330" t="s">
-        <v>2398</v>
+        <v>2356</v>
       </c>
       <c r="E330" t="s">
         <v>1535</v>
@@ -17378,7 +17528,7 @@
         <v>1020</v>
       </c>
       <c r="D331" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E331" t="s">
         <v>1230</v>
@@ -17387,7 +17537,7 @@
         <v>1799</v>
       </c>
       <c r="G331" t="s">
-        <v>2217</v>
+        <v>2195</v>
       </c>
       <c r="H331" t="s">
         <v>2009</v>
@@ -17410,7 +17560,7 @@
         <v>1142</v>
       </c>
       <c r="D332" t="s">
-        <v>2400</v>
+        <v>2530</v>
       </c>
       <c r="E332" t="s">
         <v>1536</v>
@@ -17419,9 +17569,12 @@
         <v>1930</v>
       </c>
       <c r="G332" t="s">
-        <v>2399</v>
+        <v>2357</v>
       </c>
       <c r="H332" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M332" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -17436,7 +17589,7 @@
         <v>1143</v>
       </c>
       <c r="D333" t="s">
-        <v>2401</v>
+        <v>2358</v>
       </c>
       <c r="E333" t="s">
         <v>1537</v>
@@ -17491,7 +17644,7 @@
         <v>1145</v>
       </c>
       <c r="D335" t="s">
-        <v>2402</v>
+        <v>2531</v>
       </c>
       <c r="E335" t="s">
         <v>1539</v>
@@ -17500,7 +17653,7 @@
         <v>1933</v>
       </c>
       <c r="G335" t="s">
-        <v>2506</v>
+        <v>2458</v>
       </c>
       <c r="H335" t="s">
         <v>2009</v>
@@ -17509,6 +17662,9 @@
         <v>2009</v>
       </c>
       <c r="L335" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M335" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -17521,7 +17677,7 @@
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s">
-        <v>2403</v>
+        <v>2359</v>
       </c>
       <c r="E336" t="s">
         <v>1540</v>
@@ -17530,7 +17686,7 @@
         <v>1934</v>
       </c>
       <c r="G336" t="s">
-        <v>2404</v>
+        <v>2360</v>
       </c>
       <c r="I336" t="s">
         <v>2009</v>
@@ -17551,7 +17707,7 @@
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s">
-        <v>2406</v>
+        <v>2362</v>
       </c>
       <c r="E337" t="s">
         <v>1541</v>
@@ -17560,7 +17716,7 @@
         <v>1935</v>
       </c>
       <c r="G337" t="s">
-        <v>2405</v>
+        <v>2361</v>
       </c>
       <c r="J337" t="s">
         <v>2009</v>
@@ -17580,7 +17736,7 @@
         <v>1146</v>
       </c>
       <c r="D338" t="s">
-        <v>2407</v>
+        <v>2363</v>
       </c>
       <c r="E338" t="s">
         <v>1542</v>
@@ -17589,7 +17745,7 @@
         <v>1936</v>
       </c>
       <c r="G338" t="s">
-        <v>2408</v>
+        <v>2364</v>
       </c>
       <c r="K338" t="s">
         <v>2009</v>
@@ -17609,7 +17765,7 @@
         <v>1147</v>
       </c>
       <c r="D339" t="s">
-        <v>2409</v>
+        <v>2365</v>
       </c>
       <c r="E339" t="s">
         <v>1543</v>
@@ -17618,7 +17774,7 @@
         <v>1937</v>
       </c>
       <c r="G339" t="s">
-        <v>2410</v>
+        <v>2366</v>
       </c>
       <c r="K339" t="s">
         <v>2009</v>
@@ -17639,7 +17795,7 @@
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s">
-        <v>2411</v>
+        <v>2532</v>
       </c>
       <c r="E340" t="s">
         <v>1544</v>
@@ -17648,7 +17804,7 @@
         <v>1938</v>
       </c>
       <c r="G340" t="s">
-        <v>2412</v>
+        <v>2367</v>
       </c>
       <c r="J340" t="s">
         <v>2009</v>
@@ -17668,7 +17824,7 @@
         <v>1148</v>
       </c>
       <c r="D341" t="s">
-        <v>2413</v>
+        <v>2368</v>
       </c>
       <c r="E341" t="s">
         <v>1545</v>
@@ -17677,7 +17833,7 @@
         <v>1939</v>
       </c>
       <c r="G341" t="s">
-        <v>2414</v>
+        <v>2369</v>
       </c>
       <c r="K341" t="s">
         <v>2009</v>
@@ -17700,7 +17856,7 @@
         <v>1149</v>
       </c>
       <c r="D342" t="s">
-        <v>2415</v>
+        <v>2370</v>
       </c>
       <c r="E342" t="s">
         <v>1546</v>
@@ -17709,7 +17865,7 @@
         <v>1940</v>
       </c>
       <c r="G342" t="s">
-        <v>2416</v>
+        <v>2371</v>
       </c>
       <c r="I342" t="s">
         <v>2009</v>
@@ -17732,7 +17888,7 @@
         <v>1150</v>
       </c>
       <c r="D343" t="s">
-        <v>2417</v>
+        <v>2372</v>
       </c>
       <c r="E343" t="s">
         <v>1547</v>
@@ -17741,7 +17897,7 @@
         <v>1941</v>
       </c>
       <c r="G343" t="s">
-        <v>2418</v>
+        <v>2373</v>
       </c>
       <c r="K343" t="s">
         <v>2009</v>
@@ -17785,7 +17941,7 @@
       </c>
       <c r="C345" s="2"/>
       <c r="D345" t="s">
-        <v>2420</v>
+        <v>2375</v>
       </c>
       <c r="E345" t="s">
         <v>1549</v>
@@ -17794,7 +17950,7 @@
         <v>1943</v>
       </c>
       <c r="G345" t="s">
-        <v>2419</v>
+        <v>2374</v>
       </c>
       <c r="J345" t="s">
         <v>2009</v>
@@ -17814,7 +17970,7 @@
         <v>1152</v>
       </c>
       <c r="D346" t="s">
-        <v>2421</v>
+        <v>2376</v>
       </c>
       <c r="E346" t="s">
         <v>1550</v>
@@ -17823,7 +17979,7 @@
         <v>1944</v>
       </c>
       <c r="G346" t="s">
-        <v>2422</v>
+        <v>2377</v>
       </c>
       <c r="H346" t="s">
         <v>2009</v>
@@ -17844,7 +18000,7 @@
       </c>
       <c r="C347" s="2"/>
       <c r="D347" t="s">
-        <v>2423</v>
+        <v>2378</v>
       </c>
       <c r="E347" t="s">
         <v>1551</v>
@@ -17853,7 +18009,7 @@
         <v>1945</v>
       </c>
       <c r="G347" t="s">
-        <v>2424</v>
+        <v>2379</v>
       </c>
       <c r="J347" t="s">
         <v>2009</v>
@@ -17873,7 +18029,7 @@
         <v>1153</v>
       </c>
       <c r="D348" t="s">
-        <v>2425</v>
+        <v>2380</v>
       </c>
       <c r="E348" t="s">
         <v>1552</v>
@@ -17882,7 +18038,7 @@
         <v>1946</v>
       </c>
       <c r="G348" t="s">
-        <v>2426</v>
+        <v>2381</v>
       </c>
       <c r="I348" t="s">
         <v>2009</v>
@@ -17928,7 +18084,7 @@
         <v>1155</v>
       </c>
       <c r="D350" t="s">
-        <v>2427</v>
+        <v>2382</v>
       </c>
       <c r="E350" t="s">
         <v>1554</v>
@@ -17954,7 +18110,7 @@
         <v>1156</v>
       </c>
       <c r="D351" t="s">
-        <v>2428</v>
+        <v>2383</v>
       </c>
       <c r="E351" t="s">
         <v>1555</v>
@@ -18009,7 +18165,7 @@
         <v>1158</v>
       </c>
       <c r="D353" t="s">
-        <v>2429</v>
+        <v>2384</v>
       </c>
       <c r="E353" t="s">
         <v>1557</v>
@@ -18018,7 +18174,7 @@
         <v>1951</v>
       </c>
       <c r="G353" t="s">
-        <v>2430</v>
+        <v>2385</v>
       </c>
       <c r="J353" t="s">
         <v>2009</v>
@@ -18038,7 +18194,7 @@
         <v>1159</v>
       </c>
       <c r="D354" t="s">
-        <v>2431</v>
+        <v>2386</v>
       </c>
       <c r="E354" t="s">
         <v>1558</v>
@@ -18062,7 +18218,7 @@
       </c>
       <c r="C355" s="2"/>
       <c r="D355" t="s">
-        <v>2432</v>
+        <v>2387</v>
       </c>
       <c r="E355" t="s">
         <v>1559</v>
@@ -18071,7 +18227,7 @@
         <v>1953</v>
       </c>
       <c r="G355" t="s">
-        <v>2433</v>
+        <v>2388</v>
       </c>
       <c r="I355" t="s">
         <v>2009</v>
@@ -18092,7 +18248,7 @@
       </c>
       <c r="C356" s="2"/>
       <c r="D356" t="s">
-        <v>2434</v>
+        <v>2389</v>
       </c>
       <c r="E356" t="s">
         <v>1560</v>
@@ -18101,7 +18257,7 @@
         <v>1954</v>
       </c>
       <c r="G356" t="s">
-        <v>2435</v>
+        <v>2390</v>
       </c>
       <c r="J356" t="s">
         <v>2009</v>
@@ -18173,7 +18329,7 @@
         <v>1162</v>
       </c>
       <c r="D359" t="s">
-        <v>2436</v>
+        <v>2391</v>
       </c>
       <c r="E359" t="s">
         <v>1563</v>
@@ -18199,7 +18355,7 @@
         <v>1163</v>
       </c>
       <c r="D360" t="s">
-        <v>2437</v>
+        <v>2392</v>
       </c>
       <c r="E360" t="s">
         <v>1564</v>
@@ -18208,7 +18364,7 @@
         <v>1958</v>
       </c>
       <c r="G360" t="s">
-        <v>2438</v>
+        <v>2393</v>
       </c>
       <c r="H360" t="s">
         <v>2009</v>
@@ -18228,7 +18384,7 @@
         <v>1164</v>
       </c>
       <c r="D361" t="s">
-        <v>2439</v>
+        <v>2394</v>
       </c>
       <c r="E361" t="s">
         <v>1565</v>
@@ -18237,7 +18393,7 @@
         <v>1959</v>
       </c>
       <c r="G361" t="s">
-        <v>2440</v>
+        <v>2395</v>
       </c>
       <c r="I361" t="s">
         <v>2009</v>
@@ -18257,7 +18413,7 @@
         <v>1165</v>
       </c>
       <c r="D362" t="s">
-        <v>2441</v>
+        <v>2396</v>
       </c>
       <c r="E362" t="s">
         <v>1566</v>
@@ -18266,7 +18422,7 @@
         <v>1960</v>
       </c>
       <c r="G362" t="s">
-        <v>2442</v>
+        <v>2397</v>
       </c>
       <c r="K362" t="s">
         <v>2009</v>
@@ -18289,7 +18445,7 @@
         <v>1166</v>
       </c>
       <c r="D363" t="s">
-        <v>2443</v>
+        <v>2398</v>
       </c>
       <c r="E363" t="s">
         <v>1567</v>
@@ -18315,7 +18471,7 @@
         <v>1167</v>
       </c>
       <c r="D364" t="s">
-        <v>2444</v>
+        <v>2399</v>
       </c>
       <c r="E364" t="s">
         <v>1568</v>
@@ -18324,7 +18480,7 @@
         <v>1962</v>
       </c>
       <c r="G364" t="s">
-        <v>2445</v>
+        <v>2400</v>
       </c>
       <c r="H364" t="s">
         <v>2009</v>
@@ -18370,7 +18526,7 @@
         <v>1169</v>
       </c>
       <c r="D366" t="s">
-        <v>2446</v>
+        <v>2401</v>
       </c>
       <c r="E366" t="s">
         <v>1570</v>
@@ -18396,7 +18552,7 @@
         <v>1170</v>
       </c>
       <c r="D367" t="s">
-        <v>2447</v>
+        <v>2402</v>
       </c>
       <c r="E367" t="s">
         <v>1571</v>
@@ -18448,7 +18604,7 @@
         <v>1172</v>
       </c>
       <c r="D369" t="s">
-        <v>2507</v>
+        <v>2459</v>
       </c>
       <c r="E369" t="s">
         <v>1573</v>
@@ -18457,7 +18613,7 @@
         <v>1967</v>
       </c>
       <c r="G369" t="s">
-        <v>2508</v>
+        <v>2460</v>
       </c>
       <c r="K369" t="s">
         <v>2009</v>
@@ -18480,7 +18636,7 @@
         <v>1173</v>
       </c>
       <c r="D370" t="s">
-        <v>2448</v>
+        <v>2403</v>
       </c>
       <c r="E370" t="s">
         <v>1574</v>
@@ -18489,7 +18645,7 @@
         <v>1968</v>
       </c>
       <c r="G370" t="s">
-        <v>2449</v>
+        <v>2404</v>
       </c>
       <c r="I370" t="s">
         <v>2009</v>
@@ -18512,7 +18668,7 @@
         <v>1174</v>
       </c>
       <c r="D371" t="s">
-        <v>2450</v>
+        <v>2533</v>
       </c>
       <c r="E371" t="s">
         <v>1575</v>
@@ -18625,7 +18781,7 @@
         <v>1973</v>
       </c>
       <c r="G375" t="s">
-        <v>2451</v>
+        <v>2405</v>
       </c>
       <c r="K375" t="s">
         <v>2009</v>
@@ -18723,7 +18879,7 @@
         <v>1182</v>
       </c>
       <c r="D379" t="s">
-        <v>2452</v>
+        <v>2406</v>
       </c>
       <c r="E379" t="s">
         <v>1583</v>
@@ -18732,7 +18888,7 @@
         <v>1977</v>
       </c>
       <c r="G379" t="s">
-        <v>2509</v>
+        <v>2461</v>
       </c>
       <c r="K379" t="s">
         <v>2009</v>
@@ -18752,7 +18908,7 @@
         <v>1183</v>
       </c>
       <c r="D380" t="s">
-        <v>2453</v>
+        <v>2407</v>
       </c>
       <c r="E380" t="s">
         <v>1584</v>
@@ -18761,7 +18917,7 @@
         <v>1978</v>
       </c>
       <c r="G380" t="s">
-        <v>2454</v>
+        <v>2408</v>
       </c>
       <c r="K380" t="s">
         <v>2009</v>
@@ -18790,7 +18946,7 @@
         <v>1979</v>
       </c>
       <c r="G381" t="s">
-        <v>2455</v>
+        <v>2409</v>
       </c>
       <c r="K381" t="s">
         <v>2009</v>
@@ -18810,7 +18966,7 @@
         <v>1185</v>
       </c>
       <c r="D382" t="s">
-        <v>2456</v>
+        <v>2410</v>
       </c>
       <c r="E382" t="s">
         <v>1586</v>
@@ -18819,7 +18975,7 @@
         <v>1980</v>
       </c>
       <c r="G382" t="s">
-        <v>2457</v>
+        <v>2411</v>
       </c>
       <c r="H382" t="s">
         <v>2009</v>
@@ -18839,7 +18995,7 @@
         <v>1186</v>
       </c>
       <c r="D383" t="s">
-        <v>2458</v>
+        <v>2412</v>
       </c>
       <c r="E383" t="s">
         <v>1587</v>
@@ -18865,7 +19021,7 @@
         <v>1187</v>
       </c>
       <c r="D384" t="s">
-        <v>2459</v>
+        <v>2413</v>
       </c>
       <c r="E384" t="s">
         <v>1588</v>
@@ -18874,7 +19030,7 @@
         <v>1982</v>
       </c>
       <c r="G384" t="s">
-        <v>2460</v>
+        <v>2414</v>
       </c>
       <c r="J384" t="s">
         <v>2009</v>
@@ -18900,7 +19056,7 @@
         <v>1188</v>
       </c>
       <c r="D385" t="s">
-        <v>2461</v>
+        <v>2415</v>
       </c>
       <c r="E385" t="s">
         <v>1589</v>
@@ -18909,7 +19065,7 @@
         <v>1983</v>
       </c>
       <c r="G385" t="s">
-        <v>2462</v>
+        <v>2416</v>
       </c>
       <c r="K385" t="s">
         <v>2009</v>
@@ -18981,7 +19137,7 @@
         <v>1191</v>
       </c>
       <c r="D388" t="s">
-        <v>2463</v>
+        <v>2417</v>
       </c>
       <c r="E388" t="s">
         <v>1592</v>
@@ -19007,7 +19163,7 @@
         <v>1192</v>
       </c>
       <c r="D389" t="s">
-        <v>2464</v>
+        <v>2418</v>
       </c>
       <c r="E389" t="s">
         <v>1593</v>
@@ -19016,7 +19172,7 @@
         <v>1987</v>
       </c>
       <c r="G389" t="s">
-        <v>2465</v>
+        <v>2419</v>
       </c>
       <c r="K389" t="s">
         <v>2009</v>
@@ -19036,7 +19192,7 @@
         <v>1193</v>
       </c>
       <c r="D390" t="s">
-        <v>2467</v>
+        <v>2421</v>
       </c>
       <c r="E390" t="s">
         <v>1594</v>
@@ -19045,7 +19201,7 @@
         <v>1988</v>
       </c>
       <c r="G390" t="s">
-        <v>2466</v>
+        <v>2420</v>
       </c>
       <c r="K390" t="s">
         <v>2009</v>
@@ -19074,7 +19230,7 @@
         <v>1989</v>
       </c>
       <c r="G391" t="s">
-        <v>2510</v>
+        <v>2462</v>
       </c>
       <c r="L391" t="s">
         <v>2009</v>
@@ -19091,7 +19247,7 @@
         <v>1195</v>
       </c>
       <c r="D392" t="s">
-        <v>2468</v>
+        <v>2422</v>
       </c>
       <c r="E392" t="s">
         <v>1596</v>
@@ -19117,7 +19273,7 @@
         <v>1196</v>
       </c>
       <c r="D393" t="s">
-        <v>2469</v>
+        <v>2423</v>
       </c>
       <c r="E393" t="s">
         <v>1597</v>
@@ -19126,7 +19282,7 @@
         <v>1991</v>
       </c>
       <c r="G393" t="s">
-        <v>2470</v>
+        <v>2424</v>
       </c>
       <c r="I393" t="s">
         <v>2009</v>
@@ -19155,7 +19311,7 @@
         <v>1992</v>
       </c>
       <c r="G394" t="s">
-        <v>2471</v>
+        <v>2425</v>
       </c>
       <c r="K394" t="s">
         <v>2009</v>
@@ -19210,7 +19366,7 @@
         <v>1994</v>
       </c>
       <c r="G396" t="s">
-        <v>2472</v>
+        <v>2426</v>
       </c>
       <c r="K396" t="s">
         <v>2009</v>
@@ -19228,7 +19384,7 @@
       </c>
       <c r="C397" s="2"/>
       <c r="D397" t="s">
-        <v>2473</v>
+        <v>2427</v>
       </c>
       <c r="E397" t="s">
         <v>1601</v>
@@ -19237,7 +19393,7 @@
         <v>1995</v>
       </c>
       <c r="G397" t="s">
-        <v>2474</v>
+        <v>2428</v>
       </c>
       <c r="J397" t="s">
         <v>2009</v>
@@ -19257,7 +19413,7 @@
         <v>1200</v>
       </c>
       <c r="D398" t="s">
-        <v>2475</v>
+        <v>2429</v>
       </c>
       <c r="E398" t="s">
         <v>1602</v>
@@ -19283,7 +19439,7 @@
         <v>1201</v>
       </c>
       <c r="D399" t="s">
-        <v>2476</v>
+        <v>2430</v>
       </c>
       <c r="E399" t="s">
         <v>1603</v>
@@ -19292,7 +19448,7 @@
         <v>1997</v>
       </c>
       <c r="G399" t="s">
-        <v>2477</v>
+        <v>2431</v>
       </c>
       <c r="K399" t="s">
         <v>2009</v>
@@ -19321,7 +19477,7 @@
         <v>1998</v>
       </c>
       <c r="G400" t="s">
-        <v>2478</v>
+        <v>2432</v>
       </c>
       <c r="K400" t="s">
         <v>2009</v>
@@ -19341,7 +19497,7 @@
         <v>1203</v>
       </c>
       <c r="D401" t="s">
-        <v>2479</v>
+        <v>2433</v>
       </c>
       <c r="E401" t="s">
         <v>1605</v>
@@ -19376,7 +19532,7 @@
         <v>2000</v>
       </c>
       <c r="G402" t="s">
-        <v>2480</v>
+        <v>2434</v>
       </c>
       <c r="K402" t="s">
         <v>2009</v>
@@ -19396,7 +19552,7 @@
         <v>1205</v>
       </c>
       <c r="D403" t="s">
-        <v>1205</v>
+        <v>2534</v>
       </c>
       <c r="E403" t="s">
         <v>1607</v>
@@ -19405,12 +19561,12 @@
         <v>2001</v>
       </c>
       <c r="G403" t="s">
-        <v>2481</v>
+        <v>2435</v>
       </c>
       <c r="K403" t="s">
         <v>2009</v>
       </c>
-      <c r="N403" t="s">
+      <c r="M403" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -19425,7 +19581,7 @@
         <v>1206</v>
       </c>
       <c r="D404" t="s">
-        <v>2482</v>
+        <v>2436</v>
       </c>
       <c r="E404" t="s">
         <v>1608</v>
@@ -19434,7 +19590,7 @@
         <v>2002</v>
       </c>
       <c r="G404" t="s">
-        <v>2483</v>
+        <v>2437</v>
       </c>
       <c r="K404" t="s">
         <v>2009</v>
@@ -19478,7 +19634,7 @@
       </c>
       <c r="C406" s="2"/>
       <c r="D406" t="s">
-        <v>2484</v>
+        <v>2438</v>
       </c>
       <c r="E406" t="s">
         <v>1610</v>
@@ -19487,7 +19643,7 @@
         <v>2004</v>
       </c>
       <c r="G406" t="s">
-        <v>2485</v>
+        <v>2439</v>
       </c>
       <c r="I406" t="s">
         <v>2009</v>
@@ -19510,7 +19666,7 @@
         <v>1208</v>
       </c>
       <c r="D407" t="s">
-        <v>2486</v>
+        <v>2440</v>
       </c>
       <c r="E407" t="s">
         <v>1611</v>
@@ -19536,7 +19692,7 @@
         <v>1209</v>
       </c>
       <c r="D408" t="s">
-        <v>2487</v>
+        <v>2441</v>
       </c>
       <c r="E408" t="s">
         <v>1612</v>
@@ -19560,7 +19716,7 @@
       </c>
       <c r="C409" s="2"/>
       <c r="D409" t="s">
-        <v>2489</v>
+        <v>2443</v>
       </c>
       <c r="E409" t="s">
         <v>1613</v>
@@ -19569,7 +19725,7 @@
         <v>2007</v>
       </c>
       <c r="G409" t="s">
-        <v>2488</v>
+        <v>2442</v>
       </c>
       <c r="J409" t="s">
         <v>2009</v>

--- a/Review files/qald9_train_set_review_table.xlsx
+++ b/Review files/qald9_train_set_review_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javi\Desktop\Work\QALD9ES\Repo\QALD9-ES\Review files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0693A8-5E9A-4403-AC72-BB902CEDA4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9E36F6-1B3C-4A43-9E54-73F16C12C918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="1980" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="2535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="2541">
   <si>
     <t>id</t>
   </si>
@@ -6115,12 +6115,6 @@
     <t>monarca, casado, alemán</t>
   </si>
   <si>
-    <t>¿Qué organizaciones fueron fundadas en 1950?</t>
-  </si>
-  <si>
-    <t>organizaciones, fundadas, 1950</t>
-  </si>
-  <si>
     <t>¿Qué astronautas participaron en la misión Apolo 14?</t>
   </si>
   <si>
@@ -6244,12 +6238,6 @@
     <t>Dame todos los astronautas del Apolo 14</t>
   </si>
   <si>
-    <t>¿Qué empresas tienen más de 1 millón de empleados?</t>
-  </si>
-  <si>
-    <t>empresas, más de un millón, empleados</t>
-  </si>
-  <si>
     <t>¿Dónde estudió el arquitecto de la torre Eiffel?</t>
   </si>
   <si>
@@ -6409,9 +6397,6 @@
     <t>películas, Clint Eastwood, actuadas, dirigidas</t>
   </si>
   <si>
-    <t>empresas, fundadas, California, desarrollar, productos de software</t>
-  </si>
-  <si>
     <t>¿Cuántas aerolíneas son miembros de Star Alliance?</t>
   </si>
   <si>
@@ -6475,12 +6460,6 @@
     <t>país, moneda, Franco CFA de África Occidental</t>
   </si>
   <si>
-    <t>¿Qué días festivos son celebrados en todo el mundo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">días festivos ,  celebrado ,  todo el mundo </t>
-  </si>
-  <si>
     <t>¿Qué organizaciones fueron fundadas en 1930?</t>
   </si>
   <si>
@@ -6499,12 +6478,6 @@
     <t>casados, Tom Cruise</t>
   </si>
   <si>
-    <t>¿Cuál es la ciudad más pequeña de Alemania según su área?</t>
-  </si>
-  <si>
-    <t>más pequeña ,  ciudad ,  Alemania, área</t>
-  </si>
-  <si>
     <t>¿Cuáles son los episodios de la primera temporada de la serie de HBO Los Sopranos?</t>
   </si>
   <si>
@@ -6514,9 +6487,6 @@
     <t>ICRO, significado</t>
   </si>
   <si>
-    <t>nueve serie, Battlestar-Galactica, más, episodios, anterior</t>
-  </si>
-  <si>
     <t>serie televisiva, HBO, Los Sopranos, primera temporada, episodios</t>
   </si>
   <si>
@@ -6748,9 +6718,6 @@
     <t>Unión Europea, población</t>
   </si>
   <si>
-    <t>¿Qué plataformas de lanzamiento son operadas  por la NASA?</t>
-  </si>
-  <si>
     <t>¿Quién desarrolló el videojuego World of Warcraft?</t>
   </si>
   <si>
@@ -6874,12 +6841,6 @@
     <t>¿James Bond está casado?</t>
   </si>
   <si>
-    <t>¿Qué empresa tiene más empleados en la India?</t>
-  </si>
-  <si>
-    <t>empresa India, más empleados</t>
-  </si>
-  <si>
     <t>¿Quién fue el vicepresidente de John F. Kennedy?</t>
   </si>
   <si>
@@ -6985,12 +6946,6 @@
     <t>altura, Faro de Colombo</t>
   </si>
   <si>
-    <t>¿Quiénes escribieron el álbum de Pink Floyd The Wall?</t>
-  </si>
-  <si>
-    <t>Pink Floyd, The Wall, escritores</t>
-  </si>
-  <si>
     <t>Australia, ciudad, más grande</t>
   </si>
   <si>
@@ -7042,9 +6997,6 @@
     <t xml:space="preserve">lugar de nacimiento,  Frank Sinatra </t>
   </si>
   <si>
-    <t>¿Dónde nació Frank Sinatra?</t>
-  </si>
-  <si>
     <t>hijo, Sonny, Cher</t>
   </si>
   <si>
@@ -7078,9 +7030,6 @@
     <t>¿Cuándo se completó el Titanic?</t>
   </si>
   <si>
-    <t>¿Ganó Tesla el premio nobel de física?</t>
-  </si>
-  <si>
     <t>¿Cuántos estados tiene México?</t>
   </si>
   <si>
@@ -7249,12 +7198,6 @@
     <t>¿Qué libros escritos por William Goldman tienen más de 300 páginas?</t>
   </si>
   <si>
-    <t>¿Existe una página web relacionada con el lugar de muerte de Abraham Lincoln?</t>
-  </si>
-  <si>
-    <t>Abraham Lincoln, lugar de muerte, página web</t>
-  </si>
-  <si>
     <t>autor, canción, Hotel California</t>
   </si>
   <si>
@@ -7405,9 +7348,6 @@
     <t>películas, productor, Steven Spielberg, presupuesto, al menos 80 millones de dólares</t>
   </si>
   <si>
-    <t>¿Cuál es el río mas largo en el mundo?</t>
-  </si>
-  <si>
     <t>Donald Trump, negocio, principal</t>
   </si>
   <si>
@@ -7417,12 +7357,6 @@
     <t>persona, inspiración, Vincent van Gogh</t>
   </si>
   <si>
-    <t>¿Qué subsidiario de Lufthansa opera en Dortmund y en Berlín?</t>
-  </si>
-  <si>
-    <t>subsidiario, Lufthansa, opera, Dortmund y Berlín</t>
-  </si>
-  <si>
     <t>libro, escribió, Muhammad Ali</t>
   </si>
   <si>
@@ -7543,9 +7477,6 @@
     <t>programas de televisión, creó, John Cleese</t>
   </si>
   <si>
-    <t>¿La nueve serie de Battlestar-Galactica tiene más episodios que la anterior?</t>
-  </si>
-  <si>
     <t>¿En qué estado de EE.UU. se encuentra Fort Knox?</t>
   </si>
   <si>
@@ -7643,6 +7574,93 @@
   </si>
   <si>
     <t>¿Cuál de las películas de Tim Burton tuvo el mayor presupuesto?</t>
+  </si>
+  <si>
+    <t>¿Qué plataformas de lanzamiento son controladas  por la NASA?</t>
+  </si>
+  <si>
+    <t>plataforma de lanzamiento, controlada por la NASA</t>
+  </si>
+  <si>
+    <t>¿Qué subsidiario de Lufthansa vuela a Dortmund y a Berlín?</t>
+  </si>
+  <si>
+    <t>subsidiario, Lufthansa, vuela, Dortmund y Berlín</t>
+  </si>
+  <si>
+    <t>¿Existe una página web relacionada con el lugar de deceso de Abraham Lincoln?</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln, lugar de deceso, página web</t>
+  </si>
+  <si>
+    <t>¿Qué organizaciones fueron establecidas en 1950?</t>
+  </si>
+  <si>
+    <t>organizaciones, establecidas, 1950</t>
+  </si>
+  <si>
+    <t>¿Qué productos de software han sido desarrollados por empresas originarias de California?</t>
+  </si>
+  <si>
+    <t>empresas, originarias, California, desarrollar, productos de software</t>
+  </si>
+  <si>
+    <t>¿La nueve serie de Battlestar-Galactica tiene más capítulos que la anterior?</t>
+  </si>
+  <si>
+    <t>nueve serie, Battlestar-Galactica, más, capítulos, anterior</t>
+  </si>
+  <si>
+    <t>¿Qué actores son originarios de Alemania?</t>
+  </si>
+  <si>
+    <t>Actores, origen, Alemania</t>
+  </si>
+  <si>
+    <t>¿Qué feriados son celebrados en todo el mundo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feriados ,  celebrado ,  todo el mundo </t>
+  </si>
+  <si>
+    <t>¿Qué empresas tienen más de 1 millón de trabajadores?</t>
+  </si>
+  <si>
+    <t>empresas, más de un millón, trabajadores</t>
+  </si>
+  <si>
+    <t>¿Qué empresa tiene más asalariados en la India?</t>
+  </si>
+  <si>
+    <t>empresa India, más asalariados</t>
+  </si>
+  <si>
+    <t>¿Cuál es la ciudad más pequeña de Alemania según su superficie?</t>
+  </si>
+  <si>
+    <t>más pequeña ,  ciudad ,  Alemania, superficie</t>
+  </si>
+  <si>
+    <t>¿Quiénes compusieron el álbum de Pink Floyd The Wall?</t>
+  </si>
+  <si>
+    <t>Pink Floyd, The Wall, compositores</t>
+  </si>
+  <si>
+    <t>¿Dónde es el lugar de nacimiento de Frank Sinatra?</t>
+  </si>
+  <si>
+    <t>¿Ganó alguna vez Tesla el premio nobel de física?</t>
+  </si>
+  <si>
+    <t>¿Cuándo inició la operación Overlord?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inició, operación Overlord </t>
+  </si>
+  <si>
+    <t>¿Cuál es el río más largo en el mundo?</t>
   </si>
 </sst>
 </file>
@@ -8068,10 +8086,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="N403" sqref="N403"/>
+      <selection pane="bottomLeft" activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8139,7 +8157,7 @@
         <v>830</v>
       </c>
       <c r="D2" t="s">
-        <v>2302</v>
+        <v>2289</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1210</v>
@@ -8208,7 +8226,7 @@
         <v>1616</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>2444</v>
+        <v>2425</v>
       </c>
       <c r="H4" t="s">
         <v>2009</v>
@@ -8458,7 +8476,7 @@
         <v>1625</v>
       </c>
       <c r="G13" t="s">
-        <v>2445</v>
+        <v>2426</v>
       </c>
       <c r="L13" t="s">
         <v>2009</v>
@@ -8501,7 +8519,7 @@
         <v>843</v>
       </c>
       <c r="D15" t="s">
-        <v>2463</v>
+        <v>2441</v>
       </c>
       <c r="E15" t="s">
         <v>1223</v>
@@ -8510,7 +8528,7 @@
         <v>1627</v>
       </c>
       <c r="G15" t="s">
-        <v>2464</v>
+        <v>2442</v>
       </c>
       <c r="K15" t="s">
         <v>2009</v>
@@ -8530,7 +8548,7 @@
         <v>844</v>
       </c>
       <c r="D16" t="s">
-        <v>2465</v>
+        <v>2443</v>
       </c>
       <c r="E16" t="s">
         <v>1224</v>
@@ -8623,7 +8641,7 @@
         <v>847</v>
       </c>
       <c r="D19" t="s">
-        <v>2025</v>
+        <v>2518</v>
       </c>
       <c r="E19" t="s">
         <v>1227</v>
@@ -8632,12 +8650,12 @@
         <v>1631</v>
       </c>
       <c r="G19" t="s">
-        <v>2026</v>
-      </c>
-      <c r="H19" t="s">
-        <v>2009</v>
+        <v>2519</v>
       </c>
       <c r="K19" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M19" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -8678,7 +8696,7 @@
         <v>849</v>
       </c>
       <c r="D21" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="E21" t="s">
         <v>1229</v>
@@ -8704,7 +8722,7 @@
         <v>850</v>
       </c>
       <c r="D22" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="E22" t="s">
         <v>1230</v>
@@ -8713,7 +8731,7 @@
         <v>1634</v>
       </c>
       <c r="G22" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="I22" t="s">
         <v>2009</v>
@@ -8736,16 +8754,16 @@
         <v>851</v>
       </c>
       <c r="D23" t="s">
-        <v>2466</v>
+        <v>2444</v>
       </c>
       <c r="E23" t="s">
         <v>1231</v>
       </c>
       <c r="F23" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G23" t="s">
-        <v>2467</v>
+        <v>2445</v>
       </c>
       <c r="H23" t="s">
         <v>2009</v>
@@ -8774,7 +8792,7 @@
         <v>852</v>
       </c>
       <c r="D24" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="E24" t="s">
         <v>1232</v>
@@ -8800,7 +8818,7 @@
         <v>853</v>
       </c>
       <c r="D25" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="E25" t="s">
         <v>1233</v>
@@ -8809,7 +8827,7 @@
         <v>1636</v>
       </c>
       <c r="G25" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="H25" t="s">
         <v>2009</v>
@@ -8829,7 +8847,7 @@
         <v>854</v>
       </c>
       <c r="D26" t="s">
-        <v>2468</v>
+        <v>2446</v>
       </c>
       <c r="E26" t="s">
         <v>1234</v>
@@ -8838,7 +8856,7 @@
         <v>1637</v>
       </c>
       <c r="G26" t="s">
-        <v>2469</v>
+        <v>2447</v>
       </c>
       <c r="J26" t="s">
         <v>2009</v>
@@ -8861,7 +8879,7 @@
         <v>855</v>
       </c>
       <c r="D27" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="E27" t="s">
         <v>1235</v>
@@ -8870,7 +8888,7 @@
         <v>1638</v>
       </c>
       <c r="G27" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="K27" t="s">
         <v>2009</v>
@@ -8916,7 +8934,7 @@
         <v>857</v>
       </c>
       <c r="D29" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="E29" t="s">
         <v>1237</v>
@@ -8948,10 +8966,10 @@
         <v>1238</v>
       </c>
       <c r="F30" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="G30" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="N30" t="s">
         <v>2009</v>
@@ -9020,7 +9038,7 @@
         <v>861</v>
       </c>
       <c r="D33" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="E33" t="s">
         <v>1241</v>
@@ -9029,7 +9047,7 @@
         <v>1643</v>
       </c>
       <c r="G33" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="K33" t="s">
         <v>2009</v>
@@ -9049,7 +9067,7 @@
         <v>862</v>
       </c>
       <c r="D34" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="E34" t="s">
         <v>1242</v>
@@ -9075,7 +9093,7 @@
         <v>863</v>
       </c>
       <c r="D35" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="E35" t="s">
         <v>1243</v>
@@ -9084,7 +9102,7 @@
         <v>1645</v>
       </c>
       <c r="G35" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="H35" t="s">
         <v>2009</v>
@@ -9104,7 +9122,7 @@
         <v>864</v>
       </c>
       <c r="D36" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="E36" t="s">
         <v>1244</v>
@@ -9113,7 +9131,7 @@
         <v>1646</v>
       </c>
       <c r="G36" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="K36" t="s">
         <v>2009</v>
@@ -9194,7 +9212,7 @@
         <v>1649</v>
       </c>
       <c r="G39" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="K39" t="s">
         <v>2009</v>
@@ -9214,7 +9232,7 @@
         <v>868</v>
       </c>
       <c r="D40" t="s">
-        <v>2470</v>
+        <v>2448</v>
       </c>
       <c r="E40" t="s">
         <v>1248</v>
@@ -9266,7 +9284,7 @@
         <v>870</v>
       </c>
       <c r="D42" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="E42" t="s">
         <v>1250</v>
@@ -9292,7 +9310,7 @@
         <v>871</v>
       </c>
       <c r="D43" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="E43" t="s">
         <v>1251</v>
@@ -9301,7 +9319,7 @@
         <v>1653</v>
       </c>
       <c r="G43" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="M43" t="s">
         <v>2009</v>
@@ -9327,7 +9345,7 @@
         <v>1654</v>
       </c>
       <c r="G44" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="K44" t="s">
         <v>2009</v>
@@ -9356,7 +9374,7 @@
         <v>1655</v>
       </c>
       <c r="G45" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="K45" t="s">
         <v>2009</v>
@@ -9376,13 +9394,13 @@
         <v>874</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="E46" t="s">
         <v>1254</v>
       </c>
       <c r="G46" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="I46" t="s">
         <v>2009</v>
@@ -9402,7 +9420,7 @@
         <v>875</v>
       </c>
       <c r="D47" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="E47" t="s">
         <v>1255</v>
@@ -9411,7 +9429,7 @@
         <v>1656</v>
       </c>
       <c r="G47" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="K47" t="s">
         <v>2009</v>
@@ -9434,7 +9452,7 @@
         <v>876</v>
       </c>
       <c r="D48" t="s">
-        <v>2471</v>
+        <v>2449</v>
       </c>
       <c r="E48" t="s">
         <v>1256</v>
@@ -9443,7 +9461,7 @@
         <v>1657</v>
       </c>
       <c r="G48" t="s">
-        <v>2472</v>
+        <v>2450</v>
       </c>
       <c r="H48" t="s">
         <v>2009</v>
@@ -9469,7 +9487,7 @@
         <v>877</v>
       </c>
       <c r="D49" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="E49" t="s">
         <v>1257</v>
@@ -9478,7 +9496,7 @@
         <v>1658</v>
       </c>
       <c r="G49" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="I49" t="s">
         <v>2009</v>
@@ -9582,7 +9600,7 @@
         <v>880</v>
       </c>
       <c r="D53" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="E53" t="s">
         <v>1261</v>
@@ -9591,7 +9609,7 @@
         <v>1661</v>
       </c>
       <c r="G53" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="K53" t="s">
         <v>2009</v>
@@ -9614,7 +9632,7 @@
         <v>881</v>
       </c>
       <c r="D54" t="s">
-        <v>2473</v>
+        <v>2451</v>
       </c>
       <c r="E54" t="s">
         <v>1262</v>
@@ -9623,7 +9641,7 @@
         <v>1662</v>
       </c>
       <c r="G54" t="s">
-        <v>2474</v>
+        <v>2452</v>
       </c>
       <c r="K54" t="s">
         <v>2009</v>
@@ -9643,7 +9661,7 @@
         <v>882</v>
       </c>
       <c r="D55" t="s">
-        <v>2446</v>
+        <v>2427</v>
       </c>
       <c r="E55" t="s">
         <v>1263</v>
@@ -9652,7 +9670,7 @@
         <v>1663</v>
       </c>
       <c r="G55" t="s">
-        <v>2447</v>
+        <v>2428</v>
       </c>
       <c r="H55" t="s">
         <v>2009</v>
@@ -9675,7 +9693,7 @@
         <v>883</v>
       </c>
       <c r="D56" t="s">
-        <v>2475</v>
+        <v>2453</v>
       </c>
       <c r="E56" t="s">
         <v>1264</v>
@@ -9684,7 +9702,7 @@
         <v>1664</v>
       </c>
       <c r="G56" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="K56" t="s">
         <v>2009</v>
@@ -9713,7 +9731,7 @@
         <v>1665</v>
       </c>
       <c r="G57" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="K57" t="s">
         <v>2009</v>
@@ -9756,7 +9774,7 @@
         <v>886</v>
       </c>
       <c r="D59" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="E59" t="s">
         <v>1267</v>
@@ -9765,7 +9783,7 @@
         <v>1667</v>
       </c>
       <c r="G59" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="K59" t="s">
         <v>2009</v>
@@ -9785,7 +9803,7 @@
         <v>887</v>
       </c>
       <c r="D60" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="E60" t="s">
         <v>1268</v>
@@ -9794,7 +9812,7 @@
         <v>1668</v>
       </c>
       <c r="G60" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="H60" t="s">
         <v>2009</v>
@@ -9840,7 +9858,7 @@
         <v>849</v>
       </c>
       <c r="D62" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="E62" t="s">
         <v>1229</v>
@@ -9866,7 +9884,7 @@
         <v>889</v>
       </c>
       <c r="D63" t="s">
-        <v>2068</v>
+        <v>2528</v>
       </c>
       <c r="E63" t="s">
         <v>1270</v>
@@ -9875,12 +9893,15 @@
         <v>1670</v>
       </c>
       <c r="G63" t="s">
-        <v>2069</v>
+        <v>2529</v>
       </c>
       <c r="K63" t="s">
         <v>2009</v>
       </c>
       <c r="L63" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M63" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -9921,7 +9942,7 @@
         <v>891</v>
       </c>
       <c r="D65" t="s">
-        <v>2476</v>
+        <v>2454</v>
       </c>
       <c r="E65" t="s">
         <v>1272</v>
@@ -9930,7 +9951,7 @@
         <v>1672</v>
       </c>
       <c r="G65" t="s">
-        <v>2477</v>
+        <v>2455</v>
       </c>
       <c r="K65" t="s">
         <v>2009</v>
@@ -9950,7 +9971,7 @@
         <v>892</v>
       </c>
       <c r="D66" t="s">
-        <v>2478</v>
+        <v>2456</v>
       </c>
       <c r="E66" t="s">
         <v>1273</v>
@@ -9959,7 +9980,7 @@
         <v>1673</v>
       </c>
       <c r="G66" t="s">
-        <v>2479</v>
+        <v>2457</v>
       </c>
       <c r="H66" t="s">
         <v>2009</v>
@@ -10008,7 +10029,7 @@
         <v>894</v>
       </c>
       <c r="D68" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="E68" t="s">
         <v>1275</v>
@@ -10017,7 +10038,7 @@
         <v>1675</v>
       </c>
       <c r="G68" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="K68" t="s">
         <v>2009</v>
@@ -10063,7 +10084,7 @@
         <v>896</v>
       </c>
       <c r="D70" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="E70" t="s">
         <v>1277</v>
@@ -10072,7 +10093,7 @@
         <v>1677</v>
       </c>
       <c r="G70" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="K70" t="s">
         <v>2009</v>
@@ -10092,7 +10113,7 @@
         <v>897</v>
       </c>
       <c r="D71" t="s">
-        <v>2480</v>
+        <v>2458</v>
       </c>
       <c r="E71" t="s">
         <v>1278</v>
@@ -10101,7 +10122,7 @@
         <v>1678</v>
       </c>
       <c r="G71" t="s">
-        <v>2481</v>
+        <v>2459</v>
       </c>
       <c r="K71" t="s">
         <v>2009</v>
@@ -10121,7 +10142,7 @@
         <v>898</v>
       </c>
       <c r="D72" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="E72" t="s">
         <v>1279</v>
@@ -10130,7 +10151,7 @@
         <v>1679</v>
       </c>
       <c r="G72" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="K72" t="s">
         <v>2009</v>
@@ -10176,7 +10197,7 @@
         <v>900</v>
       </c>
       <c r="D74" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="E74" t="s">
         <v>1281</v>
@@ -10185,7 +10206,7 @@
         <v>1681</v>
       </c>
       <c r="G74" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="K74" t="s">
         <v>2009</v>
@@ -10257,7 +10278,7 @@
         <v>903</v>
       </c>
       <c r="D77" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="E77" t="s">
         <v>1284</v>
@@ -10266,7 +10287,7 @@
         <v>1684</v>
       </c>
       <c r="G77" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="K77" t="s">
         <v>2009</v>
@@ -10286,7 +10307,7 @@
         <v>904</v>
       </c>
       <c r="D78" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="E78" t="s">
         <v>1285</v>
@@ -10312,7 +10333,7 @@
         <v>905</v>
       </c>
       <c r="D79" t="s">
-        <v>2482</v>
+        <v>2460</v>
       </c>
       <c r="E79" t="s">
         <v>1286</v>
@@ -10321,7 +10342,7 @@
         <v>1686</v>
       </c>
       <c r="G79" t="s">
-        <v>2483</v>
+        <v>2461</v>
       </c>
       <c r="H79" t="s">
         <v>2009</v>
@@ -10344,7 +10365,7 @@
         <v>906</v>
       </c>
       <c r="D80" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="E80" t="s">
         <v>1287</v>
@@ -10353,7 +10374,7 @@
         <v>1687</v>
       </c>
       <c r="G80" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="K80" t="s">
         <v>2009</v>
@@ -10373,7 +10394,7 @@
         <v>907</v>
       </c>
       <c r="D81" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="E81" t="s">
         <v>1288</v>
@@ -10382,7 +10403,7 @@
         <v>1688</v>
       </c>
       <c r="G81" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="K81" t="s">
         <v>2009</v>
@@ -10428,7 +10449,7 @@
         <v>909</v>
       </c>
       <c r="D83" t="s">
-        <v>909</v>
+        <v>2524</v>
       </c>
       <c r="E83" t="s">
         <v>1290</v>
@@ -10437,9 +10458,12 @@
         <v>1690</v>
       </c>
       <c r="G83" t="s">
-        <v>1690</v>
-      </c>
-      <c r="N83" t="s">
+        <v>2525</v>
+      </c>
+      <c r="K83" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M83" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -10454,7 +10478,7 @@
         <v>910</v>
       </c>
       <c r="D84" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="E84" t="s">
         <v>1291</v>
@@ -10463,7 +10487,7 @@
         <v>1691</v>
       </c>
       <c r="G84" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="J84" t="s">
         <v>2009</v>
@@ -10486,7 +10510,7 @@
         <v>911</v>
       </c>
       <c r="D85" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="E85" t="s">
         <v>1292</v>
@@ -10495,7 +10519,7 @@
         <v>1692</v>
       </c>
       <c r="G85" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="K85" t="s">
         <v>2009</v>
@@ -10541,7 +10565,7 @@
         <v>913</v>
       </c>
       <c r="D87" t="s">
-        <v>2484</v>
+        <v>2462</v>
       </c>
       <c r="E87" t="s">
         <v>1294</v>
@@ -10550,7 +10574,7 @@
         <v>1694</v>
       </c>
       <c r="G87" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="K87" t="s">
         <v>2009</v>
@@ -10599,7 +10623,7 @@
         <v>915</v>
       </c>
       <c r="D89" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="E89" t="s">
         <v>1296</v>
@@ -10608,7 +10632,7 @@
         <v>1696</v>
       </c>
       <c r="G89" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="H89" t="s">
         <v>2009</v>
@@ -10631,7 +10655,7 @@
         <v>916</v>
       </c>
       <c r="D90" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="E90" t="s">
         <v>1297</v>
@@ -10640,7 +10664,7 @@
         <v>1697</v>
       </c>
       <c r="G90" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="L90" t="s">
         <v>2009</v>
@@ -10712,7 +10736,7 @@
         <v>919</v>
       </c>
       <c r="D93" t="s">
-        <v>2448</v>
+        <v>2429</v>
       </c>
       <c r="E93" t="s">
         <v>1300</v>
@@ -10738,7 +10762,7 @@
         <v>920</v>
       </c>
       <c r="D94" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="E94" t="s">
         <v>1301</v>
@@ -10747,7 +10771,7 @@
         <v>1701</v>
       </c>
       <c r="G94" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="K94" t="s">
         <v>2009</v>
@@ -10770,7 +10794,7 @@
         <v>921</v>
       </c>
       <c r="D95" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="E95" t="s">
         <v>1302</v>
@@ -10796,7 +10820,7 @@
         <v>922</v>
       </c>
       <c r="D96" t="s">
-        <v>2485</v>
+        <v>2463</v>
       </c>
       <c r="E96" t="s">
         <v>1303</v>
@@ -10805,7 +10829,7 @@
         <v>1703</v>
       </c>
       <c r="G96" t="s">
-        <v>2486</v>
+        <v>2464</v>
       </c>
       <c r="H96" t="s">
         <v>2009</v>
@@ -10840,7 +10864,7 @@
         <v>1704</v>
       </c>
       <c r="N97" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -10880,7 +10904,7 @@
         <v>925</v>
       </c>
       <c r="D99" t="s">
-        <v>2487</v>
+        <v>2465</v>
       </c>
       <c r="E99" t="s">
         <v>1306</v>
@@ -10889,7 +10913,7 @@
         <v>1706</v>
       </c>
       <c r="G99" t="s">
-        <v>2488</v>
+        <v>2466</v>
       </c>
       <c r="K99" t="s">
         <v>2009</v>
@@ -10912,7 +10936,7 @@
         <v>926</v>
       </c>
       <c r="D100" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="E100" t="s">
         <v>1307</v>
@@ -10921,7 +10945,7 @@
         <v>1707</v>
       </c>
       <c r="G100" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="K100" t="s">
         <v>2009</v>
@@ -10941,7 +10965,7 @@
         <v>927</v>
       </c>
       <c r="D101" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="E101" t="s">
         <v>1308</v>
@@ -10967,7 +10991,7 @@
         <v>928</v>
       </c>
       <c r="D102" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="E102" t="s">
         <v>1309</v>
@@ -10976,7 +11000,7 @@
         <v>1709</v>
       </c>
       <c r="G102" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="K102" t="s">
         <v>2009</v>
@@ -10996,7 +11020,7 @@
         <v>929</v>
       </c>
       <c r="D103" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="E103" t="s">
         <v>1310</v>
@@ -11005,7 +11029,7 @@
         <v>1710</v>
       </c>
       <c r="G103" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="K103" t="s">
         <v>2009</v>
@@ -11025,7 +11049,7 @@
         <v>930</v>
       </c>
       <c r="D104" t="s">
-        <v>2489</v>
+        <v>2467</v>
       </c>
       <c r="E104" t="s">
         <v>1311</v>
@@ -11034,7 +11058,7 @@
         <v>1711</v>
       </c>
       <c r="G104" t="s">
-        <v>2490</v>
+        <v>2468</v>
       </c>
       <c r="H104" t="s">
         <v>2009</v>
@@ -11060,7 +11084,7 @@
         <v>931</v>
       </c>
       <c r="D105" t="s">
-        <v>2491</v>
+        <v>2469</v>
       </c>
       <c r="E105" t="s">
         <v>1312</v>
@@ -11086,7 +11110,7 @@
         <v>932</v>
       </c>
       <c r="D106" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="E106" t="s">
         <v>1313</v>
@@ -11138,7 +11162,7 @@
         <v>934</v>
       </c>
       <c r="D108" t="s">
-        <v>2492</v>
+        <v>2470</v>
       </c>
       <c r="E108" t="s">
         <v>1315</v>
@@ -11164,7 +11188,7 @@
         <v>854</v>
       </c>
       <c r="D109" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="E109" t="s">
         <v>1316</v>
@@ -11173,7 +11197,7 @@
         <v>1637</v>
       </c>
       <c r="G109" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="J109" t="s">
         <v>2009</v>
@@ -11196,7 +11220,7 @@
         <v>935</v>
       </c>
       <c r="D110" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="E110" t="s">
         <v>1317</v>
@@ -11205,7 +11229,7 @@
         <v>1716</v>
       </c>
       <c r="G110" t="s">
-        <v>2449</v>
+        <v>2430</v>
       </c>
       <c r="H110" t="s">
         <v>2009</v>
@@ -11254,7 +11278,7 @@
         <v>937</v>
       </c>
       <c r="D112" t="s">
-        <v>2450</v>
+        <v>2431</v>
       </c>
       <c r="E112" t="s">
         <v>1319</v>
@@ -11280,16 +11304,16 @@
         <v>938</v>
       </c>
       <c r="D113" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="E113" t="s">
         <v>1320</v>
       </c>
       <c r="F113" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="G113" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="K113" t="s">
         <v>2009</v>
@@ -11309,7 +11333,7 @@
         <v>939</v>
       </c>
       <c r="D114" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="E114" t="s">
         <v>1321</v>
@@ -11318,7 +11342,7 @@
         <v>1719</v>
       </c>
       <c r="G114" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="K114" t="s">
         <v>2009</v>
@@ -11364,7 +11388,7 @@
         <v>941</v>
       </c>
       <c r="D116" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="E116" t="s">
         <v>1323</v>
@@ -11373,7 +11397,7 @@
         <v>1721</v>
       </c>
       <c r="G116" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="H116" t="s">
         <v>2009</v>
@@ -11402,7 +11426,7 @@
         <v>1722</v>
       </c>
       <c r="G117" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="K117" t="s">
         <v>2009</v>
@@ -11422,7 +11446,7 @@
         <v>943</v>
       </c>
       <c r="D118" t="s">
-        <v>2493</v>
+        <v>2471</v>
       </c>
       <c r="E118" t="s">
         <v>1325</v>
@@ -11431,7 +11455,7 @@
         <v>1723</v>
       </c>
       <c r="G118" t="s">
-        <v>2494</v>
+        <v>2472</v>
       </c>
       <c r="M118" t="s">
         <v>2009</v>
@@ -11448,7 +11472,7 @@
         <v>944</v>
       </c>
       <c r="D119" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="E119" t="s">
         <v>1326</v>
@@ -11457,7 +11481,7 @@
         <v>1724</v>
       </c>
       <c r="G119" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="K119" t="s">
         <v>2009</v>
@@ -11480,7 +11504,7 @@
         <v>945</v>
       </c>
       <c r="D120" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="E120" t="s">
         <v>1327</v>
@@ -11489,7 +11513,7 @@
         <v>1725</v>
       </c>
       <c r="G120" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="I120" t="s">
         <v>2009</v>
@@ -11538,7 +11562,7 @@
         <v>947</v>
       </c>
       <c r="D122" t="s">
-        <v>2495</v>
+        <v>2473</v>
       </c>
       <c r="E122" t="s">
         <v>1329</v>
@@ -11547,7 +11571,7 @@
         <v>1727</v>
       </c>
       <c r="G122" t="s">
-        <v>2496</v>
+        <v>2474</v>
       </c>
       <c r="K122" t="s">
         <v>2009</v>
@@ -11570,7 +11594,7 @@
         <v>948</v>
       </c>
       <c r="D123" t="s">
-        <v>2451</v>
+        <v>2432</v>
       </c>
       <c r="E123" t="s">
         <v>1330</v>
@@ -11579,7 +11603,7 @@
         <v>1728</v>
       </c>
       <c r="G123" t="s">
-        <v>2452</v>
+        <v>2433</v>
       </c>
       <c r="H123" t="s">
         <v>2009</v>
@@ -11602,7 +11626,7 @@
         <v>949</v>
       </c>
       <c r="D124" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="E124" t="s">
         <v>1331</v>
@@ -11611,7 +11635,7 @@
         <v>1729</v>
       </c>
       <c r="G124" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="K124" t="s">
         <v>2009</v>
@@ -11631,7 +11655,7 @@
         <v>950</v>
       </c>
       <c r="D125" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="E125" t="s">
         <v>1332</v>
@@ -11640,7 +11664,7 @@
         <v>1730</v>
       </c>
       <c r="G125" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="J125" t="s">
         <v>2009</v>
@@ -11663,7 +11687,7 @@
         <v>951</v>
       </c>
       <c r="D126" t="s">
-        <v>951</v>
+        <v>2520</v>
       </c>
       <c r="E126" t="s">
         <v>1333</v>
@@ -11672,12 +11696,12 @@
         <v>1731</v>
       </c>
       <c r="G126" t="s">
-        <v>2123</v>
+        <v>2521</v>
       </c>
       <c r="K126" t="s">
         <v>2009</v>
       </c>
-      <c r="N126" t="s">
+      <c r="M126" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -11718,7 +11742,7 @@
         <v>953</v>
       </c>
       <c r="D128" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="E128" t="s">
         <v>1335</v>
@@ -11770,7 +11794,7 @@
         <v>955</v>
       </c>
       <c r="D130" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="E130" t="s">
         <v>1337</v>
@@ -11796,7 +11820,7 @@
         <v>956</v>
       </c>
       <c r="D131" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
       <c r="E131" t="s">
         <v>1338</v>
@@ -11805,7 +11829,7 @@
         <v>1736</v>
       </c>
       <c r="G131" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="K131" t="s">
         <v>2009</v>
@@ -11854,7 +11878,7 @@
         <v>958</v>
       </c>
       <c r="D133" t="s">
-        <v>2497</v>
+        <v>2475</v>
       </c>
       <c r="E133" t="s">
         <v>1340</v>
@@ -11863,7 +11887,7 @@
         <v>1738</v>
       </c>
       <c r="G133" t="s">
-        <v>2498</v>
+        <v>2476</v>
       </c>
       <c r="H133" t="s">
         <v>2009</v>
@@ -11886,7 +11910,7 @@
         <v>959</v>
       </c>
       <c r="D134" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
       <c r="E134" t="s">
         <v>1341</v>
@@ -11895,7 +11919,7 @@
         <v>1739</v>
       </c>
       <c r="G134" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="K134" t="s">
         <v>2009</v>
@@ -11967,7 +11991,7 @@
         <v>962</v>
       </c>
       <c r="D137" t="s">
-        <v>2130</v>
+        <v>2125</v>
       </c>
       <c r="E137" t="s">
         <v>1344</v>
@@ -11976,7 +12000,7 @@
         <v>1742</v>
       </c>
       <c r="G137" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
       <c r="H137" t="s">
         <v>2009</v>
@@ -11999,7 +12023,7 @@
         <v>963</v>
       </c>
       <c r="D138" t="s">
-        <v>2499</v>
+        <v>2477</v>
       </c>
       <c r="E138" t="s">
         <v>1345</v>
@@ -12008,7 +12032,7 @@
         <v>1743</v>
       </c>
       <c r="G138" t="s">
-        <v>2500</v>
+        <v>2478</v>
       </c>
       <c r="K138" t="s">
         <v>2009</v>
@@ -12028,7 +12052,7 @@
         <v>964</v>
       </c>
       <c r="D139" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="E139" t="s">
         <v>1346</v>
@@ -12037,7 +12061,7 @@
         <v>1744</v>
       </c>
       <c r="G139" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="H139" t="s">
         <v>2009</v>
@@ -12057,7 +12081,7 @@
         <v>965</v>
       </c>
       <c r="D140" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
       <c r="E140" t="s">
         <v>1347</v>
@@ -12066,7 +12090,7 @@
         <v>1745</v>
       </c>
       <c r="G140" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="K140" t="s">
         <v>2009</v>
@@ -12089,7 +12113,7 @@
         <v>966</v>
       </c>
       <c r="D141" t="s">
-        <v>2136</v>
+        <v>2131</v>
       </c>
       <c r="E141" t="s">
         <v>1348</v>
@@ -12115,7 +12139,7 @@
         <v>967</v>
       </c>
       <c r="D142" t="s">
-        <v>2137</v>
+        <v>2132</v>
       </c>
       <c r="E142" t="s">
         <v>1349</v>
@@ -12167,7 +12191,7 @@
         <v>969</v>
       </c>
       <c r="D144" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="E144" t="s">
         <v>1351</v>
@@ -12176,7 +12200,7 @@
         <v>1749</v>
       </c>
       <c r="G144" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="K144" t="s">
         <v>2009</v>
@@ -12222,7 +12246,7 @@
         <v>971</v>
       </c>
       <c r="D146" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="E146" t="s">
         <v>1353</v>
@@ -12248,7 +12272,7 @@
         <v>972</v>
       </c>
       <c r="D147" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="E147" t="s">
         <v>1354</v>
@@ -12257,7 +12281,7 @@
         <v>1354</v>
       </c>
       <c r="G147" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="K147" t="s">
         <v>2009</v>
@@ -12280,7 +12304,7 @@
         <v>973</v>
       </c>
       <c r="D148" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="E148" t="s">
         <v>1355</v>
@@ -12289,7 +12313,7 @@
         <v>1752</v>
       </c>
       <c r="G148" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
       <c r="K148" t="s">
         <v>2009</v>
@@ -12310,7 +12334,7 @@
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s">
-        <v>2145</v>
+        <v>2526</v>
       </c>
       <c r="E149" t="s">
         <v>1356</v>
@@ -12319,7 +12343,7 @@
         <v>1753</v>
       </c>
       <c r="G149" t="s">
-        <v>2146</v>
+        <v>2527</v>
       </c>
       <c r="J149" t="s">
         <v>2009</v>
@@ -12365,7 +12389,7 @@
         <v>975</v>
       </c>
       <c r="D151" t="s">
-        <v>2147</v>
+        <v>2140</v>
       </c>
       <c r="E151" t="s">
         <v>1358</v>
@@ -12374,7 +12398,7 @@
         <v>1755</v>
       </c>
       <c r="G151" t="s">
-        <v>2148</v>
+        <v>2141</v>
       </c>
       <c r="K151" t="s">
         <v>2009</v>
@@ -12394,7 +12418,7 @@
         <v>976</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>2149</v>
+        <v>2142</v>
       </c>
       <c r="E152" t="s">
         <v>1359</v>
@@ -12403,7 +12427,7 @@
         <v>1756</v>
       </c>
       <c r="G152" t="s">
-        <v>2150</v>
+        <v>2143</v>
       </c>
       <c r="K152" t="s">
         <v>2009</v>
@@ -12432,7 +12456,7 @@
         <v>1757</v>
       </c>
       <c r="G153" t="s">
-        <v>2152</v>
+        <v>2145</v>
       </c>
       <c r="K153" t="s">
         <v>2009</v>
@@ -12461,7 +12485,7 @@
         <v>1627</v>
       </c>
       <c r="G154" t="s">
-        <v>2151</v>
+        <v>2144</v>
       </c>
       <c r="K154" t="s">
         <v>2009</v>
@@ -12481,7 +12505,7 @@
         <v>979</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>2153</v>
+        <v>2532</v>
       </c>
       <c r="E155" t="s">
         <v>1362</v>
@@ -12490,7 +12514,7 @@
         <v>1758</v>
       </c>
       <c r="G155" t="s">
-        <v>2154</v>
+        <v>2533</v>
       </c>
       <c r="J155" t="s">
         <v>2009</v>
@@ -12588,7 +12612,7 @@
         <v>983</v>
       </c>
       <c r="D159" t="s">
-        <v>2155</v>
+        <v>2146</v>
       </c>
       <c r="E159" t="s">
         <v>1366</v>
@@ -12597,7 +12621,7 @@
         <v>1762</v>
       </c>
       <c r="G159" t="s">
-        <v>2159</v>
+        <v>2149</v>
       </c>
       <c r="H159" t="s">
         <v>2009</v>
@@ -12617,7 +12641,7 @@
         <v>984</v>
       </c>
       <c r="D160" t="s">
-        <v>2156</v>
+        <v>2147</v>
       </c>
       <c r="E160" t="s">
         <v>1367</v>
@@ -12626,7 +12650,7 @@
         <v>1763</v>
       </c>
       <c r="G160" t="s">
-        <v>2157</v>
+        <v>2148</v>
       </c>
       <c r="K160" t="s">
         <v>2009</v>
@@ -12646,7 +12670,7 @@
         <v>985</v>
       </c>
       <c r="D161" t="s">
-        <v>2501</v>
+        <v>2522</v>
       </c>
       <c r="E161" t="s">
         <v>1368</v>
@@ -12655,7 +12679,7 @@
         <v>1764</v>
       </c>
       <c r="G161" t="s">
-        <v>2158</v>
+        <v>2523</v>
       </c>
       <c r="K161" t="s">
         <v>2009</v>
@@ -12675,7 +12699,7 @@
         <v>986</v>
       </c>
       <c r="D162" t="s">
-        <v>2160</v>
+        <v>2150</v>
       </c>
       <c r="E162" t="s">
         <v>1369</v>
@@ -12684,7 +12708,7 @@
         <v>1765</v>
       </c>
       <c r="G162" t="s">
-        <v>2161</v>
+        <v>2151</v>
       </c>
       <c r="K162" t="s">
         <v>2009</v>
@@ -12704,7 +12728,7 @@
         <v>987</v>
       </c>
       <c r="D163" t="s">
-        <v>2162</v>
+        <v>2152</v>
       </c>
       <c r="E163" t="s">
         <v>1370</v>
@@ -12742,7 +12766,7 @@
         <v>1767</v>
       </c>
       <c r="G164" t="s">
-        <v>2163</v>
+        <v>2153</v>
       </c>
       <c r="K164" t="s">
         <v>2009</v>
@@ -12762,7 +12786,7 @@
         <v>989</v>
       </c>
       <c r="D165" t="s">
-        <v>2164</v>
+        <v>2154</v>
       </c>
       <c r="E165" t="s">
         <v>1372</v>
@@ -12771,7 +12795,7 @@
         <v>1768</v>
       </c>
       <c r="G165" t="s">
-        <v>2165</v>
+        <v>2155</v>
       </c>
       <c r="K165" t="s">
         <v>2009</v>
@@ -12800,7 +12824,7 @@
         <v>1769</v>
       </c>
       <c r="G166" t="s">
-        <v>2166</v>
+        <v>2156</v>
       </c>
       <c r="K166" t="s">
         <v>2009</v>
@@ -12820,7 +12844,7 @@
         <v>991</v>
       </c>
       <c r="D167" t="s">
-        <v>2167</v>
+        <v>2157</v>
       </c>
       <c r="E167" t="s">
         <v>1374</v>
@@ -12849,7 +12873,7 @@
         <v>992</v>
       </c>
       <c r="D168" t="s">
-        <v>2168</v>
+        <v>2158</v>
       </c>
       <c r="E168" t="s">
         <v>1375</v>
@@ -12904,7 +12928,7 @@
         <v>994</v>
       </c>
       <c r="D170" t="s">
-        <v>2169</v>
+        <v>2159</v>
       </c>
       <c r="E170" t="s">
         <v>1377</v>
@@ -12956,7 +12980,7 @@
         <v>996</v>
       </c>
       <c r="D172" t="s">
-        <v>2170</v>
+        <v>2160</v>
       </c>
       <c r="E172" t="s">
         <v>1379</v>
@@ -12982,7 +13006,7 @@
         <v>997</v>
       </c>
       <c r="D173" t="s">
-        <v>2502</v>
+        <v>2479</v>
       </c>
       <c r="E173" t="s">
         <v>1380</v>
@@ -12991,7 +13015,7 @@
         <v>1776</v>
       </c>
       <c r="G173" t="s">
-        <v>2503</v>
+        <v>2480</v>
       </c>
       <c r="H173" t="s">
         <v>2009</v>
@@ -13014,7 +13038,7 @@
         <v>998</v>
       </c>
       <c r="D174" t="s">
-        <v>2171</v>
+        <v>2161</v>
       </c>
       <c r="E174" t="s">
         <v>1381</v>
@@ -13066,7 +13090,7 @@
         <v>1000</v>
       </c>
       <c r="D176" t="s">
-        <v>2172</v>
+        <v>2162</v>
       </c>
       <c r="E176" t="s">
         <v>1383</v>
@@ -13075,7 +13099,7 @@
         <v>1779</v>
       </c>
       <c r="G176" t="s">
-        <v>2173</v>
+        <v>2163</v>
       </c>
       <c r="M176" t="s">
         <v>2009</v>
@@ -13144,7 +13168,7 @@
         <v>1003</v>
       </c>
       <c r="D179" t="s">
-        <v>2174</v>
+        <v>2164</v>
       </c>
       <c r="E179" t="s">
         <v>1386</v>
@@ -13153,7 +13177,7 @@
         <v>1782</v>
       </c>
       <c r="G179" t="s">
-        <v>2175</v>
+        <v>2165</v>
       </c>
       <c r="K179" t="s">
         <v>2009</v>
@@ -13173,7 +13197,7 @@
         <v>1004</v>
       </c>
       <c r="D180" t="s">
-        <v>2176</v>
+        <v>2166</v>
       </c>
       <c r="E180" t="s">
         <v>1387</v>
@@ -13182,7 +13206,7 @@
         <v>1783</v>
       </c>
       <c r="G180" t="s">
-        <v>2453</v>
+        <v>2434</v>
       </c>
       <c r="K180" t="s">
         <v>2009</v>
@@ -13231,7 +13255,7 @@
         <v>1006</v>
       </c>
       <c r="D182" t="s">
-        <v>2177</v>
+        <v>2167</v>
       </c>
       <c r="E182" t="s">
         <v>1389</v>
@@ -13257,7 +13281,7 @@
         <v>1007</v>
       </c>
       <c r="D183" t="s">
-        <v>2178</v>
+        <v>2168</v>
       </c>
       <c r="E183" t="s">
         <v>1390</v>
@@ -13266,7 +13290,7 @@
         <v>1786</v>
       </c>
       <c r="G183" t="s">
-        <v>2454</v>
+        <v>2435</v>
       </c>
       <c r="H183" t="s">
         <v>2009</v>
@@ -13289,7 +13313,7 @@
         <v>1008</v>
       </c>
       <c r="D184" t="s">
-        <v>2179</v>
+        <v>2169</v>
       </c>
       <c r="E184" t="s">
         <v>1391</v>
@@ -13318,7 +13342,7 @@
         <v>1009</v>
       </c>
       <c r="D185" t="s">
-        <v>2180</v>
+        <v>2170</v>
       </c>
       <c r="E185" t="s">
         <v>1392</v>
@@ -13327,7 +13351,7 @@
         <v>1788</v>
       </c>
       <c r="G185" t="s">
-        <v>2181</v>
+        <v>2171</v>
       </c>
       <c r="K185" t="s">
         <v>2009</v>
@@ -13347,7 +13371,7 @@
         <v>1010</v>
       </c>
       <c r="D186" t="s">
-        <v>2182</v>
+        <v>2172</v>
       </c>
       <c r="E186" t="s">
         <v>1393</v>
@@ -13356,7 +13380,7 @@
         <v>1789</v>
       </c>
       <c r="G186" t="s">
-        <v>2183</v>
+        <v>2173</v>
       </c>
       <c r="K186" t="s">
         <v>2009</v>
@@ -13376,7 +13400,7 @@
         <v>1011</v>
       </c>
       <c r="D187" t="s">
-        <v>2184</v>
+        <v>2174</v>
       </c>
       <c r="E187" t="s">
         <v>1394</v>
@@ -13385,7 +13409,7 @@
         <v>1790</v>
       </c>
       <c r="G187" t="s">
-        <v>2185</v>
+        <v>2175</v>
       </c>
       <c r="K187" t="s">
         <v>2009</v>
@@ -13440,7 +13464,7 @@
         <v>1792</v>
       </c>
       <c r="G189" t="s">
-        <v>2186</v>
+        <v>2176</v>
       </c>
       <c r="K189" t="s">
         <v>2009</v>
@@ -13460,7 +13484,7 @@
         <v>1014</v>
       </c>
       <c r="D190" t="s">
-        <v>2187</v>
+        <v>2177</v>
       </c>
       <c r="E190" t="s">
         <v>1397</v>
@@ -13469,7 +13493,7 @@
         <v>1793</v>
       </c>
       <c r="G190" t="s">
-        <v>2188</v>
+        <v>2178</v>
       </c>
       <c r="J190" t="s">
         <v>2009</v>
@@ -13489,7 +13513,7 @@
         <v>1015</v>
       </c>
       <c r="D191" t="s">
-        <v>2189</v>
+        <v>2179</v>
       </c>
       <c r="E191" t="s">
         <v>1398</v>
@@ -13498,7 +13522,7 @@
         <v>1794</v>
       </c>
       <c r="G191" t="s">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="I191" t="s">
         <v>2009</v>
@@ -13530,7 +13554,7 @@
         <v>1795</v>
       </c>
       <c r="G192" t="s">
-        <v>2191</v>
+        <v>2181</v>
       </c>
       <c r="K192" t="s">
         <v>2009</v>
@@ -13602,7 +13626,7 @@
         <v>1019</v>
       </c>
       <c r="D195" t="s">
-        <v>2192</v>
+        <v>2182</v>
       </c>
       <c r="E195" t="s">
         <v>1402</v>
@@ -13611,7 +13635,7 @@
         <v>1798</v>
       </c>
       <c r="G195" t="s">
-        <v>2193</v>
+        <v>2183</v>
       </c>
       <c r="K195" t="s">
         <v>2009</v>
@@ -13631,7 +13655,7 @@
         <v>1020</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>2194</v>
+        <v>2184</v>
       </c>
       <c r="E196" t="s">
         <v>1230</v>
@@ -13640,7 +13664,7 @@
         <v>1799</v>
       </c>
       <c r="G196" t="s">
-        <v>2195</v>
+        <v>2185</v>
       </c>
       <c r="H196" t="s">
         <v>2009</v>
@@ -13663,7 +13687,7 @@
         <v>1021</v>
       </c>
       <c r="D197" t="s">
-        <v>2504</v>
+        <v>2481</v>
       </c>
       <c r="E197" t="s">
         <v>1403</v>
@@ -13689,7 +13713,7 @@
         <v>1022</v>
       </c>
       <c r="D198" t="s">
-        <v>2196</v>
+        <v>2186</v>
       </c>
       <c r="E198" t="s">
         <v>1404</v>
@@ -13698,7 +13722,7 @@
         <v>1801</v>
       </c>
       <c r="G198" t="s">
-        <v>2197</v>
+        <v>2187</v>
       </c>
       <c r="H198" t="s">
         <v>2009</v>
@@ -13721,7 +13745,7 @@
         <v>1023</v>
       </c>
       <c r="D199" t="s">
-        <v>2198</v>
+        <v>2188</v>
       </c>
       <c r="E199" t="s">
         <v>1405</v>
@@ -13730,7 +13754,7 @@
         <v>1802</v>
       </c>
       <c r="G199" t="s">
-        <v>2199</v>
+        <v>2189</v>
       </c>
       <c r="K199" t="s">
         <v>2009</v>
@@ -13753,7 +13777,7 @@
         <v>1024</v>
       </c>
       <c r="D200" t="s">
-        <v>2505</v>
+        <v>2482</v>
       </c>
       <c r="E200" t="s">
         <v>1406</v>
@@ -13762,7 +13786,7 @@
         <v>1803</v>
       </c>
       <c r="G200" t="s">
-        <v>2506</v>
+        <v>2483</v>
       </c>
       <c r="H200" t="s">
         <v>2009</v>
@@ -13811,7 +13835,7 @@
         <v>1026</v>
       </c>
       <c r="D202" t="s">
-        <v>2507</v>
+        <v>2484</v>
       </c>
       <c r="E202" t="s">
         <v>1408</v>
@@ -13820,7 +13844,7 @@
         <v>1805</v>
       </c>
       <c r="G202" t="s">
-        <v>2508</v>
+        <v>2485</v>
       </c>
       <c r="J202" t="s">
         <v>2009</v>
@@ -13840,7 +13864,7 @@
         <v>1027</v>
       </c>
       <c r="D203" t="s">
-        <v>2200</v>
+        <v>2190</v>
       </c>
       <c r="E203" t="s">
         <v>1409</v>
@@ -13849,7 +13873,7 @@
         <v>1806</v>
       </c>
       <c r="G203" t="s">
-        <v>2201</v>
+        <v>2191</v>
       </c>
       <c r="J203" t="s">
         <v>2009</v>
@@ -13872,7 +13896,7 @@
         <v>1028</v>
       </c>
       <c r="D204" t="s">
-        <v>2205</v>
+        <v>2195</v>
       </c>
       <c r="E204" t="s">
         <v>1410</v>
@@ -13881,7 +13905,7 @@
         <v>1807</v>
       </c>
       <c r="G204" t="s">
-        <v>2202</v>
+        <v>2192</v>
       </c>
       <c r="K204" t="s">
         <v>2009</v>
@@ -13901,7 +13925,7 @@
         <v>1029</v>
       </c>
       <c r="D205" t="s">
-        <v>2203</v>
+        <v>2193</v>
       </c>
       <c r="E205" t="s">
         <v>1411</v>
@@ -13936,7 +13960,7 @@
         <v>1809</v>
       </c>
       <c r="G206" t="s">
-        <v>2204</v>
+        <v>2194</v>
       </c>
       <c r="K206" t="s">
         <v>2009</v>
@@ -13959,7 +13983,7 @@
         <v>1031</v>
       </c>
       <c r="D207" t="s">
-        <v>2509</v>
+        <v>2486</v>
       </c>
       <c r="E207" t="s">
         <v>1413</v>
@@ -13968,7 +13992,7 @@
         <v>1810</v>
       </c>
       <c r="G207" t="s">
-        <v>2510</v>
+        <v>2487</v>
       </c>
       <c r="I207" t="s">
         <v>2009</v>
@@ -14006,7 +14030,7 @@
         <v>1811</v>
       </c>
       <c r="G208" t="s">
-        <v>2206</v>
+        <v>2196</v>
       </c>
       <c r="K208" t="s">
         <v>2009</v>
@@ -14035,7 +14059,7 @@
         <v>1812</v>
       </c>
       <c r="G209" t="s">
-        <v>2207</v>
+        <v>2197</v>
       </c>
       <c r="K209" t="s">
         <v>2009</v>
@@ -14055,7 +14079,7 @@
         <v>1034</v>
       </c>
       <c r="D210" t="s">
-        <v>2511</v>
+        <v>2488</v>
       </c>
       <c r="E210" t="s">
         <v>1416</v>
@@ -14064,7 +14088,7 @@
         <v>1813</v>
       </c>
       <c r="G210" t="s">
-        <v>2208</v>
+        <v>2198</v>
       </c>
       <c r="J210" t="s">
         <v>2009</v>
@@ -14096,7 +14120,7 @@
         <v>1632</v>
       </c>
       <c r="G211" t="s">
-        <v>2209</v>
+        <v>2199</v>
       </c>
       <c r="K211" t="s">
         <v>2009</v>
@@ -14114,7 +14138,7 @@
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s">
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="E212" t="s">
         <v>1418</v>
@@ -14166,7 +14190,7 @@
         <v>1037</v>
       </c>
       <c r="D214" t="s">
-        <v>2211</v>
+        <v>2201</v>
       </c>
       <c r="E214" t="s">
         <v>1420</v>
@@ -14192,7 +14216,7 @@
         <v>1038</v>
       </c>
       <c r="D215" t="s">
-        <v>2212</v>
+        <v>2202</v>
       </c>
       <c r="E215" t="s">
         <v>1421</v>
@@ -14201,7 +14225,7 @@
         <v>1817</v>
       </c>
       <c r="G215" t="s">
-        <v>2213</v>
+        <v>2203</v>
       </c>
       <c r="I215" t="s">
         <v>2009</v>
@@ -14221,7 +14245,7 @@
         <v>1039</v>
       </c>
       <c r="D216" t="s">
-        <v>2214</v>
+        <v>2204</v>
       </c>
       <c r="E216" t="s">
         <v>1422</v>
@@ -14230,7 +14254,7 @@
         <v>1818</v>
       </c>
       <c r="G216" t="s">
-        <v>2215</v>
+        <v>2205</v>
       </c>
       <c r="I216" t="s">
         <v>2009</v>
@@ -14250,7 +14274,7 @@
         <v>1040</v>
       </c>
       <c r="D217" t="s">
-        <v>2216</v>
+        <v>2206</v>
       </c>
       <c r="E217" t="s">
         <v>1423</v>
@@ -14259,7 +14283,7 @@
         <v>1819</v>
       </c>
       <c r="G217" t="s">
-        <v>2217</v>
+        <v>2207</v>
       </c>
       <c r="H217" t="s">
         <v>2009</v>
@@ -14282,7 +14306,7 @@
         <v>1041</v>
       </c>
       <c r="D218" t="s">
-        <v>2219</v>
+        <v>2209</v>
       </c>
       <c r="E218" t="s">
         <v>1424</v>
@@ -14291,7 +14315,7 @@
         <v>1820</v>
       </c>
       <c r="G218" t="s">
-        <v>2218</v>
+        <v>2208</v>
       </c>
       <c r="I218" t="s">
         <v>2009</v>
@@ -14314,7 +14338,7 @@
         <v>1042</v>
       </c>
       <c r="D219" t="s">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="E219" t="s">
         <v>1425</v>
@@ -14323,7 +14347,7 @@
         <v>1821</v>
       </c>
       <c r="G219" t="s">
-        <v>2221</v>
+        <v>2211</v>
       </c>
       <c r="I219" t="s">
         <v>2009</v>
@@ -14347,7 +14371,7 @@
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s">
-        <v>2222</v>
+        <v>2212</v>
       </c>
       <c r="E220" t="s">
         <v>1426</v>
@@ -14356,7 +14380,7 @@
         <v>1822</v>
       </c>
       <c r="G220" t="s">
-        <v>2223</v>
+        <v>2213</v>
       </c>
       <c r="J220" t="s">
         <v>2009</v>
@@ -14428,7 +14452,7 @@
         <v>1045</v>
       </c>
       <c r="D223" t="s">
-        <v>2224</v>
+        <v>2214</v>
       </c>
       <c r="E223" t="s">
         <v>1429</v>
@@ -14437,7 +14461,7 @@
         <v>1824</v>
       </c>
       <c r="G223" t="s">
-        <v>2225</v>
+        <v>2215</v>
       </c>
       <c r="K223" t="s">
         <v>2009</v>
@@ -14455,7 +14479,7 @@
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s">
-        <v>2226</v>
+        <v>2216</v>
       </c>
       <c r="E224" t="s">
         <v>1430</v>
@@ -14464,7 +14488,7 @@
         <v>1825</v>
       </c>
       <c r="G224" t="s">
-        <v>2227</v>
+        <v>2217</v>
       </c>
       <c r="J224" t="s">
         <v>2009</v>
@@ -14484,7 +14508,7 @@
         <v>1046</v>
       </c>
       <c r="D225" t="s">
-        <v>2255</v>
+        <v>2244</v>
       </c>
       <c r="E225" t="s">
         <v>1431</v>
@@ -14493,7 +14517,7 @@
         <v>1826</v>
       </c>
       <c r="G225" t="s">
-        <v>2256</v>
+        <v>2245</v>
       </c>
       <c r="H225" t="s">
         <v>2009</v>
@@ -14525,7 +14549,7 @@
         <v>1827</v>
       </c>
       <c r="G226" t="s">
-        <v>2228</v>
+        <v>2218</v>
       </c>
       <c r="K226" t="s">
         <v>2009</v>
@@ -14545,7 +14569,7 @@
         <v>1048</v>
       </c>
       <c r="D227" t="s">
-        <v>2229</v>
+        <v>2219</v>
       </c>
       <c r="E227" t="s">
         <v>1433</v>
@@ -14554,7 +14578,7 @@
         <v>1828</v>
       </c>
       <c r="G227" t="s">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="I227" t="s">
         <v>2009</v>
@@ -14580,7 +14604,7 @@
         <v>1049</v>
       </c>
       <c r="D228" t="s">
-        <v>2231</v>
+        <v>2221</v>
       </c>
       <c r="E228" t="s">
         <v>1434</v>
@@ -14589,7 +14613,7 @@
         <v>1829</v>
       </c>
       <c r="G228" t="s">
-        <v>2232</v>
+        <v>2222</v>
       </c>
       <c r="K228" t="s">
         <v>2009</v>
@@ -14609,7 +14633,7 @@
         <v>1050</v>
       </c>
       <c r="D229" t="s">
-        <v>2233</v>
+        <v>2223</v>
       </c>
       <c r="E229" t="s">
         <v>1435</v>
@@ -14638,7 +14662,7 @@
         <v>1051</v>
       </c>
       <c r="D230" t="s">
-        <v>2234</v>
+        <v>2224</v>
       </c>
       <c r="E230" t="s">
         <v>1436</v>
@@ -14647,7 +14671,7 @@
         <v>1831</v>
       </c>
       <c r="G230" t="s">
-        <v>2235</v>
+        <v>2225</v>
       </c>
       <c r="H230" t="s">
         <v>2009</v>
@@ -14670,7 +14694,7 @@
         <v>1052</v>
       </c>
       <c r="D231" t="s">
-        <v>2236</v>
+        <v>2512</v>
       </c>
       <c r="E231" t="s">
         <v>1437</v>
@@ -14679,7 +14703,10 @@
         <v>1832</v>
       </c>
       <c r="G231" t="s">
-        <v>1832</v>
+        <v>2513</v>
+      </c>
+      <c r="K231" t="s">
+        <v>2009</v>
       </c>
       <c r="M231" t="s">
         <v>2009</v>
@@ -14696,7 +14723,7 @@
         <v>1053</v>
       </c>
       <c r="D232" t="s">
-        <v>2237</v>
+        <v>2226</v>
       </c>
       <c r="E232" t="s">
         <v>1438</v>
@@ -14705,7 +14732,7 @@
         <v>1833</v>
       </c>
       <c r="G232" t="s">
-        <v>2238</v>
+        <v>2227</v>
       </c>
       <c r="I232" t="s">
         <v>2009</v>
@@ -14725,7 +14752,7 @@
         <v>1054</v>
       </c>
       <c r="D233" t="s">
-        <v>2239</v>
+        <v>2228</v>
       </c>
       <c r="E233" t="s">
         <v>1439</v>
@@ -14734,7 +14761,7 @@
         <v>1834</v>
       </c>
       <c r="G233" t="s">
-        <v>2240</v>
+        <v>2229</v>
       </c>
       <c r="J233" t="s">
         <v>2009</v>
@@ -14754,7 +14781,7 @@
         <v>1055</v>
       </c>
       <c r="D234" t="s">
-        <v>2241</v>
+        <v>2230</v>
       </c>
       <c r="E234" t="s">
         <v>1440</v>
@@ -14806,7 +14833,7 @@
         <v>1057</v>
       </c>
       <c r="D236" t="s">
-        <v>2242</v>
+        <v>2231</v>
       </c>
       <c r="E236" t="s">
         <v>1442</v>
@@ -14815,7 +14842,7 @@
         <v>1837</v>
       </c>
       <c r="G236" t="s">
-        <v>2243</v>
+        <v>2232</v>
       </c>
       <c r="I236" t="s">
         <v>2009</v>
@@ -14838,7 +14865,7 @@
         <v>1058</v>
       </c>
       <c r="D237" t="s">
-        <v>2244</v>
+        <v>2233</v>
       </c>
       <c r="E237" t="s">
         <v>1443</v>
@@ -14847,7 +14874,7 @@
         <v>1838</v>
       </c>
       <c r="G237" t="s">
-        <v>2245</v>
+        <v>2234</v>
       </c>
       <c r="H237" t="s">
         <v>2009</v>
@@ -14870,7 +14897,7 @@
         <v>1059</v>
       </c>
       <c r="D238" t="s">
-        <v>2247</v>
+        <v>2236</v>
       </c>
       <c r="E238" t="s">
         <v>1444</v>
@@ -14879,7 +14906,7 @@
         <v>1839</v>
       </c>
       <c r="G238" t="s">
-        <v>2246</v>
+        <v>2235</v>
       </c>
       <c r="I238" t="s">
         <v>2009</v>
@@ -14899,7 +14926,7 @@
         <v>1060</v>
       </c>
       <c r="D239" t="s">
-        <v>2248</v>
+        <v>2237</v>
       </c>
       <c r="E239" t="s">
         <v>1445</v>
@@ -14908,7 +14935,7 @@
         <v>1840</v>
       </c>
       <c r="G239" t="s">
-        <v>2249</v>
+        <v>2238</v>
       </c>
       <c r="J239" t="s">
         <v>2009</v>
@@ -14931,7 +14958,7 @@
         <v>1061</v>
       </c>
       <c r="D240" t="s">
-        <v>2250</v>
+        <v>2239</v>
       </c>
       <c r="E240" t="s">
         <v>1446</v>
@@ -14957,7 +14984,7 @@
         <v>1062</v>
       </c>
       <c r="D241" t="s">
-        <v>2252</v>
+        <v>2241</v>
       </c>
       <c r="E241" t="s">
         <v>1447</v>
@@ -14966,7 +14993,7 @@
         <v>1842</v>
       </c>
       <c r="G241" t="s">
-        <v>2251</v>
+        <v>2240</v>
       </c>
       <c r="I241" t="s">
         <v>2009</v>
@@ -14986,7 +15013,7 @@
         <v>1063</v>
       </c>
       <c r="D242" t="s">
-        <v>2253</v>
+        <v>2242</v>
       </c>
       <c r="E242" t="s">
         <v>1448</v>
@@ -15038,7 +15065,7 @@
         <v>1065</v>
       </c>
       <c r="D244" t="s">
-        <v>2512</v>
+        <v>2489</v>
       </c>
       <c r="E244" t="s">
         <v>1450</v>
@@ -15047,7 +15074,7 @@
         <v>1845</v>
       </c>
       <c r="G244" t="s">
-        <v>2254</v>
+        <v>2243</v>
       </c>
       <c r="K244" t="s">
         <v>2009</v>
@@ -15076,7 +15103,7 @@
         <v>1846</v>
       </c>
       <c r="G245" t="s">
-        <v>2257</v>
+        <v>2246</v>
       </c>
       <c r="K245" t="s">
         <v>2009</v>
@@ -15096,7 +15123,7 @@
         <v>1067</v>
       </c>
       <c r="D246" t="s">
-        <v>2258</v>
+        <v>2247</v>
       </c>
       <c r="E246" t="s">
         <v>1452</v>
@@ -15120,7 +15147,7 @@
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s">
-        <v>2259</v>
+        <v>2248</v>
       </c>
       <c r="E247" t="s">
         <v>1453</v>
@@ -15146,7 +15173,7 @@
         <v>1068</v>
       </c>
       <c r="D248" t="s">
-        <v>2260</v>
+        <v>2249</v>
       </c>
       <c r="E248" t="s">
         <v>1454</v>
@@ -15181,7 +15208,7 @@
         <v>1850</v>
       </c>
       <c r="G249" t="s">
-        <v>2261</v>
+        <v>2250</v>
       </c>
       <c r="K249" t="s">
         <v>2009</v>
@@ -15199,7 +15226,7 @@
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s">
-        <v>2455</v>
+        <v>2540</v>
       </c>
       <c r="E250" t="s">
         <v>1456</v>
@@ -15208,7 +15235,7 @@
         <v>1851</v>
       </c>
       <c r="G250" t="s">
-        <v>2262</v>
+        <v>2251</v>
       </c>
       <c r="J250" t="s">
         <v>2009</v>
@@ -15226,7 +15253,7 @@
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s">
-        <v>2263</v>
+        <v>2252</v>
       </c>
       <c r="E251" t="s">
         <v>1457</v>
@@ -15278,7 +15305,7 @@
         <v>1071</v>
       </c>
       <c r="D253" t="s">
-        <v>2513</v>
+        <v>2490</v>
       </c>
       <c r="E253" t="s">
         <v>1459</v>
@@ -15287,7 +15314,7 @@
         <v>1854</v>
       </c>
       <c r="G253" t="s">
-        <v>2514</v>
+        <v>2491</v>
       </c>
       <c r="K253" t="s">
         <v>2009</v>
@@ -15310,7 +15337,7 @@
         <v>1072</v>
       </c>
       <c r="D254" t="s">
-        <v>2264</v>
+        <v>2253</v>
       </c>
       <c r="E254" t="s">
         <v>1460</v>
@@ -15319,7 +15346,7 @@
         <v>1855</v>
       </c>
       <c r="G254" t="s">
-        <v>2265</v>
+        <v>2254</v>
       </c>
       <c r="J254" t="s">
         <v>2009</v>
@@ -15345,7 +15372,7 @@
         <v>1073</v>
       </c>
       <c r="D255" t="s">
-        <v>2515</v>
+        <v>2492</v>
       </c>
       <c r="E255" t="s">
         <v>1461</v>
@@ -15371,7 +15398,7 @@
         <v>1074</v>
       </c>
       <c r="D256" t="s">
-        <v>2266</v>
+        <v>2255</v>
       </c>
       <c r="E256" t="s">
         <v>1462</v>
@@ -15380,7 +15407,7 @@
         <v>1857</v>
       </c>
       <c r="G256" t="s">
-        <v>2267</v>
+        <v>2256</v>
       </c>
       <c r="H256" t="s">
         <v>2009</v>
@@ -15401,7 +15428,7 @@
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s">
-        <v>2268</v>
+        <v>2257</v>
       </c>
       <c r="E257" t="s">
         <v>1463</v>
@@ -15410,7 +15437,7 @@
         <v>1858</v>
       </c>
       <c r="G257" t="s">
-        <v>2269</v>
+        <v>2258</v>
       </c>
       <c r="J257" t="s">
         <v>2009</v>
@@ -15439,7 +15466,7 @@
         <v>1859</v>
       </c>
       <c r="G258" t="s">
-        <v>2270</v>
+        <v>2259</v>
       </c>
       <c r="K258" t="s">
         <v>2009</v>
@@ -15457,7 +15484,7 @@
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s">
-        <v>2271</v>
+        <v>2260</v>
       </c>
       <c r="E259" t="s">
         <v>1465</v>
@@ -15466,7 +15493,7 @@
         <v>1860</v>
       </c>
       <c r="G259" t="s">
-        <v>2272</v>
+        <v>2261</v>
       </c>
       <c r="I259" t="s">
         <v>2009</v>
@@ -15489,7 +15516,7 @@
         <v>1076</v>
       </c>
       <c r="D260" t="s">
-        <v>2273</v>
+        <v>2262</v>
       </c>
       <c r="E260" t="s">
         <v>1466</v>
@@ -15498,7 +15525,7 @@
         <v>1861</v>
       </c>
       <c r="G260" t="s">
-        <v>2274</v>
+        <v>2263</v>
       </c>
       <c r="H260" t="s">
         <v>2009</v>
@@ -15524,7 +15551,7 @@
         <v>1077</v>
       </c>
       <c r="D261" t="s">
-        <v>2516</v>
+        <v>2493</v>
       </c>
       <c r="E261" t="s">
         <v>1467</v>
@@ -15533,7 +15560,7 @@
         <v>1862</v>
       </c>
       <c r="G261" t="s">
-        <v>2517</v>
+        <v>2494</v>
       </c>
       <c r="K261" t="s">
         <v>2009</v>
@@ -15553,7 +15580,7 @@
         <v>1078</v>
       </c>
       <c r="D262" t="s">
-        <v>2275</v>
+        <v>2264</v>
       </c>
       <c r="E262" t="s">
         <v>1468</v>
@@ -15588,7 +15615,7 @@
         <v>1864</v>
       </c>
       <c r="G263" t="s">
-        <v>2276</v>
+        <v>2265</v>
       </c>
       <c r="K263" t="s">
         <v>2009</v>
@@ -15608,7 +15635,7 @@
         <v>1080</v>
       </c>
       <c r="D264" t="s">
-        <v>2518</v>
+        <v>2495</v>
       </c>
       <c r="E264" t="s">
         <v>1470</v>
@@ -15617,7 +15644,7 @@
         <v>1865</v>
       </c>
       <c r="G264" t="s">
-        <v>2519</v>
+        <v>2496</v>
       </c>
       <c r="K264" t="s">
         <v>2009</v>
@@ -15637,7 +15664,7 @@
         <v>1081</v>
       </c>
       <c r="D265" t="s">
-        <v>2277</v>
+        <v>2266</v>
       </c>
       <c r="E265" t="s">
         <v>1471</v>
@@ -15689,7 +15716,7 @@
         <v>1083</v>
       </c>
       <c r="D267" t="s">
-        <v>2278</v>
+        <v>2530</v>
       </c>
       <c r="E267" t="s">
         <v>1473</v>
@@ -15698,7 +15725,7 @@
         <v>1868</v>
       </c>
       <c r="G267" t="s">
-        <v>2279</v>
+        <v>2531</v>
       </c>
       <c r="K267" t="s">
         <v>2009</v>
@@ -15718,7 +15745,7 @@
         <v>1084</v>
       </c>
       <c r="D268" t="s">
-        <v>2280</v>
+        <v>2267</v>
       </c>
       <c r="E268" t="s">
         <v>1474</v>
@@ -15744,7 +15771,7 @@
         <v>1085</v>
       </c>
       <c r="D269" t="s">
-        <v>2281</v>
+        <v>2268</v>
       </c>
       <c r="E269" t="s">
         <v>1475</v>
@@ -15753,7 +15780,7 @@
         <v>1870</v>
       </c>
       <c r="G269" t="s">
-        <v>2282</v>
+        <v>2269</v>
       </c>
       <c r="K269" t="s">
         <v>2009</v>
@@ -15773,7 +15800,7 @@
         <v>1086</v>
       </c>
       <c r="D270" t="s">
-        <v>2283</v>
+        <v>2270</v>
       </c>
       <c r="E270" t="s">
         <v>1476</v>
@@ -15782,7 +15809,7 @@
         <v>1871</v>
       </c>
       <c r="G270" t="s">
-        <v>2284</v>
+        <v>2271</v>
       </c>
       <c r="K270" t="s">
         <v>2009</v>
@@ -15828,7 +15855,7 @@
         <v>1088</v>
       </c>
       <c r="D272" t="s">
-        <v>2285</v>
+        <v>2272</v>
       </c>
       <c r="E272" t="s">
         <v>1478</v>
@@ -15854,7 +15881,7 @@
         <v>1089</v>
       </c>
       <c r="D273" t="s">
-        <v>2286</v>
+        <v>2273</v>
       </c>
       <c r="E273" t="s">
         <v>1479</v>
@@ -15863,7 +15890,7 @@
         <v>1874</v>
       </c>
       <c r="G273" t="s">
-        <v>2287</v>
+        <v>2274</v>
       </c>
       <c r="I273" t="s">
         <v>2009</v>
@@ -15886,7 +15913,7 @@
         <v>1090</v>
       </c>
       <c r="D274" t="s">
-        <v>2288</v>
+        <v>2275</v>
       </c>
       <c r="E274" t="s">
         <v>1480</v>
@@ -15895,7 +15922,7 @@
         <v>1875</v>
       </c>
       <c r="G274" t="s">
-        <v>2289</v>
+        <v>2276</v>
       </c>
       <c r="I274" t="s">
         <v>2009</v>
@@ -15918,7 +15945,7 @@
         <v>1091</v>
       </c>
       <c r="D275" t="s">
-        <v>2520</v>
+        <v>2497</v>
       </c>
       <c r="E275" t="s">
         <v>1481</v>
@@ -15927,7 +15954,7 @@
         <v>1876</v>
       </c>
       <c r="G275" t="s">
-        <v>2521</v>
+        <v>2498</v>
       </c>
       <c r="K275" t="s">
         <v>2009</v>
@@ -15950,7 +15977,7 @@
         <v>1092</v>
       </c>
       <c r="D276" t="s">
-        <v>2290</v>
+        <v>2277</v>
       </c>
       <c r="E276" t="s">
         <v>1482</v>
@@ -15959,7 +15986,7 @@
         <v>1877</v>
       </c>
       <c r="G276" t="s">
-        <v>2456</v>
+        <v>2436</v>
       </c>
       <c r="J276" t="s">
         <v>2009</v>
@@ -15979,7 +16006,7 @@
         <v>1093</v>
       </c>
       <c r="D277" t="s">
-        <v>2522</v>
+        <v>2499</v>
       </c>
       <c r="E277" t="s">
         <v>1483</v>
@@ -15988,7 +16015,7 @@
         <v>1878</v>
       </c>
       <c r="G277" t="s">
-        <v>2523</v>
+        <v>2500</v>
       </c>
       <c r="I277" t="s">
         <v>2009</v>
@@ -16017,7 +16044,7 @@
         <v>1094</v>
       </c>
       <c r="D278" t="s">
-        <v>2291</v>
+        <v>2278</v>
       </c>
       <c r="E278" t="s">
         <v>1484</v>
@@ -16043,7 +16070,7 @@
         <v>1095</v>
       </c>
       <c r="D279" t="s">
-        <v>2524</v>
+        <v>2501</v>
       </c>
       <c r="E279" t="s">
         <v>1485</v>
@@ -16052,7 +16079,7 @@
         <v>1880</v>
       </c>
       <c r="G279" t="s">
-        <v>2525</v>
+        <v>2502</v>
       </c>
       <c r="J279" t="s">
         <v>2009</v>
@@ -16081,7 +16108,7 @@
         <v>1881</v>
       </c>
       <c r="G280" t="s">
-        <v>2292</v>
+        <v>2279</v>
       </c>
       <c r="K280" t="s">
         <v>2009</v>
@@ -16101,7 +16128,7 @@
         <v>1097</v>
       </c>
       <c r="D281" t="s">
-        <v>2293</v>
+        <v>2280</v>
       </c>
       <c r="E281" t="s">
         <v>1487</v>
@@ -16110,7 +16137,7 @@
         <v>1882</v>
       </c>
       <c r="G281" t="s">
-        <v>2294</v>
+        <v>2281</v>
       </c>
       <c r="K281" t="s">
         <v>2009</v>
@@ -16130,7 +16157,7 @@
         <v>1098</v>
       </c>
       <c r="D282" t="s">
-        <v>2296</v>
+        <v>2283</v>
       </c>
       <c r="E282" t="s">
         <v>1488</v>
@@ -16156,7 +16183,7 @@
         <v>1099</v>
       </c>
       <c r="D283" t="s">
-        <v>2297</v>
+        <v>2284</v>
       </c>
       <c r="E283" t="s">
         <v>1489</v>
@@ -16182,7 +16209,7 @@
         <v>1100</v>
       </c>
       <c r="D284" t="s">
-        <v>2298</v>
+        <v>2285</v>
       </c>
       <c r="E284" t="s">
         <v>1490</v>
@@ -16191,7 +16218,7 @@
         <v>1885</v>
       </c>
       <c r="G284" t="s">
-        <v>2299</v>
+        <v>2286</v>
       </c>
       <c r="J284" t="s">
         <v>2009</v>
@@ -16211,7 +16238,7 @@
         <v>1101</v>
       </c>
       <c r="D285" t="s">
-        <v>2300</v>
+        <v>2287</v>
       </c>
       <c r="E285" t="s">
         <v>1491</v>
@@ -16220,7 +16247,7 @@
         <v>1886</v>
       </c>
       <c r="G285" t="s">
-        <v>2301</v>
+        <v>2288</v>
       </c>
       <c r="H285" t="s">
         <v>2009</v>
@@ -16243,7 +16270,7 @@
         <v>1102</v>
       </c>
       <c r="D286" t="s">
-        <v>2303</v>
+        <v>2290</v>
       </c>
       <c r="E286" t="s">
         <v>1492</v>
@@ -16292,7 +16319,7 @@
         <v>1104</v>
       </c>
       <c r="D288" t="s">
-        <v>2304</v>
+        <v>2291</v>
       </c>
       <c r="E288" t="s">
         <v>1494</v>
@@ -16301,7 +16328,7 @@
         <v>1889</v>
       </c>
       <c r="G288" t="s">
-        <v>2295</v>
+        <v>2282</v>
       </c>
       <c r="K288" t="s">
         <v>2009</v>
@@ -16321,7 +16348,7 @@
         <v>1105</v>
       </c>
       <c r="D289" t="s">
-        <v>2305</v>
+        <v>2292</v>
       </c>
       <c r="E289" t="s">
         <v>1495</v>
@@ -16330,7 +16357,7 @@
         <v>1890</v>
       </c>
       <c r="G289" t="s">
-        <v>2306</v>
+        <v>2293</v>
       </c>
       <c r="I289" t="s">
         <v>2009</v>
@@ -16359,7 +16386,7 @@
         <v>1891</v>
       </c>
       <c r="G290" t="s">
-        <v>2307</v>
+        <v>2294</v>
       </c>
       <c r="K290" t="s">
         <v>2009</v>
@@ -16379,7 +16406,7 @@
         <v>1107</v>
       </c>
       <c r="D291" t="s">
-        <v>2308</v>
+        <v>2295</v>
       </c>
       <c r="E291" t="s">
         <v>1497</v>
@@ -16405,7 +16432,7 @@
         <v>1108</v>
       </c>
       <c r="D292" t="s">
-        <v>2309</v>
+        <v>2296</v>
       </c>
       <c r="E292" t="s">
         <v>1498</v>
@@ -16414,7 +16441,7 @@
         <v>1893</v>
       </c>
       <c r="G292" t="s">
-        <v>2310</v>
+        <v>2297</v>
       </c>
       <c r="K292" t="s">
         <v>2009</v>
@@ -16434,7 +16461,7 @@
         <v>1109</v>
       </c>
       <c r="D293" t="s">
-        <v>2312</v>
+        <v>2299</v>
       </c>
       <c r="E293" t="s">
         <v>1499</v>
@@ -16460,7 +16487,7 @@
         <v>1110</v>
       </c>
       <c r="D294" t="s">
-        <v>2313</v>
+        <v>2300</v>
       </c>
       <c r="E294" t="s">
         <v>1500</v>
@@ -16469,7 +16496,7 @@
         <v>1895</v>
       </c>
       <c r="G294" t="s">
-        <v>2314</v>
+        <v>2301</v>
       </c>
       <c r="H294" t="s">
         <v>2009</v>
@@ -16492,7 +16519,7 @@
         <v>1111</v>
       </c>
       <c r="D295" t="s">
-        <v>2315</v>
+        <v>2534</v>
       </c>
       <c r="E295" t="s">
         <v>1501</v>
@@ -16501,7 +16528,7 @@
         <v>1896</v>
       </c>
       <c r="G295" t="s">
-        <v>2316</v>
+        <v>2535</v>
       </c>
       <c r="I295" t="s">
         <v>2009</v>
@@ -16533,7 +16560,7 @@
         <v>1897</v>
       </c>
       <c r="G296" t="s">
-        <v>2311</v>
+        <v>2298</v>
       </c>
       <c r="K296" t="s">
         <v>2009</v>
@@ -16562,7 +16589,7 @@
         <v>1898</v>
       </c>
       <c r="G297" t="s">
-        <v>2317</v>
+        <v>2302</v>
       </c>
       <c r="K297" t="s">
         <v>2009</v>
@@ -16591,7 +16618,7 @@
         <v>1899</v>
       </c>
       <c r="G298" t="s">
-        <v>2318</v>
+        <v>2303</v>
       </c>
       <c r="K298" t="s">
         <v>2009</v>
@@ -16609,7 +16636,7 @@
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s">
-        <v>2319</v>
+        <v>2304</v>
       </c>
       <c r="E299" t="s">
         <v>1505</v>
@@ -16618,7 +16645,7 @@
         <v>1900</v>
       </c>
       <c r="G299" t="s">
-        <v>2320</v>
+        <v>2305</v>
       </c>
       <c r="J299" t="s">
         <v>2009</v>
@@ -16638,7 +16665,7 @@
         <v>1115</v>
       </c>
       <c r="D300" t="s">
-        <v>2321</v>
+        <v>2306</v>
       </c>
       <c r="E300" t="s">
         <v>1506</v>
@@ -16647,7 +16674,7 @@
         <v>1901</v>
       </c>
       <c r="G300" t="s">
-        <v>2322</v>
+        <v>2307</v>
       </c>
       <c r="I300" t="s">
         <v>2009</v>
@@ -16668,13 +16695,13 @@
       </c>
       <c r="C301" s="2"/>
       <c r="D301" t="s">
-        <v>2323</v>
+        <v>2308</v>
       </c>
       <c r="E301" t="s">
         <v>1356</v>
       </c>
       <c r="G301" t="s">
-        <v>2324</v>
+        <v>2309</v>
       </c>
       <c r="J301" t="s">
         <v>2009</v>
@@ -16694,7 +16721,7 @@
         <v>1116</v>
       </c>
       <c r="D302" t="s">
-        <v>2325</v>
+        <v>2310</v>
       </c>
       <c r="E302" t="s">
         <v>1507</v>
@@ -16703,7 +16730,7 @@
         <v>1902</v>
       </c>
       <c r="G302" t="s">
-        <v>2326</v>
+        <v>2311</v>
       </c>
       <c r="H302" t="s">
         <v>2009</v>
@@ -16735,7 +16762,7 @@
         <v>1903</v>
       </c>
       <c r="G303" t="s">
-        <v>2327</v>
+        <v>2312</v>
       </c>
       <c r="K303" t="s">
         <v>2009</v>
@@ -16781,7 +16808,7 @@
         <v>1119</v>
       </c>
       <c r="D305" t="s">
-        <v>2526</v>
+        <v>2503</v>
       </c>
       <c r="E305" t="s">
         <v>1510</v>
@@ -16813,7 +16840,7 @@
         <v>1120</v>
       </c>
       <c r="D306" t="s">
-        <v>2328</v>
+        <v>2313</v>
       </c>
       <c r="E306" t="s">
         <v>1511</v>
@@ -16822,7 +16849,7 @@
         <v>1906</v>
       </c>
       <c r="G306" t="s">
-        <v>2329</v>
+        <v>2314</v>
       </c>
       <c r="K306" t="s">
         <v>2009</v>
@@ -16842,7 +16869,7 @@
         <v>1121</v>
       </c>
       <c r="D307" t="s">
-        <v>2330</v>
+        <v>2315</v>
       </c>
       <c r="E307" t="s">
         <v>1512</v>
@@ -16851,7 +16878,7 @@
         <v>1907</v>
       </c>
       <c r="G307" t="s">
-        <v>2331</v>
+        <v>2316</v>
       </c>
       <c r="K307" t="s">
         <v>2009</v>
@@ -16880,7 +16907,7 @@
         <v>1908</v>
       </c>
       <c r="G308" t="s">
-        <v>2332</v>
+        <v>2317</v>
       </c>
       <c r="K308" t="s">
         <v>2009</v>
@@ -16898,7 +16925,7 @@
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s">
-        <v>2334</v>
+        <v>2536</v>
       </c>
       <c r="E309" t="s">
         <v>1514</v>
@@ -16907,7 +16934,7 @@
         <v>1909</v>
       </c>
       <c r="G309" t="s">
-        <v>2333</v>
+        <v>2318</v>
       </c>
       <c r="I309" t="s">
         <v>2009</v>
@@ -16965,7 +16992,7 @@
         <v>1911</v>
       </c>
       <c r="G311" t="s">
-        <v>2335</v>
+        <v>2319</v>
       </c>
       <c r="K311" t="s">
         <v>2009</v>
@@ -16985,7 +17012,7 @@
         <v>1125</v>
       </c>
       <c r="D312" t="s">
-        <v>2336</v>
+        <v>2320</v>
       </c>
       <c r="E312" t="s">
         <v>1517</v>
@@ -16994,7 +17021,7 @@
         <v>1912</v>
       </c>
       <c r="G312" t="s">
-        <v>2337</v>
+        <v>2321</v>
       </c>
       <c r="K312" t="s">
         <v>2009</v>
@@ -17040,7 +17067,7 @@
         <v>1127</v>
       </c>
       <c r="D314" t="s">
-        <v>2338</v>
+        <v>2322</v>
       </c>
       <c r="E314" t="s">
         <v>1519</v>
@@ -17049,7 +17076,7 @@
         <v>1914</v>
       </c>
       <c r="G314" t="s">
-        <v>2457</v>
+        <v>2437</v>
       </c>
       <c r="H314" t="s">
         <v>2009</v>
@@ -17095,7 +17122,7 @@
         <v>1129</v>
       </c>
       <c r="D316" t="s">
-        <v>2339</v>
+        <v>2323</v>
       </c>
       <c r="E316" t="s">
         <v>1521</v>
@@ -17104,7 +17131,7 @@
         <v>1916</v>
       </c>
       <c r="G316" t="s">
-        <v>2340</v>
+        <v>2324</v>
       </c>
       <c r="H316" t="s">
         <v>2009</v>
@@ -17130,7 +17157,7 @@
         <v>1130</v>
       </c>
       <c r="D317" t="s">
-        <v>2341</v>
+        <v>2325</v>
       </c>
       <c r="E317" t="s">
         <v>1522</v>
@@ -17139,7 +17166,7 @@
         <v>1917</v>
       </c>
       <c r="G317" t="s">
-        <v>2342</v>
+        <v>2326</v>
       </c>
       <c r="K317" t="s">
         <v>2009</v>
@@ -17185,7 +17212,7 @@
         <v>1132</v>
       </c>
       <c r="D319" t="s">
-        <v>2343</v>
+        <v>2327</v>
       </c>
       <c r="E319" t="s">
         <v>1524</v>
@@ -17194,7 +17221,7 @@
         <v>1919</v>
       </c>
       <c r="G319" t="s">
-        <v>2344</v>
+        <v>2328</v>
       </c>
       <c r="H319" t="s">
         <v>2009</v>
@@ -17217,7 +17244,7 @@
         <v>1133</v>
       </c>
       <c r="D320" t="s">
-        <v>2527</v>
+        <v>2504</v>
       </c>
       <c r="E320" t="s">
         <v>1525</v>
@@ -17226,7 +17253,7 @@
         <v>1920</v>
       </c>
       <c r="G320" t="s">
-        <v>2528</v>
+        <v>2505</v>
       </c>
       <c r="K320" t="s">
         <v>2009</v>
@@ -17246,7 +17273,7 @@
         <v>1134</v>
       </c>
       <c r="D321" t="s">
-        <v>2345</v>
+        <v>2329</v>
       </c>
       <c r="E321" t="s">
         <v>1526</v>
@@ -17272,7 +17299,7 @@
         <v>1135</v>
       </c>
       <c r="D322" t="s">
-        <v>2346</v>
+        <v>2537</v>
       </c>
       <c r="E322" t="s">
         <v>1527</v>
@@ -17296,7 +17323,7 @@
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s">
-        <v>2347</v>
+        <v>2330</v>
       </c>
       <c r="E323" t="s">
         <v>1528</v>
@@ -17305,7 +17332,7 @@
         <v>1923</v>
       </c>
       <c r="G323" t="s">
-        <v>2348</v>
+        <v>2331</v>
       </c>
       <c r="I323" t="s">
         <v>2009</v>
@@ -17328,7 +17355,7 @@
         <v>1136</v>
       </c>
       <c r="D324" t="s">
-        <v>2529</v>
+        <v>2506</v>
       </c>
       <c r="E324" t="s">
         <v>1529</v>
@@ -17337,7 +17364,7 @@
         <v>1924</v>
       </c>
       <c r="G324" t="s">
-        <v>2349</v>
+        <v>2332</v>
       </c>
       <c r="H324" t="s">
         <v>2009</v>
@@ -17357,7 +17384,7 @@
         <v>1137</v>
       </c>
       <c r="D325" t="s">
-        <v>2350</v>
+        <v>2333</v>
       </c>
       <c r="E325" t="s">
         <v>1530</v>
@@ -17366,7 +17393,7 @@
         <v>1925</v>
       </c>
       <c r="G325" t="s">
-        <v>2351</v>
+        <v>2334</v>
       </c>
       <c r="K325" t="s">
         <v>2009</v>
@@ -17412,7 +17439,7 @@
         <v>983</v>
       </c>
       <c r="D327" t="s">
-        <v>2155</v>
+        <v>2146</v>
       </c>
       <c r="E327" t="s">
         <v>1532</v>
@@ -17421,7 +17448,7 @@
         <v>1762</v>
       </c>
       <c r="G327" t="s">
-        <v>2352</v>
+        <v>2335</v>
       </c>
       <c r="J327" t="s">
         <v>2009</v>
@@ -17444,7 +17471,7 @@
         <v>1139</v>
       </c>
       <c r="D328" t="s">
-        <v>2353</v>
+        <v>2336</v>
       </c>
       <c r="E328" t="s">
         <v>1533</v>
@@ -17453,7 +17480,7 @@
         <v>1927</v>
       </c>
       <c r="G328" t="s">
-        <v>2354</v>
+        <v>2337</v>
       </c>
       <c r="K328" t="s">
         <v>2009</v>
@@ -17482,7 +17509,7 @@
         <v>1928</v>
       </c>
       <c r="G329" t="s">
-        <v>2355</v>
+        <v>2338</v>
       </c>
       <c r="K329" t="s">
         <v>2009</v>
@@ -17502,7 +17529,7 @@
         <v>1141</v>
       </c>
       <c r="D330" t="s">
-        <v>2356</v>
+        <v>2339</v>
       </c>
       <c r="E330" t="s">
         <v>1535</v>
@@ -17528,7 +17555,7 @@
         <v>1020</v>
       </c>
       <c r="D331" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="E331" t="s">
         <v>1230</v>
@@ -17537,7 +17564,7 @@
         <v>1799</v>
       </c>
       <c r="G331" t="s">
-        <v>2195</v>
+        <v>2185</v>
       </c>
       <c r="H331" t="s">
         <v>2009</v>
@@ -17560,7 +17587,7 @@
         <v>1142</v>
       </c>
       <c r="D332" t="s">
-        <v>2530</v>
+        <v>2507</v>
       </c>
       <c r="E332" t="s">
         <v>1536</v>
@@ -17569,7 +17596,7 @@
         <v>1930</v>
       </c>
       <c r="G332" t="s">
-        <v>2357</v>
+        <v>2340</v>
       </c>
       <c r="H332" t="s">
         <v>2009</v>
@@ -17589,7 +17616,7 @@
         <v>1143</v>
       </c>
       <c r="D333" t="s">
-        <v>2358</v>
+        <v>2341</v>
       </c>
       <c r="E333" t="s">
         <v>1537</v>
@@ -17644,7 +17671,7 @@
         <v>1145</v>
       </c>
       <c r="D335" t="s">
-        <v>2531</v>
+        <v>2508</v>
       </c>
       <c r="E335" t="s">
         <v>1539</v>
@@ -17653,7 +17680,7 @@
         <v>1933</v>
       </c>
       <c r="G335" t="s">
-        <v>2458</v>
+        <v>2438</v>
       </c>
       <c r="H335" t="s">
         <v>2009</v>
@@ -17677,7 +17704,7 @@
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s">
-        <v>2359</v>
+        <v>2342</v>
       </c>
       <c r="E336" t="s">
         <v>1540</v>
@@ -17686,7 +17713,7 @@
         <v>1934</v>
       </c>
       <c r="G336" t="s">
-        <v>2360</v>
+        <v>2343</v>
       </c>
       <c r="I336" t="s">
         <v>2009</v>
@@ -17707,7 +17734,7 @@
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s">
-        <v>2362</v>
+        <v>2345</v>
       </c>
       <c r="E337" t="s">
         <v>1541</v>
@@ -17716,7 +17743,7 @@
         <v>1935</v>
       </c>
       <c r="G337" t="s">
-        <v>2361</v>
+        <v>2344</v>
       </c>
       <c r="J337" t="s">
         <v>2009</v>
@@ -17736,7 +17763,7 @@
         <v>1146</v>
       </c>
       <c r="D338" t="s">
-        <v>2363</v>
+        <v>2346</v>
       </c>
       <c r="E338" t="s">
         <v>1542</v>
@@ -17745,7 +17772,7 @@
         <v>1936</v>
       </c>
       <c r="G338" t="s">
-        <v>2364</v>
+        <v>2347</v>
       </c>
       <c r="K338" t="s">
         <v>2009</v>
@@ -17765,7 +17792,7 @@
         <v>1147</v>
       </c>
       <c r="D339" t="s">
-        <v>2365</v>
+        <v>2348</v>
       </c>
       <c r="E339" t="s">
         <v>1543</v>
@@ -17774,7 +17801,7 @@
         <v>1937</v>
       </c>
       <c r="G339" t="s">
-        <v>2366</v>
+        <v>2349</v>
       </c>
       <c r="K339" t="s">
         <v>2009</v>
@@ -17795,7 +17822,7 @@
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s">
-        <v>2532</v>
+        <v>2509</v>
       </c>
       <c r="E340" t="s">
         <v>1544</v>
@@ -17804,7 +17831,7 @@
         <v>1938</v>
       </c>
       <c r="G340" t="s">
-        <v>2367</v>
+        <v>2350</v>
       </c>
       <c r="J340" t="s">
         <v>2009</v>
@@ -17824,7 +17851,7 @@
         <v>1148</v>
       </c>
       <c r="D341" t="s">
-        <v>2368</v>
+        <v>2351</v>
       </c>
       <c r="E341" t="s">
         <v>1545</v>
@@ -17833,7 +17860,7 @@
         <v>1939</v>
       </c>
       <c r="G341" t="s">
-        <v>2369</v>
+        <v>2352</v>
       </c>
       <c r="K341" t="s">
         <v>2009</v>
@@ -17856,7 +17883,7 @@
         <v>1149</v>
       </c>
       <c r="D342" t="s">
-        <v>2370</v>
+        <v>2353</v>
       </c>
       <c r="E342" t="s">
         <v>1546</v>
@@ -17865,7 +17892,7 @@
         <v>1940</v>
       </c>
       <c r="G342" t="s">
-        <v>2371</v>
+        <v>2354</v>
       </c>
       <c r="I342" t="s">
         <v>2009</v>
@@ -17888,7 +17915,7 @@
         <v>1150</v>
       </c>
       <c r="D343" t="s">
-        <v>2372</v>
+        <v>2355</v>
       </c>
       <c r="E343" t="s">
         <v>1547</v>
@@ -17897,7 +17924,7 @@
         <v>1941</v>
       </c>
       <c r="G343" t="s">
-        <v>2373</v>
+        <v>2356</v>
       </c>
       <c r="K343" t="s">
         <v>2009</v>
@@ -17941,7 +17968,7 @@
       </c>
       <c r="C345" s="2"/>
       <c r="D345" t="s">
-        <v>2375</v>
+        <v>2358</v>
       </c>
       <c r="E345" t="s">
         <v>1549</v>
@@ -17950,7 +17977,7 @@
         <v>1943</v>
       </c>
       <c r="G345" t="s">
-        <v>2374</v>
+        <v>2357</v>
       </c>
       <c r="J345" t="s">
         <v>2009</v>
@@ -17970,7 +17997,7 @@
         <v>1152</v>
       </c>
       <c r="D346" t="s">
-        <v>2376</v>
+        <v>2359</v>
       </c>
       <c r="E346" t="s">
         <v>1550</v>
@@ -17979,7 +18006,7 @@
         <v>1944</v>
       </c>
       <c r="G346" t="s">
-        <v>2377</v>
+        <v>2360</v>
       </c>
       <c r="H346" t="s">
         <v>2009</v>
@@ -18000,7 +18027,7 @@
       </c>
       <c r="C347" s="2"/>
       <c r="D347" t="s">
-        <v>2378</v>
+        <v>2361</v>
       </c>
       <c r="E347" t="s">
         <v>1551</v>
@@ -18009,7 +18036,7 @@
         <v>1945</v>
       </c>
       <c r="G347" t="s">
-        <v>2379</v>
+        <v>2362</v>
       </c>
       <c r="J347" t="s">
         <v>2009</v>
@@ -18029,7 +18056,7 @@
         <v>1153</v>
       </c>
       <c r="D348" t="s">
-        <v>2380</v>
+        <v>2363</v>
       </c>
       <c r="E348" t="s">
         <v>1552</v>
@@ -18038,7 +18065,7 @@
         <v>1946</v>
       </c>
       <c r="G348" t="s">
-        <v>2381</v>
+        <v>2364</v>
       </c>
       <c r="I348" t="s">
         <v>2009</v>
@@ -18084,7 +18111,7 @@
         <v>1155</v>
       </c>
       <c r="D350" t="s">
-        <v>2382</v>
+        <v>2365</v>
       </c>
       <c r="E350" t="s">
         <v>1554</v>
@@ -18110,7 +18137,7 @@
         <v>1156</v>
       </c>
       <c r="D351" t="s">
-        <v>2383</v>
+        <v>2366</v>
       </c>
       <c r="E351" t="s">
         <v>1555</v>
@@ -18139,7 +18166,7 @@
         <v>1157</v>
       </c>
       <c r="D352" t="s">
-        <v>1157</v>
+        <v>2538</v>
       </c>
       <c r="E352" t="s">
         <v>1556</v>
@@ -18148,9 +18175,9 @@
         <v>1950</v>
       </c>
       <c r="G352" t="s">
-        <v>1950</v>
-      </c>
-      <c r="N352" t="s">
+        <v>2539</v>
+      </c>
+      <c r="M352" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -18165,7 +18192,7 @@
         <v>1158</v>
       </c>
       <c r="D353" t="s">
-        <v>2384</v>
+        <v>2367</v>
       </c>
       <c r="E353" t="s">
         <v>1557</v>
@@ -18174,7 +18201,7 @@
         <v>1951</v>
       </c>
       <c r="G353" t="s">
-        <v>2385</v>
+        <v>2368</v>
       </c>
       <c r="J353" t="s">
         <v>2009</v>
@@ -18194,7 +18221,7 @@
         <v>1159</v>
       </c>
       <c r="D354" t="s">
-        <v>2386</v>
+        <v>2369</v>
       </c>
       <c r="E354" t="s">
         <v>1558</v>
@@ -18218,7 +18245,7 @@
       </c>
       <c r="C355" s="2"/>
       <c r="D355" t="s">
-        <v>2387</v>
+        <v>2370</v>
       </c>
       <c r="E355" t="s">
         <v>1559</v>
@@ -18227,7 +18254,7 @@
         <v>1953</v>
       </c>
       <c r="G355" t="s">
-        <v>2388</v>
+        <v>2371</v>
       </c>
       <c r="I355" t="s">
         <v>2009</v>
@@ -18248,7 +18275,7 @@
       </c>
       <c r="C356" s="2"/>
       <c r="D356" t="s">
-        <v>2389</v>
+        <v>2372</v>
       </c>
       <c r="E356" t="s">
         <v>1560</v>
@@ -18257,7 +18284,7 @@
         <v>1954</v>
       </c>
       <c r="G356" t="s">
-        <v>2390</v>
+        <v>2373</v>
       </c>
       <c r="J356" t="s">
         <v>2009</v>
@@ -18329,7 +18356,7 @@
         <v>1162</v>
       </c>
       <c r="D359" t="s">
-        <v>2391</v>
+        <v>2374</v>
       </c>
       <c r="E359" t="s">
         <v>1563</v>
@@ -18355,7 +18382,7 @@
         <v>1163</v>
       </c>
       <c r="D360" t="s">
-        <v>2392</v>
+        <v>2375</v>
       </c>
       <c r="E360" t="s">
         <v>1564</v>
@@ -18364,7 +18391,7 @@
         <v>1958</v>
       </c>
       <c r="G360" t="s">
-        <v>2393</v>
+        <v>2376</v>
       </c>
       <c r="H360" t="s">
         <v>2009</v>
@@ -18384,7 +18411,7 @@
         <v>1164</v>
       </c>
       <c r="D361" t="s">
-        <v>2394</v>
+        <v>2377</v>
       </c>
       <c r="E361" t="s">
         <v>1565</v>
@@ -18393,7 +18420,7 @@
         <v>1959</v>
       </c>
       <c r="G361" t="s">
-        <v>2395</v>
+        <v>2378</v>
       </c>
       <c r="I361" t="s">
         <v>2009</v>
@@ -18413,7 +18440,7 @@
         <v>1165</v>
       </c>
       <c r="D362" t="s">
-        <v>2396</v>
+        <v>2379</v>
       </c>
       <c r="E362" t="s">
         <v>1566</v>
@@ -18422,7 +18449,7 @@
         <v>1960</v>
       </c>
       <c r="G362" t="s">
-        <v>2397</v>
+        <v>2380</v>
       </c>
       <c r="K362" t="s">
         <v>2009</v>
@@ -18445,7 +18472,7 @@
         <v>1166</v>
       </c>
       <c r="D363" t="s">
-        <v>2398</v>
+        <v>2381</v>
       </c>
       <c r="E363" t="s">
         <v>1567</v>
@@ -18471,7 +18498,7 @@
         <v>1167</v>
       </c>
       <c r="D364" t="s">
-        <v>2399</v>
+        <v>2382</v>
       </c>
       <c r="E364" t="s">
         <v>1568</v>
@@ -18480,7 +18507,7 @@
         <v>1962</v>
       </c>
       <c r="G364" t="s">
-        <v>2400</v>
+        <v>2383</v>
       </c>
       <c r="H364" t="s">
         <v>2009</v>
@@ -18526,7 +18553,7 @@
         <v>1169</v>
       </c>
       <c r="D366" t="s">
-        <v>2401</v>
+        <v>2384</v>
       </c>
       <c r="E366" t="s">
         <v>1570</v>
@@ -18552,7 +18579,7 @@
         <v>1170</v>
       </c>
       <c r="D367" t="s">
-        <v>2402</v>
+        <v>2385</v>
       </c>
       <c r="E367" t="s">
         <v>1571</v>
@@ -18604,7 +18631,7 @@
         <v>1172</v>
       </c>
       <c r="D369" t="s">
-        <v>2459</v>
+        <v>2514</v>
       </c>
       <c r="E369" t="s">
         <v>1573</v>
@@ -18613,15 +18640,15 @@
         <v>1967</v>
       </c>
       <c r="G369" t="s">
-        <v>2460</v>
+        <v>2515</v>
+      </c>
+      <c r="H369" t="s">
+        <v>2009</v>
       </c>
       <c r="K369" t="s">
         <v>2009</v>
       </c>
       <c r="L369" t="s">
-        <v>2009</v>
-      </c>
-      <c r="M369" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -18636,7 +18663,7 @@
         <v>1173</v>
       </c>
       <c r="D370" t="s">
-        <v>2403</v>
+        <v>2516</v>
       </c>
       <c r="E370" t="s">
         <v>1574</v>
@@ -18645,12 +18672,15 @@
         <v>1968</v>
       </c>
       <c r="G370" t="s">
-        <v>2404</v>
+        <v>2517</v>
       </c>
       <c r="I370" t="s">
         <v>2009</v>
       </c>
       <c r="J370" t="s">
+        <v>2009</v>
+      </c>
+      <c r="K370" t="s">
         <v>2009</v>
       </c>
       <c r="M370" t="s">
@@ -18668,7 +18698,7 @@
         <v>1174</v>
       </c>
       <c r="D371" t="s">
-        <v>2533</v>
+        <v>2510</v>
       </c>
       <c r="E371" t="s">
         <v>1575</v>
@@ -18781,7 +18811,7 @@
         <v>1973</v>
       </c>
       <c r="G375" t="s">
-        <v>2405</v>
+        <v>2386</v>
       </c>
       <c r="K375" t="s">
         <v>2009</v>
@@ -18879,7 +18909,7 @@
         <v>1182</v>
       </c>
       <c r="D379" t="s">
-        <v>2406</v>
+        <v>2387</v>
       </c>
       <c r="E379" t="s">
         <v>1583</v>
@@ -18888,7 +18918,7 @@
         <v>1977</v>
       </c>
       <c r="G379" t="s">
-        <v>2461</v>
+        <v>2439</v>
       </c>
       <c r="K379" t="s">
         <v>2009</v>
@@ -18908,7 +18938,7 @@
         <v>1183</v>
       </c>
       <c r="D380" t="s">
-        <v>2407</v>
+        <v>2388</v>
       </c>
       <c r="E380" t="s">
         <v>1584</v>
@@ -18917,7 +18947,7 @@
         <v>1978</v>
       </c>
       <c r="G380" t="s">
-        <v>2408</v>
+        <v>2389</v>
       </c>
       <c r="K380" t="s">
         <v>2009</v>
@@ -18946,7 +18976,7 @@
         <v>1979</v>
       </c>
       <c r="G381" t="s">
-        <v>2409</v>
+        <v>2390</v>
       </c>
       <c r="K381" t="s">
         <v>2009</v>
@@ -18966,7 +18996,7 @@
         <v>1185</v>
       </c>
       <c r="D382" t="s">
-        <v>2410</v>
+        <v>2391</v>
       </c>
       <c r="E382" t="s">
         <v>1586</v>
@@ -18975,7 +19005,7 @@
         <v>1980</v>
       </c>
       <c r="G382" t="s">
-        <v>2411</v>
+        <v>2392</v>
       </c>
       <c r="H382" t="s">
         <v>2009</v>
@@ -18995,7 +19025,7 @@
         <v>1186</v>
       </c>
       <c r="D383" t="s">
-        <v>2412</v>
+        <v>2393</v>
       </c>
       <c r="E383" t="s">
         <v>1587</v>
@@ -19021,7 +19051,7 @@
         <v>1187</v>
       </c>
       <c r="D384" t="s">
-        <v>2413</v>
+        <v>2394</v>
       </c>
       <c r="E384" t="s">
         <v>1588</v>
@@ -19030,7 +19060,7 @@
         <v>1982</v>
       </c>
       <c r="G384" t="s">
-        <v>2414</v>
+        <v>2395</v>
       </c>
       <c r="J384" t="s">
         <v>2009</v>
@@ -19056,7 +19086,7 @@
         <v>1188</v>
       </c>
       <c r="D385" t="s">
-        <v>2415</v>
+        <v>2396</v>
       </c>
       <c r="E385" t="s">
         <v>1589</v>
@@ -19065,7 +19095,7 @@
         <v>1983</v>
       </c>
       <c r="G385" t="s">
-        <v>2416</v>
+        <v>2397</v>
       </c>
       <c r="K385" t="s">
         <v>2009</v>
@@ -19137,7 +19167,7 @@
         <v>1191</v>
       </c>
       <c r="D388" t="s">
-        <v>2417</v>
+        <v>2398</v>
       </c>
       <c r="E388" t="s">
         <v>1592</v>
@@ -19163,7 +19193,7 @@
         <v>1192</v>
       </c>
       <c r="D389" t="s">
-        <v>2418</v>
+        <v>2399</v>
       </c>
       <c r="E389" t="s">
         <v>1593</v>
@@ -19172,7 +19202,7 @@
         <v>1987</v>
       </c>
       <c r="G389" t="s">
-        <v>2419</v>
+        <v>2400</v>
       </c>
       <c r="K389" t="s">
         <v>2009</v>
@@ -19192,7 +19222,7 @@
         <v>1193</v>
       </c>
       <c r="D390" t="s">
-        <v>2421</v>
+        <v>2402</v>
       </c>
       <c r="E390" t="s">
         <v>1594</v>
@@ -19201,7 +19231,7 @@
         <v>1988</v>
       </c>
       <c r="G390" t="s">
-        <v>2420</v>
+        <v>2401</v>
       </c>
       <c r="K390" t="s">
         <v>2009</v>
@@ -19230,7 +19260,7 @@
         <v>1989</v>
       </c>
       <c r="G391" t="s">
-        <v>2462</v>
+        <v>2440</v>
       </c>
       <c r="L391" t="s">
         <v>2009</v>
@@ -19247,7 +19277,7 @@
         <v>1195</v>
       </c>
       <c r="D392" t="s">
-        <v>2422</v>
+        <v>2403</v>
       </c>
       <c r="E392" t="s">
         <v>1596</v>
@@ -19273,7 +19303,7 @@
         <v>1196</v>
       </c>
       <c r="D393" t="s">
-        <v>2423</v>
+        <v>2404</v>
       </c>
       <c r="E393" t="s">
         <v>1597</v>
@@ -19282,7 +19312,7 @@
         <v>1991</v>
       </c>
       <c r="G393" t="s">
-        <v>2424</v>
+        <v>2405</v>
       </c>
       <c r="I393" t="s">
         <v>2009</v>
@@ -19311,7 +19341,7 @@
         <v>1992</v>
       </c>
       <c r="G394" t="s">
-        <v>2425</v>
+        <v>2406</v>
       </c>
       <c r="K394" t="s">
         <v>2009</v>
@@ -19366,7 +19396,7 @@
         <v>1994</v>
       </c>
       <c r="G396" t="s">
-        <v>2426</v>
+        <v>2407</v>
       </c>
       <c r="K396" t="s">
         <v>2009</v>
@@ -19384,7 +19414,7 @@
       </c>
       <c r="C397" s="2"/>
       <c r="D397" t="s">
-        <v>2427</v>
+        <v>2408</v>
       </c>
       <c r="E397" t="s">
         <v>1601</v>
@@ -19393,7 +19423,7 @@
         <v>1995</v>
       </c>
       <c r="G397" t="s">
-        <v>2428</v>
+        <v>2409</v>
       </c>
       <c r="J397" t="s">
         <v>2009</v>
@@ -19413,7 +19443,7 @@
         <v>1200</v>
       </c>
       <c r="D398" t="s">
-        <v>2429</v>
+        <v>2410</v>
       </c>
       <c r="E398" t="s">
         <v>1602</v>
@@ -19439,7 +19469,7 @@
         <v>1201</v>
       </c>
       <c r="D399" t="s">
-        <v>2430</v>
+        <v>2411</v>
       </c>
       <c r="E399" t="s">
         <v>1603</v>
@@ -19448,7 +19478,7 @@
         <v>1997</v>
       </c>
       <c r="G399" t="s">
-        <v>2431</v>
+        <v>2412</v>
       </c>
       <c r="K399" t="s">
         <v>2009</v>
@@ -19477,7 +19507,7 @@
         <v>1998</v>
       </c>
       <c r="G400" t="s">
-        <v>2432</v>
+        <v>2413</v>
       </c>
       <c r="K400" t="s">
         <v>2009</v>
@@ -19497,7 +19527,7 @@
         <v>1203</v>
       </c>
       <c r="D401" t="s">
-        <v>2433</v>
+        <v>2414</v>
       </c>
       <c r="E401" t="s">
         <v>1605</v>
@@ -19532,7 +19562,7 @@
         <v>2000</v>
       </c>
       <c r="G402" t="s">
-        <v>2434</v>
+        <v>2415</v>
       </c>
       <c r="K402" t="s">
         <v>2009</v>
@@ -19552,7 +19582,7 @@
         <v>1205</v>
       </c>
       <c r="D403" t="s">
-        <v>2534</v>
+        <v>2511</v>
       </c>
       <c r="E403" t="s">
         <v>1607</v>
@@ -19561,7 +19591,7 @@
         <v>2001</v>
       </c>
       <c r="G403" t="s">
-        <v>2435</v>
+        <v>2416</v>
       </c>
       <c r="K403" t="s">
         <v>2009</v>
@@ -19581,7 +19611,7 @@
         <v>1206</v>
       </c>
       <c r="D404" t="s">
-        <v>2436</v>
+        <v>2417</v>
       </c>
       <c r="E404" t="s">
         <v>1608</v>
@@ -19590,7 +19620,7 @@
         <v>2002</v>
       </c>
       <c r="G404" t="s">
-        <v>2437</v>
+        <v>2418</v>
       </c>
       <c r="K404" t="s">
         <v>2009</v>
@@ -19634,7 +19664,7 @@
       </c>
       <c r="C406" s="2"/>
       <c r="D406" t="s">
-        <v>2438</v>
+        <v>2419</v>
       </c>
       <c r="E406" t="s">
         <v>1610</v>
@@ -19643,7 +19673,7 @@
         <v>2004</v>
       </c>
       <c r="G406" t="s">
-        <v>2439</v>
+        <v>2420</v>
       </c>
       <c r="I406" t="s">
         <v>2009</v>
@@ -19666,7 +19696,7 @@
         <v>1208</v>
       </c>
       <c r="D407" t="s">
-        <v>2440</v>
+        <v>2421</v>
       </c>
       <c r="E407" t="s">
         <v>1611</v>
@@ -19692,7 +19722,7 @@
         <v>1209</v>
       </c>
       <c r="D408" t="s">
-        <v>2441</v>
+        <v>2422</v>
       </c>
       <c r="E408" t="s">
         <v>1612</v>
@@ -19716,7 +19746,7 @@
       </c>
       <c r="C409" s="2"/>
       <c r="D409" t="s">
-        <v>2443</v>
+        <v>2424</v>
       </c>
       <c r="E409" t="s">
         <v>1613</v>
@@ -19725,7 +19755,7 @@
         <v>2007</v>
       </c>
       <c r="G409" t="s">
-        <v>2442</v>
+        <v>2423</v>
       </c>
       <c r="J409" t="s">
         <v>2009</v>

--- a/Review files/qald9_train_set_review_table.xlsx
+++ b/Review files/qald9_train_set_review_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javi\Desktop\Work\QALD9ES\Repo\QALD9-ES\Review files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9E36F6-1B3C-4A43-9E54-73F16C12C918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717C7494-DCD7-4B0A-AC0C-988A7F1D2B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="60" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="2541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="2542">
   <si>
     <t>id</t>
   </si>
@@ -7661,6 +7661,9 @@
   </si>
   <si>
     <t>¿Cuál es el río más largo en el mundo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area 51 ,  localización,  Estados Unidos </t>
   </si>
 </sst>
 </file>
@@ -8086,10 +8089,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D196" sqref="D196"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8257,7 +8260,9 @@
       <c r="F5" s="3" t="s">
         <v>1617</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>2541</v>
+      </c>
       <c r="H5" t="s">
         <v>2009</v>
       </c>
